--- a/raw/time_tables/B.Tech 62 (btech-62)/3/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/3/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaurav.aggarwal\Desktop\20 Aug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\Time table Odd 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09792E9C-49B5-41AE-AE65-FAAF045E7AC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1D9167-8759-419F-9DF1-F58FA10AB01D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9225" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B.TECH III SEMESTER " sheetId="1" r:id="rId1"/>
@@ -1179,9 +1179,6 @@
     <t>PB3,B4(CI371)-CL01,02/SHP,DL,SRG</t>
   </si>
   <si>
-    <t>PB7,B8(B15CS215)-CL05,06/SVS,NET,TNV</t>
-  </si>
-  <si>
     <t>PB5,B6(B15CS215)-CL09,10/TNV,NET,KA</t>
   </si>
   <si>
@@ -1536,9 +1533,6 @@
     <t>PBG1,BG2(B15CS215)-CL10,CL11/SHB, PRV,SVS</t>
   </si>
   <si>
-    <t>PB3,B4(B15CS215)-CL13,14/PRV,TKT,SVS,JC</t>
-  </si>
-  <si>
     <t>PB1,B16(B15CS214)-CL05,06/NSA,PRK,PKU</t>
   </si>
   <si>
@@ -1600,6 +1594,12 @@
   </si>
   <si>
     <t>TB4(MA213)-TR305/HA</t>
+  </si>
+  <si>
+    <t>PB7,B8(B15CS215)-CL05,06/PTK,NET,TNV</t>
+  </si>
+  <si>
+    <t>PB3,B4(B15CS215)-CL13,14/PRV,TKT,JC</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1744,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1778,6 +1778,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,7 +1984,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2202,60 +2208,30 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2265,6 +2241,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2279,14 +2264,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2515,10 +2524,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="H114" sqref="H114:I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2529,7 +2538,7 @@
     <col min="4" max="4" width="56.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="17" style="4" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="41.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="67.42578125" style="4" customWidth="1"/>
     <col min="10" max="11" width="10.140625" style="4" customWidth="1"/>
@@ -2540,17 +2549,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="103"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2570,7 +2579,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="110" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2616,7 +2625,7 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="59" t="s">
         <v>10</v>
       </c>
@@ -2629,7 +2638,7 @@
       <c r="E3" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="114" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="59" t="s">
@@ -2662,7 +2671,7 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="59" t="s">
         <v>18</v>
       </c>
@@ -2675,7 +2684,7 @@
       <c r="E4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="106"/>
+      <c r="F4" s="98"/>
       <c r="H4" s="59" t="s">
         <v>22</v>
       </c>
@@ -2699,9 +2708,9 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="59" t="s">
         <v>23</v>
@@ -2712,7 +2721,7 @@
       <c r="E5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="59" t="s">
         <v>26</v>
       </c>
@@ -2741,7 +2750,7 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="59" t="s">
         <v>28</v>
       </c>
@@ -2749,18 +2758,18 @@
         <v>29</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E6" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="106"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="60"/>
       <c r="H6" s="59" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2781,20 +2790,20 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="59" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E7" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="106"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="59" t="s">
         <v>34</v>
       </c>
@@ -2802,7 +2811,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2823,7 +2832,7 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="59" t="s">
         <v>36</v>
       </c>
@@ -2831,12 +2840,12 @@
         <v>37</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E8" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="106"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="59" t="s">
         <v>39</v>
       </c>
@@ -2865,20 +2874,20 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>494</v>
-      </c>
-      <c r="F9" s="106"/>
+        <v>493</v>
+      </c>
+      <c r="F9" s="98"/>
       <c r="G9" s="59" t="s">
         <v>44</v>
       </c>
@@ -2907,9 +2916,9 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>47</v>
@@ -2918,9 +2927,9 @@
         <v>48</v>
       </c>
       <c r="E10" s="89" t="s">
-        <v>424</v>
-      </c>
-      <c r="F10" s="106"/>
+        <v>423</v>
+      </c>
+      <c r="F10" s="98"/>
       <c r="G10" s="59" t="s">
         <v>49</v>
       </c>
@@ -2947,7 +2956,7 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="62" t="s">
         <v>52</v>
       </c>
@@ -2960,9 +2969,9 @@
       <c r="E11" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="106"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="91" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H11" s="64" t="s">
         <v>73</v>
@@ -2989,20 +2998,20 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E12" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="106"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H12" s="59" t="s">
         <v>59</v>
@@ -3029,10 +3038,10 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="65"/>
       <c r="C13" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D13" s="63" t="s">
         <v>62</v>
@@ -3040,7 +3049,7 @@
       <c r="E13" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="106"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="64" t="s">
         <v>64</v>
       </c>
@@ -3067,22 +3076,22 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="62" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D14" s="63" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>438</v>
-      </c>
-      <c r="F14" s="106"/>
+        <v>437</v>
+      </c>
+      <c r="F14" s="98"/>
       <c r="G14" s="64" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H14" s="66"/>
       <c r="I14" s="59"/>
@@ -3105,7 +3114,7 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="62" t="s">
         <v>68</v>
       </c>
@@ -3118,7 +3127,7 @@
       <c r="E15" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="106"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="67" t="s">
         <v>72</v>
       </c>
@@ -3143,20 +3152,20 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="62" t="s">
         <v>365</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16" s="122"/>
+        <v>451</v>
+      </c>
+      <c r="F16" s="115"/>
       <c r="G16" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="63"/>
@@ -3179,19 +3188,19 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="90" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C17" s="65"/>
       <c r="E17" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="123" t="s">
-        <v>445</v>
-      </c>
-      <c r="H17" s="124"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="116" t="s">
+        <v>444</v>
+      </c>
+      <c r="H17" s="117"/>
       <c r="I17" s="59"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -3212,18 +3221,18 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="125" t="s">
+      <c r="A18" s="112"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="99" t="s">
+      <c r="E18" s="94"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="100"/>
+      <c r="H18" s="94"/>
       <c r="I18" s="66"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -3244,20 +3253,20 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="128" t="s">
+      <c r="A19" s="111"/>
+      <c r="B19" s="101" t="s">
         <v>383</v>
       </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="99" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="100"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="99" t="s">
-        <v>467</v>
-      </c>
-      <c r="H19" s="100"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="95" t="s">
+        <v>466</v>
+      </c>
+      <c r="H19" s="94"/>
       <c r="I19" s="66"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -3278,18 +3287,18 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="102" t="s">
+      <c r="A20" s="111"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="96" t="s">
         <v>374</v>
       </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="99" t="s">
+      <c r="E20" s="94"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="100"/>
+      <c r="H20" s="94"/>
       <c r="I20" s="66"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -3310,17 +3319,17 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="66"/>
       <c r="C21" s="60"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="106"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="60"/>
-      <c r="H21" s="99" t="s">
+      <c r="H21" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="100"/>
+      <c r="I21" s="94"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -3340,17 +3349,17 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
-      <c r="F22" s="106"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="66"/>
-      <c r="H22" s="99" t="s">
-        <v>390</v>
-      </c>
-      <c r="I22" s="100"/>
+      <c r="H22" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="I22" s="94"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -3370,17 +3379,17 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
-      <c r="F23" s="106"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="66"/>
-      <c r="H23" s="99" t="s">
+      <c r="H23" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="100"/>
+      <c r="I23" s="94"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -3400,17 +3409,17 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="66"/>
       <c r="C24" s="66"/>
       <c r="D24" s="66"/>
       <c r="E24" s="66"/>
-      <c r="F24" s="106"/>
+      <c r="F24" s="98"/>
       <c r="G24" s="66"/>
-      <c r="H24" s="99" t="s">
+      <c r="H24" s="95" t="s">
         <v>375</v>
       </c>
-      <c r="I24" s="100"/>
+      <c r="I24" s="94"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -3430,15 +3439,15 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66"/>
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
-      <c r="F25" s="106"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="66"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="94"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -3458,12 +3467,12 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
-      <c r="F26" s="107"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="59"/>
       <c r="H26" s="66"/>
       <c r="I26" s="66"/>
@@ -3486,15 +3495,15 @@
       <c r="Z26" s="8"/>
     </row>
     <row r="27" spans="1:26" s="42" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="117"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="119"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
@@ -3514,7 +3523,7 @@
       <c r="Z27" s="41"/>
     </row>
     <row r="28" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="110" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -3527,7 +3536,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="60"/>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="97" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="59" t="s">
@@ -3558,7 +3567,7 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="59" t="s">
         <v>87</v>
       </c>
@@ -3571,7 +3580,7 @@
       <c r="E29" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="94"/>
+      <c r="F29" s="130"/>
       <c r="G29" s="59" t="s">
         <v>18</v>
       </c>
@@ -3579,7 +3588,7 @@
         <v>20</v>
       </c>
       <c r="I29" s="59" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -3600,9 +3609,9 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C30" s="59" t="s">
         <v>91</v>
@@ -3613,9 +3622,9 @@
       <c r="E30" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="94"/>
+      <c r="F30" s="130"/>
       <c r="G30" s="59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H30" s="59" t="s">
         <v>24</v>
@@ -3642,7 +3651,7 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
+      <c r="A31" s="111"/>
       <c r="B31" s="59" t="s">
         <v>95</v>
       </c>
@@ -3655,12 +3664,12 @@
       <c r="E31" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="94"/>
+      <c r="F31" s="130"/>
       <c r="G31" s="59" t="s">
         <v>28</v>
       </c>
       <c r="H31" s="59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I31" s="59" t="s">
         <v>99</v>
@@ -3684,7 +3693,7 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
+      <c r="A32" s="111"/>
       <c r="B32" s="59" t="s">
         <v>100</v>
       </c>
@@ -3692,12 +3701,12 @@
         <v>101</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="F32" s="94"/>
+        <v>408</v>
+      </c>
+      <c r="F32" s="130"/>
       <c r="G32" s="59" t="s">
         <v>102</v>
       </c>
@@ -3705,7 +3714,7 @@
         <v>103</v>
       </c>
       <c r="I32" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -3726,7 +3735,7 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="59" t="s">
         <v>104</v>
       </c>
@@ -3739,7 +3748,7 @@
       <c r="E33" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="94"/>
+      <c r="F33" s="130"/>
       <c r="G33" s="59" t="s">
         <v>108</v>
       </c>
@@ -3768,10 +3777,10 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D34" s="59" t="s">
         <v>111</v>
@@ -3779,7 +3788,7 @@
       <c r="E34" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="94"/>
+      <c r="F34" s="130"/>
       <c r="G34" s="59" t="s">
         <v>113</v>
       </c>
@@ -3804,7 +3813,7 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="64" t="s">
         <v>114</v>
       </c>
@@ -3812,12 +3821,12 @@
         <v>115</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>478</v>
-      </c>
-      <c r="F35" s="94"/>
+        <v>477</v>
+      </c>
+      <c r="F35" s="130"/>
       <c r="G35" s="59" t="s">
         <v>116</v>
       </c>
@@ -3844,22 +3853,22 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="64" t="s">
         <v>118</v>
       </c>
       <c r="C36" s="59" t="s">
+        <v>481</v>
+      </c>
+      <c r="D36" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="E36" s="59" t="s">
         <v>483</v>
       </c>
-      <c r="E36" s="59" t="s">
-        <v>484</v>
-      </c>
-      <c r="F36" s="94"/>
+      <c r="F36" s="130"/>
       <c r="G36" s="59" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H36" s="59" t="s">
         <v>119</v>
@@ -3884,10 +3893,10 @@
       <c r="Z36" s="8"/>
     </row>
     <row r="37" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="97"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="60"/>
       <c r="C37" s="64" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D37" s="59" t="s">
         <v>121</v>
@@ -3895,7 +3904,7 @@
       <c r="E37" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="94"/>
+      <c r="F37" s="130"/>
       <c r="G37" s="64" t="s">
         <v>123</v>
       </c>
@@ -3924,23 +3933,23 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="60"/>
       <c r="C38" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D38" s="60"/>
       <c r="E38" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="94"/>
+      <c r="F38" s="130"/>
       <c r="G38" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="H38" s="99" t="s">
-        <v>392</v>
-      </c>
-      <c r="I38" s="100"/>
+        <v>462</v>
+      </c>
+      <c r="H38" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="I38" s="94"/>
       <c r="J38" s="7"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -3960,9 +3969,9 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="64" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C39" s="59" t="s">
         <v>366</v>
@@ -3973,14 +3982,14 @@
       <c r="E39" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="94"/>
+      <c r="F39" s="130"/>
       <c r="G39" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="H39" s="99" t="s">
+        <v>463</v>
+      </c>
+      <c r="H39" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="100"/>
+      <c r="I39" s="94"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -4000,7 +4009,7 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="64" t="s">
         <v>129</v>
       </c>
@@ -4011,14 +4020,14 @@
       <c r="E40" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="94"/>
+      <c r="F40" s="130"/>
       <c r="G40" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="H40" s="99" t="s">
+        <v>509</v>
+      </c>
+      <c r="H40" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="I40" s="100"/>
+      <c r="I40" s="94"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -4038,16 +4047,16 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="97"/>
+      <c r="A41" s="111"/>
       <c r="B41" s="64" t="s">
         <v>133</v>
       </c>
       <c r="C41" s="59"/>
       <c r="D41" s="66"/>
       <c r="E41" s="72" t="s">
-        <v>444</v>
-      </c>
-      <c r="F41" s="94"/>
+        <v>443</v>
+      </c>
+      <c r="F41" s="130"/>
       <c r="G41" s="64" t="s">
         <v>134</v>
       </c>
@@ -4072,21 +4081,21 @@
       <c r="Z41" s="8"/>
     </row>
     <row r="42" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="97"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="64" t="s">
         <v>135</v>
       </c>
       <c r="C42" s="66"/>
       <c r="D42" s="59"/>
       <c r="E42" s="66"/>
-      <c r="F42" s="94"/>
+      <c r="F42" s="130"/>
       <c r="G42" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="H42" s="99" t="s">
-        <v>458</v>
-      </c>
-      <c r="I42" s="100"/>
+      <c r="H42" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="I42" s="94"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -4106,23 +4115,23 @@
       <c r="Z42" s="8"/>
     </row>
     <row r="43" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="97"/>
-      <c r="B43" s="99" t="s">
+      <c r="A43" s="111"/>
+      <c r="B43" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="99" t="s">
+      <c r="C43" s="94"/>
+      <c r="D43" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="100"/>
-      <c r="F43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="130"/>
       <c r="G43" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="H43" s="99" t="s">
+      <c r="H43" s="95" t="s">
         <v>381</v>
       </c>
-      <c r="I43" s="100"/>
+      <c r="I43" s="94"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -4142,18 +4151,18 @@
       <c r="Z43" s="8"/>
     </row>
     <row r="44" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
-      <c r="B44" s="99" t="s">
+      <c r="A44" s="111"/>
+      <c r="B44" s="95" t="s">
         <v>376</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="99" t="s">
-        <v>391</v>
-      </c>
-      <c r="E44" s="100"/>
-      <c r="F44" s="94"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="100"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="95" t="s">
+        <v>390</v>
+      </c>
+      <c r="E44" s="94"/>
+      <c r="F44" s="130"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="94"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -4173,14 +4182,14 @@
       <c r="Z44" s="8"/>
     </row>
     <row r="45" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="104" t="s">
-        <v>385</v>
-      </c>
-      <c r="E45" s="112"/>
-      <c r="F45" s="94"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="93" t="s">
+        <v>384</v>
+      </c>
+      <c r="E45" s="103"/>
+      <c r="F45" s="130"/>
       <c r="G45" s="60"/>
       <c r="H45" s="66"/>
       <c r="I45" s="66"/>
@@ -4203,16 +4212,16 @@
       <c r="Z45" s="8"/>
     </row>
     <row r="46" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
-      <c r="B46" s="99" t="s">
+      <c r="A46" s="111"/>
+      <c r="B46" s="95" t="s">
         <v>363</v>
       </c>
-      <c r="C46" s="100"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="100"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="94"/>
       <c r="I46" s="71"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -4233,22 +4242,22 @@
       <c r="Z46" s="8"/>
     </row>
     <row r="47" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="98"/>
+      <c r="A47" s="113"/>
       <c r="B47" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="99" t="s">
+      <c r="C47" s="95" t="s">
         <v>369</v>
       </c>
-      <c r="D47" s="100"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="64" t="s">
-        <v>457</v>
-      </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="101" t="s">
+        <v>456</v>
+      </c>
+      <c r="F47" s="130"/>
+      <c r="G47" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="H47" s="100"/>
+      <c r="H47" s="94"/>
       <c r="I47" s="74"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -4270,17 +4279,17 @@
     </row>
     <row r="48" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="104" t="s">
-        <v>456</v>
-      </c>
-      <c r="C48" s="100"/>
+      <c r="B48" s="93" t="s">
+        <v>455</v>
+      </c>
+      <c r="C48" s="94"/>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="113" t="s">
-        <v>446</v>
-      </c>
-      <c r="H48" s="114"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="127" t="s">
+        <v>445</v>
+      </c>
+      <c r="H48" s="128"/>
       <c r="I48" s="74"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -4302,15 +4311,15 @@
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="100"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="66"/>
       <c r="E49" s="66"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="101" t="s">
+      <c r="F49" s="130"/>
+      <c r="G49" s="126" t="s">
         <v>370</v>
       </c>
-      <c r="H49" s="100"/>
+      <c r="H49" s="94"/>
       <c r="I49" s="71"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -4336,7 +4345,7 @@
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
-      <c r="F50" s="95"/>
+      <c r="F50" s="131"/>
       <c r="G50" s="71"/>
       <c r="H50" s="71"/>
       <c r="I50" s="71"/>
@@ -4359,15 +4368,15 @@
       <c r="Z50" s="8"/>
     </row>
     <row r="51" spans="1:26" s="46" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="109"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="111"/>
+      <c r="A51" s="123"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="125"/>
       <c r="J51" s="44"/>
       <c r="K51" s="44"/>
       <c r="L51" s="44"/>
@@ -4387,18 +4396,18 @@
       <c r="Z51" s="45"/>
     </row>
     <row r="52" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="96" t="s">
+      <c r="A52" s="110" t="s">
         <v>142</v>
       </c>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
       <c r="D52" s="75"/>
       <c r="E52" s="66"/>
-      <c r="F52" s="105" t="s">
+      <c r="F52" s="114" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="59" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H52" s="66"/>
       <c r="I52" s="72"/>
@@ -4421,20 +4430,20 @@
       <c r="Z52" s="8"/>
     </row>
     <row r="53" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="97"/>
+      <c r="A53" s="111"/>
       <c r="B53" s="64" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C53" s="89" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D53" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="59" t="s">
-        <v>455</v>
-      </c>
-      <c r="F53" s="106"/>
+        <v>454</v>
+      </c>
+      <c r="F53" s="98"/>
       <c r="G53" s="59" t="s">
         <v>83</v>
       </c>
@@ -4442,7 +4451,7 @@
         <v>143</v>
       </c>
       <c r="I53" s="59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -4463,9 +4472,9 @@
       <c r="Z53" s="8"/>
     </row>
     <row r="54" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="97"/>
+      <c r="A54" s="111"/>
       <c r="B54" s="59" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C54" s="59" t="s">
         <v>144</v>
@@ -4474,7 +4483,7 @@
         <v>19</v>
       </c>
       <c r="E54" s="60"/>
-      <c r="F54" s="106"/>
+      <c r="F54" s="98"/>
       <c r="G54" s="59" t="s">
         <v>88</v>
       </c>
@@ -4503,7 +4512,7 @@
       <c r="Z54" s="8"/>
     </row>
     <row r="55" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="97"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="59" t="s">
         <v>147</v>
       </c>
@@ -4516,15 +4525,15 @@
       <c r="E55" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="F55" s="106"/>
+      <c r="F55" s="98"/>
       <c r="G55" s="59" t="s">
         <v>91</v>
       </c>
       <c r="H55" s="90" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I55" s="59" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -4545,25 +4554,25 @@
       <c r="Z55" s="8"/>
     </row>
     <row r="56" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
+      <c r="A56" s="111"/>
       <c r="B56" s="59" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D56" s="59" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="59" t="s">
-        <v>388</v>
-      </c>
-      <c r="F56" s="106"/>
+        <v>387</v>
+      </c>
+      <c r="F56" s="98"/>
       <c r="G56" s="59" t="s">
         <v>150</v>
       </c>
       <c r="H56" s="59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I56" s="59" t="s">
         <v>151</v>
@@ -4587,7 +4596,7 @@
       <c r="Z56" s="8"/>
     </row>
     <row r="57" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="97"/>
+      <c r="A57" s="111"/>
       <c r="B57" s="59" t="s">
         <v>152</v>
       </c>
@@ -4595,20 +4604,20 @@
         <v>153</v>
       </c>
       <c r="D57" s="59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E57" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="F57" s="106"/>
+      <c r="F57" s="98"/>
       <c r="G57" s="59" t="s">
         <v>155</v>
       </c>
       <c r="H57" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I57" s="59" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -4629,25 +4638,25 @@
       <c r="Z57" s="8"/>
     </row>
     <row r="58" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="97"/>
+      <c r="A58" s="111"/>
       <c r="B58" s="59" t="s">
         <v>156</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D58" s="59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E58" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="106"/>
+      <c r="F58" s="98"/>
       <c r="G58" s="59" t="s">
         <v>158</v>
       </c>
       <c r="H58" s="59" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I58" s="59" t="s">
         <v>51</v>
@@ -4671,7 +4680,7 @@
       <c r="Z58" s="8"/>
     </row>
     <row r="59" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="97"/>
+      <c r="A59" s="111"/>
       <c r="B59" s="59" t="s">
         <v>159</v>
       </c>
@@ -4684,12 +4693,12 @@
       <c r="E59" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="F59" s="106"/>
+      <c r="F59" s="98"/>
       <c r="G59" s="59" t="s">
         <v>163</v>
       </c>
       <c r="H59" s="76" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I59" s="66"/>
       <c r="J59" s="7"/>
@@ -4711,7 +4720,7 @@
       <c r="Z59" s="8"/>
     </row>
     <row r="60" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="97"/>
+      <c r="A60" s="111"/>
       <c r="B60" s="59" t="s">
         <v>164</v>
       </c>
@@ -4724,12 +4733,12 @@
       <c r="E60" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="F60" s="106"/>
+      <c r="F60" s="98"/>
       <c r="G60" s="59" t="s">
         <v>168</v>
       </c>
       <c r="H60" s="59" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I60" s="77"/>
       <c r="J60" s="7"/>
@@ -4751,7 +4760,7 @@
       <c r="Z60" s="8"/>
     </row>
     <row r="61" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="97"/>
+      <c r="A61" s="111"/>
       <c r="B61" s="59" t="s">
         <v>169</v>
       </c>
@@ -4762,16 +4771,16 @@
         <v>171</v>
       </c>
       <c r="E61" s="59" t="s">
-        <v>413</v>
-      </c>
-      <c r="F61" s="106"/>
+        <v>412</v>
+      </c>
+      <c r="F61" s="98"/>
       <c r="G61" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="H61" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="I61" s="112"/>
+      <c r="H61" s="93" t="s">
+        <v>497</v>
+      </c>
+      <c r="I61" s="103"/>
       <c r="J61" s="12"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -4791,20 +4800,20 @@
       <c r="Z61" s="8"/>
     </row>
     <row r="62" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="97"/>
+      <c r="A62" s="111"/>
       <c r="B62" s="64" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D62" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="F62" s="106"/>
+      <c r="F62" s="98"/>
       <c r="G62" s="59"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="100"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="94"/>
       <c r="J62" s="12"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -4824,7 +4833,7 @@
       <c r="Z62" s="8"/>
     </row>
     <row r="63" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="97"/>
+      <c r="A63" s="111"/>
       <c r="B63" s="66"/>
       <c r="C63" s="78" t="s">
         <v>174</v>
@@ -4833,13 +4842,13 @@
         <v>175</v>
       </c>
       <c r="E63" s="59" t="s">
-        <v>434</v>
-      </c>
-      <c r="F63" s="106"/>
-      <c r="G63" s="99" t="s">
+        <v>433</v>
+      </c>
+      <c r="F63" s="98"/>
+      <c r="G63" s="95" t="s">
         <v>382</v>
       </c>
-      <c r="H63" s="100"/>
+      <c r="H63" s="94"/>
       <c r="I63" s="72"/>
       <c r="J63" s="12"/>
       <c r="K63" s="7"/>
@@ -4860,22 +4869,22 @@
       <c r="Z63" s="8"/>
     </row>
     <row r="64" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="97"/>
-      <c r="B64" s="104" t="s">
-        <v>496</v>
-      </c>
-      <c r="C64" s="112"/>
+      <c r="A64" s="111"/>
+      <c r="B64" s="93" t="s">
+        <v>495</v>
+      </c>
+      <c r="C64" s="103"/>
       <c r="D64" s="59" t="s">
         <v>176</v>
       </c>
       <c r="E64" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="106"/>
-      <c r="G64" s="99" t="s">
+      <c r="F64" s="98"/>
+      <c r="G64" s="95" t="s">
         <v>372</v>
       </c>
-      <c r="H64" s="100"/>
+      <c r="H64" s="94"/>
       <c r="I64" s="72"/>
       <c r="J64" s="12"/>
       <c r="K64" s="7"/>
@@ -4896,20 +4905,20 @@
       <c r="Z64" s="8"/>
     </row>
     <row r="65" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="97"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="100"/>
+      <c r="A65" s="111"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="94"/>
       <c r="D65" s="59" t="s">
         <v>178</v>
       </c>
       <c r="E65" s="59" t="s">
-        <v>450</v>
-      </c>
-      <c r="F65" s="106"/>
-      <c r="G65" s="99" t="s">
-        <v>507</v>
-      </c>
-      <c r="H65" s="100"/>
+        <v>449</v>
+      </c>
+      <c r="F65" s="98"/>
+      <c r="G65" s="95" t="s">
+        <v>505</v>
+      </c>
+      <c r="H65" s="94"/>
       <c r="I65" s="72"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -4930,19 +4939,19 @@
       <c r="Z65" s="8"/>
     </row>
     <row r="66" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="97"/>
-      <c r="B66" s="99" t="s">
+      <c r="A66" s="111"/>
+      <c r="B66" s="95" t="s">
         <v>373</v>
       </c>
-      <c r="C66" s="100"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="59" t="s">
         <v>179</v>
       </c>
       <c r="E66" s="60"/>
-      <c r="F66" s="106"/>
+      <c r="F66" s="98"/>
       <c r="G66" s="60"/>
       <c r="H66" s="59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I66" s="72"/>
       <c r="J66" s="7"/>
@@ -4964,18 +4973,18 @@
       <c r="Z66" s="8"/>
     </row>
     <row r="67" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="97"/>
-      <c r="B67" s="99"/>
-      <c r="C67" s="100"/>
+      <c r="A67" s="111"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="94"/>
       <c r="D67" s="59" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E67" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="F67" s="106"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="100"/>
+        <v>401</v>
+      </c>
+      <c r="F67" s="98"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="94"/>
       <c r="I67" s="72"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -4996,18 +5005,18 @@
       <c r="Z67" s="8"/>
     </row>
     <row r="68" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="97"/>
-      <c r="B68" s="99" t="s">
+      <c r="A68" s="111"/>
+      <c r="B68" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="100"/>
-      <c r="D68" s="99" t="s">
+      <c r="C68" s="94"/>
+      <c r="D68" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="100"/>
-      <c r="F68" s="106"/>
-      <c r="G68" s="108"/>
-      <c r="H68" s="100"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="129"/>
+      <c r="H68" s="94"/>
       <c r="I68" s="66"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -5028,18 +5037,18 @@
       <c r="Z68" s="8"/>
     </row>
     <row r="69" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="97"/>
-      <c r="B69" s="99" t="s">
+      <c r="A69" s="111"/>
+      <c r="B69" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="C69" s="94"/>
+      <c r="D69" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C69" s="100"/>
-      <c r="D69" s="99" t="s">
-        <v>394</v>
-      </c>
-      <c r="E69" s="100"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="100"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="129"/>
+      <c r="H69" s="94"/>
       <c r="I69" s="66"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -5060,14 +5069,14 @@
       <c r="Z69" s="8"/>
     </row>
     <row r="70" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="97"/>
+      <c r="A70" s="111"/>
       <c r="B70" s="66"/>
       <c r="C70" s="66"/>
       <c r="D70" s="66"/>
       <c r="E70" s="66"/>
-      <c r="F70" s="106"/>
-      <c r="G70" s="108"/>
-      <c r="H70" s="100"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="129"/>
+      <c r="H70" s="94"/>
       <c r="I70" s="66"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -5088,17 +5097,17 @@
       <c r="Z70" s="8"/>
     </row>
     <row r="71" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="97"/>
+      <c r="A71" s="111"/>
       <c r="B71" s="66"/>
       <c r="C71" s="66"/>
       <c r="D71" s="73"/>
       <c r="E71" s="73"/>
-      <c r="F71" s="106"/>
+      <c r="F71" s="98"/>
       <c r="G71" s="80"/>
-      <c r="H71" s="99" t="s">
+      <c r="H71" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="I71" s="100"/>
+      <c r="I71" s="94"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="7"/>
@@ -5118,17 +5127,17 @@
       <c r="Z71" s="8"/>
     </row>
     <row r="72" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="97"/>
-      <c r="B72" s="102"/>
-      <c r="C72" s="100"/>
+      <c r="A72" s="111"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="72"/>
       <c r="E72" s="72"/>
-      <c r="F72" s="106"/>
+      <c r="F72" s="98"/>
       <c r="G72" s="72"/>
-      <c r="H72" s="99" t="s">
+      <c r="H72" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="I72" s="100"/>
+      <c r="I72" s="94"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="7"/>
@@ -5148,17 +5157,17 @@
       <c r="Z72" s="8"/>
     </row>
     <row r="73" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="97"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="72"/>
       <c r="C73" s="72"/>
       <c r="D73" s="72"/>
       <c r="E73" s="72"/>
-      <c r="F73" s="106"/>
+      <c r="F73" s="98"/>
       <c r="G73" s="72"/>
-      <c r="H73" s="99" t="s">
-        <v>396</v>
-      </c>
-      <c r="I73" s="100"/>
+      <c r="H73" s="95" t="s">
+        <v>395</v>
+      </c>
+      <c r="I73" s="94"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
@@ -5178,12 +5187,12 @@
       <c r="Z73" s="8"/>
     </row>
     <row r="74" spans="1:26" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="97"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="72"/>
       <c r="C74" s="72"/>
       <c r="D74" s="72"/>
       <c r="E74" s="72"/>
-      <c r="F74" s="106"/>
+      <c r="F74" s="98"/>
       <c r="G74" s="72"/>
       <c r="H74" s="72"/>
       <c r="I74" s="72"/>
@@ -5206,17 +5215,17 @@
       <c r="Z74" s="8"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="98"/>
+      <c r="A75" s="113"/>
       <c r="B75" s="72"/>
       <c r="C75" s="72"/>
       <c r="D75" s="72"/>
       <c r="E75" s="72"/>
-      <c r="F75" s="107"/>
+      <c r="F75" s="99"/>
       <c r="G75" s="72"/>
-      <c r="H75" s="99" t="s">
+      <c r="H75" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="I75" s="100"/>
+      <c r="I75" s="94"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -5264,11 +5273,11 @@
       <c r="Z76" s="52"/>
     </row>
     <row r="77" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="103" t="s">
+      <c r="A77" s="121" t="s">
         <v>185</v>
       </c>
       <c r="B77" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C77" s="59" t="s">
         <v>186</v>
@@ -5279,7 +5288,7 @@
       <c r="E77" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F77" s="93" t="s">
+      <c r="F77" s="97" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="59" t="s">
@@ -5289,7 +5298,7 @@
         <v>82</v>
       </c>
       <c r="I77" s="59" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -5310,20 +5319,20 @@
       <c r="Z77" s="8"/>
     </row>
     <row r="78" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="97"/>
+      <c r="A78" s="111"/>
       <c r="B78" s="90" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C78" s="59" t="s">
         <v>89</v>
       </c>
       <c r="D78" s="59" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E78" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="F78" s="106"/>
+      <c r="F78" s="98"/>
       <c r="G78" s="59" t="s">
         <v>90</v>
       </c>
@@ -5331,7 +5340,7 @@
         <v>87</v>
       </c>
       <c r="I78" s="81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -5352,7 +5361,7 @@
       <c r="Z78" s="8"/>
     </row>
     <row r="79" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="97"/>
+      <c r="A79" s="111"/>
       <c r="B79" s="59"/>
       <c r="C79" s="59" t="s">
         <v>187</v>
@@ -5363,15 +5372,15 @@
       <c r="E79" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="F79" s="106"/>
+      <c r="F79" s="98"/>
       <c r="G79" s="59" t="s">
         <v>93</v>
       </c>
       <c r="H79" s="59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I79" s="88" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -5392,7 +5401,7 @@
       <c r="Z79" s="8"/>
     </row>
     <row r="80" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="97"/>
+      <c r="A80" s="111"/>
       <c r="B80" s="59" t="s">
         <v>188</v>
       </c>
@@ -5405,7 +5414,7 @@
       <c r="E80" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="F80" s="106"/>
+      <c r="F80" s="98"/>
       <c r="G80" s="59" t="s">
         <v>98</v>
       </c>
@@ -5434,7 +5443,7 @@
       <c r="Z80" s="8"/>
     </row>
     <row r="81" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="97"/>
+      <c r="A81" s="111"/>
       <c r="B81" s="59" t="s">
         <v>191</v>
       </c>
@@ -5447,9 +5456,9 @@
       <c r="E81" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="F81" s="106"/>
+      <c r="F81" s="98"/>
       <c r="G81" s="59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I81" s="59"/>
       <c r="J81" s="7"/>
@@ -5471,7 +5480,7 @@
       <c r="Z81" s="8"/>
     </row>
     <row r="82" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="97"/>
+      <c r="A82" s="111"/>
       <c r="B82" s="59" t="s">
         <v>194</v>
       </c>
@@ -5479,12 +5488,12 @@
         <v>195</v>
       </c>
       <c r="D82" s="59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E82" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="F82" s="106"/>
+      <c r="F82" s="98"/>
       <c r="H82" s="64" t="s">
         <v>196</v>
       </c>
@@ -5508,12 +5517,12 @@
       <c r="Z82" s="8"/>
     </row>
     <row r="83" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="97"/>
+      <c r="A83" s="111"/>
       <c r="B83" s="59" t="s">
         <v>197</v>
       </c>
       <c r="C83" s="59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D83" s="59" t="s">
         <v>198</v>
@@ -5521,7 +5530,7 @@
       <c r="E83" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="F83" s="106"/>
+      <c r="F83" s="98"/>
       <c r="G83" s="64" t="s">
         <v>200</v>
       </c>
@@ -5546,17 +5555,17 @@
       <c r="Z83" s="8"/>
     </row>
     <row r="84" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="97"/>
+      <c r="A84" s="111"/>
       <c r="B84" s="59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D84" s="59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E84" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F84" s="106"/>
+      <c r="F84" s="98"/>
       <c r="G84" s="64" t="s">
         <v>202</v>
       </c>
@@ -5583,23 +5592,23 @@
       <c r="Z84" s="8"/>
     </row>
     <row r="85" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="97"/>
+      <c r="A85" s="111"/>
       <c r="B85" s="66"/>
       <c r="C85" s="59" t="s">
         <v>204</v>
       </c>
       <c r="D85" s="59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E85" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="F85" s="106"/>
+      <c r="F85" s="98"/>
       <c r="G85" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H85" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I85" s="83"/>
       <c r="J85" s="7"/>
@@ -5621,23 +5630,23 @@
       <c r="Z85" s="8"/>
     </row>
     <row r="86" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="97"/>
+      <c r="A86" s="111"/>
       <c r="B86" s="59"/>
       <c r="C86" s="59" t="s">
         <v>206</v>
       </c>
       <c r="D86" s="59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E86" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="F86" s="106"/>
+      <c r="F86" s="98"/>
       <c r="G86" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H86" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I86" s="72"/>
       <c r="J86" s="7"/>
@@ -5659,18 +5668,18 @@
       <c r="Z86" s="8"/>
     </row>
     <row r="87" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="97"/>
-      <c r="B87" s="101" t="s">
+      <c r="A87" s="111"/>
+      <c r="B87" s="126" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="100"/>
+      <c r="C87" s="94"/>
       <c r="D87" s="59" t="s">
         <v>209</v>
       </c>
       <c r="E87" s="72" t="s">
-        <v>443</v>
-      </c>
-      <c r="F87" s="106"/>
+        <v>442</v>
+      </c>
+      <c r="F87" s="98"/>
       <c r="G87" s="64" t="s">
         <v>210</v>
       </c>
@@ -5695,25 +5704,25 @@
       <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="97"/>
-      <c r="B88" s="101" t="s">
-        <v>447</v>
-      </c>
-      <c r="C88" s="100"/>
+      <c r="A88" s="111"/>
+      <c r="B88" s="126" t="s">
+        <v>446</v>
+      </c>
+      <c r="C88" s="94"/>
       <c r="D88" s="59" t="s">
         <v>213</v>
       </c>
       <c r="E88" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="106"/>
+      <c r="F88" s="98"/>
       <c r="G88" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="H88" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="I88" s="100"/>
+      <c r="H88" s="93" t="s">
+        <v>523</v>
+      </c>
+      <c r="I88" s="94"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -5733,18 +5742,18 @@
       <c r="Z88" s="8"/>
     </row>
     <row r="89" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="97"/>
-      <c r="B89" s="101" t="s">
+      <c r="A89" s="111"/>
+      <c r="B89" s="126" t="s">
         <v>371</v>
       </c>
-      <c r="C89" s="100"/>
+      <c r="C89" s="94"/>
       <c r="E89" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="F89" s="106"/>
+      <c r="F89" s="98"/>
       <c r="G89" s="60"/>
-      <c r="H89" s="99"/>
-      <c r="I89" s="100"/>
+      <c r="H89" s="95"/>
+      <c r="I89" s="94"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -5764,20 +5773,20 @@
       <c r="Z89" s="8"/>
     </row>
     <row r="90" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="97"/>
-      <c r="B90" s="102"/>
-      <c r="C90" s="100"/>
+      <c r="A90" s="111"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="94"/>
       <c r="D90" s="84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F90" s="106"/>
-      <c r="G90" s="99" t="s">
+        <v>504</v>
+      </c>
+      <c r="F90" s="98"/>
+      <c r="G90" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="H90" s="100"/>
+      <c r="H90" s="94"/>
       <c r="I90" s="72"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -5798,18 +5807,18 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="97"/>
-      <c r="B91" s="99" t="s">
+      <c r="A91" s="111"/>
+      <c r="B91" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="C91" s="100"/>
+      <c r="C91" s="94"/>
       <c r="D91" s="59"/>
       <c r="E91" s="66"/>
-      <c r="F91" s="106"/>
-      <c r="G91" s="99" t="s">
+      <c r="F91" s="98"/>
+      <c r="G91" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="H91" s="100"/>
+      <c r="H91" s="94"/>
       <c r="I91" s="72"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -5830,18 +5839,18 @@
       <c r="Z91" s="8"/>
     </row>
     <row r="92" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="97"/>
-      <c r="B92" s="99" t="s">
+      <c r="A92" s="111"/>
+      <c r="B92" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="C92" s="100"/>
+      <c r="C92" s="94"/>
       <c r="D92" s="82"/>
       <c r="E92" s="66"/>
-      <c r="F92" s="106"/>
-      <c r="G92" s="99" t="s">
+      <c r="F92" s="98"/>
+      <c r="G92" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="H92" s="100"/>
+      <c r="H92" s="94"/>
       <c r="I92" s="72"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -5862,20 +5871,20 @@
       <c r="Z92" s="8"/>
     </row>
     <row r="93" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="97"/>
-      <c r="B93" s="104" t="s">
-        <v>461</v>
-      </c>
-      <c r="C93" s="100"/>
-      <c r="D93" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="E93" s="100"/>
-      <c r="F93" s="106"/>
-      <c r="G93" s="99" t="s">
+      <c r="A93" s="111"/>
+      <c r="B93" s="93" t="s">
+        <v>460</v>
+      </c>
+      <c r="C93" s="94"/>
+      <c r="D93" s="93" t="s">
+        <v>413</v>
+      </c>
+      <c r="E93" s="94"/>
+      <c r="F93" s="98"/>
+      <c r="G93" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="H93" s="100"/>
+      <c r="H93" s="94"/>
       <c r="I93" s="72"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -5896,17 +5905,17 @@
       <c r="Z93" s="8"/>
     </row>
     <row r="94" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="97"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="100"/>
-      <c r="D94" s="99"/>
-      <c r="E94" s="100"/>
-      <c r="F94" s="106"/>
+      <c r="A94" s="111"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="95"/>
+      <c r="E94" s="94"/>
+      <c r="F94" s="98"/>
       <c r="G94" s="66"/>
-      <c r="H94" s="99" t="s">
+      <c r="H94" s="95" t="s">
         <v>377</v>
       </c>
-      <c r="I94" s="100"/>
+      <c r="I94" s="94"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -5926,17 +5935,17 @@
       <c r="Z94" s="8"/>
     </row>
     <row r="95" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="97"/>
+      <c r="A95" s="111"/>
       <c r="B95" s="72"/>
       <c r="C95" s="59" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D95" s="72"/>
       <c r="E95" s="66"/>
-      <c r="F95" s="106"/>
+      <c r="F95" s="98"/>
       <c r="G95" s="66"/>
-      <c r="H95" s="99"/>
-      <c r="I95" s="100"/>
+      <c r="H95" s="95"/>
+      <c r="I95" s="94"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -5956,17 +5965,17 @@
       <c r="Z95" s="8"/>
     </row>
     <row r="96" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="97"/>
+      <c r="A96" s="111"/>
       <c r="B96" s="72"/>
       <c r="C96" s="72"/>
       <c r="D96" s="72"/>
       <c r="E96" s="72"/>
-      <c r="F96" s="106"/>
+      <c r="F96" s="98"/>
       <c r="G96" s="66"/>
-      <c r="H96" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="I96" s="100"/>
+      <c r="H96" s="95" t="s">
+        <v>465</v>
+      </c>
+      <c r="I96" s="94"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -5986,15 +5995,15 @@
       <c r="Z96" s="8"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="97"/>
+      <c r="A97" s="111"/>
       <c r="B97" s="72"/>
       <c r="C97" s="72"/>
       <c r="D97" s="72"/>
       <c r="E97" s="72"/>
-      <c r="F97" s="106"/>
+      <c r="F97" s="98"/>
       <c r="G97" s="72"/>
-      <c r="H97" s="99"/>
-      <c r="I97" s="100"/>
+      <c r="H97" s="95"/>
+      <c r="I97" s="94"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -6014,12 +6023,12 @@
       <c r="Z97" s="8"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="98"/>
+      <c r="A98" s="113"/>
       <c r="B98" s="72"/>
       <c r="C98" s="72"/>
       <c r="D98" s="72"/>
       <c r="E98" s="72"/>
-      <c r="F98" s="107"/>
+      <c r="F98" s="99"/>
       <c r="G98" s="85"/>
       <c r="H98" s="66"/>
       <c r="I98" s="66"/>
@@ -6070,7 +6079,7 @@
       <c r="Z99" s="45"/>
     </row>
     <row r="100" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="96" t="s">
+      <c r="A100" s="110" t="s">
         <v>221</v>
       </c>
       <c r="B100" s="59" t="s">
@@ -6085,17 +6094,17 @@
       <c r="E100" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="F100" s="93" t="s">
+      <c r="F100" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="130" t="s">
+      <c r="G100" s="100" t="s">
         <v>224</v>
       </c>
       <c r="H100" s="59" t="s">
         <v>225</v>
       </c>
       <c r="I100" s="64" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -6116,7 +6125,7 @@
       <c r="Z100" s="8"/>
     </row>
     <row r="101" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="97"/>
+      <c r="A101" s="111"/>
       <c r="B101" s="59" t="s">
         <v>89</v>
       </c>
@@ -6129,8 +6138,8 @@
       <c r="E101" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="106"/>
-      <c r="G101" s="106"/>
+      <c r="F101" s="98"/>
+      <c r="G101" s="98"/>
       <c r="H101" s="72" t="s">
         <v>228</v>
       </c>
@@ -6156,12 +6165,12 @@
       <c r="Z101" s="8"/>
     </row>
     <row r="102" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="97"/>
+      <c r="A102" s="111"/>
       <c r="B102" s="59" t="s">
         <v>187</v>
       </c>
       <c r="C102" s="59" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D102" s="59" t="s">
         <v>230</v>
@@ -6169,8 +6178,8 @@
       <c r="E102" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="F102" s="106"/>
-      <c r="G102" s="106"/>
+      <c r="F102" s="98"/>
+      <c r="G102" s="98"/>
       <c r="I102" s="60"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -6191,21 +6200,21 @@
       <c r="Z102" s="8"/>
     </row>
     <row r="103" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="97"/>
+      <c r="A103" s="111"/>
       <c r="B103" s="59" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C103" s="59" t="s">
         <v>231</v>
       </c>
       <c r="D103" s="59" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E103" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="F103" s="106"/>
-      <c r="G103" s="106"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="98"/>
       <c r="H103" s="59" t="s">
         <v>232</v>
       </c>
@@ -6229,21 +6238,18 @@
       <c r="Z103" s="8"/>
     </row>
     <row r="104" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="97"/>
+      <c r="A104" s="111"/>
       <c r="B104" s="90" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C104" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="D104" s="59" t="s">
-        <v>234</v>
-      </c>
       <c r="E104" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="F104" s="106"/>
-      <c r="G104" s="106"/>
+        <v>408</v>
+      </c>
+      <c r="F104" s="98"/>
+      <c r="G104" s="98"/>
       <c r="H104" s="59" t="s">
         <v>235</v>
       </c>
@@ -6267,23 +6273,23 @@
       <c r="Z104" s="8"/>
     </row>
     <row r="105" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="97"/>
+      <c r="A105" s="111"/>
       <c r="B105" s="59" t="s">
         <v>236</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D105" s="59" t="s">
         <v>237</v>
       </c>
       <c r="E105" s="59" t="s">
-        <v>427</v>
-      </c>
-      <c r="F105" s="106"/>
-      <c r="G105" s="106"/>
+        <v>426</v>
+      </c>
+      <c r="F105" s="98"/>
+      <c r="G105" s="98"/>
       <c r="H105" s="64" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I105" s="72"/>
       <c r="J105" s="7"/>
@@ -6305,21 +6311,21 @@
       <c r="Z105" s="8"/>
     </row>
     <row r="106" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="97"/>
+      <c r="A106" s="111"/>
       <c r="B106" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="C106" s="59" t="s">
         <v>397</v>
-      </c>
-      <c r="C106" s="59" t="s">
-        <v>398</v>
       </c>
       <c r="D106" s="59" t="s">
         <v>238</v>
       </c>
       <c r="E106" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="F106" s="106"/>
-      <c r="G106" s="106"/>
+        <v>452</v>
+      </c>
+      <c r="F106" s="98"/>
+      <c r="G106" s="98"/>
       <c r="H106" s="60"/>
       <c r="I106" s="66"/>
       <c r="J106" s="7"/>
@@ -6341,19 +6347,21 @@
       <c r="Z106" s="8"/>
     </row>
     <row r="107" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="97"/>
+      <c r="A107" s="111"/>
       <c r="B107" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="C107" s="82"/>
+      <c r="C107" s="132" t="s">
+        <v>234</v>
+      </c>
       <c r="D107" s="59" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E107" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="F107" s="106"/>
-      <c r="G107" s="106"/>
+      <c r="F107" s="98"/>
+      <c r="G107" s="98"/>
       <c r="H107" s="64" t="s">
         <v>367</v>
       </c>
@@ -6377,21 +6385,21 @@
       <c r="Z107" s="8"/>
     </row>
     <row r="108" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="97"/>
+      <c r="A108" s="111"/>
       <c r="B108" s="61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C108" s="67" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D108" s="59" t="s">
         <v>241</v>
       </c>
       <c r="E108" s="59" t="s">
-        <v>489</v>
-      </c>
-      <c r="F108" s="106"/>
-      <c r="G108" s="106"/>
+        <v>488</v>
+      </c>
+      <c r="F108" s="98"/>
+      <c r="G108" s="98"/>
       <c r="H108" s="64" t="s">
         <v>242</v>
       </c>
@@ -6415,9 +6423,9 @@
       <c r="Z108" s="8"/>
     </row>
     <row r="109" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="115"/>
+      <c r="A109" s="112"/>
       <c r="B109" s="59" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C109" s="58"/>
       <c r="D109" s="63" t="s">
@@ -6426,8 +6434,8 @@
       <c r="E109" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="F109" s="106"/>
-      <c r="G109" s="106"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="98"/>
       <c r="H109" s="64" t="s">
         <v>245</v>
       </c>
@@ -6451,23 +6459,23 @@
       <c r="Z109" s="8"/>
     </row>
     <row r="110" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="97"/>
-      <c r="B110" s="128" t="s">
-        <v>415</v>
-      </c>
-      <c r="C110" s="129"/>
+      <c r="A110" s="111"/>
+      <c r="B110" s="101" t="s">
+        <v>414</v>
+      </c>
+      <c r="C110" s="102"/>
       <c r="D110" s="59" t="s">
         <v>246</v>
       </c>
       <c r="E110" s="59" t="s">
-        <v>441</v>
-      </c>
-      <c r="F110" s="106"/>
-      <c r="G110" s="106"/>
-      <c r="H110" s="104" t="s">
-        <v>465</v>
-      </c>
-      <c r="I110" s="100"/>
+        <v>440</v>
+      </c>
+      <c r="F110" s="98"/>
+      <c r="G110" s="98"/>
+      <c r="H110" s="93" t="s">
+        <v>464</v>
+      </c>
+      <c r="I110" s="94"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -6487,23 +6495,23 @@
       <c r="Z110" s="8"/>
     </row>
     <row r="111" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="97"/>
-      <c r="B111" s="104" t="s">
-        <v>504</v>
-      </c>
-      <c r="C111" s="100"/>
+      <c r="A111" s="111"/>
+      <c r="B111" s="93" t="s">
+        <v>502</v>
+      </c>
+      <c r="C111" s="94"/>
       <c r="D111" s="90" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E111" s="59" t="s">
-        <v>433</v>
-      </c>
-      <c r="F111" s="106"/>
-      <c r="G111" s="106"/>
-      <c r="H111" s="104" t="s">
-        <v>501</v>
-      </c>
-      <c r="I111" s="100"/>
+        <v>432</v>
+      </c>
+      <c r="F111" s="98"/>
+      <c r="G111" s="98"/>
+      <c r="H111" s="93" t="s">
+        <v>500</v>
+      </c>
+      <c r="I111" s="94"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
@@ -6523,21 +6531,21 @@
       <c r="Z111" s="8"/>
     </row>
     <row r="112" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="97"/>
-      <c r="B112" s="99"/>
-      <c r="C112" s="100"/>
+      <c r="A112" s="111"/>
+      <c r="B112" s="95"/>
+      <c r="C112" s="94"/>
       <c r="D112" s="59" t="s">
         <v>247</v>
       </c>
       <c r="E112" s="59" t="s">
-        <v>448</v>
-      </c>
-      <c r="F112" s="106"/>
-      <c r="G112" s="106"/>
-      <c r="H112" s="104" t="s">
-        <v>503</v>
-      </c>
-      <c r="I112" s="100"/>
+        <v>447</v>
+      </c>
+      <c r="F112" s="98"/>
+      <c r="G112" s="98"/>
+      <c r="H112" s="93" t="s">
+        <v>524</v>
+      </c>
+      <c r="I112" s="94"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
@@ -6557,21 +6565,21 @@
       <c r="Z112" s="8"/>
     </row>
     <row r="113" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="97"/>
-      <c r="B113" s="99" t="s">
+      <c r="A113" s="111"/>
+      <c r="B113" s="95" t="s">
         <v>378</v>
       </c>
-      <c r="C113" s="100"/>
+      <c r="C113" s="94"/>
       <c r="D113" s="59" t="s">
         <v>368</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F113" s="106"/>
-      <c r="G113" s="106"/>
-      <c r="H113" s="99"/>
-      <c r="I113" s="100"/>
+        <v>503</v>
+      </c>
+      <c r="F113" s="98"/>
+      <c r="G113" s="98"/>
+      <c r="H113" s="95"/>
+      <c r="I113" s="94"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
@@ -6591,21 +6599,21 @@
       <c r="Z113" s="8"/>
     </row>
     <row r="114" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="97"/>
-      <c r="B114" s="99"/>
-      <c r="C114" s="100"/>
+      <c r="A114" s="111"/>
+      <c r="B114" s="95"/>
+      <c r="C114" s="94"/>
       <c r="D114" s="59" t="s">
         <v>248</v>
       </c>
       <c r="E114" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="F114" s="106"/>
-      <c r="G114" s="106"/>
-      <c r="H114" s="99" t="s">
+      <c r="F114" s="98"/>
+      <c r="G114" s="98"/>
+      <c r="H114" s="95" t="s">
         <v>379</v>
       </c>
-      <c r="I114" s="100"/>
+      <c r="I114" s="94"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
@@ -6625,19 +6633,19 @@
       <c r="Z114" s="8"/>
     </row>
     <row r="115" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="97"/>
-      <c r="B115" s="99" t="s">
+      <c r="A115" s="111"/>
+      <c r="B115" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="C115" s="100"/>
+      <c r="C115" s="94"/>
       <c r="D115" s="86"/>
       <c r="E115" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="F115" s="106"/>
-      <c r="G115" s="106"/>
-      <c r="H115" s="99"/>
-      <c r="I115" s="100"/>
+      <c r="F115" s="98"/>
+      <c r="G115" s="98"/>
+      <c r="H115" s="95"/>
+      <c r="I115" s="94"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="7"/>
@@ -6657,19 +6665,19 @@
       <c r="Z115" s="8"/>
     </row>
     <row r="116" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="97"/>
-      <c r="B116" s="99" t="s">
+      <c r="A116" s="111"/>
+      <c r="B116" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="C116" s="100"/>
+      <c r="C116" s="94"/>
       <c r="D116" s="82"/>
       <c r="E116" s="66"/>
-      <c r="F116" s="106"/>
-      <c r="G116" s="106"/>
-      <c r="H116" s="99" t="s">
+      <c r="F116" s="98"/>
+      <c r="G116" s="98"/>
+      <c r="H116" s="95" t="s">
         <v>380</v>
       </c>
-      <c r="I116" s="100"/>
+      <c r="I116" s="94"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="7"/>
@@ -6689,17 +6697,17 @@
       <c r="Z116" s="8"/>
     </row>
     <row r="117" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="97"/>
-      <c r="B117" s="99" t="s">
+      <c r="A117" s="111"/>
+      <c r="B117" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="C117" s="100"/>
+      <c r="C117" s="94"/>
       <c r="D117" s="66"/>
       <c r="E117" s="72"/>
-      <c r="F117" s="106"/>
-      <c r="G117" s="106"/>
-      <c r="H117" s="99"/>
-      <c r="I117" s="100"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="98"/>
+      <c r="H117" s="95"/>
+      <c r="I117" s="94"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="7"/>
@@ -6719,17 +6727,17 @@
       <c r="Z117" s="8"/>
     </row>
     <row r="118" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="97"/>
-      <c r="B118" s="102"/>
-      <c r="C118" s="100"/>
+      <c r="A118" s="111"/>
+      <c r="B118" s="96"/>
+      <c r="C118" s="94"/>
       <c r="D118" s="66"/>
       <c r="E118" s="72"/>
-      <c r="F118" s="106"/>
-      <c r="G118" s="106"/>
-      <c r="H118" s="99" t="s">
+      <c r="F118" s="98"/>
+      <c r="G118" s="98"/>
+      <c r="H118" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="I118" s="100"/>
+      <c r="I118" s="94"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="7"/>
@@ -6749,18 +6757,18 @@
       <c r="Z118" s="8"/>
     </row>
     <row r="119" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="97"/>
-      <c r="C119" s="104" t="s">
-        <v>500</v>
-      </c>
-      <c r="D119" s="100"/>
+      <c r="A119" s="111"/>
+      <c r="C119" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="D119" s="94"/>
       <c r="E119" s="72"/>
-      <c r="F119" s="106"/>
-      <c r="G119" s="107"/>
-      <c r="H119" s="99" t="s">
+      <c r="F119" s="98"/>
+      <c r="G119" s="99"/>
+      <c r="H119" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="I119" s="100"/>
+      <c r="I119" s="94"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
@@ -6780,16 +6788,16 @@
       <c r="Z119" s="8"/>
     </row>
     <row r="120" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="98"/>
+      <c r="A120" s="113"/>
       <c r="B120" s="72"/>
-      <c r="C120" s="99"/>
-      <c r="D120" s="100"/>
+      <c r="C120" s="95"/>
+      <c r="D120" s="94"/>
       <c r="E120" s="72"/>
-      <c r="F120" s="107"/>
-      <c r="G120" s="99" t="s">
+      <c r="F120" s="99"/>
+      <c r="G120" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="H120" s="131"/>
+      <c r="H120" s="104"/>
       <c r="I120" s="74"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -6866,7 +6874,7 @@
       <c r="Z122" s="45"/>
     </row>
     <row r="123" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="96" t="s">
+      <c r="A123" s="110" t="s">
         <v>257</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -6876,9 +6884,9 @@
         <v>259</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F123" s="103" t="s">
+        <v>474</v>
+      </c>
+      <c r="F123" s="121" t="s">
         <v>13</v>
       </c>
       <c r="G123" s="11"/>
@@ -6903,7 +6911,7 @@
       <c r="Z123" s="8"/>
     </row>
     <row r="124" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="97"/>
+      <c r="A124" s="111"/>
       <c r="B124" s="54"/>
       <c r="C124" s="43" t="s">
         <v>227</v>
@@ -6911,7 +6919,7 @@
       <c r="E124" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="F124" s="97"/>
+      <c r="F124" s="111"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
       <c r="I124" s="17"/>
@@ -6934,14 +6942,14 @@
       <c r="Z124" s="8"/>
     </row>
     <row r="125" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="97"/>
+      <c r="A125" s="111"/>
       <c r="B125" s="72"/>
       <c r="C125" s="60"/>
       <c r="D125" s="59" t="s">
         <v>261</v>
       </c>
       <c r="E125" s="60"/>
-      <c r="F125" s="97"/>
+      <c r="F125" s="111"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
       <c r="I125" s="17"/>
@@ -6964,16 +6972,16 @@
       <c r="Z125" s="8"/>
     </row>
     <row r="126" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="97"/>
+      <c r="A126" s="111"/>
       <c r="B126" s="72" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C126" s="59" t="s">
         <v>234</v>
       </c>
       <c r="D126" s="60"/>
       <c r="E126" s="66"/>
-      <c r="F126" s="97"/>
+      <c r="F126" s="111"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
       <c r="I126" s="15"/>
@@ -6996,7 +7004,7 @@
       <c r="Z126" s="8"/>
     </row>
     <row r="127" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="97"/>
+      <c r="A127" s="111"/>
       <c r="B127" s="72"/>
       <c r="C127" s="59" t="s">
         <v>237</v>
@@ -7005,7 +7013,7 @@
         <v>264</v>
       </c>
       <c r="E127" s="66"/>
-      <c r="F127" s="97"/>
+      <c r="F127" s="111"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
       <c r="I127" s="15"/>
@@ -7028,12 +7036,12 @@
       <c r="Z127" s="8"/>
     </row>
     <row r="128" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="97"/>
+      <c r="A128" s="111"/>
       <c r="B128" s="72"/>
       <c r="C128" s="60"/>
       <c r="D128" s="65"/>
       <c r="E128" s="69"/>
-      <c r="F128" s="97"/>
+      <c r="F128" s="111"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11"/>
@@ -7056,14 +7064,14 @@
       <c r="Z128" s="8"/>
     </row>
     <row r="129" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="97"/>
+      <c r="A129" s="111"/>
       <c r="B129" s="59"/>
       <c r="C129" s="84" t="s">
         <v>263</v>
       </c>
       <c r="D129" s="65"/>
       <c r="E129" s="87"/>
-      <c r="F129" s="97"/>
+      <c r="F129" s="111"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
       <c r="I129" s="11"/>
@@ -7086,16 +7094,16 @@
       <c r="Z129" s="8"/>
     </row>
     <row r="130" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="97"/>
-      <c r="B130" s="99" t="s">
-        <v>416</v>
-      </c>
-      <c r="C130" s="100"/>
-      <c r="D130" s="116" t="s">
-        <v>502</v>
-      </c>
-      <c r="E130" s="100"/>
-      <c r="F130" s="97"/>
+      <c r="A130" s="111"/>
+      <c r="B130" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="C130" s="94"/>
+      <c r="D130" s="122" t="s">
+        <v>501</v>
+      </c>
+      <c r="E130" s="94"/>
+      <c r="F130" s="111"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="11"/>
@@ -7118,12 +7126,12 @@
       <c r="Z130" s="8"/>
     </row>
     <row r="131" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="97"/>
-      <c r="B131" s="99"/>
-      <c r="C131" s="100"/>
-      <c r="D131" s="99"/>
-      <c r="E131" s="100"/>
-      <c r="F131" s="97"/>
+      <c r="A131" s="111"/>
+      <c r="B131" s="95"/>
+      <c r="C131" s="94"/>
+      <c r="D131" s="95"/>
+      <c r="E131" s="94"/>
+      <c r="F131" s="111"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
       <c r="I131" s="11"/>
@@ -7146,16 +7154,16 @@
       <c r="Z131" s="8"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="97"/>
-      <c r="B132" s="99" t="s">
+      <c r="A132" s="111"/>
+      <c r="B132" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="C132" s="100"/>
-      <c r="D132" s="99" t="s">
+      <c r="C132" s="94"/>
+      <c r="D132" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="E132" s="100"/>
-      <c r="F132" s="97"/>
+      <c r="E132" s="94"/>
+      <c r="F132" s="111"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
@@ -7178,16 +7186,16 @@
       <c r="Z132" s="8"/>
     </row>
     <row r="133" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="97"/>
-      <c r="B133" s="99" t="s">
+      <c r="A133" s="111"/>
+      <c r="B133" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="C133" s="100"/>
-      <c r="D133" s="99" t="s">
-        <v>399</v>
-      </c>
-      <c r="E133" s="100"/>
-      <c r="F133" s="97"/>
+      <c r="C133" s="94"/>
+      <c r="D133" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E133" s="94"/>
+      <c r="F133" s="111"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7210,16 +7218,16 @@
       <c r="Z133" s="8"/>
     </row>
     <row r="134" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="97"/>
-      <c r="B134" s="99" t="s">
+      <c r="A134" s="111"/>
+      <c r="B134" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="C134" s="100"/>
-      <c r="D134" s="99" t="s">
+      <c r="C134" s="94"/>
+      <c r="D134" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="E134" s="100"/>
-      <c r="F134" s="98"/>
+      <c r="E134" s="94"/>
+      <c r="F134" s="113"/>
       <c r="G134" s="15"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
@@ -7242,11 +7250,11 @@
       <c r="Z134" s="8"/>
     </row>
     <row r="135" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="97"/>
-      <c r="B135" s="99" t="s">
-        <v>508</v>
-      </c>
-      <c r="C135" s="100"/>
+      <c r="A135" s="111"/>
+      <c r="B135" s="95" t="s">
+        <v>506</v>
+      </c>
+      <c r="C135" s="94"/>
       <c r="D135" s="73"/>
       <c r="E135" s="73"/>
       <c r="F135" s="10"/>
@@ -7272,9 +7280,9 @@
       <c r="Z135" s="8"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="98"/>
-      <c r="B136" s="104"/>
-      <c r="C136" s="112"/>
+      <c r="A136" s="113"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="103"/>
       <c r="D136" s="11"/>
       <c r="E136" s="15"/>
       <c r="F136" s="13"/>
@@ -7300,15 +7308,15 @@
       <c r="Z136" s="8"/>
     </row>
     <row r="137" spans="1:26" s="46" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="109"/>
-      <c r="B137" s="110"/>
-      <c r="C137" s="110"/>
-      <c r="D137" s="110"/>
-      <c r="E137" s="110"/>
-      <c r="F137" s="110"/>
-      <c r="G137" s="110"/>
-      <c r="H137" s="110"/>
-      <c r="I137" s="111"/>
+      <c r="A137" s="123"/>
+      <c r="B137" s="124"/>
+      <c r="C137" s="124"/>
+      <c r="D137" s="124"/>
+      <c r="E137" s="124"/>
+      <c r="F137" s="124"/>
+      <c r="G137" s="124"/>
+      <c r="H137" s="124"/>
+      <c r="I137" s="125"/>
       <c r="J137" s="45"/>
       <c r="K137" s="44"/>
       <c r="L137" s="44"/>
@@ -31691,23 +31699,95 @@
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="F28:F50"/>
+    <mergeCell ref="A28:A47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:A75"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A77:A98"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="F52:F75"/>
+    <mergeCell ref="F77:F98"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="A100:A120"/>
+    <mergeCell ref="A123:A136"/>
+    <mergeCell ref="F123:F134"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="F3:F26"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="F100:F120"/>
@@ -31732,95 +31812,23 @@
     <mergeCell ref="G120:H120"/>
     <mergeCell ref="H110:I110"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="F3:F26"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A100:A120"/>
-    <mergeCell ref="A123:A136"/>
-    <mergeCell ref="F123:F134"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="F52:F75"/>
-    <mergeCell ref="F77:F98"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A77:A98"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="F28:F50"/>
-    <mergeCell ref="A28:A47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A52:A75"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.35433070866141736" top="0.74803149606299213" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/3/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/3/1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\Time table Odd 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amit.mishra\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1D9167-8759-419F-9DF1-F58FA10AB01D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DC9614-5796-4F4E-8D25-A96C25FC3489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B.TECH III SEMESTER " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="528">
   <si>
     <t>B.TECH III SEMESTER -ODD 2025</t>
   </si>
@@ -1116,9 +1116,6 @@
     <t>Economics</t>
   </si>
   <si>
-    <t>PB7(CI371)-CL04/ANP, DSI</t>
-  </si>
-  <si>
     <t>TB3(CI311)-TS7/DSI</t>
   </si>
   <si>
@@ -1134,18 +1131,12 @@
     <t>TB11(CI311)-TS11/VRN</t>
   </si>
   <si>
-    <t>PB8(CI371)-CL05/RJM,SRG</t>
-  </si>
-  <si>
     <t>PC2(BT373)-BT2&amp;3/SMO, SOC, MAS, MOB, SBT</t>
   </si>
   <si>
     <t>PC3(BT373)-BT2&amp;3/SMO, SOC, MAS, MOB, SBT</t>
   </si>
   <si>
-    <t>PG2,PB16(CI371)-CL06,07/RJM, VRN</t>
-  </si>
-  <si>
     <t>PB1,B2(CI371)-CL13,14/ VRN, ANP,DL</t>
   </si>
   <si>
@@ -1164,9 +1155,6 @@
     <t>PB2,B6(B15CS214)-CL09,10/PSO,DEP,AMS</t>
   </si>
   <si>
-    <t>PB7,B8(B15CS214)-CL09,10/AMK,PSO,PRK</t>
-  </si>
-  <si>
     <t>PB9,B10(B15CS213)-CL07,12/ SON,IMR,DCH</t>
   </si>
   <si>
@@ -1179,9 +1167,6 @@
     <t>PB3,B4(CI371)-CL01,02/SHP,DL,SRG</t>
   </si>
   <si>
-    <t>PB5,B6(B15CS215)-CL09,10/TNV,NET,KA</t>
-  </si>
-  <si>
     <t>LB1,2(CS213)-FF8/PAR</t>
   </si>
   <si>
@@ -1407,9 +1392,6 @@
     <t>TB14(CI311)-TR305/DSI</t>
   </si>
   <si>
-    <t>PB3,B4(B15CS214)-CL05,06/NSA,PSO,PRK</t>
-  </si>
-  <si>
     <t>TG2(CI312)-TR307/DEP</t>
   </si>
   <si>
@@ -1533,9 +1515,6 @@
     <t>PBG1,BG2(B15CS215)-CL10,CL11/SHB, PRV,SVS</t>
   </si>
   <si>
-    <t>PB1,B16(B15CS214)-CL05,06/NSA,PRK,PKU</t>
-  </si>
-  <si>
     <t>LB3,4(CS214)-G7/PKU</t>
   </si>
   <si>
@@ -1600,6 +1579,36 @@
   </si>
   <si>
     <t>PB3,B4(B15CS215)-CL13,14/PRV,TKT,JC</t>
+  </si>
+  <si>
+    <t>L(EC211)-TS14/JMN</t>
+  </si>
+  <si>
+    <t>P(17EC271)-ADE/JMN</t>
+  </si>
+  <si>
+    <t>T(EC211)-TS14/JMN</t>
+  </si>
+  <si>
+    <t>PB5,B6(B15CS215)-CL09,10/PRV,NET,KA</t>
+  </si>
+  <si>
+    <t>PG2,PB16(CI371)-CL06,07/RJM, VRN,TNV</t>
+  </si>
+  <si>
+    <t>PB7,B8(B15CS214)-CL17,18/AMK,PSO,PRK</t>
+  </si>
+  <si>
+    <t>PB7(CI371)-CL04/ANP, SRG</t>
+  </si>
+  <si>
+    <t>PB8(CI371)-CL05/RJM,TNV</t>
+  </si>
+  <si>
+    <t>PB3,B4(B15CS214)-CL05,06/PSO,PRK</t>
+  </si>
+  <si>
+    <t>PB1,B16(B15CS214)-CL05,06/PRK,PKU</t>
   </si>
 </sst>
 </file>
@@ -1777,13 +1786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1984,7 +1993,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2018,9 +2027,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2119,7 +2125,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
@@ -2129,7 +2134,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2205,9 +2209,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2215,9 +2229,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2226,10 +2248,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2264,20 +2286,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2292,9 +2321,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2523,11 +2549,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H114" sqref="H114:I114"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2549,17 +2575,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="108"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2579,7 +2605,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2625,29 +2651,29 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="56" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="7"/>
@@ -2671,24 +2697,24 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="116"/>
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="98"/>
-      <c r="H4" s="59" t="s">
+      <c r="F4" s="103"/>
+      <c r="H4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="59"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2708,28 +2734,28 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="59" t="s">
-        <v>424</v>
-      </c>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="116"/>
+      <c r="B5" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="98"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="103"/>
+      <c r="G5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="59" t="s">
-        <v>364</v>
+      <c r="I5" s="56" t="s">
+        <v>363</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2750,26 +2776,26 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="116"/>
+      <c r="B6" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>475</v>
-      </c>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="E6" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="59" t="s">
+      <c r="F6" s="103"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="59" t="s">
-        <v>399</v>
+      <c r="I6" s="56" t="s">
+        <v>394</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2790,28 +2816,28 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>476</v>
-      </c>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>470</v>
+      </c>
+      <c r="E7" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="59" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="59" t="s">
-        <v>400</v>
+      <c r="I7" s="56" t="s">
+        <v>395</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2832,27 +2858,27 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="59" t="s">
+      <c r="A8" s="116"/>
+      <c r="B8" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="E8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="59" t="s">
+      <c r="F8" s="103"/>
+      <c r="G8" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="56" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="7"/>
@@ -2874,27 +2900,27 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="116"/>
+      <c r="B9" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" s="59" t="s">
+      <c r="C9" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="59" t="s">
-        <v>493</v>
-      </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="59" t="s">
+      <c r="E9" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="F9" s="103"/>
+      <c r="G9" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="56" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="7"/>
@@ -2916,27 +2942,27 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="C10" s="62" t="s">
+      <c r="A10" s="117"/>
+      <c r="B10" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="89" t="s">
-        <v>423</v>
-      </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="59" t="s">
+      <c r="E10" s="86" t="s">
+        <v>418</v>
+      </c>
+      <c r="F10" s="103"/>
+      <c r="G10" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="60"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -2956,27 +2982,27 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="91" t="s">
-        <v>516</v>
-      </c>
-      <c r="H11" s="64" t="s">
+      <c r="F11" s="103"/>
+      <c r="G11" s="88" t="s">
+        <v>509</v>
+      </c>
+      <c r="H11" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="56" t="s">
         <v>56</v>
       </c>
       <c r="J11" s="7"/>
@@ -2998,25 +3024,25 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="62" t="s">
+      <c r="A12" s="117"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="63" t="s">
-        <v>388</v>
-      </c>
-      <c r="E12" s="59" t="s">
+      <c r="D12" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="59" t="s">
-        <v>405</v>
-      </c>
-      <c r="H12" s="59" t="s">
+      <c r="F12" s="103"/>
+      <c r="G12" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="H12" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="56" t="s">
         <v>60</v>
       </c>
       <c r="J12" s="9"/>
@@ -3038,25 +3064,25 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="D13" s="63" t="s">
+      <c r="A13" s="117"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="64" t="s">
+      <c r="F13" s="103"/>
+      <c r="G13" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="59"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="9"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -3076,25 +3102,25 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="62" t="s">
+      <c r="A14" s="117"/>
+      <c r="B14" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="62" t="s">
-        <v>427</v>
-      </c>
-      <c r="D14" s="63" t="s">
+      <c r="C14" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="59"/>
+      <c r="E14" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="F14" s="103"/>
+      <c r="G14" s="61" t="s">
+        <v>455</v>
+      </c>
+      <c r="H14" s="63"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="9"/>
       <c r="K14" s="7"/>
       <c r="L14" s="9"/>
@@ -3114,25 +3140,25 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="117"/>
+      <c r="B15" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="67" t="s">
+      <c r="F15" s="103"/>
+      <c r="G15" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="59"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="9"/>
       <c r="K15" s="7"/>
       <c r="L15" s="9"/>
@@ -3152,23 +3178,23 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="62" t="s">
-        <v>365</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="F16" s="115"/>
-      <c r="G16" s="59" t="s">
-        <v>385</v>
-      </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="63"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="F16" s="120"/>
+      <c r="G16" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="H16" s="67"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="9"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
@@ -3188,20 +3214,20 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="90" t="s">
-        <v>508</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="E17" s="59" t="s">
+      <c r="A17" s="117"/>
+      <c r="B17" s="87" t="s">
+        <v>501</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="E17" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="116" t="s">
-        <v>444</v>
-      </c>
-      <c r="H17" s="117"/>
-      <c r="I17" s="59"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="121" t="s">
+        <v>439</v>
+      </c>
+      <c r="H17" s="122"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="9"/>
@@ -3221,19 +3247,19 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="118" t="s">
+      <c r="A18" s="117"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="95" t="s">
+      <c r="E18" s="95"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="94"/>
-      <c r="I18" s="66"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="9"/>
@@ -3253,21 +3279,21 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
-      <c r="B19" s="101" t="s">
-        <v>383</v>
-      </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="95" t="s">
+      <c r="A19" s="116"/>
+      <c r="B19" s="126" t="s">
+        <v>379</v>
+      </c>
+      <c r="C19" s="127"/>
+      <c r="D19" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="95" t="s">
-        <v>466</v>
-      </c>
-      <c r="H19" s="94"/>
-      <c r="I19" s="66"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="96" t="s">
+        <v>460</v>
+      </c>
+      <c r="H19" s="95"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -3287,19 +3313,19 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="95" t="s">
+      <c r="A20" s="116"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="99" t="s">
+        <v>371</v>
+      </c>
+      <c r="E20" s="95"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="66"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -3319,17 +3345,17 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="95" t="s">
+      <c r="A21" s="116"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="94"/>
+      <c r="I21" s="95"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -3349,17 +3375,17 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="I22" s="94"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="96" t="s">
+        <v>384</v>
+      </c>
+      <c r="I22" s="95"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -3379,17 +3405,17 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="95" t="s">
+      <c r="A23" s="116"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="94"/>
+      <c r="I23" s="95"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -3409,17 +3435,17 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="95" t="s">
-        <v>375</v>
-      </c>
-      <c r="I24" s="94"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="96" t="s">
+        <v>372</v>
+      </c>
+      <c r="I24" s="95"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -3439,15 +3465,15 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="94"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="95"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -3467,15 +3493,15 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="113"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -3494,58 +3520,58 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" spans="1:26" s="42" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="105"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="41"/>
+    <row r="27" spans="1:26" s="41" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="40"/>
     </row>
     <row r="28" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="97" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="56" t="s">
         <v>86</v>
       </c>
       <c r="J28" s="7"/>
@@ -3567,28 +3593,28 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
-      <c r="B29" s="59" t="s">
+      <c r="A29" s="116"/>
+      <c r="B29" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="130"/>
-      <c r="G29" s="59" t="s">
+      <c r="F29" s="138"/>
+      <c r="G29" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="59" t="s">
-        <v>420</v>
+      <c r="I29" s="56" t="s">
+        <v>415</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -3609,27 +3635,27 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="111"/>
-      <c r="B30" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="C30" s="59" t="s">
+      <c r="A30" s="116"/>
+      <c r="B30" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="C30" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="130"/>
-      <c r="G30" s="59" t="s">
-        <v>419</v>
-      </c>
-      <c r="H30" s="59" t="s">
+      <c r="F30" s="138"/>
+      <c r="G30" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="H30" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="56" t="s">
         <v>94</v>
       </c>
       <c r="J30" s="7"/>
@@ -3651,27 +3677,27 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
-      <c r="B31" s="59" t="s">
+      <c r="A31" s="116"/>
+      <c r="B31" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="130"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="138"/>
+      <c r="G31" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="I31" s="59" t="s">
+      <c r="H31" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="I31" s="56" t="s">
         <v>99</v>
       </c>
       <c r="J31" s="7"/>
@@ -3693,28 +3719,28 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="111"/>
-      <c r="B32" s="59" t="s">
+      <c r="A32" s="116"/>
+      <c r="B32" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="59" t="s">
-        <v>473</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="F32" s="130"/>
-      <c r="G32" s="59" t="s">
+      <c r="D32" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="F32" s="138"/>
+      <c r="G32" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="59" t="s">
-        <v>409</v>
+      <c r="I32" s="56" t="s">
+        <v>404</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -3735,27 +3761,27 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
-      <c r="B33" s="59" t="s">
+      <c r="A33" s="116"/>
+      <c r="B33" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="130"/>
-      <c r="G33" s="59" t="s">
+      <c r="F33" s="138"/>
+      <c r="G33" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="56" t="s">
         <v>110</v>
       </c>
       <c r="J33" s="7"/>
@@ -3777,23 +3803,23 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="111"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59" t="s">
-        <v>410</v>
-      </c>
-      <c r="D34" s="59" t="s">
+      <c r="A34" s="116"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="D34" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="130"/>
-      <c r="G34" s="59" t="s">
+      <c r="F34" s="138"/>
+      <c r="G34" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="H34" s="60"/>
-      <c r="I34" s="71"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -3813,27 +3839,27 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="64" t="s">
+      <c r="A35" s="116"/>
+      <c r="B35" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="59" t="s">
-        <v>494</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>477</v>
-      </c>
-      <c r="F35" s="130"/>
-      <c r="G35" s="59" t="s">
+      <c r="D35" s="56" t="s">
+        <v>488</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="F35" s="138"/>
+      <c r="G35" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="71"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -3853,27 +3879,27 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="111"/>
-      <c r="B36" s="64" t="s">
+      <c r="A36" s="116"/>
+      <c r="B36" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="59" t="s">
-        <v>481</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>483</v>
-      </c>
-      <c r="F36" s="130"/>
-      <c r="G36" s="59" t="s">
-        <v>386</v>
-      </c>
-      <c r="H36" s="59" t="s">
+      <c r="C36" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>477</v>
+      </c>
+      <c r="F36" s="138"/>
+      <c r="G36" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="H36" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="66"/>
+      <c r="I36" s="63"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -3893,25 +3919,27 @@
       <c r="Z36" s="8"/>
     </row>
     <row r="37" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="111"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="64" t="s">
-        <v>521</v>
-      </c>
-      <c r="D37" s="59" t="s">
+      <c r="A37" s="116"/>
+      <c r="B37" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>514</v>
+      </c>
+      <c r="D37" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="130"/>
-      <c r="G37" s="64" t="s">
+      <c r="F37" s="138"/>
+      <c r="G37" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="H37" s="64" t="s">
+      <c r="H37" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="59" t="s">
+      <c r="I37" s="56" t="s">
         <v>125</v>
       </c>
       <c r="J37" s="7"/>
@@ -3933,23 +3961,23 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="111"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="59" t="s">
+      <c r="A38" s="116"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="D38" s="57"/>
+      <c r="E38" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="130"/>
-      <c r="G38" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="H38" s="95" t="s">
-        <v>391</v>
-      </c>
-      <c r="I38" s="94"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="61" t="s">
+        <v>456</v>
+      </c>
+      <c r="H38" s="96" t="s">
+        <v>386</v>
+      </c>
+      <c r="I38" s="95"/>
       <c r="J38" s="7"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -3969,27 +3997,27 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="111"/>
-      <c r="B39" s="64" t="s">
-        <v>517</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="D39" s="59" t="s">
+      <c r="A39" s="116"/>
+      <c r="B39" s="61" t="s">
+        <v>510</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="D39" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="130"/>
-      <c r="G39" s="59" t="s">
-        <v>463</v>
-      </c>
-      <c r="H39" s="95" t="s">
+      <c r="F39" s="138"/>
+      <c r="G39" s="56" t="s">
+        <v>457</v>
+      </c>
+      <c r="H39" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="94"/>
+      <c r="I39" s="95"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -4009,25 +4037,25 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="111"/>
-      <c r="B40" s="64" t="s">
+      <c r="A40" s="116"/>
+      <c r="B40" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="59" t="s">
+      <c r="D40" s="63"/>
+      <c r="E40" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="130"/>
-      <c r="G40" s="90" t="s">
-        <v>509</v>
-      </c>
-      <c r="H40" s="95" t="s">
+      <c r="F40" s="138"/>
+      <c r="G40" s="87" t="s">
+        <v>502</v>
+      </c>
+      <c r="H40" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="I40" s="94"/>
+      <c r="I40" s="95"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -4047,21 +4075,21 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
-      <c r="B41" s="64" t="s">
+      <c r="A41" s="116"/>
+      <c r="B41" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="72" t="s">
-        <v>443</v>
-      </c>
-      <c r="F41" s="130"/>
-      <c r="G41" s="64" t="s">
+      <c r="C41" s="56"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="69" t="s">
+        <v>438</v>
+      </c>
+      <c r="F41" s="138"/>
+      <c r="G41" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -4081,21 +4109,21 @@
       <c r="Z41" s="8"/>
     </row>
     <row r="42" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="111"/>
-      <c r="B42" s="64" t="s">
+      <c r="A42" s="116"/>
+      <c r="B42" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="64" t="s">
+      <c r="C42" s="63"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="H42" s="95" t="s">
-        <v>457</v>
-      </c>
-      <c r="I42" s="94"/>
+      <c r="H42" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="I42" s="95"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -4115,23 +4143,23 @@
       <c r="Z42" s="8"/>
     </row>
     <row r="43" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
-      <c r="B43" s="95" t="s">
+      <c r="A43" s="116"/>
+      <c r="B43" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="95" t="s">
+      <c r="C43" s="95"/>
+      <c r="D43" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="94"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="64" t="s">
+      <c r="E43" s="95"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="H43" s="95" t="s">
-        <v>381</v>
-      </c>
-      <c r="I43" s="94"/>
+      <c r="H43" s="96" t="s">
+        <v>377</v>
+      </c>
+      <c r="I43" s="95"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -4151,18 +4179,18 @@
       <c r="Z43" s="8"/>
     </row>
     <row r="44" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="111"/>
-      <c r="B44" s="95" t="s">
-        <v>376</v>
-      </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="95" t="s">
-        <v>390</v>
-      </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="130"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="94"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="96" t="s">
+        <v>373</v>
+      </c>
+      <c r="C44" s="95"/>
+      <c r="D44" s="96" t="s">
+        <v>385</v>
+      </c>
+      <c r="E44" s="95"/>
+      <c r="F44" s="138"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="95"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -4182,17 +4210,17 @@
       <c r="Z44" s="8"/>
     </row>
     <row r="45" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="111"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="93" t="s">
-        <v>384</v>
-      </c>
-      <c r="E45" s="103"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="97" t="s">
+        <v>521</v>
+      </c>
+      <c r="E45" s="98"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -4212,17 +4240,17 @@
       <c r="Z45" s="8"/>
     </row>
     <row r="46" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="111"/>
-      <c r="B46" s="95" t="s">
-        <v>363</v>
-      </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="71"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="97" t="s">
+        <v>524</v>
+      </c>
+      <c r="C46" s="98"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -4242,23 +4270,23 @@
       <c r="Z46" s="8"/>
     </row>
     <row r="47" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="113"/>
-      <c r="B47" s="59" t="s">
+      <c r="A47" s="118"/>
+      <c r="B47" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="95" t="s">
-        <v>369</v>
-      </c>
-      <c r="D47" s="94"/>
-      <c r="E47" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="F47" s="130"/>
-      <c r="G47" s="126" t="s">
+      <c r="C47" s="97" t="s">
+        <v>525</v>
+      </c>
+      <c r="D47" s="98"/>
+      <c r="E47" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="F47" s="138"/>
+      <c r="G47" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="H47" s="94"/>
-      <c r="I47" s="74"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="71"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -4279,18 +4307,18 @@
     </row>
     <row r="48" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="93" t="s">
-        <v>455</v>
-      </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="127" t="s">
-        <v>445</v>
-      </c>
-      <c r="H48" s="128"/>
-      <c r="I48" s="74"/>
+      <c r="B48" s="94" t="s">
+        <v>450</v>
+      </c>
+      <c r="C48" s="95"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="135" t="s">
+        <v>440</v>
+      </c>
+      <c r="H48" s="136"/>
+      <c r="I48" s="71"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -4311,16 +4339,16 @@
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="126" t="s">
-        <v>370</v>
-      </c>
-      <c r="H49" s="94"/>
-      <c r="I49" s="71"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="130" t="s">
+        <v>368</v>
+      </c>
+      <c r="H49" s="95"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -4341,14 +4369,14 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -4367,50 +4395,50 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" s="46" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="123"/>
-      <c r="B51" s="124"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="45"/>
+    <row r="51" spans="1:26" s="45" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="132"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="44"/>
     </row>
     <row r="52" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="114" t="s">
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="59" t="s">
-        <v>478</v>
-      </c>
-      <c r="H52" s="66"/>
-      <c r="I52" s="72"/>
+      <c r="G52" s="56" t="s">
+        <v>472</v>
+      </c>
+      <c r="H52" s="63"/>
+      <c r="I52" s="69"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -4430,28 +4458,28 @@
       <c r="Z52" s="8"/>
     </row>
     <row r="53" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="111"/>
-      <c r="B53" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="C53" s="89" t="s">
-        <v>513</v>
-      </c>
-      <c r="D53" s="59" t="s">
+      <c r="A53" s="116"/>
+      <c r="B53" s="61" t="s">
+        <v>515</v>
+      </c>
+      <c r="C53" s="86" t="s">
+        <v>506</v>
+      </c>
+      <c r="D53" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="59" t="s">
-        <v>454</v>
-      </c>
-      <c r="F53" s="98"/>
-      <c r="G53" s="59" t="s">
+      <c r="E53" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="F53" s="103"/>
+      <c r="G53" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="59" t="s">
+      <c r="H53" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I53" s="59" t="s">
-        <v>416</v>
+      <c r="I53" s="56" t="s">
+        <v>411</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -4472,25 +4500,25 @@
       <c r="Z53" s="8"/>
     </row>
     <row r="54" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="111"/>
-      <c r="B54" s="59" t="s">
-        <v>470</v>
-      </c>
-      <c r="C54" s="59" t="s">
+      <c r="A54" s="116"/>
+      <c r="B54" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="C54" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="59" t="s">
+      <c r="E54" s="57"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="H54" s="59" t="s">
+      <c r="H54" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="I54" s="59" t="s">
+      <c r="I54" s="56" t="s">
         <v>146</v>
       </c>
       <c r="J54" s="7"/>
@@ -4512,28 +4540,28 @@
       <c r="Z54" s="8"/>
     </row>
     <row r="55" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="111"/>
-      <c r="B55" s="59" t="s">
+      <c r="A55" s="116"/>
+      <c r="B55" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="59" t="s">
+      <c r="E55" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="F55" s="98"/>
-      <c r="G55" s="59" t="s">
+      <c r="F55" s="103"/>
+      <c r="G55" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="H55" s="90" t="s">
-        <v>518</v>
-      </c>
-      <c r="I55" s="59" t="s">
-        <v>498</v>
+      <c r="H55" s="87" t="s">
+        <v>511</v>
+      </c>
+      <c r="I55" s="56" t="s">
+        <v>492</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -4554,27 +4582,27 @@
       <c r="Z55" s="8"/>
     </row>
     <row r="56" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="111"/>
-      <c r="B56" s="59" t="s">
-        <v>411</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>484</v>
-      </c>
-      <c r="D56" s="59" t="s">
+      <c r="A56" s="116"/>
+      <c r="B56" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="D56" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="59" t="s">
-        <v>387</v>
-      </c>
-      <c r="F56" s="98"/>
-      <c r="G56" s="59" t="s">
+      <c r="E56" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="F56" s="103"/>
+      <c r="G56" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="H56" s="59" t="s">
-        <v>425</v>
-      </c>
-      <c r="I56" s="59" t="s">
+      <c r="H56" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="I56" s="56" t="s">
         <v>151</v>
       </c>
       <c r="J56" s="7"/>
@@ -4596,28 +4624,28 @@
       <c r="Z56" s="8"/>
     </row>
     <row r="57" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="111"/>
-      <c r="B57" s="59" t="s">
+      <c r="A57" s="116"/>
+      <c r="B57" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="E57" s="59" t="s">
+      <c r="D57" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="E57" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="F57" s="98"/>
-      <c r="G57" s="59" t="s">
+      <c r="F57" s="103"/>
+      <c r="G57" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="H57" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="I57" s="59" t="s">
-        <v>402</v>
+      <c r="H57" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="I57" s="56" t="s">
+        <v>397</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -4638,27 +4666,27 @@
       <c r="Z57" s="8"/>
     </row>
     <row r="58" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="111"/>
-      <c r="B58" s="59" t="s">
+      <c r="A58" s="116"/>
+      <c r="B58" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="59" t="s">
-        <v>485</v>
-      </c>
-      <c r="D58" s="59" t="s">
-        <v>448</v>
-      </c>
-      <c r="E58" s="59" t="s">
+      <c r="C58" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="D58" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="E58" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="98"/>
-      <c r="G58" s="59" t="s">
+      <c r="F58" s="103"/>
+      <c r="G58" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H58" s="59" t="s">
-        <v>467</v>
-      </c>
-      <c r="I58" s="59" t="s">
+      <c r="H58" s="56" t="s">
+        <v>461</v>
+      </c>
+      <c r="I58" s="56" t="s">
         <v>51</v>
       </c>
       <c r="J58" s="7"/>
@@ -4680,27 +4708,29 @@
       <c r="Z58" s="8"/>
     </row>
     <row r="59" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="111"/>
-      <c r="B59" s="59" t="s">
+      <c r="A59" s="116"/>
+      <c r="B59" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="E59" s="59" t="s">
+      <c r="E59" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="F59" s="98"/>
-      <c r="G59" s="59" t="s">
+      <c r="F59" s="103"/>
+      <c r="G59" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="H59" s="76" t="s">
-        <v>399</v>
-      </c>
-      <c r="I59" s="66"/>
+      <c r="H59" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="I59" s="56" t="s">
+        <v>518</v>
+      </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -4720,27 +4750,27 @@
       <c r="Z59" s="8"/>
     </row>
     <row r="60" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="111"/>
-      <c r="B60" s="59" t="s">
+      <c r="A60" s="116"/>
+      <c r="B60" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="59" t="s">
+      <c r="E60" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="F60" s="98"/>
-      <c r="G60" s="59" t="s">
+      <c r="F60" s="103"/>
+      <c r="G60" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="H60" s="59" t="s">
-        <v>469</v>
-      </c>
-      <c r="I60" s="77"/>
+      <c r="H60" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="I60" s="74"/>
       <c r="J60" s="7"/>
       <c r="K60" s="12"/>
       <c r="L60" s="7"/>
@@ -4760,27 +4790,27 @@
       <c r="Z60" s="8"/>
     </row>
     <row r="61" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="111"/>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="116"/>
+      <c r="B61" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="59" t="s">
-        <v>412</v>
-      </c>
-      <c r="F61" s="98"/>
-      <c r="G61" s="64" t="s">
+      <c r="E61" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="F61" s="103"/>
+      <c r="G61" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="H61" s="93" t="s">
-        <v>497</v>
-      </c>
-      <c r="I61" s="103"/>
+      <c r="H61" s="94" t="s">
+        <v>491</v>
+      </c>
+      <c r="I61" s="108"/>
       <c r="J61" s="12"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -4800,20 +4830,20 @@
       <c r="Z61" s="8"/>
     </row>
     <row r="62" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="111"/>
-      <c r="B62" s="64" t="s">
-        <v>507</v>
-      </c>
-      <c r="C62" s="59" t="s">
-        <v>496</v>
-      </c>
-      <c r="D62" s="59" t="s">
+      <c r="A62" s="116"/>
+      <c r="B62" s="61" t="s">
+        <v>500</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="D62" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="F62" s="98"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="94"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="95"/>
       <c r="J62" s="12"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -4833,23 +4863,23 @@
       <c r="Z62" s="8"/>
     </row>
     <row r="63" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="111"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="78" t="s">
+      <c r="A63" s="116"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="E63" s="59" t="s">
-        <v>433</v>
-      </c>
-      <c r="F63" s="98"/>
-      <c r="G63" s="95" t="s">
-        <v>382</v>
-      </c>
-      <c r="H63" s="94"/>
-      <c r="I63" s="72"/>
+      <c r="E63" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="F63" s="103"/>
+      <c r="G63" s="96" t="s">
+        <v>378</v>
+      </c>
+      <c r="H63" s="95"/>
+      <c r="I63" s="69"/>
       <c r="J63" s="12"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -4869,23 +4899,23 @@
       <c r="Z63" s="8"/>
     </row>
     <row r="64" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="111"/>
-      <c r="B64" s="93" t="s">
-        <v>495</v>
-      </c>
-      <c r="C64" s="103"/>
-      <c r="D64" s="59" t="s">
+      <c r="A64" s="116"/>
+      <c r="B64" s="94" t="s">
+        <v>489</v>
+      </c>
+      <c r="C64" s="108"/>
+      <c r="D64" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="E64" s="59" t="s">
+      <c r="E64" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="98"/>
-      <c r="G64" s="95" t="s">
-        <v>372</v>
-      </c>
-      <c r="H64" s="94"/>
-      <c r="I64" s="72"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="97" t="s">
+        <v>522</v>
+      </c>
+      <c r="H64" s="98"/>
+      <c r="I64" s="69"/>
       <c r="J64" s="12"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -4905,21 +4935,21 @@
       <c r="Z64" s="8"/>
     </row>
     <row r="65" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="111"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="59" t="s">
+      <c r="A65" s="116"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="E65" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="F65" s="98"/>
-      <c r="G65" s="95" t="s">
-        <v>505</v>
-      </c>
-      <c r="H65" s="94"/>
-      <c r="I65" s="72"/>
+      <c r="E65" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="F65" s="103"/>
+      <c r="G65" s="96" t="s">
+        <v>498</v>
+      </c>
+      <c r="H65" s="95"/>
+      <c r="I65" s="69"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -4939,21 +4969,21 @@
       <c r="Z65" s="8"/>
     </row>
     <row r="66" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="111"/>
-      <c r="B66" s="95" t="s">
-        <v>373</v>
-      </c>
-      <c r="C66" s="94"/>
-      <c r="D66" s="59" t="s">
+      <c r="A66" s="116"/>
+      <c r="B66" s="96" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" s="95"/>
+      <c r="D66" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="E66" s="60"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="59" t="s">
-        <v>471</v>
-      </c>
-      <c r="I66" s="72"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="I66" s="69"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -4973,19 +5003,19 @@
       <c r="Z66" s="8"/>
     </row>
     <row r="67" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="111"/>
-      <c r="B67" s="95"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="59" t="s">
-        <v>490</v>
-      </c>
-      <c r="E67" s="79" t="s">
-        <v>401</v>
-      </c>
-      <c r="F67" s="98"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="72"/>
+      <c r="A67" s="116"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="E67" s="76" t="s">
+        <v>396</v>
+      </c>
+      <c r="F67" s="103"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="69"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -5005,19 +5035,19 @@
       <c r="Z67" s="8"/>
     </row>
     <row r="68" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="111"/>
-      <c r="B68" s="95" t="s">
+      <c r="A68" s="116"/>
+      <c r="B68" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="94"/>
-      <c r="D68" s="95" t="s">
+      <c r="C68" s="95"/>
+      <c r="D68" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="94"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="129"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="66"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="137"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="63"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -5037,19 +5067,19 @@
       <c r="Z68" s="8"/>
     </row>
     <row r="69" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="111"/>
-      <c r="B69" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="C69" s="94"/>
-      <c r="D69" s="95" t="s">
-        <v>393</v>
-      </c>
-      <c r="E69" s="94"/>
-      <c r="F69" s="98"/>
-      <c r="G69" s="129"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="66"/>
+      <c r="A69" s="116"/>
+      <c r="B69" s="96" t="s">
+        <v>387</v>
+      </c>
+      <c r="C69" s="95"/>
+      <c r="D69" s="96" t="s">
+        <v>388</v>
+      </c>
+      <c r="E69" s="95"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="63"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="7"/>
@@ -5069,15 +5099,15 @@
       <c r="Z69" s="8"/>
     </row>
     <row r="70" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="111"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="98"/>
-      <c r="G70" s="129"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="66"/>
+      <c r="A70" s="116"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="95"/>
+      <c r="I70" s="63"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="7"/>
@@ -5097,17 +5127,17 @@
       <c r="Z70" s="8"/>
     </row>
     <row r="71" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="111"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="95" t="s">
+      <c r="A71" s="116"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="I71" s="94"/>
+      <c r="I71" s="95"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="7"/>
@@ -5127,17 +5157,17 @@
       <c r="Z71" s="8"/>
     </row>
     <row r="72" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="111"/>
-      <c r="B72" s="96"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="95" t="s">
+      <c r="A72" s="116"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="I72" s="94"/>
+      <c r="I72" s="95"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="7"/>
@@ -5157,17 +5187,17 @@
       <c r="Z72" s="8"/>
     </row>
     <row r="73" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="111"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="98"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="95" t="s">
-        <v>395</v>
-      </c>
-      <c r="I73" s="94"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="96" t="s">
+        <v>390</v>
+      </c>
+      <c r="I73" s="95"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
@@ -5187,15 +5217,15 @@
       <c r="Z73" s="8"/>
     </row>
     <row r="74" spans="1:26" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="111"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
@@ -5215,17 +5245,17 @@
       <c r="Z74" s="8"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="113"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="95" t="s">
+      <c r="A75" s="118"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="104"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="I75" s="94"/>
+      <c r="I75" s="95"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -5244,61 +5274,61 @@
       <c r="Y75" s="7"/>
       <c r="Z75" s="8"/>
     </row>
-    <row r="76" spans="1:26" s="53" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="51"/>
-      <c r="O76" s="51"/>
-      <c r="P76" s="51"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="51"/>
-      <c r="S76" s="51"/>
-      <c r="T76" s="51"/>
-      <c r="U76" s="51"/>
-      <c r="V76" s="51"/>
-      <c r="W76" s="51"/>
-      <c r="X76" s="51"/>
-      <c r="Y76" s="51"/>
-      <c r="Z76" s="52"/>
+    <row r="76" spans="1:26" s="52" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="46"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="50"/>
+      <c r="Q76" s="50"/>
+      <c r="R76" s="50"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="50"/>
+      <c r="U76" s="50"/>
+      <c r="V76" s="50"/>
+      <c r="W76" s="50"/>
+      <c r="X76" s="50"/>
+      <c r="Y76" s="50"/>
+      <c r="Z76" s="51"/>
     </row>
     <row r="77" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="121" t="s">
+      <c r="A77" s="128" t="s">
         <v>185</v>
       </c>
-      <c r="B77" s="59" t="s">
-        <v>422</v>
-      </c>
-      <c r="C77" s="59" t="s">
+      <c r="B77" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="C77" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D77" s="59" t="s">
+      <c r="D77" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="59" t="s">
+      <c r="E77" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="F77" s="97" t="s">
+      <c r="F77" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="G77" s="59" t="s">
+      <c r="G77" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="H77" s="59" t="s">
+      <c r="H77" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I77" s="59" t="s">
-        <v>459</v>
+      <c r="I77" s="56" t="s">
+        <v>454</v>
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -5319,28 +5349,28 @@
       <c r="Z77" s="8"/>
     </row>
     <row r="78" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="111"/>
-      <c r="B78" s="90" t="s">
-        <v>510</v>
-      </c>
-      <c r="C78" s="59" t="s">
+      <c r="A78" s="116"/>
+      <c r="B78" s="87" t="s">
+        <v>503</v>
+      </c>
+      <c r="C78" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="59" t="s">
-        <v>420</v>
-      </c>
-      <c r="E78" s="59" t="s">
+      <c r="D78" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="E78" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="F78" s="98"/>
-      <c r="G78" s="59" t="s">
+      <c r="F78" s="103"/>
+      <c r="G78" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="H78" s="59" t="s">
+      <c r="H78" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="I78" s="81" t="s">
-        <v>403</v>
+      <c r="I78" s="78" t="s">
+        <v>398</v>
       </c>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -5361,26 +5391,28 @@
       <c r="Z78" s="8"/>
     </row>
     <row r="79" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="111"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="59" t="s">
+      <c r="A79" s="116"/>
+      <c r="B79" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C79" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="D79" s="59" t="s">
+      <c r="D79" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="E79" s="59" t="s">
+      <c r="E79" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F79" s="98"/>
-      <c r="G79" s="59" t="s">
+      <c r="F79" s="103"/>
+      <c r="G79" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="H79" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="I79" s="88" t="s">
-        <v>491</v>
+      <c r="H79" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="I79" s="85" t="s">
+        <v>485</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -5401,27 +5433,27 @@
       <c r="Z79" s="8"/>
     </row>
     <row r="80" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="111"/>
-      <c r="B80" s="59" t="s">
+      <c r="A80" s="116"/>
+      <c r="B80" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="C80" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="D80" s="59" t="s">
+      <c r="D80" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E80" s="59" t="s">
+      <c r="E80" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="F80" s="98"/>
-      <c r="G80" s="59" t="s">
+      <c r="F80" s="103"/>
+      <c r="G80" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="H80" s="59" t="s">
+      <c r="H80" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="I80" s="59" t="s">
+      <c r="I80" s="56" t="s">
         <v>173</v>
       </c>
       <c r="J80" s="7"/>
@@ -5443,24 +5475,24 @@
       <c r="Z80" s="8"/>
     </row>
     <row r="81" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="111"/>
-      <c r="B81" s="59" t="s">
+      <c r="A81" s="116"/>
+      <c r="B81" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="59" t="s">
+      <c r="D81" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="E81" s="59" t="s">
+      <c r="E81" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="F81" s="98"/>
-      <c r="G81" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="I81" s="59"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="I81" s="56"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
@@ -5480,24 +5512,24 @@
       <c r="Z81" s="8"/>
     </row>
     <row r="82" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="111"/>
-      <c r="B82" s="59" t="s">
+      <c r="A82" s="116"/>
+      <c r="B82" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="59" t="s">
+      <c r="C82" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="D82" s="59" t="s">
-        <v>429</v>
-      </c>
-      <c r="E82" s="59" t="s">
+      <c r="D82" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="E82" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F82" s="98"/>
-      <c r="H82" s="64" t="s">
+      <c r="F82" s="103"/>
+      <c r="H82" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="I82" s="59"/>
+      <c r="I82" s="56"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
@@ -5517,25 +5549,25 @@
       <c r="Z82" s="8"/>
     </row>
     <row r="83" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="111"/>
-      <c r="B83" s="59" t="s">
+      <c r="A83" s="116"/>
+      <c r="B83" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C83" s="59" t="s">
-        <v>492</v>
-      </c>
-      <c r="D83" s="59" t="s">
+      <c r="C83" s="56" t="s">
+        <v>486</v>
+      </c>
+      <c r="D83" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="E83" s="59" t="s">
+      <c r="E83" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="F83" s="98"/>
-      <c r="G83" s="64" t="s">
+      <c r="F83" s="103"/>
+      <c r="G83" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="H83" s="82"/>
-      <c r="I83" s="72"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="69"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -5555,24 +5587,24 @@
       <c r="Z83" s="8"/>
     </row>
     <row r="84" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="111"/>
-      <c r="B84" s="59" t="s">
-        <v>458</v>
-      </c>
-      <c r="D84" s="59" t="s">
-        <v>431</v>
-      </c>
-      <c r="E84" s="59" t="s">
+      <c r="A84" s="116"/>
+      <c r="B84" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="D84" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="E84" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="F84" s="98"/>
-      <c r="G84" s="64" t="s">
+      <c r="F84" s="103"/>
+      <c r="G84" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="H84" s="64" t="s">
+      <c r="H84" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="I84" s="72"/>
+      <c r="I84" s="69"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -5592,25 +5624,25 @@
       <c r="Z84" s="8"/>
     </row>
     <row r="85" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="111"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="59" t="s">
+      <c r="A85" s="116"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="D85" s="59" t="s">
+      <c r="D85" s="56" t="s">
+        <v>425</v>
+      </c>
+      <c r="E85" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" s="103"/>
+      <c r="G85" s="61" t="s">
         <v>430</v>
       </c>
-      <c r="E85" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="F85" s="98"/>
-      <c r="G85" s="64" t="s">
-        <v>435</v>
-      </c>
-      <c r="H85" s="64" t="s">
-        <v>417</v>
-      </c>
-      <c r="I85" s="83"/>
+      <c r="H85" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="I85" s="80"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
@@ -5630,25 +5662,25 @@
       <c r="Z85" s="8"/>
     </row>
     <row r="86" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="111"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59" t="s">
+      <c r="A86" s="116"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D86" s="59" t="s">
-        <v>450</v>
-      </c>
-      <c r="E86" s="59" t="s">
+      <c r="D86" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="E86" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="F86" s="98"/>
-      <c r="G86" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="H86" s="64" t="s">
-        <v>418</v>
-      </c>
-      <c r="I86" s="72"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="H86" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="I86" s="69"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -5668,23 +5700,23 @@
       <c r="Z86" s="8"/>
     </row>
     <row r="87" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="111"/>
-      <c r="B87" s="126" t="s">
+      <c r="A87" s="116"/>
+      <c r="B87" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="94"/>
-      <c r="D87" s="59" t="s">
+      <c r="C87" s="95"/>
+      <c r="D87" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="E87" s="72" t="s">
-        <v>442</v>
-      </c>
-      <c r="F87" s="98"/>
-      <c r="G87" s="64" t="s">
+      <c r="E87" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="F87" s="103"/>
+      <c r="G87" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
@@ -5704,25 +5736,25 @@
       <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="111"/>
-      <c r="B88" s="126" t="s">
-        <v>446</v>
-      </c>
-      <c r="C88" s="94"/>
-      <c r="D88" s="59" t="s">
+      <c r="A88" s="116"/>
+      <c r="B88" s="130" t="s">
+        <v>441</v>
+      </c>
+      <c r="C88" s="95"/>
+      <c r="D88" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="E88" s="59" t="s">
+      <c r="E88" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="98"/>
-      <c r="G88" s="64" t="s">
+      <c r="F88" s="103"/>
+      <c r="G88" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="H88" s="93" t="s">
-        <v>523</v>
-      </c>
-      <c r="I88" s="94"/>
+      <c r="H88" s="94" t="s">
+        <v>516</v>
+      </c>
+      <c r="I88" s="95"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -5742,18 +5774,18 @@
       <c r="Z88" s="8"/>
     </row>
     <row r="89" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="111"/>
-      <c r="B89" s="126" t="s">
-        <v>371</v>
-      </c>
-      <c r="C89" s="94"/>
-      <c r="E89" s="59" t="s">
+      <c r="A89" s="116"/>
+      <c r="B89" s="130" t="s">
+        <v>369</v>
+      </c>
+      <c r="C89" s="95"/>
+      <c r="E89" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="F89" s="98"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="95"/>
-      <c r="I89" s="94"/>
+      <c r="F89" s="103"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="96"/>
+      <c r="I89" s="95"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -5773,21 +5805,21 @@
       <c r="Z89" s="8"/>
     </row>
     <row r="90" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="111"/>
-      <c r="B90" s="96"/>
-      <c r="C90" s="94"/>
-      <c r="D90" s="84" t="s">
-        <v>472</v>
+      <c r="A90" s="116"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="81" t="s">
+        <v>466</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F90" s="98"/>
-      <c r="G90" s="95" t="s">
+        <v>497</v>
+      </c>
+      <c r="F90" s="103"/>
+      <c r="G90" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="H90" s="94"/>
-      <c r="I90" s="72"/>
+      <c r="H90" s="95"/>
+      <c r="I90" s="69"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
@@ -5807,19 +5839,19 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="111"/>
-      <c r="B91" s="95" t="s">
+      <c r="A91" s="116"/>
+      <c r="B91" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="C91" s="94"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="98"/>
-      <c r="G91" s="95" t="s">
+      <c r="C91" s="95"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="H91" s="94"/>
-      <c r="I91" s="72"/>
+      <c r="H91" s="95"/>
+      <c r="I91" s="69"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
@@ -5839,19 +5871,19 @@
       <c r="Z91" s="8"/>
     </row>
     <row r="92" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="111"/>
-      <c r="B92" s="95" t="s">
+      <c r="A92" s="116"/>
+      <c r="B92" s="96" t="s">
         <v>218</v>
       </c>
-      <c r="C92" s="94"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="98"/>
-      <c r="G92" s="95" t="s">
+      <c r="C92" s="95"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="103"/>
+      <c r="G92" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H92" s="94"/>
-      <c r="I92" s="72"/>
+      <c r="H92" s="95"/>
+      <c r="I92" s="69"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
@@ -5871,21 +5903,21 @@
       <c r="Z92" s="8"/>
     </row>
     <row r="93" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="111"/>
-      <c r="B93" s="93" t="s">
-        <v>460</v>
-      </c>
-      <c r="C93" s="94"/>
-      <c r="D93" s="93" t="s">
-        <v>413</v>
-      </c>
-      <c r="E93" s="94"/>
-      <c r="F93" s="98"/>
-      <c r="G93" s="95" t="s">
+      <c r="A93" s="116"/>
+      <c r="B93" s="97" t="s">
+        <v>526</v>
+      </c>
+      <c r="C93" s="98"/>
+      <c r="D93" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="E93" s="95"/>
+      <c r="F93" s="103"/>
+      <c r="G93" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="H93" s="94"/>
-      <c r="I93" s="72"/>
+      <c r="H93" s="95"/>
+      <c r="I93" s="69"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
@@ -5905,17 +5937,17 @@
       <c r="Z93" s="8"/>
     </row>
     <row r="94" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="111"/>
-      <c r="B94" s="95"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="95"/>
-      <c r="E94" s="94"/>
-      <c r="F94" s="98"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="I94" s="94"/>
+      <c r="A94" s="116"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="96"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="96" t="s">
+        <v>374</v>
+      </c>
+      <c r="I94" s="95"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -5935,17 +5967,17 @@
       <c r="Z94" s="8"/>
     </row>
     <row r="95" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="111"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="59" t="s">
-        <v>480</v>
-      </c>
-      <c r="D95" s="72"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="98"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="95"/>
-      <c r="I95" s="94"/>
+      <c r="A95" s="116"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="D95" s="69"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="96"/>
+      <c r="I95" s="95"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -5965,17 +5997,17 @@
       <c r="Z95" s="8"/>
     </row>
     <row r="96" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="111"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="98"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="95" t="s">
-        <v>465</v>
-      </c>
-      <c r="I96" s="94"/>
+      <c r="A96" s="116"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="103"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="96" t="s">
+        <v>459</v>
+      </c>
+      <c r="I96" s="95"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -5995,15 +6027,15 @@
       <c r="Z96" s="8"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="111"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="98"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="95"/>
-      <c r="I97" s="94"/>
+      <c r="A97" s="116"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="96"/>
+      <c r="I97" s="95"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -6023,15 +6055,15 @@
       <c r="Z97" s="8"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="113"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="99"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
+      <c r="A98" s="118"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="104"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="63"/>
+      <c r="I98" s="63"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -6050,61 +6082,61 @@
       <c r="Y98" s="7"/>
       <c r="Z98" s="8"/>
     </row>
-    <row r="99" spans="1:26" s="46" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="44"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="44"/>
-      <c r="N99" s="44"/>
-      <c r="O99" s="44"/>
-      <c r="P99" s="44"/>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="44"/>
-      <c r="S99" s="44"/>
-      <c r="T99" s="44"/>
-      <c r="U99" s="44"/>
-      <c r="V99" s="44"/>
-      <c r="W99" s="44"/>
-      <c r="X99" s="44"/>
-      <c r="Y99" s="44"/>
-      <c r="Z99" s="45"/>
+    <row r="99" spans="1:26" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="53"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="43"/>
+      <c r="U99" s="43"/>
+      <c r="V99" s="43"/>
+      <c r="W99" s="43"/>
+      <c r="X99" s="43"/>
+      <c r="Y99" s="43"/>
+      <c r="Z99" s="44"/>
     </row>
     <row r="100" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="110" t="s">
+      <c r="A100" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="B100" s="59" t="s">
+      <c r="B100" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="C100" s="59" t="s">
+      <c r="C100" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="D100" s="59" t="s">
+      <c r="D100" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="E100" s="59" t="s">
+      <c r="E100" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="F100" s="97" t="s">
+      <c r="F100" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="100" t="s">
+      <c r="G100" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="H100" s="59" t="s">
+      <c r="H100" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="I100" s="64" t="s">
-        <v>428</v>
+      <c r="I100" s="61" t="s">
+        <v>423</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -6125,25 +6157,25 @@
       <c r="Z100" s="8"/>
     </row>
     <row r="101" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="111"/>
-      <c r="B101" s="59" t="s">
+      <c r="A101" s="116"/>
+      <c r="B101" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="59" t="s">
+      <c r="C101" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="D101" s="59" t="s">
+      <c r="D101" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="E101" s="59" t="s">
+      <c r="E101" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="98"/>
-      <c r="G101" s="98"/>
-      <c r="H101" s="72" t="s">
+      <c r="F101" s="103"/>
+      <c r="G101" s="103"/>
+      <c r="H101" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="I101" s="59" t="s">
+      <c r="I101" s="56" t="s">
         <v>229</v>
       </c>
       <c r="J101" s="7"/>
@@ -6165,22 +6197,22 @@
       <c r="Z101" s="8"/>
     </row>
     <row r="102" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="111"/>
-      <c r="B102" s="59" t="s">
+      <c r="A102" s="116"/>
+      <c r="B102" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="C102" s="59" t="s">
-        <v>486</v>
-      </c>
-      <c r="D102" s="59" t="s">
+      <c r="C102" s="89" t="s">
+        <v>480</v>
+      </c>
+      <c r="D102" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="E102" s="59" t="s">
+      <c r="E102" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F102" s="98"/>
-      <c r="G102" s="98"/>
-      <c r="I102" s="60"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="103"/>
+      <c r="I102" s="57"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -6200,25 +6232,25 @@
       <c r="Z102" s="8"/>
     </row>
     <row r="103" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="111"/>
-      <c r="B103" s="59" t="s">
-        <v>519</v>
-      </c>
-      <c r="C103" s="59" t="s">
+      <c r="A103" s="116"/>
+      <c r="B103" s="89" t="s">
+        <v>512</v>
+      </c>
+      <c r="C103" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="D103" s="59" t="s">
-        <v>487</v>
-      </c>
-      <c r="E103" s="59" t="s">
+      <c r="D103" s="56" t="s">
+        <v>481</v>
+      </c>
+      <c r="E103" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="F103" s="98"/>
-      <c r="G103" s="98"/>
-      <c r="H103" s="59" t="s">
+      <c r="F103" s="103"/>
+      <c r="G103" s="103"/>
+      <c r="H103" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="I103" s="66"/>
+      <c r="I103" s="63"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -6238,22 +6270,22 @@
       <c r="Z103" s="8"/>
     </row>
     <row r="104" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="111"/>
+      <c r="A104" s="116"/>
       <c r="B104" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="C104" s="59" t="s">
+        <v>504</v>
+      </c>
+      <c r="C104" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="E104" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="F104" s="98"/>
-      <c r="G104" s="98"/>
-      <c r="H104" s="59" t="s">
+      <c r="E104" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="F104" s="103"/>
+      <c r="G104" s="103"/>
+      <c r="H104" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="I104" s="72"/>
+      <c r="I104" s="69"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -6273,25 +6305,25 @@
       <c r="Z104" s="8"/>
     </row>
     <row r="105" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="111"/>
-      <c r="B105" s="59" t="s">
+      <c r="A105" s="116"/>
+      <c r="B105" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="92" t="s">
-        <v>520</v>
-      </c>
-      <c r="D105" s="59" t="s">
+      <c r="C105" s="89" t="s">
+        <v>513</v>
+      </c>
+      <c r="D105" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="E105" s="59" t="s">
-        <v>426</v>
-      </c>
-      <c r="F105" s="98"/>
-      <c r="G105" s="98"/>
-      <c r="H105" s="64" t="s">
-        <v>514</v>
-      </c>
-      <c r="I105" s="72"/>
+      <c r="E105" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="F105" s="103"/>
+      <c r="G105" s="103"/>
+      <c r="H105" s="61" t="s">
+        <v>507</v>
+      </c>
+      <c r="I105" s="69"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
@@ -6311,23 +6343,23 @@
       <c r="Z105" s="8"/>
     </row>
     <row r="106" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="111"/>
-      <c r="B106" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="C106" s="59" t="s">
-        <v>397</v>
-      </c>
-      <c r="D106" s="59" t="s">
+      <c r="A106" s="116"/>
+      <c r="B106" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C106" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D106" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="E106" s="59" t="s">
-        <v>452</v>
-      </c>
-      <c r="F106" s="98"/>
-      <c r="G106" s="98"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="66"/>
+      <c r="E106" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="63"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
@@ -6347,25 +6379,25 @@
       <c r="Z106" s="8"/>
     </row>
     <row r="107" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="111"/>
-      <c r="B107" s="59" t="s">
+      <c r="A107" s="116"/>
+      <c r="B107" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="C107" s="132" t="s">
+      <c r="C107" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="D107" s="59" t="s">
-        <v>515</v>
-      </c>
-      <c r="E107" s="59" t="s">
+      <c r="D107" s="56" t="s">
+        <v>508</v>
+      </c>
+      <c r="E107" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F107" s="98"/>
-      <c r="G107" s="98"/>
-      <c r="H107" s="64" t="s">
-        <v>367</v>
-      </c>
-      <c r="I107" s="66"/>
+      <c r="F107" s="103"/>
+      <c r="G107" s="103"/>
+      <c r="H107" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="I107" s="63"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
@@ -6385,25 +6417,25 @@
       <c r="Z107" s="8"/>
     </row>
     <row r="108" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="111"/>
-      <c r="B108" s="61" t="s">
-        <v>468</v>
-      </c>
-      <c r="C108" s="67" t="s">
-        <v>479</v>
-      </c>
-      <c r="D108" s="59" t="s">
+      <c r="A108" s="116"/>
+      <c r="B108" s="91" t="s">
+        <v>462</v>
+      </c>
+      <c r="C108" s="92" t="s">
+        <v>473</v>
+      </c>
+      <c r="D108" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="E108" s="59" t="s">
-        <v>488</v>
-      </c>
-      <c r="F108" s="98"/>
-      <c r="G108" s="98"/>
-      <c r="H108" s="64" t="s">
+      <c r="E108" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="F108" s="103"/>
+      <c r="G108" s="103"/>
+      <c r="H108" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="I108" s="66"/>
+      <c r="I108" s="63"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
@@ -6423,23 +6455,23 @@
       <c r="Z108" s="8"/>
     </row>
     <row r="109" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="112"/>
-      <c r="B109" s="59" t="s">
-        <v>489</v>
-      </c>
-      <c r="C109" s="58"/>
-      <c r="D109" s="63" t="s">
+      <c r="A109" s="117"/>
+      <c r="B109" s="89" t="s">
+        <v>483</v>
+      </c>
+      <c r="C109" s="93"/>
+      <c r="D109" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="E109" s="59" t="s">
+      <c r="E109" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="F109" s="98"/>
-      <c r="G109" s="98"/>
-      <c r="H109" s="64" t="s">
+      <c r="F109" s="103"/>
+      <c r="G109" s="103"/>
+      <c r="H109" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="I109" s="66"/>
+      <c r="I109" s="63"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
@@ -6459,23 +6491,23 @@
       <c r="Z109" s="8"/>
     </row>
     <row r="110" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="111"/>
-      <c r="B110" s="101" t="s">
-        <v>414</v>
-      </c>
-      <c r="C110" s="102"/>
-      <c r="D110" s="59" t="s">
+      <c r="A110" s="116"/>
+      <c r="B110" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C110" s="107"/>
+      <c r="D110" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="E110" s="59" t="s">
-        <v>440</v>
-      </c>
-      <c r="F110" s="98"/>
-      <c r="G110" s="98"/>
-      <c r="H110" s="93" t="s">
-        <v>464</v>
-      </c>
-      <c r="I110" s="94"/>
+      <c r="E110" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="F110" s="103"/>
+      <c r="G110" s="103"/>
+      <c r="H110" s="94" t="s">
+        <v>458</v>
+      </c>
+      <c r="I110" s="95"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -6495,23 +6527,23 @@
       <c r="Z110" s="8"/>
     </row>
     <row r="111" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="111"/>
-      <c r="B111" s="93" t="s">
-        <v>502</v>
-      </c>
-      <c r="C111" s="94"/>
-      <c r="D111" s="90" t="s">
-        <v>512</v>
-      </c>
-      <c r="E111" s="59" t="s">
-        <v>432</v>
-      </c>
-      <c r="F111" s="98"/>
-      <c r="G111" s="98"/>
-      <c r="H111" s="93" t="s">
-        <v>500</v>
-      </c>
-      <c r="I111" s="94"/>
+      <c r="A111" s="116"/>
+      <c r="B111" s="97" t="s">
+        <v>527</v>
+      </c>
+      <c r="C111" s="98"/>
+      <c r="D111" s="87" t="s">
+        <v>505</v>
+      </c>
+      <c r="E111" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="F111" s="103"/>
+      <c r="G111" s="103"/>
+      <c r="H111" s="94" t="s">
+        <v>494</v>
+      </c>
+      <c r="I111" s="95"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
@@ -6531,21 +6563,21 @@
       <c r="Z111" s="8"/>
     </row>
     <row r="112" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="111"/>
-      <c r="B112" s="95"/>
-      <c r="C112" s="94"/>
-      <c r="D112" s="59" t="s">
+      <c r="A112" s="116"/>
+      <c r="B112" s="100"/>
+      <c r="C112" s="101"/>
+      <c r="D112" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="E112" s="59" t="s">
-        <v>447</v>
-      </c>
-      <c r="F112" s="98"/>
-      <c r="G112" s="98"/>
-      <c r="H112" s="93" t="s">
-        <v>524</v>
-      </c>
-      <c r="I112" s="94"/>
+      <c r="E112" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="F112" s="103"/>
+      <c r="G112" s="103"/>
+      <c r="H112" s="94" t="s">
+        <v>517</v>
+      </c>
+      <c r="I112" s="95"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
@@ -6565,21 +6597,21 @@
       <c r="Z112" s="8"/>
     </row>
     <row r="113" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="111"/>
-      <c r="B113" s="95" t="s">
-        <v>378</v>
-      </c>
-      <c r="C113" s="94"/>
-      <c r="D113" s="59" t="s">
-        <v>368</v>
+      <c r="A113" s="116"/>
+      <c r="B113" s="96" t="s">
+        <v>375</v>
+      </c>
+      <c r="C113" s="95"/>
+      <c r="D113" s="56" t="s">
+        <v>367</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F113" s="98"/>
-      <c r="G113" s="98"/>
-      <c r="H113" s="95"/>
-      <c r="I113" s="94"/>
+        <v>496</v>
+      </c>
+      <c r="F113" s="103"/>
+      <c r="G113" s="103"/>
+      <c r="H113" s="96"/>
+      <c r="I113" s="95"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
@@ -6599,21 +6631,21 @@
       <c r="Z113" s="8"/>
     </row>
     <row r="114" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="111"/>
-      <c r="B114" s="95"/>
-      <c r="C114" s="94"/>
-      <c r="D114" s="59" t="s">
+      <c r="A114" s="116"/>
+      <c r="B114" s="96"/>
+      <c r="C114" s="95"/>
+      <c r="D114" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="E114" s="59" t="s">
+      <c r="E114" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="F114" s="98"/>
-      <c r="G114" s="98"/>
-      <c r="H114" s="95" t="s">
-        <v>379</v>
-      </c>
-      <c r="I114" s="94"/>
+      <c r="F114" s="103"/>
+      <c r="G114" s="103"/>
+      <c r="H114" s="97" t="s">
+        <v>523</v>
+      </c>
+      <c r="I114" s="98"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
@@ -6633,19 +6665,19 @@
       <c r="Z114" s="8"/>
     </row>
     <row r="115" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="111"/>
-      <c r="B115" s="95" t="s">
+      <c r="A115" s="116"/>
+      <c r="B115" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="C115" s="94"/>
-      <c r="D115" s="86"/>
-      <c r="E115" s="59" t="s">
+      <c r="C115" s="95"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="F115" s="98"/>
-      <c r="G115" s="98"/>
-      <c r="H115" s="95"/>
-      <c r="I115" s="94"/>
+      <c r="F115" s="103"/>
+      <c r="G115" s="103"/>
+      <c r="H115" s="96"/>
+      <c r="I115" s="95"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="7"/>
@@ -6665,19 +6697,19 @@
       <c r="Z115" s="8"/>
     </row>
     <row r="116" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="111"/>
-      <c r="B116" s="95" t="s">
+      <c r="A116" s="116"/>
+      <c r="B116" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="C116" s="94"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="98"/>
-      <c r="G116" s="98"/>
-      <c r="H116" s="95" t="s">
-        <v>380</v>
-      </c>
-      <c r="I116" s="94"/>
+      <c r="C116" s="95"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="63"/>
+      <c r="F116" s="103"/>
+      <c r="G116" s="103"/>
+      <c r="H116" s="96" t="s">
+        <v>376</v>
+      </c>
+      <c r="I116" s="95"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="7"/>
@@ -6697,17 +6729,17 @@
       <c r="Z116" s="8"/>
     </row>
     <row r="117" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="111"/>
-      <c r="B117" s="95" t="s">
+      <c r="A117" s="116"/>
+      <c r="B117" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="C117" s="94"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="72"/>
-      <c r="F117" s="98"/>
-      <c r="G117" s="98"/>
-      <c r="H117" s="95"/>
-      <c r="I117" s="94"/>
+      <c r="C117" s="95"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="103"/>
+      <c r="G117" s="103"/>
+      <c r="H117" s="96"/>
+      <c r="I117" s="95"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="7"/>
@@ -6727,17 +6759,17 @@
       <c r="Z117" s="8"/>
     </row>
     <row r="118" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="111"/>
-      <c r="B118" s="96"/>
-      <c r="C118" s="94"/>
-      <c r="D118" s="66"/>
-      <c r="E118" s="72"/>
-      <c r="F118" s="98"/>
-      <c r="G118" s="98"/>
-      <c r="H118" s="95" t="s">
+      <c r="A118" s="116"/>
+      <c r="B118" s="99"/>
+      <c r="C118" s="95"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="103"/>
+      <c r="G118" s="103"/>
+      <c r="H118" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="I118" s="94"/>
+      <c r="I118" s="95"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="7"/>
@@ -6757,18 +6789,18 @@
       <c r="Z118" s="8"/>
     </row>
     <row r="119" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="111"/>
-      <c r="C119" s="93" t="s">
-        <v>499</v>
-      </c>
-      <c r="D119" s="94"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="98"/>
-      <c r="G119" s="99"/>
-      <c r="H119" s="95" t="s">
+      <c r="A119" s="116"/>
+      <c r="C119" s="94" t="s">
+        <v>493</v>
+      </c>
+      <c r="D119" s="95"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="103"/>
+      <c r="G119" s="104"/>
+      <c r="H119" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="I119" s="94"/>
+      <c r="I119" s="95"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
@@ -6788,17 +6820,17 @@
       <c r="Z119" s="8"/>
     </row>
     <row r="120" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="113"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="95"/>
-      <c r="D120" s="94"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="99"/>
-      <c r="G120" s="95" t="s">
+      <c r="A120" s="118"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="95"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="104"/>
+      <c r="G120" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="H120" s="104"/>
-      <c r="I120" s="74"/>
+      <c r="H120" s="109"/>
+      <c r="I120" s="71"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
@@ -6822,8 +6854,10 @@
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="16"/>
+      <c r="E121" s="130" t="s">
+        <v>519</v>
+      </c>
+      <c r="F121" s="131"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
       <c r="I121" s="11"/>
@@ -6845,36 +6879,36 @@
       <c r="Y121" s="7"/>
       <c r="Z121" s="8"/>
     </row>
-    <row r="122" spans="1:26" s="46" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
-      <c r="B122" s="56"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="56"/>
-      <c r="F122" s="57"/>
-      <c r="G122" s="56"/>
-      <c r="H122" s="56"/>
-      <c r="I122" s="56"/>
-      <c r="J122" s="44"/>
-      <c r="K122" s="44"/>
-      <c r="L122" s="44"/>
-      <c r="M122" s="44"/>
-      <c r="N122" s="44"/>
-      <c r="O122" s="44"/>
-      <c r="P122" s="44"/>
-      <c r="Q122" s="44"/>
-      <c r="R122" s="44"/>
-      <c r="S122" s="44"/>
-      <c r="T122" s="44"/>
-      <c r="U122" s="44"/>
-      <c r="V122" s="44"/>
-      <c r="W122" s="44"/>
-      <c r="X122" s="44"/>
-      <c r="Y122" s="44"/>
-      <c r="Z122" s="45"/>
+    <row r="122" spans="1:26" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="53"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
+      <c r="O122" s="43"/>
+      <c r="P122" s="43"/>
+      <c r="Q122" s="43"/>
+      <c r="R122" s="43"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
+      <c r="U122" s="43"/>
+      <c r="V122" s="43"/>
+      <c r="W122" s="43"/>
+      <c r="X122" s="43"/>
+      <c r="Y122" s="43"/>
+      <c r="Z122" s="44"/>
     </row>
     <row r="123" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="110" t="s">
+      <c r="A123" s="115" t="s">
         <v>257</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -6884,14 +6918,14 @@
         <v>259</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F123" s="121" t="s">
+        <v>468</v>
+      </c>
+      <c r="F123" s="128" t="s">
         <v>13</v>
       </c>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
-      <c r="I123" s="17"/>
+      <c r="I123" s="16"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
@@ -6911,18 +6945,20 @@
       <c r="Z123" s="8"/>
     </row>
     <row r="124" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="111"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="43" t="s">
+      <c r="A124" s="116"/>
+      <c r="B124" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="C124" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="E124" s="43" t="s">
+      <c r="E124" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="F124" s="111"/>
+      <c r="F124" s="116"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
-      <c r="I124" s="17"/>
+      <c r="I124" s="16"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
@@ -6942,17 +6978,17 @@
       <c r="Z124" s="8"/>
     </row>
     <row r="125" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="111"/>
-      <c r="B125" s="72"/>
-      <c r="C125" s="60"/>
-      <c r="D125" s="59" t="s">
+      <c r="A125" s="116"/>
+      <c r="B125" s="69"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="E125" s="60"/>
-      <c r="F125" s="111"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="116"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
-      <c r="I125" s="17"/>
+      <c r="I125" s="16"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
@@ -6972,16 +7008,16 @@
       <c r="Z125" s="8"/>
     </row>
     <row r="126" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="111"/>
-      <c r="B126" s="72" t="s">
-        <v>441</v>
-      </c>
-      <c r="C126" s="59" t="s">
+      <c r="A126" s="116"/>
+      <c r="B126" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="C126" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="D126" s="60"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="111"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="63"/>
+      <c r="F126" s="116"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
       <c r="I126" s="15"/>
@@ -7004,16 +7040,16 @@
       <c r="Z126" s="8"/>
     </row>
     <row r="127" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="111"/>
-      <c r="B127" s="72"/>
-      <c r="C127" s="59" t="s">
+      <c r="A127" s="116"/>
+      <c r="B127" s="69"/>
+      <c r="C127" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="D127" s="61" t="s">
+      <c r="D127" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="E127" s="66"/>
-      <c r="F127" s="111"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="116"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
       <c r="I127" s="15"/>
@@ -7036,12 +7072,12 @@
       <c r="Z127" s="8"/>
     </row>
     <row r="128" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="111"/>
-      <c r="B128" s="72"/>
-      <c r="C128" s="60"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="69"/>
-      <c r="F128" s="111"/>
+      <c r="A128" s="116"/>
+      <c r="B128" s="69"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="116"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11"/>
@@ -7064,14 +7100,14 @@
       <c r="Z128" s="8"/>
     </row>
     <row r="129" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="111"/>
-      <c r="B129" s="59"/>
-      <c r="C129" s="84" t="s">
+      <c r="A129" s="116"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="D129" s="65"/>
-      <c r="E129" s="87"/>
-      <c r="F129" s="111"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="84"/>
+      <c r="F129" s="116"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
       <c r="I129" s="11"/>
@@ -7094,16 +7130,16 @@
       <c r="Z129" s="8"/>
     </row>
     <row r="130" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="111"/>
-      <c r="B130" s="95" t="s">
-        <v>415</v>
-      </c>
-      <c r="C130" s="94"/>
-      <c r="D130" s="122" t="s">
-        <v>501</v>
-      </c>
-      <c r="E130" s="94"/>
-      <c r="F130" s="111"/>
+      <c r="A130" s="116"/>
+      <c r="B130" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="C130" s="95"/>
+      <c r="D130" s="129" t="s">
+        <v>495</v>
+      </c>
+      <c r="E130" s="95"/>
+      <c r="F130" s="116"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="11"/>
@@ -7126,12 +7162,12 @@
       <c r="Z130" s="8"/>
     </row>
     <row r="131" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="111"/>
-      <c r="B131" s="95"/>
-      <c r="C131" s="94"/>
-      <c r="D131" s="95"/>
-      <c r="E131" s="94"/>
-      <c r="F131" s="111"/>
+      <c r="A131" s="116"/>
+      <c r="B131" s="96"/>
+      <c r="C131" s="95"/>
+      <c r="D131" s="96"/>
+      <c r="E131" s="95"/>
+      <c r="F131" s="116"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
       <c r="I131" s="11"/>
@@ -7154,16 +7190,16 @@
       <c r="Z131" s="8"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="111"/>
-      <c r="B132" s="95" t="s">
+      <c r="A132" s="116"/>
+      <c r="B132" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="C132" s="94"/>
-      <c r="D132" s="95" t="s">
+      <c r="C132" s="95"/>
+      <c r="D132" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="E132" s="94"/>
-      <c r="F132" s="111"/>
+      <c r="E132" s="95"/>
+      <c r="F132" s="116"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
@@ -7186,16 +7222,16 @@
       <c r="Z132" s="8"/>
     </row>
     <row r="133" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="111"/>
-      <c r="B133" s="95" t="s">
+      <c r="A133" s="116"/>
+      <c r="B133" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="C133" s="94"/>
-      <c r="D133" s="95" t="s">
-        <v>398</v>
-      </c>
-      <c r="E133" s="94"/>
-      <c r="F133" s="111"/>
+      <c r="C133" s="95"/>
+      <c r="D133" s="96" t="s">
+        <v>393</v>
+      </c>
+      <c r="E133" s="95"/>
+      <c r="F133" s="116"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7218,16 +7254,16 @@
       <c r="Z133" s="8"/>
     </row>
     <row r="134" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="111"/>
-      <c r="B134" s="95" t="s">
+      <c r="A134" s="116"/>
+      <c r="B134" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="C134" s="94"/>
-      <c r="D134" s="95" t="s">
+      <c r="C134" s="95"/>
+      <c r="D134" s="96" t="s">
         <v>269</v>
       </c>
-      <c r="E134" s="94"/>
-      <c r="F134" s="113"/>
+      <c r="E134" s="95"/>
+      <c r="F134" s="118"/>
       <c r="G134" s="15"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
@@ -7250,13 +7286,13 @@
       <c r="Z134" s="8"/>
     </row>
     <row r="135" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="111"/>
-      <c r="B135" s="95" t="s">
-        <v>506</v>
-      </c>
-      <c r="C135" s="94"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="73"/>
+      <c r="A135" s="116"/>
+      <c r="B135" s="96" t="s">
+        <v>499</v>
+      </c>
+      <c r="C135" s="95"/>
+      <c r="D135" s="70"/>
+      <c r="E135" s="70"/>
       <c r="F135" s="10"/>
       <c r="G135" s="15"/>
       <c r="H135" s="11"/>
@@ -7280,9 +7316,9 @@
       <c r="Z135" s="8"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="113"/>
-      <c r="B136" s="93"/>
-      <c r="C136" s="103"/>
+      <c r="A136" s="118"/>
+      <c r="B136" s="94"/>
+      <c r="C136" s="108"/>
       <c r="D136" s="11"/>
       <c r="E136" s="15"/>
       <c r="F136" s="13"/>
@@ -7307,54 +7343,54 @@
       <c r="Y136" s="7"/>
       <c r="Z136" s="8"/>
     </row>
-    <row r="137" spans="1:26" s="46" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="123"/>
-      <c r="B137" s="124"/>
-      <c r="C137" s="124"/>
-      <c r="D137" s="124"/>
-      <c r="E137" s="124"/>
-      <c r="F137" s="124"/>
-      <c r="G137" s="124"/>
-      <c r="H137" s="124"/>
-      <c r="I137" s="125"/>
-      <c r="J137" s="45"/>
-      <c r="K137" s="44"/>
-      <c r="L137" s="44"/>
-      <c r="M137" s="44"/>
-      <c r="N137" s="44"/>
-      <c r="O137" s="44"/>
-      <c r="P137" s="44"/>
-      <c r="Q137" s="44"/>
-      <c r="R137" s="44"/>
-      <c r="S137" s="44"/>
-      <c r="T137" s="44"/>
-      <c r="U137" s="44"/>
-      <c r="V137" s="44"/>
-      <c r="W137" s="44"/>
-      <c r="X137" s="44"/>
-      <c r="Y137" s="44"/>
-      <c r="Z137" s="45"/>
+    <row r="137" spans="1:26" s="45" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="132"/>
+      <c r="B137" s="133"/>
+      <c r="C137" s="133"/>
+      <c r="D137" s="133"/>
+      <c r="E137" s="133"/>
+      <c r="F137" s="133"/>
+      <c r="G137" s="133"/>
+      <c r="H137" s="133"/>
+      <c r="I137" s="134"/>
+      <c r="J137" s="44"/>
+      <c r="K137" s="43"/>
+      <c r="L137" s="43"/>
+      <c r="M137" s="43"/>
+      <c r="N137" s="43"/>
+      <c r="O137" s="43"/>
+      <c r="P137" s="43"/>
+      <c r="Q137" s="43"/>
+      <c r="R137" s="43"/>
+      <c r="S137" s="43"/>
+      <c r="T137" s="43"/>
+      <c r="U137" s="43"/>
+      <c r="V137" s="43"/>
+      <c r="W137" s="43"/>
+      <c r="X137" s="43"/>
+      <c r="Y137" s="43"/>
+      <c r="Z137" s="44"/>
     </row>
     <row r="138" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="18"/>
-      <c r="B138" s="19" t="s">
+      <c r="A138" s="17"/>
+      <c r="B138" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C138" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="D138" s="19" t="s">
+      <c r="D138" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="E138" s="19"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="19" t="s">
+      <c r="E138" s="18"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="H138" s="19" t="s">
+      <c r="H138" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="I138" s="19" t="s">
+      <c r="I138" s="18" t="s">
         <v>272</v>
       </c>
       <c r="J138" s="7"/>
@@ -7376,12 +7412,12 @@
       <c r="Z138" s="8"/>
     </row>
     <row r="139" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="21"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="24"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="23"/>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
       <c r="I139" s="10"/>
@@ -7404,385 +7440,385 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="25"/>
-      <c r="B140" s="26" t="s">
+      <c r="A140" s="24"/>
+      <c r="B140" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C140" s="26" t="s">
+      <c r="C140" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="D140" s="23" t="s">
+      <c r="D140" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="E140" s="27"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="26" t="s">
+      <c r="E140" s="26"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="H140" s="26" t="s">
+      <c r="H140" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="I140" s="23" t="s">
+      <c r="I140" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="J140" s="29"/>
-      <c r="K140" s="29"/>
-      <c r="L140" s="29"/>
-      <c r="M140" s="29"/>
-      <c r="N140" s="29"/>
-      <c r="O140" s="29"/>
-      <c r="P140" s="29"/>
-      <c r="Q140" s="29"/>
-      <c r="R140" s="29"/>
-      <c r="S140" s="29"/>
-      <c r="T140" s="29"/>
-      <c r="U140" s="29"/>
-      <c r="V140" s="29"/>
-      <c r="W140" s="29"/>
-      <c r="X140" s="29"/>
-      <c r="Y140" s="29"/>
-      <c r="Z140" s="30"/>
+      <c r="J140" s="28"/>
+      <c r="K140" s="28"/>
+      <c r="L140" s="28"/>
+      <c r="M140" s="28"/>
+      <c r="N140" s="28"/>
+      <c r="O140" s="28"/>
+      <c r="P140" s="28"/>
+      <c r="Q140" s="28"/>
+      <c r="R140" s="28"/>
+      <c r="S140" s="28"/>
+      <c r="T140" s="28"/>
+      <c r="U140" s="28"/>
+      <c r="V140" s="28"/>
+      <c r="W140" s="28"/>
+      <c r="X140" s="28"/>
+      <c r="Y140" s="28"/>
+      <c r="Z140" s="29"/>
     </row>
     <row r="141" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="25"/>
-      <c r="B141" s="26" t="s">
+      <c r="A141" s="24"/>
+      <c r="B141" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="E141" s="26"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="26" t="s">
+      <c r="E141" s="25"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="H141" s="26" t="s">
+      <c r="H141" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="I141" s="23" t="s">
+      <c r="I141" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="J141" s="29"/>
-      <c r="K141" s="29"/>
-      <c r="L141" s="29"/>
-      <c r="M141" s="29"/>
-      <c r="N141" s="29"/>
-      <c r="O141" s="29"/>
-      <c r="P141" s="29"/>
-      <c r="Q141" s="29"/>
-      <c r="R141" s="29"/>
-      <c r="S141" s="29"/>
-      <c r="T141" s="29"/>
-      <c r="U141" s="29"/>
-      <c r="V141" s="29"/>
-      <c r="W141" s="29"/>
-      <c r="X141" s="29"/>
-      <c r="Y141" s="29"/>
-      <c r="Z141" s="30"/>
+      <c r="J141" s="28"/>
+      <c r="K141" s="28"/>
+      <c r="L141" s="28"/>
+      <c r="M141" s="28"/>
+      <c r="N141" s="28"/>
+      <c r="O141" s="28"/>
+      <c r="P141" s="28"/>
+      <c r="Q141" s="28"/>
+      <c r="R141" s="28"/>
+      <c r="S141" s="28"/>
+      <c r="T141" s="28"/>
+      <c r="U141" s="28"/>
+      <c r="V141" s="28"/>
+      <c r="W141" s="28"/>
+      <c r="X141" s="28"/>
+      <c r="Y141" s="28"/>
+      <c r="Z141" s="29"/>
     </row>
     <row r="142" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="25"/>
-      <c r="B142" s="26" t="s">
+      <c r="A142" s="24"/>
+      <c r="B142" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="E142" s="26"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="26" t="s">
+      <c r="E142" s="25"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="H142" s="26" t="s">
+      <c r="H142" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="I142" s="23" t="s">
+      <c r="I142" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="J142" s="29"/>
-      <c r="K142" s="29"/>
-      <c r="L142" s="29"/>
-      <c r="M142" s="29"/>
-      <c r="N142" s="29"/>
-      <c r="O142" s="29"/>
-      <c r="P142" s="29"/>
-      <c r="Q142" s="29"/>
-      <c r="R142" s="29"/>
-      <c r="S142" s="29"/>
-      <c r="T142" s="29"/>
-      <c r="U142" s="29"/>
-      <c r="V142" s="29"/>
-      <c r="W142" s="29"/>
-      <c r="X142" s="29"/>
-      <c r="Y142" s="29"/>
-      <c r="Z142" s="30"/>
+      <c r="J142" s="28"/>
+      <c r="K142" s="28"/>
+      <c r="L142" s="28"/>
+      <c r="M142" s="28"/>
+      <c r="N142" s="28"/>
+      <c r="O142" s="28"/>
+      <c r="P142" s="28"/>
+      <c r="Q142" s="28"/>
+      <c r="R142" s="28"/>
+      <c r="S142" s="28"/>
+      <c r="T142" s="28"/>
+      <c r="U142" s="28"/>
+      <c r="V142" s="28"/>
+      <c r="W142" s="28"/>
+      <c r="X142" s="28"/>
+      <c r="Y142" s="28"/>
+      <c r="Z142" s="29"/>
     </row>
     <row r="143" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="25"/>
-      <c r="B143" s="26" t="s">
+      <c r="A143" s="24"/>
+      <c r="B143" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="E143" s="26"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="26" t="s">
+      <c r="E143" s="25"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="H143" s="26" t="s">
+      <c r="H143" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="I143" s="23" t="s">
+      <c r="I143" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="J143" s="29"/>
-      <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
-      <c r="M143" s="29"/>
-      <c r="N143" s="29"/>
-      <c r="O143" s="29"/>
-      <c r="P143" s="29"/>
-      <c r="Q143" s="29"/>
-      <c r="R143" s="29"/>
-      <c r="S143" s="29"/>
-      <c r="T143" s="29"/>
-      <c r="U143" s="29"/>
-      <c r="V143" s="29"/>
-      <c r="W143" s="29"/>
-      <c r="X143" s="29"/>
-      <c r="Y143" s="29"/>
-      <c r="Z143" s="30"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="28"/>
+      <c r="M143" s="28"/>
+      <c r="N143" s="28"/>
+      <c r="O143" s="28"/>
+      <c r="P143" s="28"/>
+      <c r="Q143" s="28"/>
+      <c r="R143" s="28"/>
+      <c r="S143" s="28"/>
+      <c r="T143" s="28"/>
+      <c r="U143" s="28"/>
+      <c r="V143" s="28"/>
+      <c r="W143" s="28"/>
+      <c r="X143" s="28"/>
+      <c r="Y143" s="28"/>
+      <c r="Z143" s="29"/>
     </row>
     <row r="144" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="25"/>
-      <c r="B144" s="26" t="s">
+      <c r="A144" s="24"/>
+      <c r="B144" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="C144" s="26" t="s">
+      <c r="C144" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="E144" s="26"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="26" t="s">
+      <c r="E144" s="25"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="H144" s="26" t="s">
+      <c r="H144" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="I144" s="23" t="s">
+      <c r="I144" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="J144" s="29"/>
-      <c r="K144" s="29"/>
-      <c r="L144" s="29"/>
-      <c r="M144" s="29"/>
-      <c r="N144" s="29"/>
-      <c r="O144" s="29"/>
-      <c r="P144" s="29"/>
-      <c r="Q144" s="29"/>
-      <c r="R144" s="29"/>
-      <c r="S144" s="29"/>
-      <c r="T144" s="29"/>
-      <c r="U144" s="29"/>
-      <c r="V144" s="29"/>
-      <c r="W144" s="29"/>
-      <c r="X144" s="29"/>
-      <c r="Y144" s="29"/>
-      <c r="Z144" s="30"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="28"/>
+      <c r="L144" s="28"/>
+      <c r="M144" s="28"/>
+      <c r="N144" s="28"/>
+      <c r="O144" s="28"/>
+      <c r="P144" s="28"/>
+      <c r="Q144" s="28"/>
+      <c r="R144" s="28"/>
+      <c r="S144" s="28"/>
+      <c r="T144" s="28"/>
+      <c r="U144" s="28"/>
+      <c r="V144" s="28"/>
+      <c r="W144" s="28"/>
+      <c r="X144" s="28"/>
+      <c r="Y144" s="28"/>
+      <c r="Z144" s="29"/>
     </row>
     <row r="145" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="25"/>
-      <c r="B145" s="26" t="s">
+      <c r="A145" s="24"/>
+      <c r="B145" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="E145" s="26"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="26" t="s">
+      <c r="E145" s="25"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="H145" s="26" t="s">
+      <c r="H145" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="I145" s="23" t="s">
+      <c r="I145" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="J145" s="29"/>
-      <c r="K145" s="29"/>
-      <c r="L145" s="29"/>
-      <c r="M145" s="29"/>
-      <c r="N145" s="29"/>
-      <c r="O145" s="29"/>
-      <c r="P145" s="29"/>
-      <c r="Q145" s="29"/>
-      <c r="R145" s="29"/>
-      <c r="S145" s="29"/>
-      <c r="T145" s="29"/>
-      <c r="U145" s="29"/>
-      <c r="V145" s="29"/>
-      <c r="W145" s="29"/>
-      <c r="X145" s="29"/>
-      <c r="Y145" s="29"/>
-      <c r="Z145" s="30"/>
+      <c r="J145" s="28"/>
+      <c r="K145" s="28"/>
+      <c r="L145" s="28"/>
+      <c r="M145" s="28"/>
+      <c r="N145" s="28"/>
+      <c r="O145" s="28"/>
+      <c r="P145" s="28"/>
+      <c r="Q145" s="28"/>
+      <c r="R145" s="28"/>
+      <c r="S145" s="28"/>
+      <c r="T145" s="28"/>
+      <c r="U145" s="28"/>
+      <c r="V145" s="28"/>
+      <c r="W145" s="28"/>
+      <c r="X145" s="28"/>
+      <c r="Y145" s="28"/>
+      <c r="Z145" s="29"/>
     </row>
     <row r="146" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="25"/>
-      <c r="B146" s="26" t="s">
+      <c r="A146" s="24"/>
+      <c r="B146" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C146" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="E146" s="26"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="26" t="s">
+      <c r="E146" s="25"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="H146" s="26" t="s">
+      <c r="H146" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="I146" s="23" t="s">
+      <c r="I146" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="J146" s="29"/>
-      <c r="K146" s="29"/>
-      <c r="L146" s="29"/>
-      <c r="M146" s="29"/>
-      <c r="N146" s="29"/>
-      <c r="O146" s="29"/>
-      <c r="P146" s="29"/>
-      <c r="Q146" s="29"/>
-      <c r="R146" s="29"/>
-      <c r="S146" s="29"/>
-      <c r="T146" s="29"/>
-      <c r="U146" s="29"/>
-      <c r="V146" s="29"/>
-      <c r="W146" s="29"/>
-      <c r="X146" s="29"/>
-      <c r="Y146" s="29"/>
-      <c r="Z146" s="30"/>
+      <c r="J146" s="28"/>
+      <c r="K146" s="28"/>
+      <c r="L146" s="28"/>
+      <c r="M146" s="28"/>
+      <c r="N146" s="28"/>
+      <c r="O146" s="28"/>
+      <c r="P146" s="28"/>
+      <c r="Q146" s="28"/>
+      <c r="R146" s="28"/>
+      <c r="S146" s="28"/>
+      <c r="T146" s="28"/>
+      <c r="U146" s="28"/>
+      <c r="V146" s="28"/>
+      <c r="W146" s="28"/>
+      <c r="X146" s="28"/>
+      <c r="Y146" s="28"/>
+      <c r="Z146" s="29"/>
     </row>
     <row r="147" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="25"/>
-      <c r="B147" s="26" t="s">
+      <c r="A147" s="24"/>
+      <c r="B147" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="D147" s="31" t="s">
+      <c r="D147" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="E147" s="26"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="26" t="s">
+      <c r="E147" s="25"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="H147" s="26" t="s">
+      <c r="H147" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="I147" s="23" t="s">
+      <c r="I147" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="J147" s="29"/>
-      <c r="K147" s="29"/>
-      <c r="L147" s="29"/>
-      <c r="M147" s="29"/>
-      <c r="N147" s="29"/>
-      <c r="O147" s="29"/>
-      <c r="P147" s="29"/>
-      <c r="Q147" s="29"/>
-      <c r="R147" s="29"/>
-      <c r="S147" s="29"/>
-      <c r="T147" s="29"/>
-      <c r="U147" s="29"/>
-      <c r="V147" s="29"/>
-      <c r="W147" s="29"/>
-      <c r="X147" s="29"/>
-      <c r="Y147" s="29"/>
-      <c r="Z147" s="30"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="28"/>
+      <c r="L147" s="28"/>
+      <c r="M147" s="28"/>
+      <c r="N147" s="28"/>
+      <c r="O147" s="28"/>
+      <c r="P147" s="28"/>
+      <c r="Q147" s="28"/>
+      <c r="R147" s="28"/>
+      <c r="S147" s="28"/>
+      <c r="T147" s="28"/>
+      <c r="U147" s="28"/>
+      <c r="V147" s="28"/>
+      <c r="W147" s="28"/>
+      <c r="X147" s="28"/>
+      <c r="Y147" s="28"/>
+      <c r="Z147" s="29"/>
     </row>
     <row r="148" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="25"/>
-      <c r="B148" s="26" t="s">
+      <c r="A148" s="24"/>
+      <c r="B148" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="D148" s="26" t="s">
+      <c r="D148" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="E148" s="26"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="26" t="s">
+      <c r="E148" s="25"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="H148" s="26" t="s">
+      <c r="H148" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="I148" s="23" t="s">
+      <c r="I148" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="J148" s="29"/>
-      <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
-      <c r="M148" s="29"/>
-      <c r="N148" s="29"/>
-      <c r="O148" s="29"/>
-      <c r="P148" s="29"/>
-      <c r="Q148" s="29"/>
-      <c r="R148" s="29"/>
-      <c r="S148" s="29"/>
-      <c r="T148" s="29"/>
-      <c r="U148" s="29"/>
-      <c r="V148" s="29"/>
-      <c r="W148" s="29"/>
-      <c r="X148" s="29"/>
-      <c r="Y148" s="29"/>
-      <c r="Z148" s="30"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="28"/>
+      <c r="M148" s="28"/>
+      <c r="N148" s="28"/>
+      <c r="O148" s="28"/>
+      <c r="P148" s="28"/>
+      <c r="Q148" s="28"/>
+      <c r="R148" s="28"/>
+      <c r="S148" s="28"/>
+      <c r="T148" s="28"/>
+      <c r="U148" s="28"/>
+      <c r="V148" s="28"/>
+      <c r="W148" s="28"/>
+      <c r="X148" s="28"/>
+      <c r="Y148" s="28"/>
+      <c r="Z148" s="29"/>
     </row>
     <row r="149" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="21"/>
-      <c r="B149" s="26" t="s">
+      <c r="A149" s="20"/>
+      <c r="B149" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="D149" s="26" t="s">
+      <c r="D149" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="E149" s="26"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="26" t="s">
+      <c r="E149" s="25"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="H149" s="26" t="s">
+      <c r="H149" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="I149" s="23" t="s">
+      <c r="I149" s="22" t="s">
         <v>330</v>
       </c>
       <c r="J149" s="2"/>
@@ -7804,25 +7840,25 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="21"/>
-      <c r="B150" s="26" t="s">
+      <c r="A150" s="20"/>
+      <c r="B150" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="C150" s="26" t="s">
+      <c r="C150" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="D150" s="26" t="s">
+      <c r="D150" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="E150" s="26"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="26" t="s">
+      <c r="E150" s="25"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="H150" s="26" t="s">
+      <c r="H150" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="I150" s="23" t="s">
+      <c r="I150" s="22" t="s">
         <v>336</v>
       </c>
       <c r="J150" s="2"/>
@@ -7844,25 +7880,25 @@
       <c r="Z150" s="3"/>
     </row>
     <row r="151" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="21"/>
-      <c r="B151" s="26" t="s">
+      <c r="A151" s="20"/>
+      <c r="B151" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="C151" s="26" t="s">
+      <c r="C151" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="D151" s="26" t="s">
+      <c r="D151" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="E151" s="26"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="26" t="s">
+      <c r="E151" s="25"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="H151" s="26" t="s">
+      <c r="H151" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="I151" s="23" t="s">
+      <c r="I151" s="22" t="s">
         <v>342</v>
       </c>
       <c r="J151" s="2"/>
@@ -7884,25 +7920,25 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="21"/>
-      <c r="B152" s="26" t="s">
+      <c r="A152" s="20"/>
+      <c r="B152" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="C152" s="26" t="s">
+      <c r="C152" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="D152" s="26" t="s">
+      <c r="D152" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="E152" s="26"/>
-      <c r="F152" s="24"/>
-      <c r="G152" s="26" t="s">
+      <c r="E152" s="25"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="H152" s="26" t="s">
+      <c r="H152" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="I152" s="23" t="s">
+      <c r="I152" s="22" t="s">
         <v>348</v>
       </c>
       <c r="J152" s="2"/>
@@ -7924,21 +7960,21 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="21"/>
-      <c r="B153" s="26" t="s">
+      <c r="A153" s="20"/>
+      <c r="B153" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="C153" s="26" t="s">
+      <c r="C153" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="D153" s="26" t="s">
+      <c r="D153" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="E153" s="26"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="22"/>
-      <c r="H153" s="22"/>
-      <c r="I153" s="22"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="21"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
@@ -7958,21 +7994,21 @@
       <c r="Z153" s="3"/>
     </row>
     <row r="154" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="21"/>
-      <c r="B154" s="26" t="s">
+      <c r="A154" s="20"/>
+      <c r="B154" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C154" s="26" t="s">
+      <c r="C154" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="D154" s="26" t="s">
+      <c r="D154" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="E154" s="26"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="22"/>
-      <c r="H154" s="22"/>
-      <c r="I154" s="22"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="21"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
@@ -7992,21 +8028,21 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="21"/>
-      <c r="B155" s="26" t="s">
+      <c r="A155" s="20"/>
+      <c r="B155" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="C155" s="26" t="s">
+      <c r="C155" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="D155" s="26" t="s">
+      <c r="D155" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="E155" s="26"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="22"/>
-      <c r="I155" s="22"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
@@ -8026,21 +8062,21 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="21"/>
-      <c r="B156" s="26" t="s">
+      <c r="A156" s="20"/>
+      <c r="B156" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="C156" s="26" t="s">
+      <c r="C156" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="D156" s="26" t="s">
+      <c r="D156" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="E156" s="26"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="22"/>
-      <c r="H156" s="22"/>
-      <c r="I156" s="22"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
@@ -8060,21 +8096,21 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="21"/>
-      <c r="B157" s="39" t="s">
+      <c r="A157" s="20"/>
+      <c r="B157" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="C157" s="39" t="s">
+      <c r="C157" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="D157" s="26" t="s">
+      <c r="D157" s="25" t="s">
         <v>362</v>
       </c>
       <c r="E157" s="10"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="22"/>
-      <c r="I157" s="22"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
@@ -8094,15 +8130,15 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="21"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="22"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="22"/>
-      <c r="H158" s="22"/>
-      <c r="I158" s="22"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
       <c r="J158" s="9"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
@@ -8122,15 +8158,15 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="21"/>
-      <c r="B159" s="32"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="22"/>
-      <c r="I159" s="22"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
       <c r="J159" s="9"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
@@ -8151,14 +8187,14 @@
     </row>
     <row r="160" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
-      <c r="B160" s="34"/>
-      <c r="C160" s="34"/>
-      <c r="D160" s="34"/>
-      <c r="E160" s="35"/>
-      <c r="F160" s="36"/>
-      <c r="G160" s="34"/>
-      <c r="H160" s="34"/>
-      <c r="I160" s="34"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="34"/>
+      <c r="F160" s="35"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="33"/>
+      <c r="I160" s="33"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
@@ -8179,14 +8215,14 @@
     </row>
     <row r="161" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
-      <c r="B161" s="34"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="34"/>
-      <c r="E161" s="35"/>
-      <c r="F161" s="36"/>
-      <c r="G161" s="34"/>
-      <c r="H161" s="34"/>
-      <c r="I161" s="34"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="34"/>
+      <c r="F161" s="35"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="33"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -8207,14 +8243,14 @@
     </row>
     <row r="162" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
-      <c r="B162" s="34"/>
-      <c r="C162" s="34"/>
-      <c r="D162" s="34"/>
-      <c r="E162" s="35"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="34"/>
-      <c r="H162" s="34"/>
-      <c r="I162" s="34"/>
+      <c r="B162" s="33"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="34"/>
+      <c r="F162" s="35"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="33"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
@@ -8235,14 +8271,14 @@
     </row>
     <row r="163" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
-      <c r="B163" s="34"/>
-      <c r="C163" s="34"/>
-      <c r="D163" s="34"/>
-      <c r="E163" s="35"/>
-      <c r="F163" s="36"/>
-      <c r="G163" s="34"/>
-      <c r="H163" s="34"/>
-      <c r="I163" s="34"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="34"/>
+      <c r="F163" s="35"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="33"/>
+      <c r="I163" s="33"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -8263,14 +8299,14 @@
     </row>
     <row r="164" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
-      <c r="B164" s="34"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34"/>
-      <c r="E164" s="35"/>
-      <c r="F164" s="36"/>
-      <c r="G164" s="34"/>
-      <c r="H164" s="34"/>
-      <c r="I164" s="34"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="34"/>
+      <c r="F164" s="35"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="33"/>
+      <c r="I164" s="33"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
@@ -8291,14 +8327,14 @@
     </row>
     <row r="165" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
-      <c r="B165" s="34"/>
-      <c r="C165" s="34"/>
-      <c r="D165" s="34"/>
-      <c r="E165" s="35"/>
-      <c r="F165" s="36"/>
-      <c r="G165" s="34"/>
-      <c r="H165" s="34"/>
-      <c r="I165" s="34"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="34"/>
+      <c r="F165" s="35"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="33"/>
+      <c r="I165" s="33"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
@@ -8319,14 +8355,14 @@
     </row>
     <row r="166" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
-      <c r="B166" s="34"/>
-      <c r="C166" s="34"/>
-      <c r="D166" s="34"/>
-      <c r="E166" s="35"/>
-      <c r="F166" s="36"/>
-      <c r="G166" s="34"/>
-      <c r="H166" s="34"/>
-      <c r="I166" s="34"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="34"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="33"/>
+      <c r="I166" s="33"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
@@ -8347,14 +8383,14 @@
     </row>
     <row r="167" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
-      <c r="B167" s="34"/>
-      <c r="C167" s="34"/>
-      <c r="D167" s="34"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="36"/>
-      <c r="G167" s="34"/>
-      <c r="H167" s="34"/>
-      <c r="I167" s="34"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="34"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="33"/>
+      <c r="I167" s="33"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
@@ -8375,14 +8411,14 @@
     </row>
     <row r="168" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
-      <c r="B168" s="34"/>
+      <c r="B168" s="33"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
-      <c r="E168" s="35"/>
-      <c r="F168" s="36"/>
-      <c r="G168" s="34"/>
-      <c r="H168" s="34"/>
-      <c r="I168" s="34"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="33"/>
+      <c r="I168" s="33"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
@@ -8403,14 +8439,14 @@
     </row>
     <row r="169" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
-      <c r="B169" s="34"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="35"/>
-      <c r="F169" s="36"/>
-      <c r="G169" s="34"/>
-      <c r="H169" s="34"/>
-      <c r="I169" s="34"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="35"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="33"/>
+      <c r="I169" s="33"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
@@ -8431,14 +8467,14 @@
     </row>
     <row r="170" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
-      <c r="B170" s="34"/>
-      <c r="C170" s="34"/>
-      <c r="D170" s="34"/>
-      <c r="E170" s="35"/>
-      <c r="F170" s="36"/>
-      <c r="G170" s="34"/>
-      <c r="H170" s="34"/>
-      <c r="I170" s="34"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="34"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="33"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
@@ -8459,14 +8495,14 @@
     </row>
     <row r="171" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
-      <c r="B171" s="34"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34"/>
-      <c r="E171" s="35"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="34"/>
-      <c r="H171" s="34"/>
-      <c r="I171" s="34"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="34"/>
+      <c r="F171" s="35"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="33"/>
+      <c r="I171" s="33"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
@@ -8487,14 +8523,14 @@
     </row>
     <row r="172" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
-      <c r="B172" s="34"/>
-      <c r="C172" s="34"/>
-      <c r="D172" s="34"/>
-      <c r="E172" s="35"/>
-      <c r="F172" s="36"/>
-      <c r="G172" s="34"/>
-      <c r="H172" s="34"/>
-      <c r="I172" s="34"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="34"/>
+      <c r="F172" s="35"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="33"/>
+      <c r="I172" s="33"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
@@ -8515,14 +8551,14 @@
     </row>
     <row r="173" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
-      <c r="B173" s="34"/>
-      <c r="C173" s="34"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="35"/>
-      <c r="F173" s="36"/>
-      <c r="G173" s="34"/>
-      <c r="H173" s="34"/>
-      <c r="I173" s="34"/>
+      <c r="B173" s="33"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="33"/>
+      <c r="I173" s="33"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
@@ -8543,14 +8579,14 @@
     </row>
     <row r="174" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
-      <c r="B174" s="34"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="34"/>
-      <c r="E174" s="35"/>
-      <c r="F174" s="36"/>
-      <c r="G174" s="34"/>
-      <c r="H174" s="34"/>
-      <c r="I174" s="34"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="34"/>
+      <c r="F174" s="35"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="33"/>
+      <c r="I174" s="33"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
@@ -8571,14 +8607,14 @@
     </row>
     <row r="175" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
-      <c r="B175" s="34"/>
-      <c r="C175" s="34"/>
-      <c r="D175" s="34"/>
-      <c r="E175" s="35"/>
-      <c r="F175" s="36"/>
-      <c r="G175" s="34"/>
-      <c r="H175" s="34"/>
-      <c r="I175" s="34"/>
+      <c r="B175" s="33"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="34"/>
+      <c r="F175" s="35"/>
+      <c r="G175" s="33"/>
+      <c r="H175" s="33"/>
+      <c r="I175" s="33"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
@@ -8599,14 +8635,14 @@
     </row>
     <row r="176" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
-      <c r="B176" s="34"/>
-      <c r="C176" s="34"/>
-      <c r="D176" s="34"/>
-      <c r="E176" s="35"/>
-      <c r="F176" s="36"/>
-      <c r="G176" s="34"/>
-      <c r="H176" s="34"/>
-      <c r="I176" s="34"/>
+      <c r="B176" s="33"/>
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="34"/>
+      <c r="F176" s="35"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="33"/>
+      <c r="I176" s="33"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
@@ -8627,14 +8663,14 @@
     </row>
     <row r="177" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
-      <c r="B177" s="34"/>
-      <c r="C177" s="34"/>
-      <c r="D177" s="34"/>
-      <c r="E177" s="35"/>
-      <c r="F177" s="36"/>
-      <c r="G177" s="34"/>
-      <c r="H177" s="34"/>
-      <c r="I177" s="34"/>
+      <c r="B177" s="33"/>
+      <c r="C177" s="33"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="34"/>
+      <c r="F177" s="35"/>
+      <c r="G177" s="33"/>
+      <c r="H177" s="33"/>
+      <c r="I177" s="33"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
@@ -8655,14 +8691,14 @@
     </row>
     <row r="178" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
-      <c r="B178" s="34"/>
-      <c r="C178" s="34"/>
-      <c r="D178" s="34"/>
-      <c r="E178" s="35"/>
-      <c r="F178" s="36"/>
-      <c r="G178" s="34"/>
-      <c r="H178" s="34"/>
-      <c r="I178" s="34"/>
+      <c r="B178" s="33"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="34"/>
+      <c r="F178" s="35"/>
+      <c r="G178" s="33"/>
+      <c r="H178" s="33"/>
+      <c r="I178" s="33"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
@@ -8683,14 +8719,14 @@
     </row>
     <row r="179" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
-      <c r="B179" s="34"/>
-      <c r="C179" s="34"/>
-      <c r="D179" s="34"/>
-      <c r="E179" s="35"/>
-      <c r="F179" s="36"/>
-      <c r="G179" s="34"/>
-      <c r="H179" s="34"/>
-      <c r="I179" s="34"/>
+      <c r="B179" s="33"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="34"/>
+      <c r="F179" s="35"/>
+      <c r="G179" s="33"/>
+      <c r="H179" s="33"/>
+      <c r="I179" s="33"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
@@ -8711,14 +8747,14 @@
     </row>
     <row r="180" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
-      <c r="B180" s="34"/>
-      <c r="C180" s="34"/>
-      <c r="D180" s="34"/>
-      <c r="E180" s="35"/>
-      <c r="F180" s="36"/>
-      <c r="G180" s="34"/>
-      <c r="H180" s="34"/>
-      <c r="I180" s="34"/>
+      <c r="B180" s="33"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="34"/>
+      <c r="F180" s="35"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="33"/>
+      <c r="I180" s="33"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
@@ -8739,14 +8775,14 @@
     </row>
     <row r="181" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
-      <c r="B181" s="34"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="34"/>
-      <c r="E181" s="35"/>
-      <c r="F181" s="36"/>
-      <c r="G181" s="34"/>
-      <c r="H181" s="34"/>
-      <c r="I181" s="34"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="34"/>
+      <c r="F181" s="35"/>
+      <c r="G181" s="33"/>
+      <c r="H181" s="33"/>
+      <c r="I181" s="33"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
@@ -8767,14 +8803,14 @@
     </row>
     <row r="182" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
-      <c r="B182" s="34"/>
-      <c r="C182" s="34"/>
-      <c r="D182" s="34"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="36"/>
-      <c r="G182" s="34"/>
-      <c r="H182" s="34"/>
-      <c r="I182" s="34"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="34"/>
+      <c r="F182" s="35"/>
+      <c r="G182" s="33"/>
+      <c r="H182" s="33"/>
+      <c r="I182" s="33"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
@@ -8795,14 +8831,14 @@
     </row>
     <row r="183" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
-      <c r="B183" s="34"/>
-      <c r="C183" s="34"/>
-      <c r="D183" s="34"/>
-      <c r="E183" s="35"/>
-      <c r="F183" s="36"/>
-      <c r="G183" s="34"/>
-      <c r="H183" s="34"/>
-      <c r="I183" s="34"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="34"/>
+      <c r="F183" s="35"/>
+      <c r="G183" s="33"/>
+      <c r="H183" s="33"/>
+      <c r="I183" s="33"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
@@ -8823,14 +8859,14 @@
     </row>
     <row r="184" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
-      <c r="B184" s="34"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="34"/>
-      <c r="E184" s="35"/>
-      <c r="F184" s="36"/>
-      <c r="G184" s="34"/>
-      <c r="H184" s="34"/>
-      <c r="I184" s="34"/>
+      <c r="B184" s="33"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="34"/>
+      <c r="F184" s="35"/>
+      <c r="G184" s="33"/>
+      <c r="H184" s="33"/>
+      <c r="I184" s="33"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
@@ -8851,14 +8887,14 @@
     </row>
     <row r="185" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
-      <c r="B185" s="34"/>
-      <c r="C185" s="34"/>
-      <c r="D185" s="34"/>
-      <c r="E185" s="35"/>
-      <c r="F185" s="36"/>
-      <c r="G185" s="34"/>
-      <c r="H185" s="34"/>
-      <c r="I185" s="34"/>
+      <c r="B185" s="33"/>
+      <c r="C185" s="33"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="34"/>
+      <c r="F185" s="35"/>
+      <c r="G185" s="33"/>
+      <c r="H185" s="33"/>
+      <c r="I185" s="33"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
@@ -8879,14 +8915,14 @@
     </row>
     <row r="186" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
-      <c r="B186" s="34"/>
-      <c r="C186" s="34"/>
-      <c r="D186" s="34"/>
-      <c r="E186" s="35"/>
-      <c r="F186" s="36"/>
-      <c r="G186" s="34"/>
-      <c r="H186" s="34"/>
-      <c r="I186" s="34"/>
+      <c r="B186" s="33"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="34"/>
+      <c r="F186" s="35"/>
+      <c r="G186" s="33"/>
+      <c r="H186" s="33"/>
+      <c r="I186" s="33"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -8907,14 +8943,14 @@
     </row>
     <row r="187" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
-      <c r="B187" s="34"/>
-      <c r="C187" s="34"/>
-      <c r="D187" s="34"/>
-      <c r="E187" s="35"/>
-      <c r="F187" s="36"/>
-      <c r="G187" s="34"/>
-      <c r="H187" s="34"/>
-      <c r="I187" s="34"/>
+      <c r="B187" s="33"/>
+      <c r="C187" s="33"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="34"/>
+      <c r="F187" s="35"/>
+      <c r="G187" s="33"/>
+      <c r="H187" s="33"/>
+      <c r="I187" s="33"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
@@ -8935,14 +8971,14 @@
     </row>
     <row r="188" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
-      <c r="B188" s="34"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="34"/>
-      <c r="E188" s="35"/>
-      <c r="F188" s="36"/>
-      <c r="G188" s="34"/>
-      <c r="H188" s="34"/>
-      <c r="I188" s="34"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="33"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="34"/>
+      <c r="F188" s="35"/>
+      <c r="G188" s="33"/>
+      <c r="H188" s="33"/>
+      <c r="I188" s="33"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
@@ -8963,14 +8999,14 @@
     </row>
     <row r="189" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
-      <c r="B189" s="34"/>
-      <c r="C189" s="34"/>
-      <c r="D189" s="34"/>
-      <c r="E189" s="35"/>
-      <c r="F189" s="36"/>
-      <c r="G189" s="34"/>
-      <c r="H189" s="34"/>
-      <c r="I189" s="34"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="34"/>
+      <c r="F189" s="35"/>
+      <c r="G189" s="33"/>
+      <c r="H189" s="33"/>
+      <c r="I189" s="33"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
@@ -8991,14 +9027,14 @@
     </row>
     <row r="190" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
-      <c r="B190" s="34"/>
-      <c r="C190" s="34"/>
-      <c r="D190" s="34"/>
-      <c r="E190" s="35"/>
-      <c r="F190" s="36"/>
-      <c r="G190" s="34"/>
-      <c r="H190" s="34"/>
-      <c r="I190" s="34"/>
+      <c r="B190" s="33"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="34"/>
+      <c r="F190" s="35"/>
+      <c r="G190" s="33"/>
+      <c r="H190" s="33"/>
+      <c r="I190" s="33"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
@@ -9019,14 +9055,14 @@
     </row>
     <row r="191" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
-      <c r="B191" s="34"/>
-      <c r="C191" s="34"/>
-      <c r="D191" s="34"/>
-      <c r="E191" s="35"/>
-      <c r="F191" s="36"/>
-      <c r="G191" s="34"/>
-      <c r="H191" s="34"/>
-      <c r="I191" s="34"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="34"/>
+      <c r="F191" s="35"/>
+      <c r="G191" s="33"/>
+      <c r="H191" s="33"/>
+      <c r="I191" s="33"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
@@ -9047,14 +9083,14 @@
     </row>
     <row r="192" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
-      <c r="B192" s="34"/>
-      <c r="C192" s="34"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="35"/>
-      <c r="F192" s="36"/>
-      <c r="G192" s="34"/>
-      <c r="H192" s="34"/>
-      <c r="I192" s="34"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="33"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="34"/>
+      <c r="F192" s="35"/>
+      <c r="G192" s="33"/>
+      <c r="H192" s="33"/>
+      <c r="I192" s="33"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
@@ -9075,14 +9111,14 @@
     </row>
     <row r="193" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
-      <c r="B193" s="34"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="35"/>
-      <c r="F193" s="36"/>
-      <c r="G193" s="34"/>
-      <c r="H193" s="34"/>
-      <c r="I193" s="34"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="33"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="35"/>
+      <c r="G193" s="33"/>
+      <c r="H193" s="33"/>
+      <c r="I193" s="33"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
@@ -9103,14 +9139,14 @@
     </row>
     <row r="194" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
-      <c r="B194" s="34"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="34"/>
-      <c r="E194" s="35"/>
-      <c r="F194" s="36"/>
-      <c r="G194" s="34"/>
-      <c r="H194" s="34"/>
-      <c r="I194" s="34"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="33"/>
+      <c r="D194" s="33"/>
+      <c r="E194" s="34"/>
+      <c r="F194" s="35"/>
+      <c r="G194" s="33"/>
+      <c r="H194" s="33"/>
+      <c r="I194" s="33"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
@@ -9131,14 +9167,14 @@
     </row>
     <row r="195" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
-      <c r="B195" s="34"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="34"/>
-      <c r="E195" s="35"/>
-      <c r="F195" s="36"/>
-      <c r="G195" s="34"/>
-      <c r="H195" s="34"/>
-      <c r="I195" s="34"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="33"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="34"/>
+      <c r="F195" s="35"/>
+      <c r="G195" s="33"/>
+      <c r="H195" s="33"/>
+      <c r="I195" s="33"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
@@ -9159,14 +9195,14 @@
     </row>
     <row r="196" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
-      <c r="B196" s="34"/>
-      <c r="C196" s="34"/>
-      <c r="D196" s="34"/>
-      <c r="E196" s="35"/>
-      <c r="F196" s="36"/>
-      <c r="G196" s="34"/>
-      <c r="H196" s="34"/>
-      <c r="I196" s="34"/>
+      <c r="B196" s="33"/>
+      <c r="C196" s="33"/>
+      <c r="D196" s="33"/>
+      <c r="E196" s="34"/>
+      <c r="F196" s="35"/>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33"/>
+      <c r="I196" s="33"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
@@ -9187,14 +9223,14 @@
     </row>
     <row r="197" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
-      <c r="B197" s="34"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="34"/>
-      <c r="E197" s="35"/>
-      <c r="F197" s="36"/>
-      <c r="G197" s="34"/>
-      <c r="H197" s="34"/>
-      <c r="I197" s="34"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="33"/>
+      <c r="D197" s="33"/>
+      <c r="E197" s="34"/>
+      <c r="F197" s="35"/>
+      <c r="G197" s="33"/>
+      <c r="H197" s="33"/>
+      <c r="I197" s="33"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
@@ -9215,14 +9251,14 @@
     </row>
     <row r="198" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
-      <c r="B198" s="34"/>
-      <c r="C198" s="34"/>
-      <c r="D198" s="34"/>
-      <c r="E198" s="35"/>
-      <c r="F198" s="36"/>
-      <c r="G198" s="34"/>
-      <c r="H198" s="34"/>
-      <c r="I198" s="34"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="34"/>
+      <c r="F198" s="35"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33"/>
+      <c r="I198" s="33"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
@@ -9243,14 +9279,14 @@
     </row>
     <row r="199" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
-      <c r="B199" s="34"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="34"/>
-      <c r="E199" s="35"/>
-      <c r="F199" s="36"/>
-      <c r="G199" s="34"/>
-      <c r="H199" s="34"/>
-      <c r="I199" s="34"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="34"/>
+      <c r="F199" s="35"/>
+      <c r="G199" s="33"/>
+      <c r="H199" s="33"/>
+      <c r="I199" s="33"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
@@ -9271,14 +9307,14 @@
     </row>
     <row r="200" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
-      <c r="B200" s="34"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="34"/>
-      <c r="E200" s="35"/>
-      <c r="F200" s="36"/>
-      <c r="G200" s="34"/>
-      <c r="H200" s="34"/>
-      <c r="I200" s="34"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="34"/>
+      <c r="F200" s="35"/>
+      <c r="G200" s="33"/>
+      <c r="H200" s="33"/>
+      <c r="I200" s="33"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
@@ -9299,14 +9335,14 @@
     </row>
     <row r="201" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
-      <c r="B201" s="34"/>
-      <c r="C201" s="34"/>
-      <c r="D201" s="34"/>
-      <c r="E201" s="35"/>
-      <c r="F201" s="36"/>
-      <c r="G201" s="34"/>
-      <c r="H201" s="34"/>
-      <c r="I201" s="34"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="33"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="34"/>
+      <c r="F201" s="35"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="33"/>
+      <c r="I201" s="33"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
@@ -9327,14 +9363,14 @@
     </row>
     <row r="202" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
-      <c r="B202" s="34"/>
-      <c r="C202" s="34"/>
-      <c r="D202" s="34"/>
-      <c r="E202" s="35"/>
-      <c r="F202" s="36"/>
-      <c r="G202" s="34"/>
-      <c r="H202" s="34"/>
-      <c r="I202" s="34"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="33"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="34"/>
+      <c r="F202" s="35"/>
+      <c r="G202" s="33"/>
+      <c r="H202" s="33"/>
+      <c r="I202" s="33"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
@@ -9355,14 +9391,14 @@
     </row>
     <row r="203" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
-      <c r="B203" s="34"/>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="35"/>
-      <c r="F203" s="36"/>
-      <c r="G203" s="34"/>
-      <c r="H203" s="34"/>
-      <c r="I203" s="34"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="34"/>
+      <c r="F203" s="35"/>
+      <c r="G203" s="33"/>
+      <c r="H203" s="33"/>
+      <c r="I203" s="33"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
@@ -9383,14 +9419,14 @@
     </row>
     <row r="204" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
-      <c r="B204" s="34"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="34"/>
-      <c r="E204" s="35"/>
-      <c r="F204" s="36"/>
-      <c r="G204" s="34"/>
-      <c r="H204" s="34"/>
-      <c r="I204" s="34"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="34"/>
+      <c r="F204" s="35"/>
+      <c r="G204" s="33"/>
+      <c r="H204" s="33"/>
+      <c r="I204" s="33"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
@@ -9411,14 +9447,14 @@
     </row>
     <row r="205" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
-      <c r="B205" s="34"/>
-      <c r="C205" s="34"/>
-      <c r="D205" s="34"/>
-      <c r="E205" s="35"/>
-      <c r="F205" s="36"/>
-      <c r="G205" s="34"/>
-      <c r="H205" s="34"/>
-      <c r="I205" s="34"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="34"/>
+      <c r="F205" s="35"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="33"/>
+      <c r="I205" s="33"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
@@ -9439,14 +9475,14 @@
     </row>
     <row r="206" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
-      <c r="B206" s="34"/>
-      <c r="C206" s="34"/>
-      <c r="D206" s="34"/>
-      <c r="E206" s="35"/>
-      <c r="F206" s="36"/>
-      <c r="G206" s="34"/>
-      <c r="H206" s="34"/>
-      <c r="I206" s="34"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="34"/>
+      <c r="F206" s="35"/>
+      <c r="G206" s="33"/>
+      <c r="H206" s="33"/>
+      <c r="I206" s="33"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
@@ -9467,14 +9503,14 @@
     </row>
     <row r="207" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
-      <c r="B207" s="34"/>
-      <c r="C207" s="34"/>
-      <c r="D207" s="34"/>
-      <c r="E207" s="35"/>
-      <c r="F207" s="36"/>
-      <c r="G207" s="34"/>
-      <c r="H207" s="34"/>
-      <c r="I207" s="34"/>
+      <c r="B207" s="33"/>
+      <c r="C207" s="33"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="34"/>
+      <c r="F207" s="35"/>
+      <c r="G207" s="33"/>
+      <c r="H207" s="33"/>
+      <c r="I207" s="33"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
@@ -9495,14 +9531,14 @@
     </row>
     <row r="208" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
-      <c r="B208" s="34"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="34"/>
-      <c r="E208" s="35"/>
-      <c r="F208" s="36"/>
-      <c r="G208" s="34"/>
-      <c r="H208" s="34"/>
-      <c r="I208" s="34"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="34"/>
+      <c r="F208" s="35"/>
+      <c r="G208" s="33"/>
+      <c r="H208" s="33"/>
+      <c r="I208" s="33"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
@@ -9523,14 +9559,14 @@
     </row>
     <row r="209" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
-      <c r="B209" s="34"/>
-      <c r="C209" s="34"/>
-      <c r="D209" s="34"/>
-      <c r="E209" s="35"/>
-      <c r="F209" s="36"/>
-      <c r="G209" s="34"/>
-      <c r="H209" s="34"/>
-      <c r="I209" s="34"/>
+      <c r="B209" s="33"/>
+      <c r="C209" s="33"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="34"/>
+      <c r="F209" s="35"/>
+      <c r="G209" s="33"/>
+      <c r="H209" s="33"/>
+      <c r="I209" s="33"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
@@ -9551,14 +9587,14 @@
     </row>
     <row r="210" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
-      <c r="B210" s="34"/>
-      <c r="C210" s="34"/>
-      <c r="D210" s="34"/>
-      <c r="E210" s="35"/>
-      <c r="F210" s="36"/>
-      <c r="G210" s="34"/>
-      <c r="H210" s="34"/>
-      <c r="I210" s="34"/>
+      <c r="B210" s="33"/>
+      <c r="C210" s="33"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="34"/>
+      <c r="F210" s="35"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="33"/>
+      <c r="I210" s="33"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
@@ -9579,14 +9615,14 @@
     </row>
     <row r="211" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
-      <c r="B211" s="34"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="34"/>
-      <c r="E211" s="35"/>
-      <c r="F211" s="36"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="34"/>
-      <c r="I211" s="34"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="33"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="34"/>
+      <c r="F211" s="35"/>
+      <c r="G211" s="33"/>
+      <c r="H211" s="33"/>
+      <c r="I211" s="33"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
@@ -9607,14 +9643,14 @@
     </row>
     <row r="212" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
-      <c r="B212" s="34"/>
-      <c r="C212" s="34"/>
-      <c r="D212" s="34"/>
-      <c r="E212" s="35"/>
-      <c r="F212" s="36"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="34"/>
-      <c r="I212" s="34"/>
+      <c r="B212" s="33"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="34"/>
+      <c r="F212" s="35"/>
+      <c r="G212" s="33"/>
+      <c r="H212" s="33"/>
+      <c r="I212" s="33"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
@@ -9635,14 +9671,14 @@
     </row>
     <row r="213" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
-      <c r="B213" s="34"/>
-      <c r="C213" s="34"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="35"/>
-      <c r="F213" s="36"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="34"/>
-      <c r="I213" s="34"/>
+      <c r="B213" s="33"/>
+      <c r="C213" s="33"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="34"/>
+      <c r="F213" s="35"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="33"/>
+      <c r="I213" s="33"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
@@ -9663,14 +9699,14 @@
     </row>
     <row r="214" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
-      <c r="B214" s="34"/>
-      <c r="C214" s="34"/>
-      <c r="D214" s="34"/>
-      <c r="E214" s="35"/>
-      <c r="F214" s="36"/>
-      <c r="G214" s="34"/>
-      <c r="H214" s="34"/>
-      <c r="I214" s="34"/>
+      <c r="B214" s="33"/>
+      <c r="C214" s="33"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="34"/>
+      <c r="F214" s="35"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="33"/>
+      <c r="I214" s="33"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
@@ -9691,14 +9727,14 @@
     </row>
     <row r="215" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
-      <c r="B215" s="34"/>
-      <c r="C215" s="34"/>
-      <c r="D215" s="34"/>
-      <c r="E215" s="35"/>
-      <c r="F215" s="36"/>
-      <c r="G215" s="34"/>
-      <c r="H215" s="34"/>
-      <c r="I215" s="34"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="34"/>
+      <c r="F215" s="35"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="33"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
@@ -9719,14 +9755,14 @@
     </row>
     <row r="216" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
-      <c r="B216" s="34"/>
-      <c r="C216" s="34"/>
-      <c r="D216" s="34"/>
-      <c r="E216" s="35"/>
-      <c r="F216" s="36"/>
-      <c r="G216" s="34"/>
-      <c r="H216" s="34"/>
-      <c r="I216" s="34"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="34"/>
+      <c r="F216" s="35"/>
+      <c r="G216" s="33"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="33"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
@@ -9747,14 +9783,14 @@
     </row>
     <row r="217" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
-      <c r="B217" s="34"/>
-      <c r="C217" s="34"/>
-      <c r="D217" s="34"/>
-      <c r="E217" s="35"/>
-      <c r="F217" s="36"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="34"/>
-      <c r="I217" s="34"/>
+      <c r="B217" s="33"/>
+      <c r="C217" s="33"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="34"/>
+      <c r="F217" s="35"/>
+      <c r="G217" s="33"/>
+      <c r="H217" s="33"/>
+      <c r="I217" s="33"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
@@ -9775,14 +9811,14 @@
     </row>
     <row r="218" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
-      <c r="B218" s="34"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="34"/>
-      <c r="E218" s="35"/>
-      <c r="F218" s="36"/>
-      <c r="G218" s="34"/>
-      <c r="H218" s="34"/>
-      <c r="I218" s="34"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="34"/>
+      <c r="F218" s="35"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33"/>
+      <c r="I218" s="33"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
@@ -9803,14 +9839,14 @@
     </row>
     <row r="219" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
-      <c r="B219" s="34"/>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34"/>
-      <c r="E219" s="35"/>
-      <c r="F219" s="36"/>
-      <c r="G219" s="34"/>
-      <c r="H219" s="34"/>
-      <c r="I219" s="34"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="34"/>
+      <c r="F219" s="35"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="33"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
@@ -9831,14 +9867,14 @@
     </row>
     <row r="220" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
-      <c r="B220" s="34"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="34"/>
-      <c r="E220" s="35"/>
-      <c r="F220" s="36"/>
-      <c r="G220" s="34"/>
-      <c r="H220" s="34"/>
-      <c r="I220" s="34"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="34"/>
+      <c r="F220" s="35"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="33"/>
+      <c r="I220" s="33"/>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
@@ -9859,14 +9895,14 @@
     </row>
     <row r="221" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
-      <c r="B221" s="34"/>
-      <c r="C221" s="34"/>
-      <c r="D221" s="34"/>
-      <c r="E221" s="35"/>
-      <c r="F221" s="36"/>
-      <c r="G221" s="34"/>
-      <c r="H221" s="34"/>
-      <c r="I221" s="34"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="33"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="34"/>
+      <c r="F221" s="35"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="33"/>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
@@ -9887,14 +9923,14 @@
     </row>
     <row r="222" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
-      <c r="B222" s="34"/>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34"/>
-      <c r="E222" s="35"/>
-      <c r="F222" s="36"/>
-      <c r="G222" s="34"/>
-      <c r="H222" s="34"/>
-      <c r="I222" s="34"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="33"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="34"/>
+      <c r="F222" s="35"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="33"/>
+      <c r="I222" s="33"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
@@ -9915,14 +9951,14 @@
     </row>
     <row r="223" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
-      <c r="B223" s="34"/>
-      <c r="C223" s="34"/>
-      <c r="D223" s="34"/>
-      <c r="E223" s="35"/>
-      <c r="F223" s="36"/>
-      <c r="G223" s="34"/>
-      <c r="H223" s="34"/>
-      <c r="I223" s="34"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="33"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="34"/>
+      <c r="F223" s="35"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="33"/>
+      <c r="I223" s="33"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
@@ -9943,14 +9979,14 @@
     </row>
     <row r="224" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
-      <c r="B224" s="34"/>
-      <c r="C224" s="34"/>
-      <c r="D224" s="34"/>
-      <c r="E224" s="35"/>
-      <c r="F224" s="36"/>
-      <c r="G224" s="34"/>
-      <c r="H224" s="34"/>
-      <c r="I224" s="34"/>
+      <c r="B224" s="33"/>
+      <c r="C224" s="33"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="34"/>
+      <c r="F224" s="35"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="33"/>
+      <c r="I224" s="33"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
@@ -9971,14 +10007,14 @@
     </row>
     <row r="225" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
-      <c r="B225" s="34"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="34"/>
-      <c r="E225" s="35"/>
-      <c r="F225" s="36"/>
-      <c r="G225" s="34"/>
-      <c r="H225" s="34"/>
-      <c r="I225" s="34"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="33"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="34"/>
+      <c r="F225" s="35"/>
+      <c r="G225" s="33"/>
+      <c r="H225" s="33"/>
+      <c r="I225" s="33"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
@@ -9999,14 +10035,14 @@
     </row>
     <row r="226" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
-      <c r="B226" s="34"/>
-      <c r="C226" s="34"/>
-      <c r="D226" s="34"/>
-      <c r="E226" s="35"/>
-      <c r="F226" s="36"/>
-      <c r="G226" s="34"/>
-      <c r="H226" s="34"/>
-      <c r="I226" s="34"/>
+      <c r="B226" s="33"/>
+      <c r="C226" s="33"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="34"/>
+      <c r="F226" s="35"/>
+      <c r="G226" s="33"/>
+      <c r="H226" s="33"/>
+      <c r="I226" s="33"/>
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
@@ -10027,14 +10063,14 @@
     </row>
     <row r="227" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
-      <c r="B227" s="34"/>
-      <c r="C227" s="34"/>
-      <c r="D227" s="34"/>
-      <c r="E227" s="35"/>
-      <c r="F227" s="36"/>
-      <c r="G227" s="34"/>
-      <c r="H227" s="34"/>
-      <c r="I227" s="34"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="33"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="34"/>
+      <c r="F227" s="35"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="33"/>
+      <c r="I227" s="33"/>
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
@@ -10055,14 +10091,14 @@
     </row>
     <row r="228" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
-      <c r="B228" s="34"/>
-      <c r="C228" s="34"/>
-      <c r="D228" s="34"/>
-      <c r="E228" s="35"/>
-      <c r="F228" s="36"/>
-      <c r="G228" s="34"/>
-      <c r="H228" s="34"/>
-      <c r="I228" s="34"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="33"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="34"/>
+      <c r="F228" s="35"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="33"/>
+      <c r="I228" s="33"/>
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
@@ -10083,14 +10119,14 @@
     </row>
     <row r="229" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
-      <c r="B229" s="34"/>
-      <c r="C229" s="34"/>
-      <c r="D229" s="34"/>
-      <c r="E229" s="35"/>
-      <c r="F229" s="36"/>
-      <c r="G229" s="34"/>
-      <c r="H229" s="34"/>
-      <c r="I229" s="34"/>
+      <c r="B229" s="33"/>
+      <c r="C229" s="33"/>
+      <c r="D229" s="33"/>
+      <c r="E229" s="34"/>
+      <c r="F229" s="35"/>
+      <c r="G229" s="33"/>
+      <c r="H229" s="33"/>
+      <c r="I229" s="33"/>
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
@@ -10111,14 +10147,14 @@
     </row>
     <row r="230" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
-      <c r="B230" s="34"/>
-      <c r="C230" s="34"/>
-      <c r="D230" s="34"/>
-      <c r="E230" s="35"/>
-      <c r="F230" s="36"/>
-      <c r="G230" s="34"/>
-      <c r="H230" s="34"/>
-      <c r="I230" s="34"/>
+      <c r="B230" s="33"/>
+      <c r="C230" s="33"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="34"/>
+      <c r="F230" s="35"/>
+      <c r="G230" s="33"/>
+      <c r="H230" s="33"/>
+      <c r="I230" s="33"/>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
@@ -10139,14 +10175,14 @@
     </row>
     <row r="231" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
-      <c r="B231" s="34"/>
-      <c r="C231" s="34"/>
-      <c r="D231" s="34"/>
-      <c r="E231" s="35"/>
-      <c r="F231" s="36"/>
-      <c r="G231" s="34"/>
-      <c r="H231" s="34"/>
-      <c r="I231" s="34"/>
+      <c r="B231" s="33"/>
+      <c r="C231" s="33"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="34"/>
+      <c r="F231" s="35"/>
+      <c r="G231" s="33"/>
+      <c r="H231" s="33"/>
+      <c r="I231" s="33"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
@@ -10167,14 +10203,14 @@
     </row>
     <row r="232" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
-      <c r="B232" s="34"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="34"/>
-      <c r="E232" s="35"/>
-      <c r="F232" s="36"/>
-      <c r="G232" s="34"/>
-      <c r="H232" s="34"/>
-      <c r="I232" s="34"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="33"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="34"/>
+      <c r="F232" s="35"/>
+      <c r="G232" s="33"/>
+      <c r="H232" s="33"/>
+      <c r="I232" s="33"/>
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
@@ -10195,14 +10231,14 @@
     </row>
     <row r="233" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
-      <c r="B233" s="34"/>
-      <c r="C233" s="34"/>
-      <c r="D233" s="34"/>
-      <c r="E233" s="35"/>
-      <c r="F233" s="36"/>
-      <c r="G233" s="34"/>
-      <c r="H233" s="34"/>
-      <c r="I233" s="34"/>
+      <c r="B233" s="33"/>
+      <c r="C233" s="33"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="34"/>
+      <c r="F233" s="35"/>
+      <c r="G233" s="33"/>
+      <c r="H233" s="33"/>
+      <c r="I233" s="33"/>
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
@@ -10223,14 +10259,14 @@
     </row>
     <row r="234" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
-      <c r="B234" s="34"/>
-      <c r="C234" s="34"/>
-      <c r="D234" s="34"/>
-      <c r="E234" s="35"/>
-      <c r="F234" s="36"/>
-      <c r="G234" s="34"/>
-      <c r="H234" s="34"/>
-      <c r="I234" s="34"/>
+      <c r="B234" s="33"/>
+      <c r="C234" s="33"/>
+      <c r="D234" s="33"/>
+      <c r="E234" s="34"/>
+      <c r="F234" s="35"/>
+      <c r="G234" s="33"/>
+      <c r="H234" s="33"/>
+      <c r="I234" s="33"/>
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
@@ -10251,14 +10287,14 @@
     </row>
     <row r="235" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
-      <c r="B235" s="34"/>
-      <c r="C235" s="34"/>
-      <c r="D235" s="34"/>
-      <c r="E235" s="35"/>
-      <c r="F235" s="36"/>
-      <c r="G235" s="34"/>
-      <c r="H235" s="34"/>
-      <c r="I235" s="34"/>
+      <c r="B235" s="33"/>
+      <c r="C235" s="33"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="34"/>
+      <c r="F235" s="35"/>
+      <c r="G235" s="33"/>
+      <c r="H235" s="33"/>
+      <c r="I235" s="33"/>
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
@@ -10279,14 +10315,14 @@
     </row>
     <row r="236" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
-      <c r="B236" s="34"/>
-      <c r="C236" s="34"/>
-      <c r="D236" s="34"/>
-      <c r="E236" s="35"/>
-      <c r="F236" s="36"/>
-      <c r="G236" s="34"/>
-      <c r="H236" s="34"/>
-      <c r="I236" s="34"/>
+      <c r="B236" s="33"/>
+      <c r="C236" s="33"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="34"/>
+      <c r="F236" s="35"/>
+      <c r="G236" s="33"/>
+      <c r="H236" s="33"/>
+      <c r="I236" s="33"/>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
@@ -10307,14 +10343,14 @@
     </row>
     <row r="237" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
-      <c r="B237" s="34"/>
-      <c r="C237" s="34"/>
-      <c r="D237" s="34"/>
-      <c r="E237" s="35"/>
-      <c r="F237" s="36"/>
-      <c r="G237" s="34"/>
-      <c r="H237" s="34"/>
-      <c r="I237" s="34"/>
+      <c r="B237" s="33"/>
+      <c r="C237" s="33"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="34"/>
+      <c r="F237" s="35"/>
+      <c r="G237" s="33"/>
+      <c r="H237" s="33"/>
+      <c r="I237" s="33"/>
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
@@ -10335,14 +10371,14 @@
     </row>
     <row r="238" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
-      <c r="B238" s="34"/>
-      <c r="C238" s="34"/>
-      <c r="D238" s="34"/>
-      <c r="E238" s="35"/>
-      <c r="F238" s="36"/>
-      <c r="G238" s="34"/>
-      <c r="H238" s="34"/>
-      <c r="I238" s="34"/>
+      <c r="B238" s="33"/>
+      <c r="C238" s="33"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="34"/>
+      <c r="F238" s="35"/>
+      <c r="G238" s="33"/>
+      <c r="H238" s="33"/>
+      <c r="I238" s="33"/>
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
@@ -10363,14 +10399,14 @@
     </row>
     <row r="239" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
-      <c r="B239" s="34"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="34"/>
-      <c r="E239" s="35"/>
-      <c r="F239" s="36"/>
-      <c r="G239" s="34"/>
-      <c r="H239" s="34"/>
-      <c r="I239" s="34"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="33"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="34"/>
+      <c r="F239" s="35"/>
+      <c r="G239" s="33"/>
+      <c r="H239" s="33"/>
+      <c r="I239" s="33"/>
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
@@ -10391,14 +10427,14 @@
     </row>
     <row r="240" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
-      <c r="B240" s="34"/>
-      <c r="C240" s="34"/>
-      <c r="D240" s="34"/>
-      <c r="E240" s="35"/>
-      <c r="F240" s="36"/>
-      <c r="G240" s="34"/>
-      <c r="H240" s="34"/>
-      <c r="I240" s="34"/>
+      <c r="B240" s="33"/>
+      <c r="C240" s="33"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="34"/>
+      <c r="F240" s="35"/>
+      <c r="G240" s="33"/>
+      <c r="H240" s="33"/>
+      <c r="I240" s="33"/>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
@@ -10419,14 +10455,14 @@
     </row>
     <row r="241" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
-      <c r="B241" s="34"/>
-      <c r="C241" s="34"/>
-      <c r="D241" s="34"/>
-      <c r="E241" s="35"/>
-      <c r="F241" s="36"/>
-      <c r="G241" s="34"/>
-      <c r="H241" s="34"/>
-      <c r="I241" s="34"/>
+      <c r="B241" s="33"/>
+      <c r="C241" s="33"/>
+      <c r="D241" s="33"/>
+      <c r="E241" s="34"/>
+      <c r="F241" s="35"/>
+      <c r="G241" s="33"/>
+      <c r="H241" s="33"/>
+      <c r="I241" s="33"/>
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
@@ -10447,12 +10483,12 @@
     </row>
     <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
-      <c r="B242" s="34"/>
-      <c r="C242" s="34"/>
-      <c r="D242" s="34"/>
-      <c r="E242" s="35"/>
-      <c r="F242" s="36"/>
-      <c r="G242" s="34"/>
+      <c r="B242" s="33"/>
+      <c r="C242" s="33"/>
+      <c r="D242" s="33"/>
+      <c r="E242" s="34"/>
+      <c r="F242" s="35"/>
+      <c r="G242" s="33"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="2"/>
@@ -10478,9 +10514,9 @@
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
-      <c r="E243" s="35"/>
-      <c r="F243" s="36"/>
-      <c r="G243" s="34"/>
+      <c r="E243" s="34"/>
+      <c r="F243" s="35"/>
+      <c r="G243" s="33"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
@@ -10506,9 +10542,9 @@
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
-      <c r="E244" s="35"/>
-      <c r="F244" s="36"/>
-      <c r="G244" s="34"/>
+      <c r="E244" s="34"/>
+      <c r="F244" s="35"/>
+      <c r="G244" s="33"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
@@ -10534,9 +10570,9 @@
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
-      <c r="E245" s="35"/>
-      <c r="F245" s="36"/>
-      <c r="G245" s="34"/>
+      <c r="E245" s="34"/>
+      <c r="F245" s="35"/>
+      <c r="G245" s="33"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
@@ -10562,8 +10598,8 @@
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
-      <c r="E246" s="30"/>
-      <c r="F246" s="37"/>
+      <c r="E246" s="29"/>
+      <c r="F246" s="36"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
@@ -10590,8 +10626,8 @@
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
-      <c r="E247" s="30"/>
-      <c r="F247" s="37"/>
+      <c r="E247" s="29"/>
+      <c r="F247" s="36"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
@@ -10618,8 +10654,8 @@
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
-      <c r="E248" s="30"/>
-      <c r="F248" s="37"/>
+      <c r="E248" s="29"/>
+      <c r="F248" s="36"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
@@ -10646,8 +10682,8 @@
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
-      <c r="E249" s="30"/>
-      <c r="F249" s="37"/>
+      <c r="E249" s="29"/>
+      <c r="F249" s="36"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
@@ -10674,8 +10710,8 @@
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
-      <c r="E250" s="30"/>
-      <c r="F250" s="37"/>
+      <c r="E250" s="29"/>
+      <c r="F250" s="36"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
@@ -10702,8 +10738,8 @@
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
-      <c r="E251" s="30"/>
-      <c r="F251" s="37"/>
+      <c r="E251" s="29"/>
+      <c r="F251" s="36"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
@@ -10730,8 +10766,8 @@
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
-      <c r="E252" s="30"/>
-      <c r="F252" s="37"/>
+      <c r="E252" s="29"/>
+      <c r="F252" s="36"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
@@ -10758,8 +10794,8 @@
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
-      <c r="E253" s="30"/>
-      <c r="F253" s="37"/>
+      <c r="E253" s="29"/>
+      <c r="F253" s="36"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
@@ -10786,8 +10822,8 @@
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
-      <c r="E254" s="30"/>
-      <c r="F254" s="37"/>
+      <c r="E254" s="29"/>
+      <c r="F254" s="36"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
@@ -10815,7 +10851,7 @@
       <c r="C255" s="12"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
-      <c r="F255" s="38"/>
+      <c r="F255" s="37"/>
       <c r="G255" s="12"/>
       <c r="H255" s="12"/>
       <c r="I255" s="12"/>
@@ -10843,7 +10879,7 @@
       <c r="C256" s="12"/>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
-      <c r="F256" s="38"/>
+      <c r="F256" s="37"/>
       <c r="G256" s="12"/>
       <c r="H256" s="12"/>
       <c r="I256" s="12"/>
@@ -10871,7 +10907,7 @@
       <c r="C257" s="12"/>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
-      <c r="F257" s="38"/>
+      <c r="F257" s="37"/>
       <c r="G257" s="12"/>
       <c r="H257" s="12"/>
       <c r="I257" s="12"/>
@@ -10899,7 +10935,7 @@
       <c r="C258" s="12"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
-      <c r="F258" s="38"/>
+      <c r="F258" s="37"/>
       <c r="G258" s="12"/>
       <c r="H258" s="12"/>
       <c r="I258" s="12"/>
@@ -10927,7 +10963,7 @@
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
-      <c r="F259" s="38"/>
+      <c r="F259" s="37"/>
       <c r="G259" s="12"/>
       <c r="H259" s="12"/>
       <c r="I259" s="12"/>
@@ -10955,7 +10991,7 @@
       <c r="C260" s="12"/>
       <c r="D260" s="12"/>
       <c r="E260" s="12"/>
-      <c r="F260" s="38"/>
+      <c r="F260" s="37"/>
       <c r="G260" s="12"/>
       <c r="H260" s="12"/>
       <c r="I260" s="12"/>
@@ -10983,7 +11019,7 @@
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
-      <c r="F261" s="38"/>
+      <c r="F261" s="37"/>
       <c r="G261" s="12"/>
       <c r="H261" s="12"/>
       <c r="I261" s="12"/>
@@ -11011,7 +11047,7 @@
       <c r="C262" s="12"/>
       <c r="D262" s="12"/>
       <c r="E262" s="12"/>
-      <c r="F262" s="38"/>
+      <c r="F262" s="37"/>
       <c r="G262" s="12"/>
       <c r="H262" s="12"/>
       <c r="I262" s="12"/>
@@ -11039,7 +11075,7 @@
       <c r="C263" s="12"/>
       <c r="D263" s="12"/>
       <c r="E263" s="12"/>
-      <c r="F263" s="38"/>
+      <c r="F263" s="37"/>
       <c r="G263" s="12"/>
       <c r="H263" s="12"/>
       <c r="I263" s="12"/>
@@ -11067,7 +11103,7 @@
       <c r="C264" s="12"/>
       <c r="D264" s="12"/>
       <c r="E264" s="12"/>
-      <c r="F264" s="38"/>
+      <c r="F264" s="37"/>
       <c r="G264" s="12"/>
       <c r="H264" s="12"/>
       <c r="I264" s="12"/>
@@ -11095,7 +11131,7 @@
       <c r="C265" s="12"/>
       <c r="D265" s="12"/>
       <c r="E265" s="12"/>
-      <c r="F265" s="38"/>
+      <c r="F265" s="37"/>
       <c r="G265" s="12"/>
       <c r="H265" s="12"/>
       <c r="I265" s="12"/>
@@ -11123,7 +11159,7 @@
       <c r="C266" s="12"/>
       <c r="D266" s="12"/>
       <c r="E266" s="12"/>
-      <c r="F266" s="38"/>
+      <c r="F266" s="37"/>
       <c r="G266" s="12"/>
       <c r="H266" s="12"/>
       <c r="I266" s="12"/>
@@ -11151,7 +11187,7 @@
       <c r="C267" s="12"/>
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
-      <c r="F267" s="38"/>
+      <c r="F267" s="37"/>
       <c r="G267" s="12"/>
       <c r="H267" s="12"/>
       <c r="I267" s="12"/>
@@ -11179,7 +11215,7 @@
       <c r="C268" s="12"/>
       <c r="D268" s="12"/>
       <c r="E268" s="12"/>
-      <c r="F268" s="38"/>
+      <c r="F268" s="37"/>
       <c r="G268" s="12"/>
       <c r="H268" s="12"/>
       <c r="I268" s="12"/>
@@ -11207,7 +11243,7 @@
       <c r="C269" s="12"/>
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
-      <c r="F269" s="38"/>
+      <c r="F269" s="37"/>
       <c r="G269" s="12"/>
       <c r="H269" s="12"/>
       <c r="I269" s="12"/>
@@ -11235,7 +11271,7 @@
       <c r="C270" s="12"/>
       <c r="D270" s="12"/>
       <c r="E270" s="12"/>
-      <c r="F270" s="38"/>
+      <c r="F270" s="37"/>
       <c r="G270" s="12"/>
       <c r="H270" s="12"/>
       <c r="I270" s="12"/>
@@ -11263,7 +11299,7 @@
       <c r="C271" s="12"/>
       <c r="D271" s="12"/>
       <c r="E271" s="12"/>
-      <c r="F271" s="38"/>
+      <c r="F271" s="37"/>
       <c r="G271" s="12"/>
       <c r="H271" s="12"/>
       <c r="I271" s="12"/>
@@ -11291,7 +11327,7 @@
       <c r="C272" s="12"/>
       <c r="D272" s="12"/>
       <c r="E272" s="12"/>
-      <c r="F272" s="38"/>
+      <c r="F272" s="37"/>
       <c r="G272" s="12"/>
       <c r="H272" s="12"/>
       <c r="I272" s="12"/>
@@ -11319,7 +11355,7 @@
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
-      <c r="F273" s="38"/>
+      <c r="F273" s="37"/>
       <c r="G273" s="12"/>
       <c r="H273" s="12"/>
       <c r="I273" s="12"/>
@@ -11347,7 +11383,7 @@
       <c r="C274" s="12"/>
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
-      <c r="F274" s="38"/>
+      <c r="F274" s="37"/>
       <c r="G274" s="12"/>
       <c r="H274" s="12"/>
       <c r="I274" s="12"/>
@@ -11375,7 +11411,7 @@
       <c r="C275" s="12"/>
       <c r="D275" s="12"/>
       <c r="E275" s="12"/>
-      <c r="F275" s="38"/>
+      <c r="F275" s="37"/>
       <c r="G275" s="12"/>
       <c r="H275" s="12"/>
       <c r="I275" s="12"/>
@@ -11403,7 +11439,7 @@
       <c r="C276" s="12"/>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
-      <c r="F276" s="38"/>
+      <c r="F276" s="37"/>
       <c r="G276" s="12"/>
       <c r="H276" s="12"/>
       <c r="I276" s="12"/>
@@ -11431,7 +11467,7 @@
       <c r="C277" s="12"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
-      <c r="F277" s="38"/>
+      <c r="F277" s="37"/>
       <c r="G277" s="12"/>
       <c r="H277" s="12"/>
       <c r="I277" s="12"/>
@@ -11459,7 +11495,7 @@
       <c r="C278" s="12"/>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
-      <c r="F278" s="38"/>
+      <c r="F278" s="37"/>
       <c r="G278" s="12"/>
       <c r="H278" s="12"/>
       <c r="I278" s="12"/>
@@ -11487,7 +11523,7 @@
       <c r="C279" s="12"/>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
-      <c r="F279" s="38"/>
+      <c r="F279" s="37"/>
       <c r="G279" s="12"/>
       <c r="H279" s="12"/>
       <c r="I279" s="12"/>
@@ -11515,7 +11551,7 @@
       <c r="C280" s="12"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
-      <c r="F280" s="38"/>
+      <c r="F280" s="37"/>
       <c r="G280" s="12"/>
       <c r="H280" s="12"/>
       <c r="I280" s="12"/>
@@ -11543,7 +11579,7 @@
       <c r="C281" s="12"/>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
-      <c r="F281" s="38"/>
+      <c r="F281" s="37"/>
       <c r="G281" s="12"/>
       <c r="H281" s="12"/>
       <c r="I281" s="12"/>
@@ -11571,7 +11607,7 @@
       <c r="C282" s="12"/>
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
-      <c r="F282" s="38"/>
+      <c r="F282" s="37"/>
       <c r="G282" s="12"/>
       <c r="H282" s="12"/>
       <c r="I282" s="12"/>
@@ -11599,7 +11635,7 @@
       <c r="C283" s="12"/>
       <c r="D283" s="12"/>
       <c r="E283" s="12"/>
-      <c r="F283" s="38"/>
+      <c r="F283" s="37"/>
       <c r="G283" s="12"/>
       <c r="H283" s="12"/>
       <c r="I283" s="12"/>
@@ -11627,7 +11663,7 @@
       <c r="C284" s="12"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
-      <c r="F284" s="38"/>
+      <c r="F284" s="37"/>
       <c r="G284" s="12"/>
       <c r="H284" s="12"/>
       <c r="I284" s="12"/>
@@ -11655,7 +11691,7 @@
       <c r="C285" s="12"/>
       <c r="D285" s="12"/>
       <c r="E285" s="12"/>
-      <c r="F285" s="38"/>
+      <c r="F285" s="37"/>
       <c r="G285" s="12"/>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
@@ -11683,7 +11719,7 @@
       <c r="C286" s="12"/>
       <c r="D286" s="12"/>
       <c r="E286" s="12"/>
-      <c r="F286" s="38"/>
+      <c r="F286" s="37"/>
       <c r="G286" s="12"/>
       <c r="H286" s="12"/>
       <c r="I286" s="12"/>
@@ -11711,7 +11747,7 @@
       <c r="C287" s="12"/>
       <c r="D287" s="12"/>
       <c r="E287" s="12"/>
-      <c r="F287" s="38"/>
+      <c r="F287" s="37"/>
       <c r="G287" s="12"/>
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
@@ -11739,7 +11775,7 @@
       <c r="C288" s="12"/>
       <c r="D288" s="12"/>
       <c r="E288" s="12"/>
-      <c r="F288" s="38"/>
+      <c r="F288" s="37"/>
       <c r="G288" s="12"/>
       <c r="H288" s="12"/>
       <c r="I288" s="12"/>
@@ -11767,7 +11803,7 @@
       <c r="C289" s="12"/>
       <c r="D289" s="12"/>
       <c r="E289" s="12"/>
-      <c r="F289" s="38"/>
+      <c r="F289" s="37"/>
       <c r="G289" s="12"/>
       <c r="H289" s="12"/>
       <c r="I289" s="12"/>
@@ -11795,7 +11831,7 @@
       <c r="C290" s="12"/>
       <c r="D290" s="12"/>
       <c r="E290" s="12"/>
-      <c r="F290" s="38"/>
+      <c r="F290" s="37"/>
       <c r="G290" s="12"/>
       <c r="H290" s="12"/>
       <c r="I290" s="12"/>
@@ -11823,7 +11859,7 @@
       <c r="C291" s="12"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
-      <c r="F291" s="38"/>
+      <c r="F291" s="37"/>
       <c r="G291" s="12"/>
       <c r="H291" s="12"/>
       <c r="I291" s="12"/>
@@ -11851,7 +11887,7 @@
       <c r="C292" s="12"/>
       <c r="D292" s="12"/>
       <c r="E292" s="12"/>
-      <c r="F292" s="38"/>
+      <c r="F292" s="37"/>
       <c r="G292" s="12"/>
       <c r="H292" s="12"/>
       <c r="I292" s="12"/>
@@ -11879,7 +11915,7 @@
       <c r="C293" s="12"/>
       <c r="D293" s="12"/>
       <c r="E293" s="12"/>
-      <c r="F293" s="38"/>
+      <c r="F293" s="37"/>
       <c r="G293" s="12"/>
       <c r="H293" s="12"/>
       <c r="I293" s="12"/>
@@ -11907,7 +11943,7 @@
       <c r="C294" s="12"/>
       <c r="D294" s="12"/>
       <c r="E294" s="12"/>
-      <c r="F294" s="38"/>
+      <c r="F294" s="37"/>
       <c r="G294" s="12"/>
       <c r="H294" s="12"/>
       <c r="I294" s="12"/>
@@ -11935,7 +11971,7 @@
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
-      <c r="F295" s="38"/>
+      <c r="F295" s="37"/>
       <c r="G295" s="12"/>
       <c r="H295" s="12"/>
       <c r="I295" s="12"/>
@@ -11963,7 +11999,7 @@
       <c r="C296" s="12"/>
       <c r="D296" s="12"/>
       <c r="E296" s="12"/>
-      <c r="F296" s="38"/>
+      <c r="F296" s="37"/>
       <c r="G296" s="12"/>
       <c r="H296" s="12"/>
       <c r="I296" s="12"/>
@@ -11991,7 +12027,7 @@
       <c r="C297" s="12"/>
       <c r="D297" s="12"/>
       <c r="E297" s="12"/>
-      <c r="F297" s="38"/>
+      <c r="F297" s="37"/>
       <c r="G297" s="12"/>
       <c r="H297" s="12"/>
       <c r="I297" s="12"/>
@@ -12019,7 +12055,7 @@
       <c r="C298" s="12"/>
       <c r="D298" s="12"/>
       <c r="E298" s="12"/>
-      <c r="F298" s="38"/>
+      <c r="F298" s="37"/>
       <c r="G298" s="12"/>
       <c r="H298" s="12"/>
       <c r="I298" s="12"/>
@@ -12047,7 +12083,7 @@
       <c r="C299" s="12"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
-      <c r="F299" s="38"/>
+      <c r="F299" s="37"/>
       <c r="G299" s="12"/>
       <c r="H299" s="12"/>
       <c r="I299" s="12"/>
@@ -12075,7 +12111,7 @@
       <c r="C300" s="12"/>
       <c r="D300" s="12"/>
       <c r="E300" s="12"/>
-      <c r="F300" s="38"/>
+      <c r="F300" s="37"/>
       <c r="G300" s="12"/>
       <c r="H300" s="12"/>
       <c r="I300" s="12"/>
@@ -12103,7 +12139,7 @@
       <c r="C301" s="12"/>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
-      <c r="F301" s="38"/>
+      <c r="F301" s="37"/>
       <c r="G301" s="12"/>
       <c r="H301" s="12"/>
       <c r="I301" s="12"/>
@@ -12131,7 +12167,7 @@
       <c r="C302" s="12"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
-      <c r="F302" s="38"/>
+      <c r="F302" s="37"/>
       <c r="G302" s="12"/>
       <c r="H302" s="12"/>
       <c r="I302" s="12"/>
@@ -12159,7 +12195,7 @@
       <c r="C303" s="12"/>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
-      <c r="F303" s="38"/>
+      <c r="F303" s="37"/>
       <c r="G303" s="12"/>
       <c r="H303" s="12"/>
       <c r="I303" s="12"/>
@@ -12187,7 +12223,7 @@
       <c r="C304" s="12"/>
       <c r="D304" s="12"/>
       <c r="E304" s="12"/>
-      <c r="F304" s="38"/>
+      <c r="F304" s="37"/>
       <c r="G304" s="12"/>
       <c r="H304" s="12"/>
       <c r="I304" s="12"/>
@@ -12215,7 +12251,7 @@
       <c r="C305" s="12"/>
       <c r="D305" s="12"/>
       <c r="E305" s="12"/>
-      <c r="F305" s="38"/>
+      <c r="F305" s="37"/>
       <c r="G305" s="12"/>
       <c r="H305" s="12"/>
       <c r="I305" s="12"/>
@@ -12243,7 +12279,7 @@
       <c r="C306" s="12"/>
       <c r="D306" s="12"/>
       <c r="E306" s="12"/>
-      <c r="F306" s="38"/>
+      <c r="F306" s="37"/>
       <c r="G306" s="12"/>
       <c r="H306" s="12"/>
       <c r="I306" s="12"/>
@@ -12271,7 +12307,7 @@
       <c r="C307" s="12"/>
       <c r="D307" s="12"/>
       <c r="E307" s="12"/>
-      <c r="F307" s="38"/>
+      <c r="F307" s="37"/>
       <c r="G307" s="12"/>
       <c r="H307" s="12"/>
       <c r="I307" s="12"/>
@@ -12299,7 +12335,7 @@
       <c r="C308" s="12"/>
       <c r="D308" s="12"/>
       <c r="E308" s="12"/>
-      <c r="F308" s="38"/>
+      <c r="F308" s="37"/>
       <c r="G308" s="12"/>
       <c r="H308" s="12"/>
       <c r="I308" s="12"/>
@@ -12327,7 +12363,7 @@
       <c r="C309" s="12"/>
       <c r="D309" s="12"/>
       <c r="E309" s="12"/>
-      <c r="F309" s="38"/>
+      <c r="F309" s="37"/>
       <c r="G309" s="12"/>
       <c r="H309" s="12"/>
       <c r="I309" s="12"/>
@@ -12355,7 +12391,7 @@
       <c r="C310" s="12"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
-      <c r="F310" s="38"/>
+      <c r="F310" s="37"/>
       <c r="G310" s="12"/>
       <c r="H310" s="12"/>
       <c r="I310" s="12"/>
@@ -12383,7 +12419,7 @@
       <c r="C311" s="12"/>
       <c r="D311" s="12"/>
       <c r="E311" s="12"/>
-      <c r="F311" s="38"/>
+      <c r="F311" s="37"/>
       <c r="G311" s="12"/>
       <c r="H311" s="12"/>
       <c r="I311" s="12"/>
@@ -12411,7 +12447,7 @@
       <c r="C312" s="12"/>
       <c r="D312" s="12"/>
       <c r="E312" s="12"/>
-      <c r="F312" s="38"/>
+      <c r="F312" s="37"/>
       <c r="G312" s="12"/>
       <c r="H312" s="12"/>
       <c r="I312" s="12"/>
@@ -12439,7 +12475,7 @@
       <c r="C313" s="12"/>
       <c r="D313" s="12"/>
       <c r="E313" s="12"/>
-      <c r="F313" s="38"/>
+      <c r="F313" s="37"/>
       <c r="G313" s="12"/>
       <c r="H313" s="12"/>
       <c r="I313" s="12"/>
@@ -12467,7 +12503,7 @@
       <c r="C314" s="12"/>
       <c r="D314" s="12"/>
       <c r="E314" s="12"/>
-      <c r="F314" s="38"/>
+      <c r="F314" s="37"/>
       <c r="G314" s="12"/>
       <c r="H314" s="12"/>
       <c r="I314" s="12"/>
@@ -12495,7 +12531,7 @@
       <c r="C315" s="12"/>
       <c r="D315" s="12"/>
       <c r="E315" s="12"/>
-      <c r="F315" s="38"/>
+      <c r="F315" s="37"/>
       <c r="G315" s="12"/>
       <c r="H315" s="12"/>
       <c r="I315" s="12"/>
@@ -12523,7 +12559,7 @@
       <c r="C316" s="12"/>
       <c r="D316" s="12"/>
       <c r="E316" s="12"/>
-      <c r="F316" s="38"/>
+      <c r="F316" s="37"/>
       <c r="G316" s="12"/>
       <c r="H316" s="12"/>
       <c r="I316" s="12"/>
@@ -12551,7 +12587,7 @@
       <c r="C317" s="12"/>
       <c r="D317" s="12"/>
       <c r="E317" s="12"/>
-      <c r="F317" s="38"/>
+      <c r="F317" s="37"/>
       <c r="G317" s="12"/>
       <c r="H317" s="12"/>
       <c r="I317" s="12"/>
@@ -12579,7 +12615,7 @@
       <c r="C318" s="12"/>
       <c r="D318" s="12"/>
       <c r="E318" s="12"/>
-      <c r="F318" s="38"/>
+      <c r="F318" s="37"/>
       <c r="G318" s="12"/>
       <c r="H318" s="12"/>
       <c r="I318" s="12"/>
@@ -12607,7 +12643,7 @@
       <c r="C319" s="12"/>
       <c r="D319" s="12"/>
       <c r="E319" s="12"/>
-      <c r="F319" s="38"/>
+      <c r="F319" s="37"/>
       <c r="G319" s="12"/>
       <c r="H319" s="12"/>
       <c r="I319" s="12"/>
@@ -12635,7 +12671,7 @@
       <c r="C320" s="12"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
-      <c r="F320" s="38"/>
+      <c r="F320" s="37"/>
       <c r="G320" s="12"/>
       <c r="H320" s="12"/>
       <c r="I320" s="12"/>
@@ -12663,7 +12699,7 @@
       <c r="C321" s="12"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
-      <c r="F321" s="38"/>
+      <c r="F321" s="37"/>
       <c r="G321" s="12"/>
       <c r="H321" s="12"/>
       <c r="I321" s="12"/>
@@ -12691,7 +12727,7 @@
       <c r="C322" s="12"/>
       <c r="D322" s="12"/>
       <c r="E322" s="12"/>
-      <c r="F322" s="38"/>
+      <c r="F322" s="37"/>
       <c r="G322" s="12"/>
       <c r="H322" s="12"/>
       <c r="I322" s="12"/>
@@ -12719,7 +12755,7 @@
       <c r="C323" s="12"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
-      <c r="F323" s="38"/>
+      <c r="F323" s="37"/>
       <c r="G323" s="12"/>
       <c r="H323" s="12"/>
       <c r="I323" s="12"/>
@@ -12747,7 +12783,7 @@
       <c r="C324" s="12"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
-      <c r="F324" s="38"/>
+      <c r="F324" s="37"/>
       <c r="G324" s="12"/>
       <c r="H324" s="12"/>
       <c r="I324" s="12"/>
@@ -12775,7 +12811,7 @@
       <c r="C325" s="12"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
-      <c r="F325" s="38"/>
+      <c r="F325" s="37"/>
       <c r="G325" s="12"/>
       <c r="H325" s="12"/>
       <c r="I325" s="12"/>
@@ -12803,7 +12839,7 @@
       <c r="C326" s="12"/>
       <c r="D326" s="12"/>
       <c r="E326" s="12"/>
-      <c r="F326" s="38"/>
+      <c r="F326" s="37"/>
       <c r="G326" s="12"/>
       <c r="H326" s="12"/>
       <c r="I326" s="12"/>
@@ -12831,7 +12867,7 @@
       <c r="C327" s="12"/>
       <c r="D327" s="12"/>
       <c r="E327" s="12"/>
-      <c r="F327" s="38"/>
+      <c r="F327" s="37"/>
       <c r="G327" s="12"/>
       <c r="H327" s="12"/>
       <c r="I327" s="12"/>
@@ -12859,7 +12895,7 @@
       <c r="C328" s="12"/>
       <c r="D328" s="12"/>
       <c r="E328" s="12"/>
-      <c r="F328" s="38"/>
+      <c r="F328" s="37"/>
       <c r="G328" s="12"/>
       <c r="H328" s="12"/>
       <c r="I328" s="12"/>
@@ -12887,7 +12923,7 @@
       <c r="C329" s="12"/>
       <c r="D329" s="12"/>
       <c r="E329" s="12"/>
-      <c r="F329" s="38"/>
+      <c r="F329" s="37"/>
       <c r="G329" s="12"/>
       <c r="H329" s="12"/>
       <c r="I329" s="12"/>
@@ -12915,7 +12951,7 @@
       <c r="C330" s="12"/>
       <c r="D330" s="12"/>
       <c r="E330" s="12"/>
-      <c r="F330" s="38"/>
+      <c r="F330" s="37"/>
       <c r="G330" s="12"/>
       <c r="H330" s="12"/>
       <c r="I330" s="12"/>
@@ -12943,7 +12979,7 @@
       <c r="C331" s="12"/>
       <c r="D331" s="12"/>
       <c r="E331" s="12"/>
-      <c r="F331" s="38"/>
+      <c r="F331" s="37"/>
       <c r="G331" s="12"/>
       <c r="H331" s="12"/>
       <c r="I331" s="12"/>
@@ -12971,7 +13007,7 @@
       <c r="C332" s="12"/>
       <c r="D332" s="12"/>
       <c r="E332" s="12"/>
-      <c r="F332" s="38"/>
+      <c r="F332" s="37"/>
       <c r="G332" s="12"/>
       <c r="H332" s="12"/>
       <c r="I332" s="12"/>
@@ -12999,7 +13035,7 @@
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
-      <c r="F333" s="38"/>
+      <c r="F333" s="37"/>
       <c r="G333" s="12"/>
       <c r="H333" s="12"/>
       <c r="I333" s="12"/>
@@ -13027,7 +13063,7 @@
       <c r="C334" s="12"/>
       <c r="D334" s="12"/>
       <c r="E334" s="12"/>
-      <c r="F334" s="38"/>
+      <c r="F334" s="37"/>
       <c r="G334" s="12"/>
       <c r="H334" s="12"/>
       <c r="I334" s="12"/>
@@ -13055,7 +13091,7 @@
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
       <c r="E335" s="12"/>
-      <c r="F335" s="38"/>
+      <c r="F335" s="37"/>
       <c r="G335" s="12"/>
       <c r="H335" s="12"/>
       <c r="I335" s="12"/>
@@ -13083,7 +13119,7 @@
       <c r="C336" s="12"/>
       <c r="D336" s="12"/>
       <c r="E336" s="12"/>
-      <c r="F336" s="38"/>
+      <c r="F336" s="37"/>
       <c r="G336" s="12"/>
       <c r="H336" s="12"/>
       <c r="I336" s="12"/>
@@ -13111,7 +13147,7 @@
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
-      <c r="F337" s="38"/>
+      <c r="F337" s="37"/>
       <c r="G337" s="12"/>
       <c r="H337" s="12"/>
       <c r="I337" s="12"/>
@@ -13139,7 +13175,7 @@
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
       <c r="E338" s="12"/>
-      <c r="F338" s="38"/>
+      <c r="F338" s="37"/>
       <c r="G338" s="12"/>
       <c r="H338" s="12"/>
       <c r="I338" s="12"/>
@@ -13167,7 +13203,7 @@
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
       <c r="E339" s="12"/>
-      <c r="F339" s="38"/>
+      <c r="F339" s="37"/>
       <c r="G339" s="12"/>
       <c r="H339" s="12"/>
       <c r="I339" s="12"/>
@@ -13195,7 +13231,7 @@
       <c r="C340" s="12"/>
       <c r="D340" s="12"/>
       <c r="E340" s="12"/>
-      <c r="F340" s="38"/>
+      <c r="F340" s="37"/>
       <c r="G340" s="12"/>
       <c r="H340" s="12"/>
       <c r="I340" s="12"/>
@@ -13223,7 +13259,7 @@
       <c r="C341" s="12"/>
       <c r="D341" s="12"/>
       <c r="E341" s="12"/>
-      <c r="F341" s="38"/>
+      <c r="F341" s="37"/>
       <c r="G341" s="12"/>
       <c r="H341" s="12"/>
       <c r="I341" s="12"/>
@@ -13251,7 +13287,7 @@
       <c r="C342" s="12"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
-      <c r="F342" s="38"/>
+      <c r="F342" s="37"/>
       <c r="G342" s="12"/>
       <c r="H342" s="12"/>
       <c r="I342" s="12"/>
@@ -13279,7 +13315,7 @@
       <c r="C343" s="12"/>
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
-      <c r="F343" s="38"/>
+      <c r="F343" s="37"/>
       <c r="G343" s="12"/>
       <c r="H343" s="12"/>
       <c r="I343" s="12"/>
@@ -13307,7 +13343,7 @@
       <c r="C344" s="12"/>
       <c r="D344" s="12"/>
       <c r="E344" s="12"/>
-      <c r="F344" s="38"/>
+      <c r="F344" s="37"/>
       <c r="G344" s="12"/>
       <c r="H344" s="12"/>
       <c r="I344" s="12"/>
@@ -13335,7 +13371,7 @@
       <c r="C345" s="12"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
-      <c r="F345" s="38"/>
+      <c r="F345" s="37"/>
       <c r="G345" s="12"/>
       <c r="H345" s="12"/>
       <c r="I345" s="12"/>
@@ -13363,7 +13399,7 @@
       <c r="C346" s="12"/>
       <c r="D346" s="12"/>
       <c r="E346" s="12"/>
-      <c r="F346" s="38"/>
+      <c r="F346" s="37"/>
       <c r="G346" s="12"/>
       <c r="H346" s="12"/>
       <c r="I346" s="12"/>
@@ -13391,7 +13427,7 @@
       <c r="C347" s="12"/>
       <c r="D347" s="12"/>
       <c r="E347" s="12"/>
-      <c r="F347" s="38"/>
+      <c r="F347" s="37"/>
       <c r="G347" s="12"/>
       <c r="H347" s="12"/>
       <c r="I347" s="12"/>
@@ -13419,7 +13455,7 @@
       <c r="C348" s="12"/>
       <c r="D348" s="12"/>
       <c r="E348" s="12"/>
-      <c r="F348" s="38"/>
+      <c r="F348" s="37"/>
       <c r="G348" s="12"/>
       <c r="H348" s="12"/>
       <c r="I348" s="12"/>
@@ -13447,7 +13483,7 @@
       <c r="C349" s="12"/>
       <c r="D349" s="12"/>
       <c r="E349" s="12"/>
-      <c r="F349" s="38"/>
+      <c r="F349" s="37"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
       <c r="I349" s="12"/>
@@ -13475,7 +13511,7 @@
       <c r="C350" s="12"/>
       <c r="D350" s="12"/>
       <c r="E350" s="12"/>
-      <c r="F350" s="38"/>
+      <c r="F350" s="37"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
       <c r="I350" s="12"/>
@@ -13503,7 +13539,7 @@
       <c r="C351" s="12"/>
       <c r="D351" s="12"/>
       <c r="E351" s="12"/>
-      <c r="F351" s="38"/>
+      <c r="F351" s="37"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
       <c r="I351" s="12"/>
@@ -13531,7 +13567,7 @@
       <c r="C352" s="12"/>
       <c r="D352" s="12"/>
       <c r="E352" s="12"/>
-      <c r="F352" s="38"/>
+      <c r="F352" s="37"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
       <c r="I352" s="12"/>
@@ -13559,7 +13595,7 @@
       <c r="C353" s="12"/>
       <c r="D353" s="12"/>
       <c r="E353" s="12"/>
-      <c r="F353" s="38"/>
+      <c r="F353" s="37"/>
       <c r="G353" s="12"/>
       <c r="H353" s="12"/>
       <c r="I353" s="12"/>
@@ -13587,7 +13623,7 @@
       <c r="C354" s="12"/>
       <c r="D354" s="12"/>
       <c r="E354" s="12"/>
-      <c r="F354" s="38"/>
+      <c r="F354" s="37"/>
       <c r="G354" s="12"/>
       <c r="H354" s="12"/>
       <c r="I354" s="12"/>
@@ -13615,7 +13651,7 @@
       <c r="C355" s="12"/>
       <c r="D355" s="12"/>
       <c r="E355" s="12"/>
-      <c r="F355" s="38"/>
+      <c r="F355" s="37"/>
       <c r="G355" s="12"/>
       <c r="H355" s="12"/>
       <c r="I355" s="12"/>
@@ -13643,7 +13679,7 @@
       <c r="C356" s="12"/>
       <c r="D356" s="12"/>
       <c r="E356" s="12"/>
-      <c r="F356" s="38"/>
+      <c r="F356" s="37"/>
       <c r="G356" s="12"/>
       <c r="H356" s="12"/>
       <c r="I356" s="12"/>
@@ -31698,7 +31734,7 @@
       <c r="Z1000" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
+  <mergeCells count="131">
     <mergeCell ref="F28:F50"/>
     <mergeCell ref="A28:A47"/>
     <mergeCell ref="B43:C43"/>
@@ -31775,6 +31811,7 @@
     <mergeCell ref="B135:C135"/>
     <mergeCell ref="B136:C136"/>
     <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E121:F121"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A26"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/3/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/3/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amit.mishra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\Time table Odd 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DC9614-5796-4F4E-8D25-A96C25FC3489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCADB3-5604-4493-968F-E3ADFAD4125A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1287,9 +1287,6 @@
     <t>LA5-A6(HS211)-CR401/AMN</t>
   </si>
   <si>
-    <t>TB9(HS211)-TS13/KMB</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA10,C3(BT211)-FF2/NV </t>
   </si>
   <si>
@@ -1609,6 +1606,9 @@
   </si>
   <si>
     <t>PB1,B16(B15CS214)-CL05,06/PRK,PKU</t>
+  </si>
+  <si>
+    <t>TB9(HS211)-TS12/KMB</t>
   </si>
 </sst>
 </file>
@@ -2222,38 +2222,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2263,15 +2292,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2290,38 +2310,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2550,10 +2550,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47:D47"/>
+      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2575,17 +2575,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="115"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2605,7 +2605,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2651,7 +2651,7 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="E3" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="107" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="56" t="s">
@@ -2697,7 +2697,7 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="E4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="103"/>
+      <c r="F4" s="108"/>
       <c r="H4" s="56" t="s">
         <v>22</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="56" t="s">
         <v>419</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="103"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="56" t="s">
         <v>26</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="56" t="s">
         <v>28</v>
       </c>
@@ -2784,12 +2784,12 @@
         <v>29</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="103"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="57"/>
       <c r="H6" s="56" t="s">
         <v>31</v>
@@ -2816,7 +2816,7 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="56" t="s">
         <v>32</v>
       </c>
@@ -2824,12 +2824,12 @@
         <v>399</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E7" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="103"/>
+      <c r="F7" s="108"/>
       <c r="G7" s="56" t="s">
         <v>34</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="56" t="s">
         <v>36</v>
       </c>
@@ -2866,12 +2866,12 @@
         <v>37</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="103"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="56" t="s">
         <v>39</v>
       </c>
@@ -2900,20 +2900,20 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="F9" s="103"/>
+        <v>486</v>
+      </c>
+      <c r="F9" s="108"/>
       <c r="G9" s="56" t="s">
         <v>44</v>
       </c>
@@ -2942,9 +2942,9 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C10" s="59" t="s">
         <v>47</v>
@@ -2955,7 +2955,7 @@
       <c r="E10" s="86" t="s">
         <v>418</v>
       </c>
-      <c r="F10" s="103"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="56" t="s">
         <v>49</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="59" t="s">
         <v>52</v>
       </c>
@@ -2995,9 +2995,9 @@
       <c r="E11" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="103"/>
+      <c r="F11" s="108"/>
       <c r="G11" s="88" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H11" s="61" t="s">
         <v>73</v>
@@ -3024,7 +3024,7 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="62"/>
       <c r="C12" s="59" t="s">
         <v>57</v>
@@ -3035,7 +3035,7 @@
       <c r="E12" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="103"/>
+      <c r="F12" s="108"/>
       <c r="G12" s="56" t="s">
         <v>400</v>
       </c>
@@ -3064,10 +3064,10 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="62"/>
       <c r="C13" s="59" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D13" s="60" t="s">
         <v>62</v>
@@ -3075,7 +3075,7 @@
       <c r="E13" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="103"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="61" t="s">
         <v>64</v>
       </c>
@@ -3102,22 +3102,22 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="59" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="F14" s="103"/>
+        <v>431</v>
+      </c>
+      <c r="F14" s="108"/>
       <c r="G14" s="61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="56"/>
@@ -3140,7 +3140,7 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="59" t="s">
         <v>68</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="E15" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="103"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="64" t="s">
         <v>72</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="59" t="s">
         <v>364</v>
       </c>
@@ -3187,9 +3187,9 @@
         <v>382</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="F16" s="120"/>
+        <v>445</v>
+      </c>
+      <c r="F16" s="126"/>
       <c r="G16" s="56" t="s">
         <v>380</v>
       </c>
@@ -3214,19 +3214,19 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="87" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C17" s="62"/>
       <c r="E17" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="121" t="s">
-        <v>439</v>
-      </c>
-      <c r="H17" s="122"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="127" t="s">
+        <v>438</v>
+      </c>
+      <c r="H17" s="128"/>
       <c r="I17" s="56"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -3247,18 +3247,18 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="123" t="s">
+      <c r="A18" s="118"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="96" t="s">
+      <c r="E18" s="101"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="95"/>
+      <c r="H18" s="101"/>
       <c r="I18" s="63"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -3279,20 +3279,20 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="126" t="s">
+      <c r="A19" s="98"/>
+      <c r="B19" s="132" t="s">
         <v>379</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="96" t="s">
+      <c r="C19" s="133"/>
+      <c r="D19" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="96" t="s">
-        <v>460</v>
-      </c>
-      <c r="H19" s="95"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="100" t="s">
+        <v>459</v>
+      </c>
+      <c r="H19" s="101"/>
       <c r="I19" s="63"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -3313,18 +3313,18 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="99" t="s">
+      <c r="A20" s="98"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="105" t="s">
         <v>371</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="96" t="s">
+      <c r="E20" s="101"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="95"/>
+      <c r="H20" s="101"/>
       <c r="I20" s="63"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -3345,17 +3345,17 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="63"/>
       <c r="C21" s="57"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="103"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="108"/>
       <c r="G21" s="57"/>
-      <c r="H21" s="96" t="s">
+      <c r="H21" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="95"/>
+      <c r="I21" s="101"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -3375,17 +3375,17 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
-      <c r="F22" s="103"/>
+      <c r="F22" s="108"/>
       <c r="G22" s="63"/>
-      <c r="H22" s="96" t="s">
+      <c r="H22" s="100" t="s">
         <v>384</v>
       </c>
-      <c r="I22" s="95"/>
+      <c r="I22" s="101"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -3405,17 +3405,17 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
-      <c r="F23" s="103"/>
+      <c r="F23" s="108"/>
       <c r="G23" s="63"/>
-      <c r="H23" s="96" t="s">
+      <c r="H23" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="95"/>
+      <c r="I23" s="101"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -3435,17 +3435,17 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
-      <c r="F24" s="103"/>
+      <c r="F24" s="108"/>
       <c r="G24" s="63"/>
-      <c r="H24" s="96" t="s">
+      <c r="H24" s="100" t="s">
         <v>372</v>
       </c>
-      <c r="I24" s="95"/>
+      <c r="I24" s="101"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -3465,15 +3465,15 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="63"/>
       <c r="C25" s="63"/>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
-      <c r="F25" s="103"/>
+      <c r="F25" s="108"/>
       <c r="G25" s="63"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="95"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="101"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -3493,12 +3493,12 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="118"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="63"/>
       <c r="C26" s="63"/>
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
-      <c r="F26" s="104"/>
+      <c r="F26" s="109"/>
       <c r="G26" s="56"/>
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
@@ -3521,15 +3521,15 @@
       <c r="Z26" s="8"/>
     </row>
     <row r="27" spans="1:26" s="41" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="112"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
@@ -3549,7 +3549,7 @@
       <c r="Z27" s="40"/>
     </row>
     <row r="28" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="97" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="56" t="s">
@@ -3562,7 +3562,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="57"/>
-      <c r="F28" s="102" t="s">
+      <c r="F28" s="94" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="56" t="s">
@@ -3593,7 +3593,7 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="56" t="s">
         <v>87</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="E29" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="138"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="56" t="s">
         <v>18</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="56" t="s">
         <v>401</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="E30" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="138"/>
+      <c r="F30" s="95"/>
       <c r="G30" s="56" t="s">
         <v>414</v>
       </c>
@@ -3677,7 +3677,7 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="56" t="s">
         <v>95</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="E31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="138"/>
+      <c r="F31" s="95"/>
       <c r="G31" s="56" t="s">
         <v>28</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="116"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="56" t="s">
         <v>100</v>
       </c>
@@ -3727,12 +3727,12 @@
         <v>101</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E32" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="F32" s="138"/>
+      <c r="F32" s="95"/>
       <c r="G32" s="56" t="s">
         <v>102</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="56" t="s">
         <v>104</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="E33" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="138"/>
+      <c r="F33" s="95"/>
       <c r="G33" s="56" t="s">
         <v>108</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56" t="s">
         <v>405</v>
@@ -3814,7 +3814,7 @@
       <c r="E34" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="138"/>
+      <c r="F34" s="95"/>
       <c r="G34" s="56" t="s">
         <v>113</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="116"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="61" t="s">
         <v>114</v>
       </c>
@@ -3847,12 +3847,12 @@
         <v>115</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>471</v>
-      </c>
-      <c r="F35" s="138"/>
+        <v>470</v>
+      </c>
+      <c r="F35" s="95"/>
       <c r="G35" s="56" t="s">
         <v>116</v>
       </c>
@@ -3879,20 +3879,20 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="116"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="61" t="s">
         <v>118</v>
       </c>
       <c r="C36" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="D36" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="E36" s="56" t="s">
         <v>476</v>
       </c>
-      <c r="E36" s="56" t="s">
-        <v>477</v>
-      </c>
-      <c r="F36" s="138"/>
+      <c r="F36" s="95"/>
       <c r="G36" s="56" t="s">
         <v>381</v>
       </c>
@@ -3919,12 +3919,12 @@
       <c r="Z36" s="8"/>
     </row>
     <row r="37" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="116"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D37" s="56" t="s">
         <v>121</v>
@@ -3932,7 +3932,7 @@
       <c r="E37" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="138"/>
+      <c r="F37" s="95"/>
       <c r="G37" s="61" t="s">
         <v>123</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="116"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="57"/>
       <c r="C38" s="56" t="s">
         <v>416</v>
@@ -3970,14 +3970,14 @@
       <c r="E38" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="138"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="61" t="s">
-        <v>456</v>
-      </c>
-      <c r="H38" s="96" t="s">
+        <v>455</v>
+      </c>
+      <c r="H38" s="100" t="s">
         <v>386</v>
       </c>
-      <c r="I38" s="95"/>
+      <c r="I38" s="101"/>
       <c r="J38" s="7"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -3997,9 +3997,9 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="116"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C39" s="56" t="s">
         <v>365</v>
@@ -4010,14 +4010,14 @@
       <c r="E39" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="138"/>
+      <c r="F39" s="95"/>
       <c r="G39" s="56" t="s">
-        <v>457</v>
-      </c>
-      <c r="H39" s="96" t="s">
+        <v>456</v>
+      </c>
+      <c r="H39" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="95"/>
+      <c r="I39" s="101"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -4037,7 +4037,7 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="116"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="61" t="s">
         <v>129</v>
       </c>
@@ -4048,14 +4048,14 @@
       <c r="E40" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="138"/>
+      <c r="F40" s="95"/>
       <c r="G40" s="87" t="s">
-        <v>502</v>
-      </c>
-      <c r="H40" s="96" t="s">
+        <v>501</v>
+      </c>
+      <c r="H40" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="I40" s="95"/>
+      <c r="I40" s="101"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -4075,16 +4075,16 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="116"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="61" t="s">
         <v>133</v>
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="63"/>
       <c r="E41" s="69" t="s">
-        <v>438</v>
-      </c>
-      <c r="F41" s="138"/>
+        <v>437</v>
+      </c>
+      <c r="F41" s="95"/>
       <c r="G41" s="61" t="s">
         <v>134</v>
       </c>
@@ -4109,21 +4109,21 @@
       <c r="Z41" s="8"/>
     </row>
     <row r="42" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="116"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="61" t="s">
         <v>135</v>
       </c>
       <c r="C42" s="63"/>
       <c r="D42" s="56"/>
       <c r="E42" s="63"/>
-      <c r="F42" s="138"/>
+      <c r="F42" s="95"/>
       <c r="G42" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="H42" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="I42" s="95"/>
+      <c r="H42" s="100" t="s">
+        <v>451</v>
+      </c>
+      <c r="I42" s="101"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -4143,23 +4143,23 @@
       <c r="Z42" s="8"/>
     </row>
     <row r="43" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="116"/>
-      <c r="B43" s="96" t="s">
+      <c r="A43" s="98"/>
+      <c r="B43" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="96" t="s">
+      <c r="C43" s="101"/>
+      <c r="D43" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="95"/>
-      <c r="F43" s="138"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="95"/>
       <c r="G43" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="H43" s="96" t="s">
+      <c r="H43" s="100" t="s">
         <v>377</v>
       </c>
-      <c r="I43" s="95"/>
+      <c r="I43" s="101"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -4179,18 +4179,18 @@
       <c r="Z43" s="8"/>
     </row>
     <row r="44" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="116"/>
-      <c r="B44" s="96" t="s">
+      <c r="A44" s="98"/>
+      <c r="B44" s="100" t="s">
         <v>373</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="96" t="s">
+      <c r="C44" s="101"/>
+      <c r="D44" s="100" t="s">
         <v>385</v>
       </c>
-      <c r="E44" s="95"/>
-      <c r="F44" s="138"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="95"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="95"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="101"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -4210,14 +4210,14 @@
       <c r="Z44" s="8"/>
     </row>
     <row r="45" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="116"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="97" t="s">
-        <v>521</v>
-      </c>
-      <c r="E45" s="98"/>
-      <c r="F45" s="138"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="102" t="s">
+        <v>520</v>
+      </c>
+      <c r="E45" s="103"/>
+      <c r="F45" s="95"/>
       <c r="G45" s="57"/>
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
@@ -4240,16 +4240,16 @@
       <c r="Z45" s="8"/>
     </row>
     <row r="46" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="116"/>
-      <c r="B46" s="97" t="s">
-        <v>524</v>
-      </c>
-      <c r="C46" s="98"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="95"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="102" t="s">
+        <v>523</v>
+      </c>
+      <c r="C46" s="103"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="101"/>
       <c r="I46" s="68"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -4270,22 +4270,22 @@
       <c r="Z46" s="8"/>
     </row>
     <row r="47" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="118"/>
+      <c r="A47" s="99"/>
       <c r="B47" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="97" t="s">
-        <v>525</v>
-      </c>
-      <c r="D47" s="98"/>
+      <c r="C47" s="102" t="s">
+        <v>524</v>
+      </c>
+      <c r="D47" s="103"/>
       <c r="E47" s="61" t="s">
-        <v>451</v>
-      </c>
-      <c r="F47" s="138"/>
-      <c r="G47" s="130" t="s">
+        <v>450</v>
+      </c>
+      <c r="F47" s="95"/>
+      <c r="G47" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="H47" s="95"/>
+      <c r="H47" s="101"/>
       <c r="I47" s="71"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -4307,17 +4307,17 @@
     </row>
     <row r="48" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="94" t="s">
-        <v>450</v>
-      </c>
-      <c r="C48" s="95"/>
+      <c r="B48" s="110" t="s">
+        <v>449</v>
+      </c>
+      <c r="C48" s="101"/>
       <c r="D48" s="63"/>
       <c r="E48" s="63"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="135" t="s">
-        <v>440</v>
-      </c>
-      <c r="H48" s="136"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="116" t="s">
+        <v>439</v>
+      </c>
+      <c r="H48" s="117"/>
       <c r="I48" s="71"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -4339,15 +4339,15 @@
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="95"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="130" t="s">
+      <c r="F49" s="95"/>
+      <c r="G49" s="104" t="s">
         <v>368</v>
       </c>
-      <c r="H49" s="95"/>
+      <c r="H49" s="101"/>
       <c r="I49" s="68"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -4373,7 +4373,7 @@
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
       <c r="E50" s="56"/>
-      <c r="F50" s="139"/>
+      <c r="F50" s="96"/>
       <c r="G50" s="68"/>
       <c r="H50" s="68"/>
       <c r="I50" s="68"/>
@@ -4396,15 +4396,15 @@
       <c r="Z50" s="8"/>
     </row>
     <row r="51" spans="1:26" s="45" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="132"/>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="134"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="114"/>
       <c r="J51" s="43"/>
       <c r="K51" s="43"/>
       <c r="L51" s="43"/>
@@ -4424,18 +4424,18 @@
       <c r="Z51" s="44"/>
     </row>
     <row r="52" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="115" t="s">
+      <c r="A52" s="97" t="s">
         <v>142</v>
       </c>
       <c r="B52" s="72"/>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
       <c r="E52" s="63"/>
-      <c r="F52" s="119" t="s">
+      <c r="F52" s="107" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H52" s="63"/>
       <c r="I52" s="69"/>
@@ -4458,20 +4458,20 @@
       <c r="Z52" s="8"/>
     </row>
     <row r="53" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="116"/>
+      <c r="A53" s="98"/>
       <c r="B53" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C53" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D53" s="56" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="56" t="s">
-        <v>449</v>
-      </c>
-      <c r="F53" s="103"/>
+        <v>448</v>
+      </c>
+      <c r="F53" s="108"/>
       <c r="G53" s="56" t="s">
         <v>83</v>
       </c>
@@ -4500,9 +4500,9 @@
       <c r="Z53" s="8"/>
     </row>
     <row r="54" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="116"/>
+      <c r="A54" s="98"/>
       <c r="B54" s="56" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C54" s="56" t="s">
         <v>144</v>
@@ -4511,7 +4511,7 @@
         <v>19</v>
       </c>
       <c r="E54" s="57"/>
-      <c r="F54" s="103"/>
+      <c r="F54" s="108"/>
       <c r="G54" s="56" t="s">
         <v>88</v>
       </c>
@@ -4540,7 +4540,7 @@
       <c r="Z54" s="8"/>
     </row>
     <row r="55" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="116"/>
+      <c r="A55" s="98"/>
       <c r="B55" s="56" t="s">
         <v>147</v>
       </c>
@@ -4553,15 +4553,15 @@
       <c r="E55" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="F55" s="103"/>
+      <c r="F55" s="108"/>
       <c r="G55" s="56" t="s">
         <v>91</v>
       </c>
       <c r="H55" s="87" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I55" s="56" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -4582,12 +4582,12 @@
       <c r="Z55" s="8"/>
     </row>
     <row r="56" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="116"/>
+      <c r="A56" s="98"/>
       <c r="B56" s="56" t="s">
         <v>406</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D56" s="56" t="s">
         <v>29</v>
@@ -4595,12 +4595,12 @@
       <c r="E56" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="F56" s="103"/>
+      <c r="F56" s="108"/>
       <c r="G56" s="56" t="s">
         <v>150</v>
       </c>
       <c r="H56" s="56" t="s">
-        <v>420</v>
+        <v>527</v>
       </c>
       <c r="I56" s="56" t="s">
         <v>151</v>
@@ -4624,7 +4624,7 @@
       <c r="Z56" s="8"/>
     </row>
     <row r="57" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="116"/>
+      <c r="A57" s="98"/>
       <c r="B57" s="56" t="s">
         <v>152</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="E57" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="F57" s="103"/>
+      <c r="F57" s="108"/>
       <c r="G57" s="56" t="s">
         <v>155</v>
       </c>
@@ -4666,25 +4666,25 @@
       <c r="Z57" s="8"/>
     </row>
     <row r="58" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="116"/>
+      <c r="A58" s="98"/>
       <c r="B58" s="56" t="s">
         <v>156</v>
       </c>
       <c r="C58" s="56" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D58" s="56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E58" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="103"/>
+      <c r="F58" s="108"/>
       <c r="G58" s="56" t="s">
         <v>158</v>
       </c>
       <c r="H58" s="56" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I58" s="56" t="s">
         <v>51</v>
@@ -4708,7 +4708,7 @@
       <c r="Z58" s="8"/>
     </row>
     <row r="59" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="116"/>
+      <c r="A59" s="98"/>
       <c r="B59" s="56" t="s">
         <v>159</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="E59" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="F59" s="103"/>
+      <c r="F59" s="108"/>
       <c r="G59" s="56" t="s">
         <v>163</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>394</v>
       </c>
       <c r="I59" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -4750,7 +4750,7 @@
       <c r="Z59" s="8"/>
     </row>
     <row r="60" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="116"/>
+      <c r="A60" s="98"/>
       <c r="B60" s="56" t="s">
         <v>164</v>
       </c>
@@ -4763,12 +4763,12 @@
       <c r="E60" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="F60" s="103"/>
+      <c r="F60" s="108"/>
       <c r="G60" s="56" t="s">
         <v>168</v>
       </c>
       <c r="H60" s="56" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I60" s="74"/>
       <c r="J60" s="7"/>
@@ -4790,7 +4790,7 @@
       <c r="Z60" s="8"/>
     </row>
     <row r="61" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="116"/>
+      <c r="A61" s="98"/>
       <c r="B61" s="56" t="s">
         <v>169</v>
       </c>
@@ -4803,14 +4803,14 @@
       <c r="E61" s="56" t="s">
         <v>407</v>
       </c>
-      <c r="F61" s="103"/>
+      <c r="F61" s="108"/>
       <c r="G61" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="H61" s="94" t="s">
-        <v>491</v>
-      </c>
-      <c r="I61" s="108"/>
+      <c r="H61" s="110" t="s">
+        <v>490</v>
+      </c>
+      <c r="I61" s="115"/>
       <c r="J61" s="12"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -4830,20 +4830,20 @@
       <c r="Z61" s="8"/>
     </row>
     <row r="62" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="116"/>
+      <c r="A62" s="98"/>
       <c r="B62" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C62" s="56" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D62" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="F62" s="103"/>
+      <c r="F62" s="108"/>
       <c r="G62" s="56"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="95"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="101"/>
       <c r="J62" s="12"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -4863,7 +4863,7 @@
       <c r="Z62" s="8"/>
     </row>
     <row r="63" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="116"/>
+      <c r="A63" s="98"/>
       <c r="B63" s="63"/>
       <c r="C63" s="75" t="s">
         <v>174</v>
@@ -4872,13 +4872,13 @@
         <v>175</v>
       </c>
       <c r="E63" s="56" t="s">
-        <v>428</v>
-      </c>
-      <c r="F63" s="103"/>
-      <c r="G63" s="96" t="s">
+        <v>427</v>
+      </c>
+      <c r="F63" s="108"/>
+      <c r="G63" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="H63" s="95"/>
+      <c r="H63" s="101"/>
       <c r="I63" s="69"/>
       <c r="J63" s="12"/>
       <c r="K63" s="7"/>
@@ -4899,22 +4899,22 @@
       <c r="Z63" s="8"/>
     </row>
     <row r="64" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="116"/>
-      <c r="B64" s="94" t="s">
-        <v>489</v>
-      </c>
-      <c r="C64" s="108"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="110" t="s">
+        <v>488</v>
+      </c>
+      <c r="C64" s="115"/>
       <c r="D64" s="56" t="s">
         <v>176</v>
       </c>
       <c r="E64" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="103"/>
-      <c r="G64" s="97" t="s">
-        <v>522</v>
-      </c>
-      <c r="H64" s="98"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="102" t="s">
+        <v>521</v>
+      </c>
+      <c r="H64" s="103"/>
       <c r="I64" s="69"/>
       <c r="J64" s="12"/>
       <c r="K64" s="7"/>
@@ -4935,20 +4935,20 @@
       <c r="Z64" s="8"/>
     </row>
     <row r="65" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="116"/>
-      <c r="B65" s="96"/>
-      <c r="C65" s="95"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="101"/>
       <c r="D65" s="56" t="s">
         <v>178</v>
       </c>
       <c r="E65" s="56" t="s">
-        <v>444</v>
-      </c>
-      <c r="F65" s="103"/>
-      <c r="G65" s="96" t="s">
-        <v>498</v>
-      </c>
-      <c r="H65" s="95"/>
+        <v>443</v>
+      </c>
+      <c r="F65" s="108"/>
+      <c r="G65" s="100" t="s">
+        <v>497</v>
+      </c>
+      <c r="H65" s="101"/>
       <c r="I65" s="69"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -4969,19 +4969,19 @@
       <c r="Z65" s="8"/>
     </row>
     <row r="66" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="116"/>
-      <c r="B66" s="96" t="s">
+      <c r="A66" s="98"/>
+      <c r="B66" s="100" t="s">
         <v>370</v>
       </c>
-      <c r="C66" s="95"/>
+      <c r="C66" s="101"/>
       <c r="D66" s="56" t="s">
         <v>179</v>
       </c>
       <c r="E66" s="57"/>
-      <c r="F66" s="103"/>
+      <c r="F66" s="108"/>
       <c r="G66" s="57"/>
       <c r="H66" s="56" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I66" s="69"/>
       <c r="J66" s="7"/>
@@ -5003,18 +5003,18 @@
       <c r="Z66" s="8"/>
     </row>
     <row r="67" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="116"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="95"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="101"/>
       <c r="D67" s="56" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E67" s="76" t="s">
         <v>396</v>
       </c>
-      <c r="F67" s="103"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="95"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="101"/>
       <c r="I67" s="69"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -5035,18 +5035,18 @@
       <c r="Z67" s="8"/>
     </row>
     <row r="68" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="116"/>
-      <c r="B68" s="96" t="s">
+      <c r="A68" s="98"/>
+      <c r="B68" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="95"/>
-      <c r="D68" s="96" t="s">
+      <c r="C68" s="101"/>
+      <c r="D68" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="95"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="137"/>
-      <c r="H68" s="95"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="101"/>
       <c r="I68" s="63"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -5067,18 +5067,18 @@
       <c r="Z68" s="8"/>
     </row>
     <row r="69" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="116"/>
-      <c r="B69" s="96" t="s">
+      <c r="A69" s="98"/>
+      <c r="B69" s="100" t="s">
         <v>387</v>
       </c>
-      <c r="C69" s="95"/>
-      <c r="D69" s="96" t="s">
+      <c r="C69" s="101"/>
+      <c r="D69" s="100" t="s">
         <v>388</v>
       </c>
-      <c r="E69" s="95"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="95"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="101"/>
       <c r="I69" s="63"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -5099,14 +5099,14 @@
       <c r="Z69" s="8"/>
     </row>
     <row r="70" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="116"/>
+      <c r="A70" s="98"/>
       <c r="B70" s="63"/>
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="137"/>
-      <c r="H70" s="95"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="101"/>
       <c r="I70" s="63"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -5127,17 +5127,17 @@
       <c r="Z70" s="8"/>
     </row>
     <row r="71" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="116"/>
+      <c r="A71" s="98"/>
       <c r="B71" s="63"/>
       <c r="C71" s="63"/>
       <c r="D71" s="70"/>
       <c r="E71" s="70"/>
-      <c r="F71" s="103"/>
+      <c r="F71" s="108"/>
       <c r="G71" s="77"/>
-      <c r="H71" s="96" t="s">
+      <c r="H71" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="I71" s="95"/>
+      <c r="I71" s="101"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="7"/>
@@ -5157,17 +5157,17 @@
       <c r="Z71" s="8"/>
     </row>
     <row r="72" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="116"/>
-      <c r="B72" s="99"/>
-      <c r="C72" s="95"/>
+      <c r="A72" s="98"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="101"/>
       <c r="D72" s="69"/>
       <c r="E72" s="69"/>
-      <c r="F72" s="103"/>
+      <c r="F72" s="108"/>
       <c r="G72" s="69"/>
-      <c r="H72" s="96" t="s">
+      <c r="H72" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="I72" s="95"/>
+      <c r="I72" s="101"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="7"/>
@@ -5187,17 +5187,17 @@
       <c r="Z72" s="8"/>
     </row>
     <row r="73" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="116"/>
+      <c r="A73" s="98"/>
       <c r="B73" s="69"/>
       <c r="C73" s="69"/>
       <c r="D73" s="69"/>
       <c r="E73" s="69"/>
-      <c r="F73" s="103"/>
+      <c r="F73" s="108"/>
       <c r="G73" s="69"/>
-      <c r="H73" s="96" t="s">
+      <c r="H73" s="100" t="s">
         <v>390</v>
       </c>
-      <c r="I73" s="95"/>
+      <c r="I73" s="101"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
@@ -5217,12 +5217,12 @@
       <c r="Z73" s="8"/>
     </row>
     <row r="74" spans="1:26" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="116"/>
+      <c r="A74" s="98"/>
       <c r="B74" s="69"/>
       <c r="C74" s="69"/>
       <c r="D74" s="69"/>
       <c r="E74" s="69"/>
-      <c r="F74" s="103"/>
+      <c r="F74" s="108"/>
       <c r="G74" s="69"/>
       <c r="H74" s="69"/>
       <c r="I74" s="69"/>
@@ -5245,17 +5245,17 @@
       <c r="Z74" s="8"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="118"/>
+      <c r="A75" s="99"/>
       <c r="B75" s="69"/>
       <c r="C75" s="69"/>
       <c r="D75" s="69"/>
       <c r="E75" s="69"/>
-      <c r="F75" s="104"/>
+      <c r="F75" s="109"/>
       <c r="G75" s="69"/>
-      <c r="H75" s="96" t="s">
+      <c r="H75" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="I75" s="95"/>
+      <c r="I75" s="101"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -5303,7 +5303,7 @@
       <c r="Z76" s="51"/>
     </row>
     <row r="77" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="128" t="s">
+      <c r="A77" s="106" t="s">
         <v>185</v>
       </c>
       <c r="B77" s="56" t="s">
@@ -5318,7 +5318,7 @@
       <c r="E77" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="F77" s="102" t="s">
+      <c r="F77" s="94" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="56" t="s">
@@ -5328,7 +5328,7 @@
         <v>82</v>
       </c>
       <c r="I77" s="56" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -5349,9 +5349,9 @@
       <c r="Z77" s="8"/>
     </row>
     <row r="78" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="116"/>
+      <c r="A78" s="98"/>
       <c r="B78" s="87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C78" s="56" t="s">
         <v>89</v>
@@ -5362,7 +5362,7 @@
       <c r="E78" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="F78" s="103"/>
+      <c r="F78" s="108"/>
       <c r="G78" s="56" t="s">
         <v>90</v>
       </c>
@@ -5391,9 +5391,9 @@
       <c r="Z78" s="8"/>
     </row>
     <row r="79" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="116"/>
+      <c r="A79" s="98"/>
       <c r="B79" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C79" s="56" t="s">
         <v>187</v>
@@ -5404,7 +5404,7 @@
       <c r="E79" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F79" s="103"/>
+      <c r="F79" s="108"/>
       <c r="G79" s="56" t="s">
         <v>93</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>401</v>
       </c>
       <c r="I79" s="85" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -5433,7 +5433,7 @@
       <c r="Z79" s="8"/>
     </row>
     <row r="80" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="116"/>
+      <c r="A80" s="98"/>
       <c r="B80" s="56" t="s">
         <v>188</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="E80" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="F80" s="103"/>
+      <c r="F80" s="108"/>
       <c r="G80" s="56" t="s">
         <v>98</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="Z80" s="8"/>
     </row>
     <row r="81" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="116"/>
+      <c r="A81" s="98"/>
       <c r="B81" s="56" t="s">
         <v>191</v>
       </c>
@@ -5488,7 +5488,7 @@
       <c r="E81" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="F81" s="103"/>
+      <c r="F81" s="108"/>
       <c r="G81" s="56" t="s">
         <v>403</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="Z81" s="8"/>
     </row>
     <row r="82" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="116"/>
+      <c r="A82" s="98"/>
       <c r="B82" s="56" t="s">
         <v>194</v>
       </c>
@@ -5520,12 +5520,12 @@
         <v>195</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E82" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F82" s="103"/>
+      <c r="F82" s="108"/>
       <c r="H82" s="61" t="s">
         <v>196</v>
       </c>
@@ -5549,12 +5549,12 @@
       <c r="Z82" s="8"/>
     </row>
     <row r="83" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="116"/>
+      <c r="A83" s="98"/>
       <c r="B83" s="56" t="s">
         <v>197</v>
       </c>
       <c r="C83" s="56" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D83" s="56" t="s">
         <v>198</v>
@@ -5562,7 +5562,7 @@
       <c r="E83" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="F83" s="103"/>
+      <c r="F83" s="108"/>
       <c r="G83" s="61" t="s">
         <v>200</v>
       </c>
@@ -5587,17 +5587,17 @@
       <c r="Z83" s="8"/>
     </row>
     <row r="84" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="116"/>
+      <c r="A84" s="98"/>
       <c r="B84" s="56" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E84" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="F84" s="103"/>
+      <c r="F84" s="108"/>
       <c r="G84" s="61" t="s">
         <v>202</v>
       </c>
@@ -5624,20 +5624,20 @@
       <c r="Z84" s="8"/>
     </row>
     <row r="85" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="116"/>
+      <c r="A85" s="98"/>
       <c r="B85" s="63"/>
       <c r="C85" s="56" t="s">
         <v>204</v>
       </c>
       <c r="D85" s="56" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E85" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="F85" s="103"/>
+      <c r="F85" s="108"/>
       <c r="G85" s="61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H85" s="61" t="s">
         <v>412</v>
@@ -5662,20 +5662,20 @@
       <c r="Z85" s="8"/>
     </row>
     <row r="86" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="116"/>
+      <c r="A86" s="98"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56" t="s">
         <v>206</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E86" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="F86" s="103"/>
+      <c r="F86" s="108"/>
       <c r="G86" s="61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H86" s="61" t="s">
         <v>413</v>
@@ -5700,18 +5700,18 @@
       <c r="Z86" s="8"/>
     </row>
     <row r="87" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="116"/>
-      <c r="B87" s="130" t="s">
+      <c r="A87" s="98"/>
+      <c r="B87" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="95"/>
+      <c r="C87" s="101"/>
       <c r="D87" s="56" t="s">
         <v>209</v>
       </c>
       <c r="E87" s="69" t="s">
-        <v>437</v>
-      </c>
-      <c r="F87" s="103"/>
+        <v>436</v>
+      </c>
+      <c r="F87" s="108"/>
       <c r="G87" s="61" t="s">
         <v>210</v>
       </c>
@@ -5736,25 +5736,25 @@
       <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="116"/>
-      <c r="B88" s="130" t="s">
-        <v>441</v>
-      </c>
-      <c r="C88" s="95"/>
+      <c r="A88" s="98"/>
+      <c r="B88" s="104" t="s">
+        <v>440</v>
+      </c>
+      <c r="C88" s="101"/>
       <c r="D88" s="56" t="s">
         <v>213</v>
       </c>
       <c r="E88" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="103"/>
+      <c r="F88" s="108"/>
       <c r="G88" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="H88" s="94" t="s">
-        <v>516</v>
-      </c>
-      <c r="I88" s="95"/>
+      <c r="H88" s="110" t="s">
+        <v>515</v>
+      </c>
+      <c r="I88" s="101"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -5774,18 +5774,18 @@
       <c r="Z88" s="8"/>
     </row>
     <row r="89" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="116"/>
-      <c r="B89" s="130" t="s">
+      <c r="A89" s="98"/>
+      <c r="B89" s="104" t="s">
         <v>369</v>
       </c>
-      <c r="C89" s="95"/>
+      <c r="C89" s="101"/>
       <c r="E89" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="F89" s="103"/>
+      <c r="F89" s="108"/>
       <c r="G89" s="57"/>
-      <c r="H89" s="96"/>
-      <c r="I89" s="95"/>
+      <c r="H89" s="100"/>
+      <c r="I89" s="101"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -5805,20 +5805,20 @@
       <c r="Z89" s="8"/>
     </row>
     <row r="90" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="116"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="95"/>
+      <c r="A90" s="98"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="101"/>
       <c r="D90" s="81" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F90" s="103"/>
-      <c r="G90" s="96" t="s">
+        <v>496</v>
+      </c>
+      <c r="F90" s="108"/>
+      <c r="G90" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="H90" s="95"/>
+      <c r="H90" s="101"/>
       <c r="I90" s="69"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -5839,18 +5839,18 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="116"/>
-      <c r="B91" s="96" t="s">
+      <c r="A91" s="98"/>
+      <c r="B91" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C91" s="95"/>
+      <c r="C91" s="101"/>
       <c r="D91" s="56"/>
       <c r="E91" s="63"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="96" t="s">
+      <c r="F91" s="108"/>
+      <c r="G91" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="H91" s="95"/>
+      <c r="H91" s="101"/>
       <c r="I91" s="69"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -5871,18 +5871,18 @@
       <c r="Z91" s="8"/>
     </row>
     <row r="92" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="116"/>
-      <c r="B92" s="96" t="s">
+      <c r="A92" s="98"/>
+      <c r="B92" s="100" t="s">
         <v>218</v>
       </c>
-      <c r="C92" s="95"/>
+      <c r="C92" s="101"/>
       <c r="D92" s="79"/>
       <c r="E92" s="63"/>
-      <c r="F92" s="103"/>
-      <c r="G92" s="96" t="s">
+      <c r="F92" s="108"/>
+      <c r="G92" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="H92" s="95"/>
+      <c r="H92" s="101"/>
       <c r="I92" s="69"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -5903,20 +5903,20 @@
       <c r="Z92" s="8"/>
     </row>
     <row r="93" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="116"/>
-      <c r="B93" s="97" t="s">
-        <v>526</v>
-      </c>
-      <c r="C93" s="98"/>
-      <c r="D93" s="94" t="s">
+      <c r="A93" s="98"/>
+      <c r="B93" s="102" t="s">
+        <v>525</v>
+      </c>
+      <c r="C93" s="103"/>
+      <c r="D93" s="110" t="s">
         <v>408</v>
       </c>
-      <c r="E93" s="95"/>
-      <c r="F93" s="103"/>
-      <c r="G93" s="96" t="s">
+      <c r="E93" s="101"/>
+      <c r="F93" s="108"/>
+      <c r="G93" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="H93" s="95"/>
+      <c r="H93" s="101"/>
       <c r="I93" s="69"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -5937,17 +5937,17 @@
       <c r="Z93" s="8"/>
     </row>
     <row r="94" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="116"/>
-      <c r="B94" s="96"/>
-      <c r="C94" s="95"/>
-      <c r="D94" s="96"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="103"/>
+      <c r="A94" s="98"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="100"/>
+      <c r="E94" s="101"/>
+      <c r="F94" s="108"/>
       <c r="G94" s="63"/>
-      <c r="H94" s="96" t="s">
+      <c r="H94" s="100" t="s">
         <v>374</v>
       </c>
-      <c r="I94" s="95"/>
+      <c r="I94" s="101"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -5967,17 +5967,17 @@
       <c r="Z94" s="8"/>
     </row>
     <row r="95" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="116"/>
+      <c r="A95" s="98"/>
       <c r="B95" s="69"/>
       <c r="C95" s="56" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D95" s="69"/>
       <c r="E95" s="63"/>
-      <c r="F95" s="103"/>
+      <c r="F95" s="108"/>
       <c r="G95" s="63"/>
-      <c r="H95" s="96"/>
-      <c r="I95" s="95"/>
+      <c r="H95" s="100"/>
+      <c r="I95" s="101"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -5997,17 +5997,17 @@
       <c r="Z95" s="8"/>
     </row>
     <row r="96" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="116"/>
+      <c r="A96" s="98"/>
       <c r="B96" s="69"/>
       <c r="C96" s="69"/>
       <c r="D96" s="69"/>
       <c r="E96" s="69"/>
-      <c r="F96" s="103"/>
+      <c r="F96" s="108"/>
       <c r="G96" s="63"/>
-      <c r="H96" s="96" t="s">
-        <v>459</v>
-      </c>
-      <c r="I96" s="95"/>
+      <c r="H96" s="100" t="s">
+        <v>458</v>
+      </c>
+      <c r="I96" s="101"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -6027,15 +6027,15 @@
       <c r="Z96" s="8"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="116"/>
+      <c r="A97" s="98"/>
       <c r="B97" s="69"/>
       <c r="C97" s="69"/>
       <c r="D97" s="69"/>
       <c r="E97" s="69"/>
-      <c r="F97" s="103"/>
+      <c r="F97" s="108"/>
       <c r="G97" s="69"/>
-      <c r="H97" s="96"/>
-      <c r="I97" s="95"/>
+      <c r="H97" s="100"/>
+      <c r="I97" s="101"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -6055,12 +6055,12 @@
       <c r="Z97" s="8"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="118"/>
+      <c r="A98" s="99"/>
       <c r="B98" s="69"/>
       <c r="C98" s="69"/>
       <c r="D98" s="69"/>
       <c r="E98" s="69"/>
-      <c r="F98" s="104"/>
+      <c r="F98" s="109"/>
       <c r="G98" s="82"/>
       <c r="H98" s="63"/>
       <c r="I98" s="63"/>
@@ -6111,7 +6111,7 @@
       <c r="Z99" s="44"/>
     </row>
     <row r="100" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="115" t="s">
+      <c r="A100" s="97" t="s">
         <v>221</v>
       </c>
       <c r="B100" s="56" t="s">
@@ -6126,17 +6126,17 @@
       <c r="E100" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="F100" s="102" t="s">
+      <c r="F100" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="105" t="s">
+      <c r="G100" s="134" t="s">
         <v>224</v>
       </c>
       <c r="H100" s="56" t="s">
         <v>225</v>
       </c>
       <c r="I100" s="61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -6157,7 +6157,7 @@
       <c r="Z100" s="8"/>
     </row>
     <row r="101" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="116"/>
+      <c r="A101" s="98"/>
       <c r="B101" s="56" t="s">
         <v>89</v>
       </c>
@@ -6170,8 +6170,8 @@
       <c r="E101" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="103"/>
-      <c r="G101" s="103"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="108"/>
       <c r="H101" s="69" t="s">
         <v>228</v>
       </c>
@@ -6197,12 +6197,12 @@
       <c r="Z101" s="8"/>
     </row>
     <row r="102" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="116"/>
+      <c r="A102" s="98"/>
       <c r="B102" s="89" t="s">
         <v>187</v>
       </c>
       <c r="C102" s="89" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D102" s="56" t="s">
         <v>230</v>
@@ -6210,8 +6210,8 @@
       <c r="E102" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F102" s="103"/>
-      <c r="G102" s="103"/>
+      <c r="F102" s="108"/>
+      <c r="G102" s="108"/>
       <c r="I102" s="57"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -6232,21 +6232,21 @@
       <c r="Z102" s="8"/>
     </row>
     <row r="103" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="116"/>
+      <c r="A103" s="98"/>
       <c r="B103" s="89" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C103" s="89" t="s">
         <v>231</v>
       </c>
       <c r="D103" s="56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E103" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="F103" s="103"/>
-      <c r="G103" s="103"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
       <c r="H103" s="56" t="s">
         <v>232</v>
       </c>
@@ -6270,9 +6270,9 @@
       <c r="Z103" s="8"/>
     </row>
     <row r="104" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="116"/>
+      <c r="A104" s="98"/>
       <c r="B104" s="90" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C104" s="89" t="s">
         <v>233</v>
@@ -6280,8 +6280,8 @@
       <c r="E104" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="F104" s="103"/>
-      <c r="G104" s="103"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108"/>
       <c r="H104" s="56" t="s">
         <v>235</v>
       </c>
@@ -6305,23 +6305,23 @@
       <c r="Z104" s="8"/>
     </row>
     <row r="105" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="116"/>
+      <c r="A105" s="98"/>
       <c r="B105" s="89" t="s">
         <v>236</v>
       </c>
       <c r="C105" s="89" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D105" s="56" t="s">
         <v>237</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>421</v>
-      </c>
-      <c r="F105" s="103"/>
-      <c r="G105" s="103"/>
+        <v>420</v>
+      </c>
+      <c r="F105" s="108"/>
+      <c r="G105" s="108"/>
       <c r="H105" s="61" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I105" s="69"/>
       <c r="J105" s="7"/>
@@ -6343,7 +6343,7 @@
       <c r="Z105" s="8"/>
     </row>
     <row r="106" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="116"/>
+      <c r="A106" s="98"/>
       <c r="B106" s="89" t="s">
         <v>391</v>
       </c>
@@ -6354,10 +6354,10 @@
         <v>238</v>
       </c>
       <c r="E106" s="56" t="s">
-        <v>447</v>
-      </c>
-      <c r="F106" s="103"/>
-      <c r="G106" s="103"/>
+        <v>446</v>
+      </c>
+      <c r="F106" s="108"/>
+      <c r="G106" s="108"/>
       <c r="H106" s="57"/>
       <c r="I106" s="63"/>
       <c r="J106" s="7"/>
@@ -6379,7 +6379,7 @@
       <c r="Z106" s="8"/>
     </row>
     <row r="107" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="116"/>
+      <c r="A107" s="98"/>
       <c r="B107" s="89" t="s">
         <v>239</v>
       </c>
@@ -6387,13 +6387,13 @@
         <v>234</v>
       </c>
       <c r="D107" s="56" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E107" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F107" s="103"/>
-      <c r="G107" s="103"/>
+      <c r="F107" s="108"/>
+      <c r="G107" s="108"/>
       <c r="H107" s="61" t="s">
         <v>366</v>
       </c>
@@ -6417,21 +6417,21 @@
       <c r="Z107" s="8"/>
     </row>
     <row r="108" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="116"/>
+      <c r="A108" s="98"/>
       <c r="B108" s="91" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C108" s="92" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D108" s="56" t="s">
         <v>241</v>
       </c>
       <c r="E108" s="56" t="s">
-        <v>482</v>
-      </c>
-      <c r="F108" s="103"/>
-      <c r="G108" s="103"/>
+        <v>481</v>
+      </c>
+      <c r="F108" s="108"/>
+      <c r="G108" s="108"/>
       <c r="H108" s="61" t="s">
         <v>242</v>
       </c>
@@ -6455,9 +6455,9 @@
       <c r="Z108" s="8"/>
     </row>
     <row r="109" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="117"/>
+      <c r="A109" s="118"/>
       <c r="B109" s="89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C109" s="93"/>
       <c r="D109" s="60" t="s">
@@ -6466,8 +6466,8 @@
       <c r="E109" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="F109" s="103"/>
-      <c r="G109" s="103"/>
+      <c r="F109" s="108"/>
+      <c r="G109" s="108"/>
       <c r="H109" s="61" t="s">
         <v>245</v>
       </c>
@@ -6491,23 +6491,23 @@
       <c r="Z109" s="8"/>
     </row>
     <row r="110" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="116"/>
-      <c r="B110" s="106" t="s">
+      <c r="A110" s="98"/>
+      <c r="B110" s="135" t="s">
         <v>409</v>
       </c>
-      <c r="C110" s="107"/>
+      <c r="C110" s="136"/>
       <c r="D110" s="56" t="s">
         <v>246</v>
       </c>
       <c r="E110" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="F110" s="103"/>
-      <c r="G110" s="103"/>
-      <c r="H110" s="94" t="s">
-        <v>458</v>
-      </c>
-      <c r="I110" s="95"/>
+        <v>434</v>
+      </c>
+      <c r="F110" s="108"/>
+      <c r="G110" s="108"/>
+      <c r="H110" s="110" t="s">
+        <v>457</v>
+      </c>
+      <c r="I110" s="101"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -6527,23 +6527,23 @@
       <c r="Z110" s="8"/>
     </row>
     <row r="111" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="116"/>
-      <c r="B111" s="97" t="s">
-        <v>527</v>
-      </c>
-      <c r="C111" s="98"/>
+      <c r="A111" s="98"/>
+      <c r="B111" s="102" t="s">
+        <v>526</v>
+      </c>
+      <c r="C111" s="103"/>
       <c r="D111" s="87" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="F111" s="103"/>
-      <c r="G111" s="103"/>
-      <c r="H111" s="94" t="s">
-        <v>494</v>
-      </c>
-      <c r="I111" s="95"/>
+        <v>426</v>
+      </c>
+      <c r="F111" s="108"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="110" t="s">
+        <v>493</v>
+      </c>
+      <c r="I111" s="101"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
@@ -6563,21 +6563,21 @@
       <c r="Z111" s="8"/>
     </row>
     <row r="112" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="116"/>
-      <c r="B112" s="100"/>
-      <c r="C112" s="101"/>
+      <c r="A112" s="98"/>
+      <c r="B112" s="138"/>
+      <c r="C112" s="139"/>
       <c r="D112" s="56" t="s">
         <v>247</v>
       </c>
       <c r="E112" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="F112" s="103"/>
-      <c r="G112" s="103"/>
-      <c r="H112" s="94" t="s">
-        <v>517</v>
-      </c>
-      <c r="I112" s="95"/>
+        <v>441</v>
+      </c>
+      <c r="F112" s="108"/>
+      <c r="G112" s="108"/>
+      <c r="H112" s="110" t="s">
+        <v>516</v>
+      </c>
+      <c r="I112" s="101"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
@@ -6597,21 +6597,21 @@
       <c r="Z112" s="8"/>
     </row>
     <row r="113" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="116"/>
-      <c r="B113" s="96" t="s">
+      <c r="A113" s="98"/>
+      <c r="B113" s="100" t="s">
         <v>375</v>
       </c>
-      <c r="C113" s="95"/>
+      <c r="C113" s="101"/>
       <c r="D113" s="56" t="s">
         <v>367</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F113" s="103"/>
-      <c r="G113" s="103"/>
-      <c r="H113" s="96"/>
-      <c r="I113" s="95"/>
+        <v>495</v>
+      </c>
+      <c r="F113" s="108"/>
+      <c r="G113" s="108"/>
+      <c r="H113" s="100"/>
+      <c r="I113" s="101"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
@@ -6631,21 +6631,21 @@
       <c r="Z113" s="8"/>
     </row>
     <row r="114" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="116"/>
-      <c r="B114" s="96"/>
-      <c r="C114" s="95"/>
+      <c r="A114" s="98"/>
+      <c r="B114" s="100"/>
+      <c r="C114" s="101"/>
       <c r="D114" s="56" t="s">
         <v>248</v>
       </c>
       <c r="E114" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="F114" s="103"/>
-      <c r="G114" s="103"/>
-      <c r="H114" s="97" t="s">
-        <v>523</v>
-      </c>
-      <c r="I114" s="98"/>
+      <c r="F114" s="108"/>
+      <c r="G114" s="108"/>
+      <c r="H114" s="102" t="s">
+        <v>522</v>
+      </c>
+      <c r="I114" s="103"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
@@ -6665,19 +6665,19 @@
       <c r="Z114" s="8"/>
     </row>
     <row r="115" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="116"/>
-      <c r="B115" s="96" t="s">
+      <c r="A115" s="98"/>
+      <c r="B115" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="C115" s="95"/>
+      <c r="C115" s="101"/>
       <c r="D115" s="83"/>
       <c r="E115" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="F115" s="103"/>
-      <c r="G115" s="103"/>
-      <c r="H115" s="96"/>
-      <c r="I115" s="95"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="108"/>
+      <c r="H115" s="100"/>
+      <c r="I115" s="101"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="7"/>
@@ -6697,19 +6697,19 @@
       <c r="Z115" s="8"/>
     </row>
     <row r="116" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="116"/>
-      <c r="B116" s="96" t="s">
+      <c r="A116" s="98"/>
+      <c r="B116" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="C116" s="95"/>
+      <c r="C116" s="101"/>
       <c r="D116" s="79"/>
       <c r="E116" s="63"/>
-      <c r="F116" s="103"/>
-      <c r="G116" s="103"/>
-      <c r="H116" s="96" t="s">
+      <c r="F116" s="108"/>
+      <c r="G116" s="108"/>
+      <c r="H116" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="I116" s="95"/>
+      <c r="I116" s="101"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="7"/>
@@ -6729,17 +6729,17 @@
       <c r="Z116" s="8"/>
     </row>
     <row r="117" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="116"/>
-      <c r="B117" s="96" t="s">
+      <c r="A117" s="98"/>
+      <c r="B117" s="100" t="s">
         <v>253</v>
       </c>
-      <c r="C117" s="95"/>
+      <c r="C117" s="101"/>
       <c r="D117" s="63"/>
       <c r="E117" s="69"/>
-      <c r="F117" s="103"/>
-      <c r="G117" s="103"/>
-      <c r="H117" s="96"/>
-      <c r="I117" s="95"/>
+      <c r="F117" s="108"/>
+      <c r="G117" s="108"/>
+      <c r="H117" s="100"/>
+      <c r="I117" s="101"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="7"/>
@@ -6759,17 +6759,17 @@
       <c r="Z117" s="8"/>
     </row>
     <row r="118" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="116"/>
-      <c r="B118" s="99"/>
-      <c r="C118" s="95"/>
+      <c r="A118" s="98"/>
+      <c r="B118" s="105"/>
+      <c r="C118" s="101"/>
       <c r="D118" s="63"/>
       <c r="E118" s="69"/>
-      <c r="F118" s="103"/>
-      <c r="G118" s="103"/>
-      <c r="H118" s="96" t="s">
+      <c r="F118" s="108"/>
+      <c r="G118" s="108"/>
+      <c r="H118" s="100" t="s">
         <v>254</v>
       </c>
-      <c r="I118" s="95"/>
+      <c r="I118" s="101"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="7"/>
@@ -6789,18 +6789,18 @@
       <c r="Z118" s="8"/>
     </row>
     <row r="119" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="116"/>
-      <c r="C119" s="94" t="s">
-        <v>493</v>
-      </c>
-      <c r="D119" s="95"/>
+      <c r="A119" s="98"/>
+      <c r="C119" s="110" t="s">
+        <v>492</v>
+      </c>
+      <c r="D119" s="101"/>
       <c r="E119" s="69"/>
-      <c r="F119" s="103"/>
-      <c r="G119" s="104"/>
-      <c r="H119" s="96" t="s">
+      <c r="F119" s="108"/>
+      <c r="G119" s="109"/>
+      <c r="H119" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="I119" s="95"/>
+      <c r="I119" s="101"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
@@ -6820,16 +6820,16 @@
       <c r="Z119" s="8"/>
     </row>
     <row r="120" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="118"/>
+      <c r="A120" s="99"/>
       <c r="B120" s="69"/>
-      <c r="C120" s="96"/>
-      <c r="D120" s="95"/>
+      <c r="C120" s="100"/>
+      <c r="D120" s="101"/>
       <c r="E120" s="69"/>
-      <c r="F120" s="104"/>
-      <c r="G120" s="96" t="s">
+      <c r="F120" s="109"/>
+      <c r="G120" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="H120" s="109"/>
+      <c r="H120" s="137"/>
       <c r="I120" s="71"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -6854,10 +6854,10 @@
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
-      <c r="E121" s="130" t="s">
-        <v>519</v>
-      </c>
-      <c r="F121" s="131"/>
+      <c r="E121" s="104" t="s">
+        <v>518</v>
+      </c>
+      <c r="F121" s="120"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
       <c r="I121" s="11"/>
@@ -6908,7 +6908,7 @@
       <c r="Z122" s="44"/>
     </row>
     <row r="123" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="115" t="s">
+      <c r="A123" s="97" t="s">
         <v>257</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -6918,9 +6918,9 @@
         <v>259</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F123" s="128" t="s">
+        <v>467</v>
+      </c>
+      <c r="F123" s="106" t="s">
         <v>13</v>
       </c>
       <c r="G123" s="11"/>
@@ -6945,9 +6945,9 @@
       <c r="Z123" s="8"/>
     </row>
     <row r="124" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="116"/>
+      <c r="A124" s="98"/>
       <c r="B124" s="56" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C124" s="42" t="s">
         <v>227</v>
@@ -6955,7 +6955,7 @@
       <c r="E124" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="F124" s="116"/>
+      <c r="F124" s="98"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
       <c r="I124" s="16"/>
@@ -6978,14 +6978,14 @@
       <c r="Z124" s="8"/>
     </row>
     <row r="125" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="116"/>
+      <c r="A125" s="98"/>
       <c r="B125" s="69"/>
       <c r="C125" s="57"/>
       <c r="D125" s="56" t="s">
         <v>261</v>
       </c>
       <c r="E125" s="57"/>
-      <c r="F125" s="116"/>
+      <c r="F125" s="98"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
       <c r="I125" s="16"/>
@@ -7008,16 +7008,16 @@
       <c r="Z125" s="8"/>
     </row>
     <row r="126" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="116"/>
+      <c r="A126" s="98"/>
       <c r="B126" s="69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C126" s="56" t="s">
         <v>234</v>
       </c>
       <c r="D126" s="57"/>
       <c r="E126" s="63"/>
-      <c r="F126" s="116"/>
+      <c r="F126" s="98"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
       <c r="I126" s="15"/>
@@ -7040,7 +7040,7 @@
       <c r="Z126" s="8"/>
     </row>
     <row r="127" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="116"/>
+      <c r="A127" s="98"/>
       <c r="B127" s="69"/>
       <c r="C127" s="56" t="s">
         <v>237</v>
@@ -7049,7 +7049,7 @@
         <v>264</v>
       </c>
       <c r="E127" s="63"/>
-      <c r="F127" s="116"/>
+      <c r="F127" s="98"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
       <c r="I127" s="15"/>
@@ -7072,12 +7072,12 @@
       <c r="Z127" s="8"/>
     </row>
     <row r="128" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="116"/>
+      <c r="A128" s="98"/>
       <c r="B128" s="69"/>
       <c r="C128" s="57"/>
       <c r="D128" s="62"/>
       <c r="E128" s="66"/>
-      <c r="F128" s="116"/>
+      <c r="F128" s="98"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11"/>
@@ -7100,14 +7100,14 @@
       <c r="Z128" s="8"/>
     </row>
     <row r="129" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="116"/>
+      <c r="A129" s="98"/>
       <c r="B129" s="56"/>
       <c r="C129" s="81" t="s">
         <v>263</v>
       </c>
       <c r="D129" s="62"/>
       <c r="E129" s="84"/>
-      <c r="F129" s="116"/>
+      <c r="F129" s="98"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
       <c r="I129" s="11"/>
@@ -7130,16 +7130,16 @@
       <c r="Z129" s="8"/>
     </row>
     <row r="130" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="116"/>
-      <c r="B130" s="96" t="s">
+      <c r="A130" s="98"/>
+      <c r="B130" s="100" t="s">
         <v>410</v>
       </c>
-      <c r="C130" s="95"/>
-      <c r="D130" s="129" t="s">
-        <v>495</v>
-      </c>
-      <c r="E130" s="95"/>
-      <c r="F130" s="116"/>
+      <c r="C130" s="101"/>
+      <c r="D130" s="119" t="s">
+        <v>494</v>
+      </c>
+      <c r="E130" s="101"/>
+      <c r="F130" s="98"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="11"/>
@@ -7162,12 +7162,12 @@
       <c r="Z130" s="8"/>
     </row>
     <row r="131" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="116"/>
-      <c r="B131" s="96"/>
-      <c r="C131" s="95"/>
-      <c r="D131" s="96"/>
-      <c r="E131" s="95"/>
-      <c r="F131" s="116"/>
+      <c r="A131" s="98"/>
+      <c r="B131" s="100"/>
+      <c r="C131" s="101"/>
+      <c r="D131" s="100"/>
+      <c r="E131" s="101"/>
+      <c r="F131" s="98"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
       <c r="I131" s="11"/>
@@ -7190,16 +7190,16 @@
       <c r="Z131" s="8"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="116"/>
-      <c r="B132" s="96" t="s">
+      <c r="A132" s="98"/>
+      <c r="B132" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="C132" s="95"/>
-      <c r="D132" s="96" t="s">
+      <c r="C132" s="101"/>
+      <c r="D132" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="E132" s="95"/>
-      <c r="F132" s="116"/>
+      <c r="E132" s="101"/>
+      <c r="F132" s="98"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
@@ -7222,16 +7222,16 @@
       <c r="Z132" s="8"/>
     </row>
     <row r="133" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="116"/>
-      <c r="B133" s="96" t="s">
+      <c r="A133" s="98"/>
+      <c r="B133" s="100" t="s">
         <v>267</v>
       </c>
-      <c r="C133" s="95"/>
-      <c r="D133" s="96" t="s">
+      <c r="C133" s="101"/>
+      <c r="D133" s="100" t="s">
         <v>393</v>
       </c>
-      <c r="E133" s="95"/>
-      <c r="F133" s="116"/>
+      <c r="E133" s="101"/>
+      <c r="F133" s="98"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7254,16 +7254,16 @@
       <c r="Z133" s="8"/>
     </row>
     <row r="134" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="116"/>
-      <c r="B134" s="96" t="s">
+      <c r="A134" s="98"/>
+      <c r="B134" s="100" t="s">
         <v>268</v>
       </c>
-      <c r="C134" s="95"/>
-      <c r="D134" s="96" t="s">
+      <c r="C134" s="101"/>
+      <c r="D134" s="100" t="s">
         <v>269</v>
       </c>
-      <c r="E134" s="95"/>
-      <c r="F134" s="118"/>
+      <c r="E134" s="101"/>
+      <c r="F134" s="99"/>
       <c r="G134" s="15"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
@@ -7286,11 +7286,11 @@
       <c r="Z134" s="8"/>
     </row>
     <row r="135" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="116"/>
-      <c r="B135" s="96" t="s">
-        <v>499</v>
-      </c>
-      <c r="C135" s="95"/>
+      <c r="A135" s="98"/>
+      <c r="B135" s="100" t="s">
+        <v>498</v>
+      </c>
+      <c r="C135" s="101"/>
       <c r="D135" s="70"/>
       <c r="E135" s="70"/>
       <c r="F135" s="10"/>
@@ -7316,9 +7316,9 @@
       <c r="Z135" s="8"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="118"/>
-      <c r="B136" s="94"/>
-      <c r="C136" s="108"/>
+      <c r="A136" s="99"/>
+      <c r="B136" s="110"/>
+      <c r="C136" s="115"/>
       <c r="D136" s="11"/>
       <c r="E136" s="15"/>
       <c r="F136" s="13"/>
@@ -7344,15 +7344,15 @@
       <c r="Z136" s="8"/>
     </row>
     <row r="137" spans="1:26" s="45" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="132"/>
-      <c r="B137" s="133"/>
-      <c r="C137" s="133"/>
-      <c r="D137" s="133"/>
-      <c r="E137" s="133"/>
-      <c r="F137" s="133"/>
-      <c r="G137" s="133"/>
-      <c r="H137" s="133"/>
-      <c r="I137" s="134"/>
+      <c r="A137" s="112"/>
+      <c r="B137" s="113"/>
+      <c r="C137" s="113"/>
+      <c r="D137" s="113"/>
+      <c r="E137" s="113"/>
+      <c r="F137" s="113"/>
+      <c r="G137" s="113"/>
+      <c r="H137" s="113"/>
+      <c r="I137" s="114"/>
       <c r="J137" s="44"/>
       <c r="K137" s="43"/>
       <c r="L137" s="43"/>
@@ -31735,42 +31735,77 @@
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="F28:F50"/>
-    <mergeCell ref="A28:A47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A52:A75"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A77:A98"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="F52:F75"/>
-    <mergeCell ref="F77:F98"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F100:F120"/>
+    <mergeCell ref="G100:G119"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="F3:F26"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A100:A120"/>
+    <mergeCell ref="A123:A136"/>
+    <mergeCell ref="F123:F134"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E121:F121"/>
     <mergeCell ref="A137:I137"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
@@ -31795,77 +31830,42 @@
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="H94:I94"/>
-    <mergeCell ref="A100:A120"/>
-    <mergeCell ref="A123:A136"/>
-    <mergeCell ref="F123:F134"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="F3:F26"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F100:F120"/>
-    <mergeCell ref="G100:G119"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="F52:F75"/>
+    <mergeCell ref="F77:F98"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A77:A98"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="F28:F50"/>
+    <mergeCell ref="A28:A47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:A75"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.35433070866141736" top="0.74803149606299213" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/3/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/3/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\Time table Odd 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCADB3-5604-4493-968F-E3ADFAD4125A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC45A41-ECD0-4DDA-8825-7EBDFE48E3D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B.TECH III SEMESTER " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="529">
   <si>
     <t>B.TECH III SEMESTER -ODD 2025</t>
   </si>
@@ -120,9 +120,6 @@
     <t>LA17-A18(HS211)-CS8/NES</t>
   </si>
   <si>
-    <t>LB5, B6(MA213)-G1/HA</t>
-  </si>
-  <si>
     <t>LA15,A16(EC214)-CS6/RB</t>
   </si>
   <si>
@@ -156,24 +153,15 @@
     <t>LB7,8(CS212)-FF4/ASY</t>
   </si>
   <si>
-    <t>TB9(MA213)-TS6/AN</t>
-  </si>
-  <si>
     <t>LA7,A8,A10(EC215)-G8/RRP</t>
   </si>
   <si>
-    <t>LB9, B10(MA213)-CS2/MPA</t>
-  </si>
-  <si>
     <t>TA4(EC214)-TS11/ABU</t>
   </si>
   <si>
     <t>LA1,A2(BT211)-CR425/ANS</t>
   </si>
   <si>
-    <t>TB10(MA213)-TS16/MPA</t>
-  </si>
-  <si>
     <t>LA17,A18(EC215)-FF2/SLM</t>
   </si>
   <si>
@@ -210,9 +198,6 @@
     <t>TA6(11EC211)-TS17/SHS</t>
   </si>
   <si>
-    <t>TB5(MA213)-TS11/NF1</t>
-  </si>
-  <si>
     <t>TA17(EC214)-F10/BGH</t>
   </si>
   <si>
@@ -225,1390 +210,1408 @@
     <t>TA16(EC215)-TS11/AB</t>
   </si>
   <si>
+    <t>TA1(EC215)-F7/AB</t>
+  </si>
+  <si>
+    <t>LG1,G2(CI312)-F8/DEP</t>
+  </si>
+  <si>
+    <t>TA6(EC215)-F4/HEM</t>
+  </si>
+  <si>
+    <t>TC2(BT313)-TS7/POC,SOC</t>
+  </si>
+  <si>
+    <t>TG1(MA212)-F10/SGL</t>
+  </si>
+  <si>
+    <t>PC3(BT271)- BCL/SMG, ANS, RAC, MOB</t>
+  </si>
+  <si>
+    <t>PA3(15EC215)-CML/AKS, SCH</t>
+  </si>
+  <si>
+    <t>PC1(BT373)-BT2&amp;3/SMO, SOC, MAS, MOB</t>
+  </si>
+  <si>
+    <t>PA4(15EC211)-ADC/VKH, TA4</t>
+  </si>
+  <si>
+    <t>PA10(EC214)-MODLAB/RK, TA7</t>
+  </si>
+  <si>
+    <t>PA8(15EC211)-ADC/VKH, TA4</t>
+  </si>
+  <si>
+    <t>TUES</t>
+  </si>
+  <si>
+    <t>LB1, B2(MA213)-FF6/AN</t>
+  </si>
+  <si>
+    <t>LA15,A16(B21EC211)-FF6/SHS</t>
+  </si>
+  <si>
+    <t>LA5,A6(B11EC211)-FF6/MNA</t>
+  </si>
+  <si>
+    <t>LB1,2(CS213)-FF6/PAR</t>
+  </si>
+  <si>
+    <t>LB1-B2(HS211)-FF6/MRB</t>
+  </si>
+  <si>
+    <t>LA1,A2(B11EC211)-FF7/SCH</t>
+  </si>
+  <si>
+    <t>LA1, A2(MA301)-FF7/DCS</t>
+  </si>
+  <si>
+    <t>LB7,8(CS213)-FF7/IC</t>
+  </si>
+  <si>
+    <t>LA3,A4(B11EC211)-FF8/RSB</t>
+  </si>
+  <si>
+    <t>LB9,10(CS213)-FF8/DCH</t>
+  </si>
+  <si>
+    <t>LB3-B4(HS211)-FF8/AMN</t>
+  </si>
+  <si>
+    <t>LA7,A8,A10(B11EC211)-CS8/GK</t>
+  </si>
+  <si>
+    <t>LA17, A18(MA301)-CS8/YG</t>
+  </si>
+  <si>
+    <t>LB11,12(CS213)-CS8/SON</t>
+  </si>
+  <si>
+    <t>LB5-B6(HS211)-CS8/NES</t>
+  </si>
+  <si>
+    <t>LA1,A2(EC214)-CR526/RB</t>
+  </si>
+  <si>
+    <t>LA17,A18(B11EC211)-G1/JYO</t>
+  </si>
+  <si>
+    <t>LB1,2(CI311)-G1/MKT</t>
+  </si>
+  <si>
+    <t>LA5,A6(EC214)-G1/JYM</t>
+  </si>
+  <si>
+    <t>LA3,A4(EC214)-CS6/ABU</t>
+  </si>
+  <si>
+    <t>LB3,4(CI311)-G3/MKT</t>
+  </si>
+  <si>
+    <t>LB1,2(CS212)-G3/ASY</t>
+  </si>
+  <si>
+    <t>LA1,A2(EC215)-G3/SLM</t>
+  </si>
+  <si>
+    <t>LB7,8(CI311)-G3/AMT</t>
+  </si>
+  <si>
+    <t>TB8(MA213)-TS10/HA</t>
+  </si>
+  <si>
+    <t>LB9,10(CS212)-CR526/AKT</t>
+  </si>
+  <si>
+    <t>LA7,A8, A10(EC214)-CR401/JYM</t>
+  </si>
+  <si>
+    <t>LB9,10(CI311)-CR401/AW</t>
+  </si>
+  <si>
+    <t>TB8(HS211)-TS11/VSE</t>
+  </si>
+  <si>
+    <t>LB1,2(CS214)-CR526//DEP</t>
+  </si>
+  <si>
+    <t>LB11,12(CI311)-CR425/ANP</t>
+  </si>
+  <si>
+    <t>TA3(11EC211)-TS12/SHI</t>
+  </si>
+  <si>
+    <t>TA7(11EC211)-TS13/RHA</t>
+  </si>
+  <si>
+    <t>TC1(MA302)-TS13/ATI</t>
+  </si>
+  <si>
+    <t>TB3(HS211)-TS7/PSH</t>
+  </si>
+  <si>
+    <t>TB4(HS211)-TS6/KMB</t>
+  </si>
+  <si>
+    <t>TA10(EC214)-TS17/GV</t>
+  </si>
+  <si>
+    <t>TA7(EC214)-TS13/ABU</t>
+  </si>
+  <si>
+    <t>PA2(EC214)-MODLAB/RK, TA7</t>
+  </si>
+  <si>
+    <t>TG2(MA211)-TS20/RSH</t>
+  </si>
+  <si>
+    <t>TG2(MA212)-F10/SGL</t>
+  </si>
+  <si>
+    <t>TA18(11EC211)-TS10/NF1</t>
+  </si>
+  <si>
+    <t>PA18(15EC215)-CML/AKS, SCH</t>
+  </si>
+  <si>
+    <t>TA8(EC215)-F10/HEM</t>
+  </si>
+  <si>
+    <t>TA15(EC215)-F10/AB</t>
+  </si>
+  <si>
+    <t>TA10(EC215)-F7/SLM</t>
+  </si>
+  <si>
+    <t>TA17(EC215)-F7/HEM</t>
+  </si>
+  <si>
+    <t>PA6(EC214)-MODLAB/JG, TA3</t>
+  </si>
+  <si>
+    <t>PA15(25EC211)-EDC/AJK,RSB</t>
+  </si>
+  <si>
+    <t>TA18(EC215)-F4/AGO</t>
+  </si>
+  <si>
+    <t>LA17,A18(EC214)-F6/PKY</t>
+  </si>
+  <si>
+    <t>PC1(BT271)- BCL/SMG, ANS, RAC, MOB</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>LA5,A6(EC215)-FF6/AKS</t>
+  </si>
+  <si>
+    <t>LB9,10(CS212)-FF7/AKT</t>
+  </si>
+  <si>
+    <t>LB7,8(CS212)-FF8/ASY</t>
+  </si>
+  <si>
+    <t>LA5, A6(MA301)-FF8/DCS</t>
+  </si>
+  <si>
+    <t>LA5,A6(B11EC211)-CS8/MNA</t>
+  </si>
+  <si>
+    <t>TG1(CI311)-TS6/DSI</t>
+  </si>
+  <si>
+    <t>LA15,A16(EC214)-F8/RB</t>
+  </si>
+  <si>
+    <t>LB9-B10(HS211)-G1/KMB</t>
+  </si>
+  <si>
+    <t>LB5,6(CI311)-G1/SRG</t>
+  </si>
+  <si>
+    <t>LA7,A8,A10(B11EC211)-G1/GK</t>
+  </si>
+  <si>
+    <t>TA6(MA301)-TS10/YG</t>
+  </si>
+  <si>
+    <t>LG1,G2(CI311)-G3/AMT</t>
+  </si>
+  <si>
+    <t>LA17,A18(B11EC211)-G3/JYO</t>
+  </si>
+  <si>
+    <t>TA4(HS211)-TS11/KMB</t>
+  </si>
+  <si>
+    <t>TB4(CI311)-TS12/SRG</t>
+  </si>
+  <si>
+    <t>LA1,A2(EC214)-FF2/RB</t>
+  </si>
+  <si>
+    <t>LB1, B2(MA213)-G2/AN</t>
+  </si>
+  <si>
+    <t>LB3,4(CS213)-G8/SON</t>
+  </si>
+  <si>
+    <t>TB6(MA213)-TS17/HA</t>
+  </si>
+  <si>
+    <t>LG1,G2(CI312)-G8/DEP</t>
+  </si>
+  <si>
+    <t>LB5,6(CS213)-FF2/PSO</t>
+  </si>
+  <si>
+    <t>TB11(MA213)-TS13/AN</t>
+  </si>
+  <si>
+    <t>LA3,A4(EC214)-FF3/ABU</t>
+  </si>
+  <si>
+    <t>TA6(EC214)-F7/JG</t>
+  </si>
+  <si>
+    <t>LA5,A6(EC214)-CR401/JYM</t>
+  </si>
+  <si>
+    <t>TA15(HS211)-F4/MM</t>
+  </si>
+  <si>
+    <t>TC3(BT313)-TS7/POC,SOC</t>
+  </si>
+  <si>
+    <t>TB5(HS211)-TR424/PRI</t>
+  </si>
+  <si>
+    <t>TA7(MA301)-TR502/DCS</t>
+  </si>
+  <si>
+    <t>PA1(15EC215)-CML/AKS, SHI</t>
+  </si>
+  <si>
+    <t>PA17(EC214)-MODLAB/VK, TA14</t>
+  </si>
+  <si>
+    <t>PA18(EC214)-SPL/JG, TA3</t>
+  </si>
+  <si>
+    <t>PA3(EC214)-MODLAB/RK, TA7</t>
+  </si>
+  <si>
+    <t>PA1(15EC211)-ADC/MNA, TA6</t>
+  </si>
+  <si>
+    <t>THUR</t>
+  </si>
+  <si>
+    <t>LA17, A18(MA301)-FF8/YG</t>
+  </si>
+  <si>
+    <t>TA2(EC214)-TS16/RB</t>
+  </si>
+  <si>
+    <t>LG1, G2(MA212)-CS8/SGL</t>
+  </si>
+  <si>
+    <t>LC1,C2(BT211)-G3/NV</t>
+  </si>
+  <si>
+    <t>TA18(EC214)-TS17/RRJ</t>
+  </si>
+  <si>
+    <t>LB7,8(CS212)-G1/ASY</t>
+  </si>
+  <si>
+    <t>LA10,C3(BT211)-G1/NV</t>
+  </si>
+  <si>
+    <t>LB1,2(CS212)-CS4/ASY</t>
+  </si>
+  <si>
+    <t>LB5,6(CS212)-G3/AKT</t>
+  </si>
+  <si>
+    <t>TA1(EC214)-TS20/RK</t>
+  </si>
+  <si>
+    <t>TA3(EC215)-F10/SLM</t>
+  </si>
+  <si>
+    <t>LA5,A6(BT211)-FF3/GMA</t>
+  </si>
+  <si>
+    <t>LB3,4(CS213)-G2/SON</t>
+  </si>
+  <si>
+    <t>TA3(HS211)-TS10/VSE</t>
+  </si>
+  <si>
+    <t>LB5,6(CS213)-G6/PSO</t>
+  </si>
+  <si>
+    <t>TC1(BT313)-TS11/POC,SOC</t>
+  </si>
+  <si>
+    <t>TA5(EC215)-F7/AKS</t>
+  </si>
+  <si>
+    <t>TB10(CI311)-TS10/AW</t>
+  </si>
+  <si>
+    <t>LC1-C3(BT313)-G7/POC,SOC</t>
+  </si>
+  <si>
+    <t>TB9(CI311)-TS11/DSI</t>
+  </si>
+  <si>
+    <t>LB7,8(CS214)-G8/PRK</t>
+  </si>
+  <si>
+    <t>PC2(BT271)- BCL/SMG, ANS, RAC, MOB</t>
+  </si>
+  <si>
+    <t>LA1,A2(BT211)-CS2/ANS</t>
+  </si>
+  <si>
+    <t>TA5(HS211)-TS16/KMB</t>
+  </si>
+  <si>
+    <t>LB11,12(CS214)-FF1/DEP</t>
+  </si>
+  <si>
+    <t>TA18(HS211)-TS17/PSH</t>
+  </si>
+  <si>
+    <t>TB12(HS211)-TS17/MM</t>
+  </si>
+  <si>
+    <t>TB2(HS211)-TS6/PSH</t>
+  </si>
+  <si>
+    <t>PA16(25EC211)-EDC/AJK, RSB</t>
+  </si>
+  <si>
+    <t>PA8(15EC215)-CML/AKS, SCH</t>
+  </si>
+  <si>
+    <t>PA15(15EC215)-CML/VGO, AGO</t>
+  </si>
+  <si>
+    <t>PA10(15EC211)-ADC/ABU, TA10</t>
+  </si>
+  <si>
+    <t>PA7(15EC211)-ADC/MNA, ABU</t>
+  </si>
+  <si>
+    <t>PA4(EC214)-MODLAB/VK, TA14</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
+  <si>
+    <t>LA15-A16(HS211)-FF6/PRI</t>
+  </si>
+  <si>
+    <t>LB3, B4(MA213)-FF6/AN</t>
+  </si>
+  <si>
+    <t>BLOCKED</t>
+  </si>
+  <si>
+    <t>LA15,A16(EC214)-FF6/RB</t>
+  </si>
+  <si>
+    <t>LA17-A18(HS211)-FF7/NES</t>
+  </si>
+  <si>
+    <t>LA17,A18(EC214)-FF7/PKY</t>
+  </si>
+  <si>
+    <t>TA17(11EC211)-TS13/NF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB7, B8(MA213)-FF8/PSI </t>
+  </si>
+  <si>
+    <t>LG1-G2(HS211)-CS8/VSE</t>
+  </si>
+  <si>
+    <t>TC1(HS211)-TS11/NES</t>
+  </si>
+  <si>
+    <t>TA1(MA301)-TS8/DCS</t>
+  </si>
+  <si>
+    <t>TC2(HS211)-TS12/PRI</t>
+  </si>
+  <si>
+    <t>TA15(EC214)-TS13/RB</t>
+  </si>
+  <si>
+    <t>LG1, G2(MA211)-G3/RSH</t>
+  </si>
+  <si>
+    <t>LA15,A16(EC215)-FF2/HEM</t>
+  </si>
+  <si>
+    <t>LC1,C2(BT211)-FF4/NV</t>
+  </si>
+  <si>
+    <t>LA1,A2(BT211)-G2/ANS</t>
+  </si>
+  <si>
+    <t>LA5,A6(EC215)-CS2/AKS</t>
+  </si>
+  <si>
+    <t>TB6(CI311)-F10/KRL</t>
+  </si>
+  <si>
+    <t>LA7,A8,A10(EC215)-LT3/RRP</t>
+  </si>
+  <si>
+    <t>LA5,A6(BT211)-G3/GMA</t>
+  </si>
+  <si>
+    <t>TA7(EC215)-F7/RRP</t>
+  </si>
+  <si>
+    <t>LA17,A18(EC215)-CS6/SLM</t>
+  </si>
+  <si>
+    <t>TB2(CI311)-/TS10AW</t>
+  </si>
+  <si>
+    <t>TA2(11EC211)-TS6/RMD</t>
+  </si>
+  <si>
+    <t>LB5,6(CS214)-G8/PRK</t>
+  </si>
+  <si>
+    <t>PA7(EC214)-MODLAB/JG, TA3</t>
+  </si>
+  <si>
+    <t>LG1,G2(CI312)-G9/DEP</t>
+  </si>
+  <si>
+    <t>PA5(15EC215)-CML/JAS, SHI</t>
+  </si>
+  <si>
+    <t>PA6(15EC211)-ADC/RSB, TA17</t>
+  </si>
+  <si>
+    <t>PA1(EC214)-MODLAB/RK, TA7</t>
+  </si>
+  <si>
+    <t>PA5(15EC211)-ADC/JYO, TA5</t>
+  </si>
+  <si>
+    <t>PA6(15EC215)-CML/AGO, GK</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>LC1-C3(BT313)-CS8/POC,SOC</t>
+  </si>
+  <si>
+    <t>LA3,A4(EC215)-FF7/AB</t>
+  </si>
+  <si>
+    <t>LB5,6(CS213)-CS8/PSO</t>
+  </si>
+  <si>
+    <t>TB7(CI311)-TS11/AMT</t>
+  </si>
+  <si>
+    <t>LA17,A18(EC215)-G2/SLM</t>
+  </si>
+  <si>
+    <t>TB16(CI311)-TS12/AW</t>
+  </si>
+  <si>
+    <t>PA4(15EC215)-CML/RRP, GK</t>
+  </si>
+  <si>
+    <t>PA17(15EC215)-CML/VGO, GK</t>
+  </si>
+  <si>
+    <t>PA3(15EC211)-ADC/VKH, TA4</t>
+  </si>
+  <si>
+    <t>PA8(EC214)-MODLAB/JG, TA3</t>
+  </si>
+  <si>
+    <t>PA5(EC214)-MODLAB/VK, TA17</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>Course Code</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>BT211</t>
+  </si>
+  <si>
+    <t>19B13BT211</t>
+  </si>
+  <si>
+    <t>Environmental Studies</t>
+  </si>
+  <si>
+    <t>EC214</t>
+  </si>
+  <si>
+    <t>18B11EC214</t>
+  </si>
+  <si>
+    <t>Signals and Systems</t>
+  </si>
+  <si>
+    <t>15BT211</t>
+  </si>
+  <si>
+    <t>15B11BT211</t>
+  </si>
+  <si>
+    <t>Biochemistry</t>
+  </si>
+  <si>
+    <t>EC215</t>
+  </si>
+  <si>
+    <t>18B11EC215</t>
+  </si>
+  <si>
+    <t>Digital Circuit Design</t>
+  </si>
+  <si>
+    <t>BT311</t>
+  </si>
+  <si>
+    <t>15B11BT311</t>
+  </si>
+  <si>
+    <t>Thermodynamics and chemical Processes</t>
+  </si>
+  <si>
+    <t>21EC211</t>
+  </si>
+  <si>
+    <t>24B21EC211</t>
+  </si>
+  <si>
+    <t>Electronic Devices</t>
+  </si>
+  <si>
+    <t>BT271</t>
+  </si>
+  <si>
+    <t>15B17BT271</t>
+  </si>
+  <si>
+    <t>Biochemical Techniques Lab</t>
+  </si>
+  <si>
+    <t>11EC211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24B11EC211 </t>
+  </si>
+  <si>
+    <t>Electronic Devices and Circuit</t>
+  </si>
+  <si>
+    <t>BT371</t>
+  </si>
+  <si>
+    <t>15B17BT371</t>
+  </si>
+  <si>
+    <t>Thermodynamics and Chemical Processes Lab</t>
+  </si>
+  <si>
+    <t>18B15EC214</t>
+  </si>
+  <si>
+    <t>Signals &amp; Systems Lab</t>
+  </si>
+  <si>
+    <t>BT313</t>
+  </si>
+  <si>
+    <t>15B11BT313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetics and Developmental Biology </t>
+  </si>
+  <si>
+    <t>18B15EC215</t>
+  </si>
+  <si>
+    <t>Digital Circuit Design Lab</t>
+  </si>
+  <si>
+    <t>BT373</t>
+  </si>
+  <si>
+    <t>15B17BT373</t>
+  </si>
+  <si>
+    <t>Genetics and Developmental Biology Lab</t>
+  </si>
+  <si>
+    <t>25EC211</t>
+  </si>
+  <si>
+    <t>24B25EC211</t>
+  </si>
+  <si>
+    <t>Electronic Devices Lab</t>
+  </si>
+  <si>
+    <t>CI311</t>
+  </si>
+  <si>
+    <t>15B11CI311</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>15EC211</t>
+  </si>
+  <si>
+    <t>24B15EC211</t>
+  </si>
+  <si>
+    <t>Electronic Devices and Circuits Lab</t>
+  </si>
+  <si>
+    <t>CI371</t>
+  </si>
+  <si>
+    <t>15B17CI371</t>
+  </si>
+  <si>
+    <t>Data Structures Lab</t>
+  </si>
+  <si>
+    <t>MA213</t>
+  </si>
+  <si>
+    <t>25B11MA213</t>
+  </si>
+  <si>
+    <t>Mathematical Foundations for Artificial Intelligence and Data Science</t>
+  </si>
+  <si>
+    <t>CI312</t>
+  </si>
+  <si>
+    <t>15B11CI312</t>
+  </si>
+  <si>
+    <t>Database Systems and Web</t>
+  </si>
+  <si>
+    <t>MA212</t>
+  </si>
+  <si>
+    <t>25B11MA212</t>
+  </si>
+  <si>
+    <t>Discrete Mathematical Structures</t>
+  </si>
+  <si>
+    <t>CI372</t>
+  </si>
+  <si>
+    <t>15B17CI372</t>
+  </si>
+  <si>
+    <t>Database Systems and Web Lab</t>
+  </si>
+  <si>
+    <t>MA211</t>
+  </si>
+  <si>
+    <t>25B11MA211</t>
+  </si>
+  <si>
+    <t>Mathematical Foundation of Probability and Statistics</t>
+  </si>
+  <si>
+    <t>CS213</t>
+  </si>
+  <si>
+    <t>24B11CS213</t>
+  </si>
+  <si>
+    <t>Database Management Systems</t>
+  </si>
+  <si>
+    <t>MA301</t>
+  </si>
+  <si>
+    <t>15B11MA301</t>
+  </si>
+  <si>
+    <t>PROBABILITY AND RANDOM PROCESSES</t>
+  </si>
+  <si>
+    <t>B15CS213</t>
+  </si>
+  <si>
+    <t>24B15CS213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Management Systems Lab </t>
+  </si>
+  <si>
+    <t>MA302</t>
+  </si>
+  <si>
+    <t>15B11MA302</t>
+  </si>
+  <si>
+    <t>PROBABILITY &amp; STATISTICS</t>
+  </si>
+  <si>
+    <t>CS214</t>
+  </si>
+  <si>
+    <t>24B15CS214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unix Programming </t>
+  </si>
+  <si>
+    <t>B15CS214</t>
+  </si>
+  <si>
+    <t>Unix Programming Lab</t>
+  </si>
+  <si>
+    <t>CS212</t>
+  </si>
+  <si>
+    <t>24B11CS212</t>
+  </si>
+  <si>
+    <t>Theoretical Foundations of Computer Science</t>
+  </si>
+  <si>
+    <t>B15CS215</t>
+  </si>
+  <si>
+    <t>24B15CS215</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming using Java</t>
+  </si>
+  <si>
+    <t>HS211</t>
+  </si>
+  <si>
+    <t>15B11HS211</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>TB3(CI311)-TS7/DSI</t>
+  </si>
+  <si>
+    <t>TG2(CI311)-TS17/AW</t>
+  </si>
+  <si>
+    <t>TB12(CI311)-TS20/KRL</t>
+  </si>
+  <si>
+    <t>TB5(CI311)-TS20/SRG</t>
+  </si>
+  <si>
+    <t>TB11(CI311)-TS11/VRN</t>
+  </si>
+  <si>
+    <t>PC2(BT373)-BT2&amp;3/SMO, SOC, MAS, MOB, SBT</t>
+  </si>
+  <si>
+    <t>PC3(BT373)-BT2&amp;3/SMO, SOC, MAS, MOB, SBT</t>
+  </si>
+  <si>
+    <t>PB1,B2(CI371)-CL13,14/ VRN, ANP,DL</t>
+  </si>
+  <si>
+    <t>PB7,B8(B15CS213)-CL06,07/IC,SON,PAR</t>
+  </si>
+  <si>
+    <t>PB1,B2(B15CS213)-CL13/AA, SON,SMS</t>
+  </si>
+  <si>
+    <t>PB5,B6(B15CS213)-CL01,02/IC, PAR,PSO</t>
+  </si>
+  <si>
+    <t>PB5,B9(B15CS214)-CL09,10/AMS,AMK,MEE</t>
+  </si>
+  <si>
+    <t>PB2,B6(B15CS214)-CL09,10/PSO,DEP,AMS</t>
+  </si>
+  <si>
+    <t>PB9,B10(B15CS213)-CL07,12/ SON,IMR,DCH</t>
+  </si>
+  <si>
+    <t>PB11,B12(B15CS213)-CL18,19/PAR,IMR,SMS</t>
+  </si>
+  <si>
+    <t>PG1(CI371)-MCL/AMT, KRL</t>
+  </si>
+  <si>
+    <t>PB3,B4(CI371)-CL01,02/SHP,DL,SRG</t>
+  </si>
+  <si>
+    <t>LB1,2(CS213)-FF8/PAR</t>
+  </si>
+  <si>
+    <t>LB3,4(CS213)-CS1/SON</t>
+  </si>
+  <si>
+    <t>LB3,4(CI311)-FF6/MKT</t>
+  </si>
+  <si>
+    <t>TA5(EC214)-TS20/JYM</t>
+  </si>
+  <si>
+    <t>PA7(15EC215)-CML/JAS,VGO</t>
+  </si>
+  <si>
+    <t>PA16(15EC215)-CML/SHI, RRP</t>
+  </si>
+  <si>
+    <t>PA17(15EC211)-ADC/JYO, TA5</t>
+  </si>
+  <si>
+    <t>PA2(15EC211)-ADC/APN, TA5</t>
+  </si>
+  <si>
+    <t>PA10(15EC215)-CML/SHI, AGO</t>
+  </si>
+  <si>
+    <t>TA4(11EC211)-TS16/NF1</t>
+  </si>
+  <si>
+    <t>PA2(15EC215)-CML/JAS, VGO</t>
+  </si>
+  <si>
+    <t>TA8(11EC211)-TS16/JYO</t>
+  </si>
+  <si>
+    <t>TA8(EC214)-TS10/JYM</t>
+  </si>
+  <si>
+    <t>PA18(15EC211)-ADC/APN, TA5</t>
+  </si>
+  <si>
+    <t>LA15,A16(EC215)-CR401/HEM</t>
+  </si>
+  <si>
+    <t>TA1(11EC211)-TS8/JYO</t>
+  </si>
+  <si>
+    <t>LA3,A4(EC215)-CR401/AB</t>
+  </si>
+  <si>
+    <t>LA7,A8,A10(EC215)-G6/RRP</t>
+  </si>
+  <si>
+    <t>TA4(EC215)-F7/RRP</t>
+  </si>
+  <si>
+    <t>LB14,6(CI311)-G1/VRN</t>
+  </si>
+  <si>
+    <t>TB14(HS211)-TS10/MM</t>
+  </si>
+  <si>
+    <t>LB14,6(CI311)-CS8/VRN</t>
+  </si>
+  <si>
+    <t>LB14,16(CS213)-G1/PSO</t>
+  </si>
+  <si>
+    <t>LB14,16(CS212)-CR401//KA</t>
+  </si>
+  <si>
+    <t>LB14,16(CS212)-CS8/KA</t>
+  </si>
+  <si>
+    <t>PB14,B16(B15CS215)-CL05,06/TNV,KA,TKT</t>
+  </si>
+  <si>
+    <t>PB5,B14(CI371)-CL01,02/ANP,DL</t>
+  </si>
+  <si>
+    <t>PB14,B16(B15CS213)-CL09,10/PAR,IMR,AA</t>
+  </si>
+  <si>
+    <t>LC1-C3HS211)-/FF2KMB</t>
+  </si>
+  <si>
+    <t>TG1(HS211)-TR502/PRI</t>
+  </si>
+  <si>
+    <t>TG2(HS211)-TR505/MAM</t>
+  </si>
+  <si>
+    <t>LA5-A6(HS211)-FF8/AMN</t>
+  </si>
+  <si>
+    <t>LB7-B8(HS211)-FF7/MAM</t>
+  </si>
+  <si>
+    <t>TB11(HS211)-TS17/KMB</t>
+  </si>
+  <si>
+    <t>TA6(HS211)-TS11/KMB</t>
+  </si>
+  <si>
+    <t>LB14,B16(HS211)-FF6/MAM</t>
+  </si>
+  <si>
+    <t>LA5-A6(HS211)-CR401/AMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA10,C3(BT211)-FF2/NV </t>
+  </si>
+  <si>
+    <t>LA17,A18(BT211)-LT3/EKT</t>
+  </si>
+  <si>
+    <t>TA18(MA301)-TS7/YG</t>
+  </si>
+  <si>
+    <t>LA3,A4(BT211)-G3/DSH</t>
+  </si>
+  <si>
+    <t>LA15,A16(BT211)-CR401/DKP</t>
+  </si>
+  <si>
+    <t>LA7,A8(BT211)-CR301/RPS</t>
+  </si>
+  <si>
+    <t>LA15,A16(BT211)-G5/DKP</t>
+  </si>
+  <si>
+    <t>TC1(BT311)-TS6/NKC</t>
+  </si>
+  <si>
+    <t>TC2(BT311)-TS13/NKC</t>
+  </si>
+  <si>
+    <t>TC3(15BT211)-TS12/MOB, DSH</t>
+  </si>
+  <si>
+    <t>LC1-C3(BT311)-CR526/NKC</t>
+  </si>
+  <si>
+    <t>TC3(BT311)-TS6/NKC</t>
+  </si>
+  <si>
+    <t>LA3,A4(BT211)-CR401/DSH</t>
+  </si>
+  <si>
+    <t>LA15,A16(BT211)-CS7/DKP</t>
+  </si>
+  <si>
+    <t>LA7,A8(BT211)-G4/RPS</t>
+  </si>
+  <si>
+    <t>LG1,G2(BT211)- CS5/EKT</t>
+  </si>
+  <si>
+    <t>LG1,G2(BT211)- FF2/EKT</t>
+  </si>
+  <si>
+    <t>LG1,G2(BT211)- G2/EKT</t>
+  </si>
+  <si>
+    <t>PC2(BT371)-BT1/PMG, SHD, EKT, SBT,SAJ, NKC</t>
+  </si>
+  <si>
+    <t>PC3(BT371)-BT1/PMG, SHD, EKT, SBT,SAJ, NKC</t>
+  </si>
+  <si>
+    <t>PC1(BT371)-BT1/PMG, SHD, EKT, SBT,SAJ, NKC</t>
+  </si>
+  <si>
+    <t>LA17,A18(BT211)-G6/EKT</t>
+  </si>
+  <si>
+    <t>LC1-C3(15BT211)-G3/ MOB,DSH</t>
+  </si>
+  <si>
+    <t>TC2(15BT211)-TS8/MOB,DSH</t>
+  </si>
+  <si>
+    <t>LA17,A18(BT211)-CR425/EKT</t>
+  </si>
+  <si>
+    <t>TC1(15BT211)-TS8/ MOB,DSH</t>
+  </si>
+  <si>
+    <t>LA3,A4(BT211)-FF2/DSH</t>
+  </si>
+  <si>
+    <t>LC1-C3(15BT211)-G3/MOB, DSH</t>
+  </si>
+  <si>
+    <t>LA1,A2(EC215)-CS8/SLM</t>
+  </si>
+  <si>
+    <t>PB9,PB10(B15CS215)-CL09,10/NET,PRV,TKT</t>
+  </si>
+  <si>
+    <t>TB1(CI311)-/F10/KRL</t>
+  </si>
+  <si>
+    <t>PB9(CI371)-CL21/RJM, KRL</t>
+  </si>
+  <si>
+    <t>LG1,G2(CI311)-F8/AMT</t>
+  </si>
+  <si>
+    <t>TB14(CI311)-TR305/DSI</t>
+  </si>
+  <si>
+    <t>TG2(CI312)-TR307/DEP</t>
+  </si>
+  <si>
+    <t>TG1(CI312)-TR307/DEP</t>
+  </si>
+  <si>
+    <t>LB14,16(CS214)-CR526/PRK</t>
+  </si>
+  <si>
+    <t>PB1,B2(B15CS215)-CL03,04/NET,PTK,KA</t>
+  </si>
+  <si>
+    <t>PB6,B10(CI371)-CL14,CL15SRG,AMT,KRL</t>
+  </si>
+  <si>
+    <t>PB11,B12(CI371)-CL06,07/RJM,VRNA,ANP</t>
+  </si>
+  <si>
+    <t>LB5,6(CS212)-CR325/AKT</t>
+  </si>
+  <si>
+    <t>TA10(HS211)-TR305/PRI</t>
+  </si>
+  <si>
+    <t>TA10(11EC211)-TS20/SKA</t>
+  </si>
+  <si>
+    <t>LA7,A8, A10(EC214)-F6/JYM</t>
+  </si>
+  <si>
+    <t>LC1,C2,C3(M302)-CR501/ATI</t>
+  </si>
+  <si>
+    <t>LG1, G2(MA212)-F8/SGL</t>
+  </si>
+  <si>
+    <t>LA5, A6(MA301)-FF6/DCS</t>
+  </si>
+  <si>
+    <t>LC1-C3(BT313)-CS2/POC,SOC</t>
+  </si>
+  <si>
+    <t>LC1-C3(15BT211)-CS2/ MOB,DSH</t>
+  </si>
+  <si>
+    <t>LC1,C2(BT211)-FF2/NV</t>
+  </si>
+  <si>
+    <t>LC1-C3(BT311)-G3/NKC</t>
+  </si>
+  <si>
+    <t>LB11-B12(HS211)-CS8/AMN</t>
+  </si>
+  <si>
+    <t>LC1-C3HS211)-F8/KMB</t>
+  </si>
+  <si>
+    <t>LB3,4(CS212)-CR526/KA</t>
+  </si>
+  <si>
+    <t>LB3,4(CS212)-CR425/KA</t>
+  </si>
+  <si>
+    <t>LB3,4(CS212)-FF7/KA</t>
+  </si>
+  <si>
+    <t>LB14,16(CS212)-CR401/KA</t>
+  </si>
+  <si>
+    <t>LB11,12(CS212)-G2/AMS</t>
+  </si>
+  <si>
+    <t>LB11,12(CS212)-CR401/AMS</t>
+  </si>
+  <si>
+    <t>PG2(CI372)-CL06/NSA,DEP</t>
+  </si>
+  <si>
+    <t>TB8(CI311)-F10/KRL</t>
+  </si>
+  <si>
+    <t>PB3,B4(B15CS213)-CL01,02/SMS,IC,DCH</t>
+  </si>
+  <si>
+    <t>LB11,12(CS212)-FF8/AMS</t>
+  </si>
+  <si>
+    <t>PB11,B12(B15CS215)-CL23,24/TNV, PTK, SVS</t>
+  </si>
+  <si>
+    <t>PG1(CI372)-CL06/NSA,JSM</t>
+  </si>
+  <si>
+    <t>PBG1,BG2(B15CS215)-CL10,CL11/SHB, PRV,SVS</t>
+  </si>
+  <si>
+    <t>LB3,4(CS214)-G7/PKU</t>
+  </si>
+  <si>
+    <t>LB9,10(CS214)-FF3/PKU</t>
+  </si>
+  <si>
+    <t>PB10,B14(B15CS214)-CL09,10/PKU,AM,AMK</t>
+  </si>
+  <si>
+    <t>PB11,B12(B15CS214)-CL05,06/PKU,DEP,AMS</t>
+  </si>
+  <si>
+    <t>TC2(MA302)-TR424/ATI</t>
+  </si>
+  <si>
+    <t>TB10(HS211)-TR305/MAM</t>
+  </si>
+  <si>
+    <t>TB6(HS211)-TR302/MAM</t>
+  </si>
+  <si>
+    <t>TA17(HS211)-TR302/MAM</t>
+  </si>
+  <si>
+    <t>TA16(HS211)-TR326/MAM</t>
+  </si>
+  <si>
+    <t>TB1(HS211)-TR305/MAM</t>
+  </si>
+  <si>
+    <t>LB13,B16(HS211)-CR425/MAM</t>
+  </si>
+  <si>
+    <t>TC3(HS211)-TS16/KMB</t>
+  </si>
+  <si>
+    <t>TB16(HS211)-TS12/MM</t>
+  </si>
+  <si>
+    <t>TA1(HS211)-CR326/PRI</t>
+  </si>
+  <si>
+    <t>TA7(HS211)-TR307/PRI</t>
+  </si>
+  <si>
+    <t>TA8(HS211)-TR307/PRI</t>
+  </si>
+  <si>
+    <t>LG1, G2(MA212)-CS5/SGL</t>
+  </si>
+  <si>
+    <t>TA3(EC214)-TS11/ABU</t>
+  </si>
+  <si>
+    <t>TG1(HS211)-TR307/PRI</t>
+  </si>
+  <si>
+    <t>PB7,B8(B15CS215)-CL05,06/PTK,NET,TNV</t>
+  </si>
+  <si>
+    <t>PB3,B4(B15CS215)-CL13,14/PRV,TKT,JC</t>
+  </si>
+  <si>
+    <t>L(EC211)-TS14/JMN</t>
+  </si>
+  <si>
+    <t>P(17EC271)-ADE/JMN</t>
+  </si>
+  <si>
+    <t>T(EC211)-TS14/JMN</t>
+  </si>
+  <si>
+    <t>PB5,B6(B15CS215)-CL09,10/PRV,NET,KA</t>
+  </si>
+  <si>
+    <t>PG2,PB16(CI371)-CL06,07/RJM, VRN,TNV</t>
+  </si>
+  <si>
+    <t>PB7,B8(B15CS214)-CL17,18/AMK,PSO,PRK</t>
+  </si>
+  <si>
+    <t>PB7(CI371)-CL04/ANP, SRG</t>
+  </si>
+  <si>
+    <t>PB8(CI371)-CL05/RJM,TNV</t>
+  </si>
+  <si>
+    <t>PB3,B4(B15CS214)-CL05,06/PSO,PRK</t>
+  </si>
+  <si>
+    <t>PB1,B16(B15CS214)-CL05,06/PRK,PKU</t>
+  </si>
+  <si>
+    <t>TB9(HS211)-TS12/KMB</t>
+  </si>
+  <si>
+    <t>LA7, A8,A10(MA301)-G1/YG</t>
+  </si>
+  <si>
+    <t>LA15, A16(MA301)-CS8/BPC</t>
+  </si>
+  <si>
+    <t>TA17(MA301)-TS13/ATI</t>
+  </si>
+  <si>
+    <t>TA5(MA301)-TS12/DCS</t>
+  </si>
+  <si>
+    <t>LA3, A4(MA301)-FF8/MKB</t>
+  </si>
+  <si>
+    <t>TA3(MA301)-TS7/YG</t>
+  </si>
+  <si>
+    <t>TA4(MA301)-TS8/MKB</t>
+  </si>
+  <si>
+    <t>TA16(MA301)-TS13/ATI</t>
+  </si>
+  <si>
+    <t>LA7, A8,A10(MA301)-FF7/YG</t>
+  </si>
+  <si>
+    <t>LA15, A16(MA301)-FF8/BPC</t>
+  </si>
+  <si>
+    <t>TA8(MA301)-F7/ATI</t>
+  </si>
+  <si>
+    <t>LA3, A4(MA301)-FF6/MKB</t>
+  </si>
+  <si>
+    <t>LA15, A16(MA301)-CS7/BPC</t>
+  </si>
+  <si>
+    <t>TA2(MA301)-TS13/MKB</t>
+  </si>
+  <si>
+    <t>LA7, A8,A10(MA301)-FF6/YG</t>
+  </si>
+  <si>
+    <t>TA10(MA301)-TS6/MKB</t>
+  </si>
+  <si>
+    <t>TB2(MA213)-TS16/HZR</t>
+  </si>
+  <si>
+    <t>TB9(MA213)-TS6/HZR</t>
+  </si>
+  <si>
+    <t>TB10(MA213)-TS16/HA</t>
+  </si>
+  <si>
+    <t>TB5(MA213)-TS11/PSI</t>
+  </si>
+  <si>
+    <t>TB3(MA213)-TS10/AN</t>
+  </si>
+  <si>
+    <t>LB5, B6(MA213)-G1/HZR</t>
+  </si>
+  <si>
+    <t>LB9, B10(MA213)-CS2/MSD</t>
+  </si>
+  <si>
+    <t>LB11, B12(MA213)-FF7/HA</t>
+  </si>
+  <si>
+    <t>LB14, B16(MA213)-FF8/PSI</t>
+  </si>
+  <si>
+    <t>TB14(MA213)-TS6/PSI</t>
+  </si>
+  <si>
+    <t>TB16(MA213)-TS7/DGA</t>
+  </si>
+  <si>
+    <t>TB4(MA213)-TR305/DGA</t>
+  </si>
+  <si>
+    <t>LB11, B12(MA213)-G6/HA</t>
+  </si>
+  <si>
+    <t>LB14, B16(MA213)-G7/PSI</t>
+  </si>
+  <si>
+    <t>TB12(MA213)-TS11/HA</t>
+  </si>
+  <si>
+    <t>LB7, B8(MA213)-F6/PSI</t>
+  </si>
+  <si>
+    <t>LB9, B10(MA213)-G1/MSD</t>
+  </si>
+  <si>
+    <t>LB5, B6(MA213)-FF7/HZR</t>
+  </si>
+  <si>
+    <t>LA15,A16(24B11MA211)-CS8/MSD</t>
+  </si>
+  <si>
+    <t>LA15,A16(24B11MA211)-G8/MSD</t>
+  </si>
+  <si>
+    <t>TC3(MA302)-TS12/SP</t>
+  </si>
+  <si>
+    <t>LC1,C2,C3(MA302)-G6/ATI</t>
+  </si>
+  <si>
+    <t>LC1,C2,C3(MA302)-G3/ATI</t>
+  </si>
+  <si>
+    <t>LC1,C2,C3(MA302)-F8/ATI</t>
+  </si>
+  <si>
     <t>TB1(MA213)-TS13/AN</t>
   </si>
   <si>
-    <t>TA1(EC215)-F7/AB</t>
-  </si>
-  <si>
-    <t>TB2(MA213)-TS16/HA</t>
-  </si>
-  <si>
-    <t>LG1,G2(CI312)-F8/DEP</t>
-  </si>
-  <si>
-    <t>TA6(EC215)-F4/HEM</t>
-  </si>
-  <si>
-    <t>TC2(BT313)-TS7/POC,SOC</t>
-  </si>
-  <si>
-    <t>TG1(MA212)-F10/SGL</t>
-  </si>
-  <si>
-    <t>TA17(MA301)-TS13/DCS</t>
-  </si>
-  <si>
-    <t>PC3(BT271)- BCL/SMG, ANS, RAC, MOB</t>
-  </si>
-  <si>
-    <t>TB3(MA213)-TS10/PSI</t>
-  </si>
-  <si>
-    <t>PA3(15EC215)-CML/AKS, SCH</t>
-  </si>
-  <si>
-    <t>PC1(BT373)-BT2&amp;3/SMO, SOC, MAS, MOB</t>
-  </si>
-  <si>
-    <t>PA4(15EC211)-ADC/VKH, TA4</t>
-  </si>
-  <si>
-    <t>PA10(EC214)-MODLAB/RK, TA7</t>
-  </si>
-  <si>
-    <t>PA8(15EC211)-ADC/VKH, TA4</t>
-  </si>
-  <si>
-    <t>TUES</t>
-  </si>
-  <si>
-    <t>LB1, B2(MA213)-FF6/AN</t>
-  </si>
-  <si>
-    <t>LA15,A16(B21EC211)-FF6/SHS</t>
-  </si>
-  <si>
-    <t>LA5,A6(B11EC211)-FF6/MNA</t>
-  </si>
-  <si>
-    <t>LB1,2(CS213)-FF6/PAR</t>
-  </si>
-  <si>
-    <t>LB1-B2(HS211)-FF6/MRB</t>
-  </si>
-  <si>
-    <t>LB11, B12(MA213)-FF7/NF1</t>
-  </si>
-  <si>
-    <t>LA1,A2(B11EC211)-FF7/SCH</t>
-  </si>
-  <si>
-    <t>LA1, A2(MA301)-FF7/DCS</t>
-  </si>
-  <si>
-    <t>LB7,8(CS213)-FF7/IC</t>
-  </si>
-  <si>
-    <t>LA3,A4(B11EC211)-FF8/RSB</t>
-  </si>
-  <si>
-    <t>LA3, A4(MA301)-FF8/BPC</t>
-  </si>
-  <si>
-    <t>LB9,10(CS213)-FF8/DCH</t>
-  </si>
-  <si>
-    <t>LB3-B4(HS211)-FF8/AMN</t>
-  </si>
-  <si>
-    <t>LA15,A16(24B11MA211)-CS8/GA</t>
-  </si>
-  <si>
-    <t>LA7,A8,A10(B11EC211)-CS8/GK</t>
-  </si>
-  <si>
-    <t>LA17, A18(MA301)-CS8/YG</t>
-  </si>
-  <si>
-    <t>LB11,12(CS213)-CS8/SON</t>
-  </si>
-  <si>
-    <t>LB5-B6(HS211)-CS8/NES</t>
-  </si>
-  <si>
-    <t>LA1,A2(EC214)-CR526/RB</t>
-  </si>
-  <si>
-    <t>LA17,A18(B11EC211)-G1/JYO</t>
-  </si>
-  <si>
-    <t>LB1,2(CI311)-G1/MKT</t>
-  </si>
-  <si>
-    <t>LA5,A6(EC214)-G1/JYM</t>
-  </si>
-  <si>
-    <t>LA3,A4(EC214)-CS6/ABU</t>
-  </si>
-  <si>
-    <t>LB3,4(CI311)-G3/MKT</t>
-  </si>
-  <si>
-    <t>LB1,2(CS212)-G3/ASY</t>
-  </si>
-  <si>
-    <t>LA1,A2(EC215)-G3/SLM</t>
-  </si>
-  <si>
-    <t>LB7,8(CI311)-G3/AMT</t>
-  </si>
-  <si>
-    <t>TB8(MA213)-TS10/HA</t>
-  </si>
-  <si>
-    <t>TB16(MA213)-TS7/PSI</t>
-  </si>
-  <si>
-    <t>LB9,10(CS212)-CR526/AKT</t>
-  </si>
-  <si>
-    <t>LA7,A8, A10(EC214)-CR401/JYM</t>
-  </si>
-  <si>
-    <t>LB9,10(CI311)-CR401/AW</t>
-  </si>
-  <si>
-    <t>TB8(HS211)-TS11/VSE</t>
-  </si>
-  <si>
-    <t>LB1,2(CS214)-CR526//DEP</t>
-  </si>
-  <si>
-    <t>LB11,12(CI311)-CR425/ANP</t>
-  </si>
-  <si>
-    <t>TA3(11EC211)-TS12/SHI</t>
-  </si>
-  <si>
-    <t>TA5(MA301)-TS12/BPC</t>
-  </si>
-  <si>
-    <t>TA7(11EC211)-TS13/RHA</t>
-  </si>
-  <si>
-    <t>TC1(MA302)-TS13/ATI</t>
-  </si>
-  <si>
-    <t>TB3(HS211)-TS7/PSH</t>
-  </si>
-  <si>
-    <t>TB4(HS211)-TS6/KMB</t>
-  </si>
-  <si>
-    <t>TA16(MA301)-TS13/YG</t>
-  </si>
-  <si>
-    <t>TA10(EC214)-TS17/GV</t>
-  </si>
-  <si>
-    <t>TA7(EC214)-TS13/ABU</t>
-  </si>
-  <si>
-    <t>TA3(MA301)-TS7/NF2</t>
-  </si>
-  <si>
-    <t>TA4(MA301)-TS8/BPC</t>
-  </si>
-  <si>
-    <t>PA2(EC214)-MODLAB/RK, TA7</t>
-  </si>
-  <si>
-    <t>TG2(MA211)-TS20/RSH</t>
-  </si>
-  <si>
-    <t>TG2(MA212)-F10/SGL</t>
-  </si>
-  <si>
-    <t>TA18(11EC211)-TS10/NF1</t>
-  </si>
-  <si>
-    <t>PA18(15EC215)-CML/AKS, SCH</t>
-  </si>
-  <si>
-    <t>TA8(EC215)-F10/HEM</t>
-  </si>
-  <si>
-    <t>TA15(EC215)-F10/AB</t>
-  </si>
-  <si>
-    <t>TA10(EC215)-F7/SLM</t>
-  </si>
-  <si>
-    <t>TA17(EC215)-F7/HEM</t>
-  </si>
-  <si>
-    <t>PA6(EC214)-MODLAB/JG, TA3</t>
-  </si>
-  <si>
-    <t>PA15(25EC211)-EDC/AJK,RSB</t>
-  </si>
-  <si>
-    <t>TA18(EC215)-F4/AGO</t>
-  </si>
-  <si>
-    <t>LA17,A18(EC214)-F6/PKY</t>
-  </si>
-  <si>
-    <t>PC1(BT271)- BCL/SMG, ANS, RAC, MOB</t>
-  </si>
-  <si>
-    <t>WED</t>
-  </si>
-  <si>
-    <t>LA5,A6(EC215)-FF6/AKS</t>
-  </si>
-  <si>
-    <t>LA7, A8,A10(MA301)-FF7/BPC</t>
-  </si>
-  <si>
-    <t>TB12(MA213)-TS11/PSI</t>
-  </si>
-  <si>
-    <t>LB9,10(CS212)-FF7/AKT</t>
-  </si>
-  <si>
-    <t>LB7,8(CS212)-FF8/ASY</t>
-  </si>
-  <si>
-    <t>LA15, A16(MA301)-FF8/YG</t>
-  </si>
-  <si>
-    <t>LA5, A6(MA301)-FF8/DCS</t>
-  </si>
-  <si>
-    <t>LA5,A6(B11EC211)-CS8/MNA</t>
-  </si>
-  <si>
-    <t>TG1(CI311)-TS6/DSI</t>
-  </si>
-  <si>
-    <t>LA15,A16(EC214)-F8/RB</t>
-  </si>
-  <si>
-    <t>LB9-B10(HS211)-G1/KMB</t>
-  </si>
-  <si>
-    <t>LB5,6(CI311)-G1/SRG</t>
-  </si>
-  <si>
-    <t>LA7,A8,A10(B11EC211)-G1/GK</t>
-  </si>
-  <si>
-    <t>TA6(MA301)-TS10/YG</t>
-  </si>
-  <si>
-    <t>LG1,G2(CI311)-G3/AMT</t>
-  </si>
-  <si>
-    <t>LA17,A18(B11EC211)-G3/JYO</t>
-  </si>
-  <si>
-    <t>TA4(HS211)-TS11/KMB</t>
-  </si>
-  <si>
-    <t>TB4(CI311)-TS12/SRG</t>
-  </si>
-  <si>
-    <t>LA1,A2(EC214)-FF2/RB</t>
-  </si>
-  <si>
-    <t>LB1, B2(MA213)-G2/AN</t>
-  </si>
-  <si>
-    <t>LB3,4(CS213)-G8/SON</t>
-  </si>
-  <si>
-    <t>TC3(MA302)-TS12/ATI</t>
-  </si>
-  <si>
-    <t>TB6(MA213)-TS17/HA</t>
-  </si>
-  <si>
-    <t>LG1,G2(CI312)-G8/DEP</t>
-  </si>
-  <si>
-    <t>LB11, B12(MA213)-G6/NF1</t>
-  </si>
-  <si>
-    <t>LB5,6(CS213)-FF2/PSO</t>
-  </si>
-  <si>
-    <t>TB11(MA213)-TS13/AN</t>
-  </si>
-  <si>
-    <t>TB7(MA213)-TS20/PSI</t>
-  </si>
-  <si>
-    <t>TA8(MA301)-F7/NF2</t>
-  </si>
-  <si>
-    <t>LA3,A4(EC214)-FF3/ABU</t>
-  </si>
-  <si>
-    <t>LA15,A16(24B11MA211)-G8/GA</t>
-  </si>
-  <si>
-    <t>TA6(EC214)-F7/JG</t>
-  </si>
-  <si>
-    <t>LA5,A6(EC214)-CR401/JYM</t>
-  </si>
-  <si>
-    <t>TA15(HS211)-F4/MM</t>
-  </si>
-  <si>
-    <t>TC3(BT313)-TS7/POC,SOC</t>
-  </si>
-  <si>
-    <t>TB5(HS211)-TR424/PRI</t>
-  </si>
-  <si>
-    <t>TA7(MA301)-TR502/DCS</t>
-  </si>
-  <si>
-    <t>PA1(15EC215)-CML/AKS, SHI</t>
-  </si>
-  <si>
-    <t>PA17(EC214)-MODLAB/VK, TA14</t>
-  </si>
-  <si>
-    <t>PA18(EC214)-SPL/JG, TA3</t>
-  </si>
-  <si>
-    <t>PA3(EC214)-MODLAB/RK, TA7</t>
-  </si>
-  <si>
-    <t>PA1(15EC211)-ADC/MNA, TA6</t>
-  </si>
-  <si>
-    <t>THUR</t>
-  </si>
-  <si>
-    <t>LA3, A4(MA301)-FF6/BPC</t>
-  </si>
-  <si>
-    <t>LA17, A18(MA301)-FF8/YG</t>
-  </si>
-  <si>
-    <t>TA2(EC214)-TS16/RB</t>
-  </si>
-  <si>
-    <t>LG1, G2(MA212)-CS8/SGL</t>
-  </si>
-  <si>
-    <t>LC1,C2(BT211)-G3/NV</t>
-  </si>
-  <si>
-    <t>TA18(EC214)-TS17/RRJ</t>
-  </si>
-  <si>
-    <t>LB7,8(CS212)-G1/ASY</t>
-  </si>
-  <si>
-    <t>LA10,C3(BT211)-G1/NV</t>
-  </si>
-  <si>
-    <t>LB1,2(CS212)-CS4/ASY</t>
-  </si>
-  <si>
-    <t>LB5,6(CS212)-G3/AKT</t>
-  </si>
-  <si>
-    <t>TA1(EC214)-TS20/RK</t>
-  </si>
-  <si>
-    <t>TA3(EC215)-F10/SLM</t>
-  </si>
-  <si>
-    <t>LA5,A6(BT211)-FF3/GMA</t>
-  </si>
-  <si>
-    <t>LB3,4(CS213)-G2/SON</t>
-  </si>
-  <si>
-    <t>TA3(HS211)-TS10/VSE</t>
-  </si>
-  <si>
-    <t>LB5,6(CS213)-G6/PSO</t>
-  </si>
-  <si>
-    <t>TC1(BT313)-TS11/POC,SOC</t>
-  </si>
-  <si>
-    <t>TA5(EC215)-F7/AKS</t>
-  </si>
-  <si>
-    <t>TB10(CI311)-TS10/AW</t>
-  </si>
-  <si>
-    <t>LC1-C3(BT313)-G7/POC,SOC</t>
-  </si>
-  <si>
-    <t>TB9(CI311)-TS11/DSI</t>
-  </si>
-  <si>
-    <t>LB7,8(CS214)-G8/PRK</t>
-  </si>
-  <si>
-    <t>PC2(BT271)- BCL/SMG, ANS, RAC, MOB</t>
-  </si>
-  <si>
-    <t>LA1,A2(BT211)-CS2/ANS</t>
-  </si>
-  <si>
-    <t>TA5(HS211)-TS16/KMB</t>
-  </si>
-  <si>
-    <t>LB11,12(CS214)-FF1/DEP</t>
-  </si>
-  <si>
-    <t>TA18(HS211)-TS17/PSH</t>
-  </si>
-  <si>
-    <t>TB12(HS211)-TS17/MM</t>
-  </si>
-  <si>
-    <t>TB2(HS211)-TS6/PSH</t>
-  </si>
-  <si>
-    <t>PA16(25EC211)-EDC/AJK, RSB</t>
-  </si>
-  <si>
-    <t>PA8(15EC215)-CML/AKS, SCH</t>
-  </si>
-  <si>
-    <t>PA15(15EC215)-CML/VGO, AGO</t>
-  </si>
-  <si>
-    <t>PA10(15EC211)-ADC/ABU, TA10</t>
-  </si>
-  <si>
-    <t>PA7(15EC211)-ADC/MNA, ABU</t>
-  </si>
-  <si>
-    <t>PA4(EC214)-MODLAB/VK, TA14</t>
-  </si>
-  <si>
-    <t>FRI</t>
-  </si>
-  <si>
-    <t>LA15-A16(HS211)-FF6/PRI</t>
-  </si>
-  <si>
-    <t>LB3, B4(MA213)-FF6/AN</t>
-  </si>
-  <si>
-    <t>BLOCKED</t>
-  </si>
-  <si>
-    <t>LA15,A16(EC214)-FF6/RB</t>
-  </si>
-  <si>
-    <t>LA17-A18(HS211)-FF7/NES</t>
-  </si>
-  <si>
-    <t>LB5, B6(MA213)-FF7/HA</t>
-  </si>
-  <si>
-    <t>LA17,A18(EC214)-FF7/PKY</t>
-  </si>
-  <si>
-    <t>TA17(11EC211)-TS13/NF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB7, B8(MA213)-FF8/PSI </t>
-  </si>
-  <si>
-    <t>LG1-G2(HS211)-CS8/VSE</t>
-  </si>
-  <si>
-    <t>TC1(HS211)-TS11/NES</t>
-  </si>
-  <si>
-    <t>TA1(MA301)-TS8/DCS</t>
-  </si>
-  <si>
-    <t>LB9, B10(MA213)-G1/MPA</t>
-  </si>
-  <si>
-    <t>TC2(HS211)-TS12/PRI</t>
-  </si>
-  <si>
-    <t>TA15(EC214)-TS13/RB</t>
-  </si>
-  <si>
-    <t>LG1, G2(MA211)-G3/RSH</t>
-  </si>
-  <si>
-    <t>LA15,A16(EC215)-FF2/HEM</t>
-  </si>
-  <si>
-    <t>LC1,C2(BT211)-FF4/NV</t>
-  </si>
-  <si>
-    <t>LA1,A2(BT211)-G2/ANS</t>
-  </si>
-  <si>
-    <t>LA5,A6(EC215)-CS2/AKS</t>
-  </si>
-  <si>
-    <t>TB6(CI311)-F10/KRL</t>
-  </si>
-  <si>
-    <t>LA7,A8,A10(EC215)-LT3/RRP</t>
-  </si>
-  <si>
-    <t>LA5,A6(BT211)-G3/GMA</t>
-  </si>
-  <si>
-    <t>TA7(EC215)-F7/RRP</t>
-  </si>
-  <si>
-    <t>LA17,A18(EC215)-CS6/SLM</t>
-  </si>
-  <si>
-    <t>TB2(CI311)-/TS10AW</t>
-  </si>
-  <si>
-    <t>TA2(11EC211)-TS6/RMD</t>
-  </si>
-  <si>
-    <t>LB5,6(CS214)-G8/PRK</t>
-  </si>
-  <si>
-    <t>PA7(EC214)-MODLAB/JG, TA3</t>
-  </si>
-  <si>
-    <t>LG1,G2(CI312)-G9/DEP</t>
-  </si>
-  <si>
-    <t>PA5(15EC215)-CML/JAS, SHI</t>
-  </si>
-  <si>
-    <t>PA6(15EC211)-ADC/RSB, TA17</t>
-  </si>
-  <si>
-    <t>PA1(EC214)-MODLAB/RK, TA7</t>
-  </si>
-  <si>
-    <t>PA5(15EC211)-ADC/JYO, TA5</t>
-  </si>
-  <si>
-    <t>PA6(15EC215)-CML/AGO, GK</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>LC1-C3(BT313)-CS8/POC,SOC</t>
-  </si>
-  <si>
-    <t>LA7, A8,A10(MA301)-FF6/BPC</t>
-  </si>
-  <si>
-    <t>LA3,A4(EC215)-FF7/AB</t>
-  </si>
-  <si>
-    <t>LB5,6(CS213)-CS8/PSO</t>
-  </si>
-  <si>
-    <t>TB7(CI311)-TS11/AMT</t>
-  </si>
-  <si>
-    <t>LA17,A18(EC215)-G2/SLM</t>
-  </si>
-  <si>
-    <t>TB16(CI311)-TS12/AW</t>
-  </si>
-  <si>
-    <t>PA4(15EC215)-CML/RRP, GK</t>
-  </si>
-  <si>
-    <t>PA17(15EC215)-CML/VGO, GK</t>
-  </si>
-  <si>
-    <t>PA3(15EC211)-ADC/VKH, TA4</t>
-  </si>
-  <si>
-    <t>PA8(EC214)-MODLAB/JG, TA3</t>
-  </si>
-  <si>
-    <t>PA5(EC214)-MODLAB/VK, TA17</t>
-  </si>
-  <si>
-    <t>Short Name</t>
-  </si>
-  <si>
-    <t>Course Code</t>
-  </si>
-  <si>
-    <t>Course Name</t>
-  </si>
-  <si>
-    <t>BT211</t>
-  </si>
-  <si>
-    <t>19B13BT211</t>
-  </si>
-  <si>
-    <t>Environmental Studies</t>
-  </si>
-  <si>
-    <t>EC214</t>
-  </si>
-  <si>
-    <t>18B11EC214</t>
-  </si>
-  <si>
-    <t>Signals and Systems</t>
-  </si>
-  <si>
-    <t>15BT211</t>
-  </si>
-  <si>
-    <t>15B11BT211</t>
-  </si>
-  <si>
-    <t>Biochemistry</t>
-  </si>
-  <si>
-    <t>EC215</t>
-  </si>
-  <si>
-    <t>18B11EC215</t>
-  </si>
-  <si>
-    <t>Digital Circuit Design</t>
-  </si>
-  <si>
-    <t>BT311</t>
-  </si>
-  <si>
-    <t>15B11BT311</t>
-  </si>
-  <si>
-    <t>Thermodynamics and chemical Processes</t>
-  </si>
-  <si>
-    <t>21EC211</t>
-  </si>
-  <si>
-    <t>24B21EC211</t>
-  </si>
-  <si>
-    <t>Electronic Devices</t>
-  </si>
-  <si>
-    <t>BT271</t>
-  </si>
-  <si>
-    <t>15B17BT271</t>
-  </si>
-  <si>
-    <t>Biochemical Techniques Lab</t>
-  </si>
-  <si>
-    <t>11EC211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24B11EC211 </t>
-  </si>
-  <si>
-    <t>Electronic Devices and Circuit</t>
-  </si>
-  <si>
-    <t>BT371</t>
-  </si>
-  <si>
-    <t>15B17BT371</t>
-  </si>
-  <si>
-    <t>Thermodynamics and Chemical Processes Lab</t>
-  </si>
-  <si>
-    <t>18B15EC214</t>
-  </si>
-  <si>
-    <t>Signals &amp; Systems Lab</t>
-  </si>
-  <si>
-    <t>BT313</t>
-  </si>
-  <si>
-    <t>15B11BT313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genetics and Developmental Biology </t>
-  </si>
-  <si>
-    <t>18B15EC215</t>
-  </si>
-  <si>
-    <t>Digital Circuit Design Lab</t>
-  </si>
-  <si>
-    <t>BT373</t>
-  </si>
-  <si>
-    <t>15B17BT373</t>
-  </si>
-  <si>
-    <t>Genetics and Developmental Biology Lab</t>
-  </si>
-  <si>
-    <t>25EC211</t>
-  </si>
-  <si>
-    <t>24B25EC211</t>
-  </si>
-  <si>
-    <t>Electronic Devices Lab</t>
-  </si>
-  <si>
-    <t>CI311</t>
-  </si>
-  <si>
-    <t>15B11CI311</t>
-  </si>
-  <si>
-    <t>Data Structures</t>
-  </si>
-  <si>
-    <t>15EC211</t>
-  </si>
-  <si>
-    <t>24B15EC211</t>
-  </si>
-  <si>
-    <t>Electronic Devices and Circuits Lab</t>
-  </si>
-  <si>
-    <t>CI371</t>
-  </si>
-  <si>
-    <t>15B17CI371</t>
-  </si>
-  <si>
-    <t>Data Structures Lab</t>
-  </si>
-  <si>
-    <t>MA213</t>
-  </si>
-  <si>
-    <t>25B11MA213</t>
-  </si>
-  <si>
-    <t>Mathematical Foundations for Artificial Intelligence and Data Science</t>
-  </si>
-  <si>
-    <t>CI312</t>
-  </si>
-  <si>
-    <t>15B11CI312</t>
-  </si>
-  <si>
-    <t>Database Systems and Web</t>
-  </si>
-  <si>
-    <t>MA212</t>
-  </si>
-  <si>
-    <t>25B11MA212</t>
-  </si>
-  <si>
-    <t>Discrete Mathematical Structures</t>
-  </si>
-  <si>
-    <t>CI372</t>
-  </si>
-  <si>
-    <t>15B17CI372</t>
-  </si>
-  <si>
-    <t>Database Systems and Web Lab</t>
-  </si>
-  <si>
-    <t>MA211</t>
-  </si>
-  <si>
-    <t>25B11MA211</t>
-  </si>
-  <si>
-    <t>Mathematical Foundation of Probability and Statistics</t>
-  </si>
-  <si>
-    <t>CS213</t>
-  </si>
-  <si>
-    <t>24B11CS213</t>
-  </si>
-  <si>
-    <t>Database Management Systems</t>
-  </si>
-  <si>
-    <t>MA301</t>
-  </si>
-  <si>
-    <t>15B11MA301</t>
-  </si>
-  <si>
-    <t>PROBABILITY AND RANDOM PROCESSES</t>
-  </si>
-  <si>
-    <t>B15CS213</t>
-  </si>
-  <si>
-    <t>24B15CS213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Management Systems Lab </t>
-  </si>
-  <si>
-    <t>MA302</t>
-  </si>
-  <si>
-    <t>15B11MA302</t>
-  </si>
-  <si>
-    <t>PROBABILITY &amp; STATISTICS</t>
-  </si>
-  <si>
-    <t>CS214</t>
-  </si>
-  <si>
-    <t>24B15CS214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unix Programming </t>
-  </si>
-  <si>
-    <t>B15CS214</t>
-  </si>
-  <si>
-    <t>Unix Programming Lab</t>
-  </si>
-  <si>
-    <t>CS212</t>
-  </si>
-  <si>
-    <t>24B11CS212</t>
-  </si>
-  <si>
-    <t>Theoretical Foundations of Computer Science</t>
-  </si>
-  <si>
-    <t>B15CS215</t>
-  </si>
-  <si>
-    <t>24B15CS215</t>
-  </si>
-  <si>
-    <t>Object Oriented Programming using Java</t>
-  </si>
-  <si>
-    <t>HS211</t>
-  </si>
-  <si>
-    <t>15B11HS211</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>TB3(CI311)-TS7/DSI</t>
-  </si>
-  <si>
-    <t>TG2(CI311)-TS17/AW</t>
-  </si>
-  <si>
-    <t>TB12(CI311)-TS20/KRL</t>
-  </si>
-  <si>
-    <t>TB5(CI311)-TS20/SRG</t>
-  </si>
-  <si>
-    <t>TB11(CI311)-TS11/VRN</t>
-  </si>
-  <si>
-    <t>PC2(BT373)-BT2&amp;3/SMO, SOC, MAS, MOB, SBT</t>
-  </si>
-  <si>
-    <t>PC3(BT373)-BT2&amp;3/SMO, SOC, MAS, MOB, SBT</t>
-  </si>
-  <si>
-    <t>PB1,B2(CI371)-CL13,14/ VRN, ANP,DL</t>
-  </si>
-  <si>
-    <t>PB7,B8(B15CS213)-CL06,07/IC,SON,PAR</t>
-  </si>
-  <si>
-    <t>PB1,B2(B15CS213)-CL13/AA, SON,SMS</t>
-  </si>
-  <si>
-    <t>PB5,B6(B15CS213)-CL01,02/IC, PAR,PSO</t>
-  </si>
-  <si>
-    <t>PB5,B9(B15CS214)-CL09,10/AMS,AMK,MEE</t>
-  </si>
-  <si>
-    <t>PB2,B6(B15CS214)-CL09,10/PSO,DEP,AMS</t>
-  </si>
-  <si>
-    <t>PB9,B10(B15CS213)-CL07,12/ SON,IMR,DCH</t>
-  </si>
-  <si>
-    <t>PB11,B12(B15CS213)-CL18,19/PAR,IMR,SMS</t>
-  </si>
-  <si>
-    <t>PG1(CI371)-MCL/AMT, KRL</t>
-  </si>
-  <si>
-    <t>PB3,B4(CI371)-CL01,02/SHP,DL,SRG</t>
-  </si>
-  <si>
-    <t>LB1,2(CS213)-FF8/PAR</t>
-  </si>
-  <si>
-    <t>LB3,4(CS213)-CS1/SON</t>
-  </si>
-  <si>
-    <t>LB3,4(CI311)-FF6/MKT</t>
-  </si>
-  <si>
-    <t>TA5(EC214)-TS20/JYM</t>
-  </si>
-  <si>
-    <t>PA7(15EC215)-CML/JAS,VGO</t>
-  </si>
-  <si>
-    <t>PA16(15EC215)-CML/SHI, RRP</t>
-  </si>
-  <si>
-    <t>PA17(15EC211)-ADC/JYO, TA5</t>
-  </si>
-  <si>
-    <t>PA2(15EC211)-ADC/APN, TA5</t>
-  </si>
-  <si>
-    <t>PA10(15EC215)-CML/SHI, AGO</t>
-  </si>
-  <si>
-    <t>TA4(11EC211)-TS16/NF1</t>
-  </si>
-  <si>
-    <t>PA2(15EC215)-CML/JAS, VGO</t>
-  </si>
-  <si>
-    <t>TA8(11EC211)-TS16/JYO</t>
-  </si>
-  <si>
-    <t>TA8(EC214)-TS10/JYM</t>
-  </si>
-  <si>
-    <t>PA18(15EC211)-ADC/APN, TA5</t>
-  </si>
-  <si>
-    <t>LA15,A16(EC215)-CR401/HEM</t>
-  </si>
-  <si>
-    <t>TA1(11EC211)-TS8/JYO</t>
-  </si>
-  <si>
-    <t>LA3,A4(EC215)-CR401/AB</t>
-  </si>
-  <si>
-    <t>LA7,A8,A10(EC215)-G6/RRP</t>
-  </si>
-  <si>
-    <t>TA4(EC215)-F7/RRP</t>
-  </si>
-  <si>
-    <t>LB14,6(CI311)-G1/VRN</t>
-  </si>
-  <si>
-    <t>TB14(HS211)-TS10/MM</t>
-  </si>
-  <si>
-    <t>LB14, B16(MA213)-FF8/NF4</t>
-  </si>
-  <si>
-    <t>LB14,6(CI311)-CS8/VRN</t>
-  </si>
-  <si>
-    <t>LB14,16(CS213)-G1/PSO</t>
-  </si>
-  <si>
-    <t>TB14(MA213)-TS6/AN</t>
-  </si>
-  <si>
-    <t>LB14,16(CS212)-CR401//KA</t>
-  </si>
-  <si>
-    <t>LB14,16(CS212)-CS8/KA</t>
-  </si>
-  <si>
-    <t>LB14, B16(MA213)-G7/NF4</t>
-  </si>
-  <si>
-    <t>PB14,B16(B15CS215)-CL05,06/TNV,KA,TKT</t>
-  </si>
-  <si>
-    <t>PB5,B14(CI371)-CL01,02/ANP,DL</t>
-  </si>
-  <si>
-    <t>PB14,B16(B15CS213)-CL09,10/PAR,IMR,AA</t>
-  </si>
-  <si>
-    <t>LC1-C3HS211)-/FF2KMB</t>
-  </si>
-  <si>
-    <t>TG1(HS211)-TR502/PRI</t>
-  </si>
-  <si>
-    <t>TG2(HS211)-TR505/MAM</t>
-  </si>
-  <si>
-    <t>LA5-A6(HS211)-FF8/AMN</t>
-  </si>
-  <si>
-    <t>LB7-B8(HS211)-FF7/MAM</t>
-  </si>
-  <si>
-    <t>TB11(HS211)-TS17/KMB</t>
-  </si>
-  <si>
-    <t>TA6(HS211)-TS11/KMB</t>
-  </si>
-  <si>
-    <t>LB14,B16(HS211)-FF6/MAM</t>
-  </si>
-  <si>
-    <t>LA5-A6(HS211)-CR401/AMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA10,C3(BT211)-FF2/NV </t>
-  </si>
-  <si>
-    <t>LA17,A18(BT211)-LT3/EKT</t>
-  </si>
-  <si>
-    <t>TA18(MA301)-TS7/YG</t>
-  </si>
-  <si>
-    <t>LA3,A4(BT211)-G3/DSH</t>
-  </si>
-  <si>
-    <t>LA15,A16(BT211)-CR401/DKP</t>
-  </si>
-  <si>
-    <t>LA7,A8(BT211)-CR301/RPS</t>
-  </si>
-  <si>
-    <t>LA15,A16(BT211)-G5/DKP</t>
-  </si>
-  <si>
-    <t>TC1(BT311)-TS6/NKC</t>
-  </si>
-  <si>
-    <t>TC2(BT311)-TS13/NKC</t>
-  </si>
-  <si>
-    <t>TC3(15BT211)-TS12/MOB, DSH</t>
-  </si>
-  <si>
-    <t>LC1-C3(BT311)-CR526/NKC</t>
-  </si>
-  <si>
-    <t>TC3(BT311)-TS6/NKC</t>
-  </si>
-  <si>
-    <t>LA3,A4(BT211)-CR401/DSH</t>
-  </si>
-  <si>
-    <t>LA15,A16(BT211)-CS7/DKP</t>
-  </si>
-  <si>
-    <t>LA7,A8(BT211)-G4/RPS</t>
-  </si>
-  <si>
-    <t>LG1,G2(BT211)- CS5/EKT</t>
-  </si>
-  <si>
-    <t>LG1,G2(BT211)- FF2/EKT</t>
-  </si>
-  <si>
-    <t>LG1,G2(BT211)- G2/EKT</t>
-  </si>
-  <si>
-    <t>PC2(BT371)-BT1/PMG, SHD, EKT, SBT,SAJ, NKC</t>
-  </si>
-  <si>
-    <t>PC3(BT371)-BT1/PMG, SHD, EKT, SBT,SAJ, NKC</t>
-  </si>
-  <si>
-    <t>PC1(BT371)-BT1/PMG, SHD, EKT, SBT,SAJ, NKC</t>
-  </si>
-  <si>
-    <t>LA17,A18(BT211)-G6/EKT</t>
-  </si>
-  <si>
-    <t>LC1-C3(15BT211)-G3/ MOB,DSH</t>
-  </si>
-  <si>
-    <t>TC2(15BT211)-TS8/MOB,DSH</t>
-  </si>
-  <si>
-    <t>LA17,A18(BT211)-CR425/EKT</t>
-  </si>
-  <si>
-    <t>TC1(15BT211)-TS8/ MOB,DSH</t>
-  </si>
-  <si>
-    <t>LA3,A4(BT211)-FF2/DSH</t>
-  </si>
-  <si>
-    <t>LC1-C3(15BT211)-G3/MOB, DSH</t>
-  </si>
-  <si>
-    <t>LA1,A2(EC215)-CS8/SLM</t>
-  </si>
-  <si>
-    <t>PB9,PB10(B15CS215)-CL09,10/NET,PRV,TKT</t>
-  </si>
-  <si>
-    <t>TB1(CI311)-/F10/KRL</t>
-  </si>
-  <si>
-    <t>PB9(CI371)-CL21/RJM, KRL</t>
-  </si>
-  <si>
-    <t>LG1,G2(CI311)-F8/AMT</t>
-  </si>
-  <si>
-    <t>TB14(CI311)-TR305/DSI</t>
-  </si>
-  <si>
-    <t>TG2(CI312)-TR307/DEP</t>
-  </si>
-  <si>
-    <t>TG1(CI312)-TR307/DEP</t>
-  </si>
-  <si>
-    <t>LB14,16(CS214)-CR526/PRK</t>
-  </si>
-  <si>
-    <t>PB1,B2(B15CS215)-CL03,04/NET,PTK,KA</t>
-  </si>
-  <si>
-    <t>PB6,B10(CI371)-CL14,CL15SRG,AMT,KRL</t>
-  </si>
-  <si>
-    <t>PB11,B12(CI371)-CL06,07/RJM,VRNA,ANP</t>
-  </si>
-  <si>
-    <t>LB5,6(CS212)-CR325/AKT</t>
-  </si>
-  <si>
-    <t>TA10(HS211)-TR305/PRI</t>
-  </si>
-  <si>
-    <t>TA10(11EC211)-TS20/SKA</t>
-  </si>
-  <si>
-    <t>LA7,A8, A10(EC214)-F6/JYM</t>
-  </si>
-  <si>
-    <t>LC1,C2,C3(M302)-G3/ATI</t>
-  </si>
-  <si>
-    <t>LC1,C2,C3(M302)-CR501/ATI</t>
-  </si>
-  <si>
-    <t>LG1, G2(MA212)-F8/SGL</t>
-  </si>
-  <si>
-    <t>TA10(MA301)-TS6/BPC</t>
-  </si>
-  <si>
-    <t>LA7, A8,A10(MA301)-G1/BPC</t>
-  </si>
-  <si>
-    <t>LA15, A16(MA301)-CS8/YG</t>
-  </si>
-  <si>
-    <t>LA5, A6(MA301)-FF6/DCS</t>
-  </si>
-  <si>
-    <t>LB7, B8(MA213)-G9/PSI</t>
-  </si>
-  <si>
-    <t>TA2(MA301)-TS13/DCS</t>
-  </si>
-  <si>
-    <t>LA15, A16(MA301)-CS7/YG</t>
-  </si>
-  <si>
-    <t>LC1-C3(BT313)-CS2/POC,SOC</t>
-  </si>
-  <si>
-    <t>LC1-C3(15BT211)-CS2/ MOB,DSH</t>
-  </si>
-  <si>
-    <t>LC1,C2(BT211)-FF2/NV</t>
-  </si>
-  <si>
-    <t>LC1-C3(BT311)-G3/NKC</t>
-  </si>
-  <si>
-    <t>LB11-B12(HS211)-CS8/AMN</t>
-  </si>
-  <si>
-    <t>LC1-C3HS211)-F8/KMB</t>
-  </si>
-  <si>
-    <t>LC1,C2,C3(M302)-F8/ATI</t>
-  </si>
-  <si>
-    <t>LC1-C3(BT311)-F8/NKC</t>
-  </si>
-  <si>
-    <t>LB3,4(CS212)-CR526/KA</t>
-  </si>
-  <si>
-    <t>LB3,4(CS212)-CR425/KA</t>
-  </si>
-  <si>
-    <t>LB3,4(CS212)-FF7/KA</t>
-  </si>
-  <si>
-    <t>LB14,16(CS212)-CR401/KA</t>
-  </si>
-  <si>
-    <t>LB11,12(CS212)-G2/AMS</t>
-  </si>
-  <si>
-    <t>LB11,12(CS212)-CR401/AMS</t>
-  </si>
-  <si>
-    <t>PG2(CI372)-CL06/NSA,DEP</t>
-  </si>
-  <si>
-    <t>TB8(CI311)-F10/KRL</t>
-  </si>
-  <si>
-    <t>PB3,B4(B15CS213)-CL01,02/SMS,IC,DCH</t>
-  </si>
-  <si>
-    <t>LB11,12(CS212)-FF8/AMS</t>
-  </si>
-  <si>
-    <t>PB11,B12(B15CS215)-CL23,24/TNV, PTK, SVS</t>
-  </si>
-  <si>
-    <t>PG1(CI372)-CL06/NSA,JSM</t>
-  </si>
-  <si>
-    <t>PBG1,BG2(B15CS215)-CL10,CL11/SHB, PRV,SVS</t>
-  </si>
-  <si>
-    <t>LB3,4(CS214)-G7/PKU</t>
-  </si>
-  <si>
-    <t>LB9,10(CS214)-FF3/PKU</t>
-  </si>
-  <si>
-    <t>PB10,B14(B15CS214)-CL09,10/PKU,AM,AMK</t>
-  </si>
-  <si>
-    <t>PB11,B12(B15CS214)-CL05,06/PKU,DEP,AMS</t>
-  </si>
-  <si>
-    <t>TC2(MA302)-TR424/ATI</t>
-  </si>
-  <si>
-    <t>TB10(HS211)-TR305/MAM</t>
-  </si>
-  <si>
-    <t>TB6(HS211)-TR302/MAM</t>
-  </si>
-  <si>
-    <t>TA17(HS211)-TR302/MAM</t>
-  </si>
-  <si>
-    <t>TA16(HS211)-TR326/MAM</t>
-  </si>
-  <si>
-    <t>TB1(HS211)-TR305/MAM</t>
-  </si>
-  <si>
-    <t>LB13,B16(HS211)-CR425/MAM</t>
-  </si>
-  <si>
-    <t>TC3(HS211)-TS16/KMB</t>
-  </si>
-  <si>
-    <t>TB16(HS211)-TS12/MM</t>
-  </si>
-  <si>
-    <t>TA1(HS211)-CR326/PRI</t>
-  </si>
-  <si>
-    <t>TA7(HS211)-TR307/PRI</t>
-  </si>
-  <si>
-    <t>TA8(HS211)-TR307/PRI</t>
-  </si>
-  <si>
-    <t>LG1, G2(MA212)-CS5/SGL</t>
-  </si>
-  <si>
-    <t>TA3(EC214)-TS11/ABU</t>
-  </si>
-  <si>
-    <t>TG1(HS211)-TR307/PRI</t>
-  </si>
-  <si>
-    <t>TB4(MA213)-TR305/HA</t>
-  </si>
-  <si>
-    <t>PB7,B8(B15CS215)-CL05,06/PTK,NET,TNV</t>
-  </si>
-  <si>
-    <t>PB3,B4(B15CS215)-CL13,14/PRV,TKT,JC</t>
-  </si>
-  <si>
-    <t>L(EC211)-TS14/JMN</t>
-  </si>
-  <si>
-    <t>P(17EC271)-ADE/JMN</t>
-  </si>
-  <si>
-    <t>T(EC211)-TS14/JMN</t>
-  </si>
-  <si>
-    <t>PB5,B6(B15CS215)-CL09,10/PRV,NET,KA</t>
-  </si>
-  <si>
-    <t>PG2,PB16(CI371)-CL06,07/RJM, VRN,TNV</t>
-  </si>
-  <si>
-    <t>PB7,B8(B15CS214)-CL17,18/AMK,PSO,PRK</t>
-  </si>
-  <si>
-    <t>PB7(CI371)-CL04/ANP, SRG</t>
-  </si>
-  <si>
-    <t>PB8(CI371)-CL05/RJM,TNV</t>
-  </si>
-  <si>
-    <t>PB3,B4(B15CS214)-CL05,06/PSO,PRK</t>
-  </si>
-  <si>
-    <t>PB1,B16(B15CS214)-CL05,06/PRK,PKU</t>
-  </si>
-  <si>
-    <t>TB9(HS211)-TS12/KMB</t>
+    <t>TB7(MA213)-TS20/AN</t>
+  </si>
+  <si>
+    <t>LC1-C3(BT311)-FF3/NKC</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1756,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1793,6 +1796,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,7 +2026,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2152,9 +2185,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2218,71 +2248,102 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2292,6 +2353,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2310,18 +2380,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2549,11 +2639,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
+      <selection pane="bottomRight" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2575,17 +2665,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="115"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="127"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2605,7 +2695,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="134" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2651,7 +2741,7 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
+      <c r="A3" s="135"/>
       <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
@@ -2661,10 +2751,10 @@
       <c r="D3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="107" t="s">
+      <c r="E3" s="96" t="s">
+        <v>505</v>
+      </c>
+      <c r="F3" s="138" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="56" t="s">
@@ -2697,7 +2787,7 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
@@ -2710,7 +2800,7 @@
       <c r="E4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="108"/>
+      <c r="F4" s="122"/>
       <c r="H4" s="56" t="s">
         <v>22</v>
       </c>
@@ -2734,9 +2824,9 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="56" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>23</v>
@@ -2747,15 +2837,15 @@
       <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="108"/>
+      <c r="F5" s="122"/>
       <c r="G5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="96" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2776,26 +2866,26 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="56" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>468</v>
+      <c r="D6" s="92" t="s">
+        <v>486</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="122"/>
       <c r="G6" s="57"/>
-      <c r="H6" s="56" t="s">
-        <v>31</v>
+      <c r="H6" s="96" t="s">
+        <v>507</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2816,28 +2906,28 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="E7" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>469</v>
-      </c>
-      <c r="E7" s="56" t="s">
+      <c r="F7" s="122"/>
+      <c r="G7" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="56" t="s">
+      <c r="H7" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="56" t="s">
-        <v>35</v>
-      </c>
       <c r="I7" s="56" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2858,28 +2948,28 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="D8" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="56" t="s">
-        <v>447</v>
-      </c>
-      <c r="E8" s="56" t="s">
+      <c r="F8" s="122"/>
+      <c r="G8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="56" t="s">
+      <c r="H8" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="I8" s="56" t="s">
         <v>40</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>41</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -2900,28 +2990,28 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="F9" s="122"/>
+      <c r="G9" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>432</v>
-      </c>
-      <c r="D9" s="56" t="s">
+      <c r="H9" s="96" t="s">
+        <v>508</v>
+      </c>
+      <c r="I9" s="56" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>486</v>
-      </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>46</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -2942,25 +3032,25 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="59" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>418</v>
-      </c>
-      <c r="F10" s="108"/>
+        <v>44</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>504</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="122"/>
       <c r="G10" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="H10" s="105" t="s">
+        <v>46</v>
       </c>
       <c r="I10" s="57"/>
       <c r="J10" s="7"/>
@@ -2982,28 +3072,28 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="87" t="s">
+        <v>467</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>488</v>
+      </c>
+      <c r="I11" s="56" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="88" t="s">
-        <v>508</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="56" t="s">
-        <v>56</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -3024,26 +3114,26 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="62"/>
       <c r="C12" s="59" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="108"/>
+        <v>54</v>
+      </c>
+      <c r="F12" s="122"/>
       <c r="G12" s="56" t="s">
-        <v>400</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>59</v>
+        <v>371</v>
+      </c>
+      <c r="H12" s="92" t="s">
+        <v>55</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="7"/>
@@ -3064,23 +3154,23 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="62"/>
       <c r="C13" s="59" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="108"/>
+        <v>57</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="122"/>
       <c r="G13" s="61" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I13" s="56"/>
       <c r="J13" s="9"/>
@@ -3102,22 +3192,22 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
-      <c r="B14" s="59" t="s">
-        <v>66</v>
+      <c r="A14" s="136"/>
+      <c r="B14" s="98" t="s">
+        <v>526</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>431</v>
-      </c>
-      <c r="F14" s="108"/>
+        <v>399</v>
+      </c>
+      <c r="F14" s="122"/>
       <c r="G14" s="61" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="56"/>
@@ -3140,24 +3230,24 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
-      <c r="B15" s="59" t="s">
-        <v>68</v>
+      <c r="A15" s="136"/>
+      <c r="B15" s="98" t="s">
+        <v>502</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="65"/>
+        <v>64</v>
+      </c>
+      <c r="F15" s="122"/>
+      <c r="G15" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="64"/>
       <c r="I15" s="56"/>
       <c r="J15" s="9"/>
       <c r="K15" s="7"/>
@@ -3178,22 +3268,22 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="59" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="C16" s="62"/>
-      <c r="D16" s="66" t="s">
-        <v>382</v>
+      <c r="D16" s="65" t="s">
+        <v>353</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>445</v>
-      </c>
-      <c r="F16" s="126"/>
+        <v>413</v>
+      </c>
+      <c r="F16" s="139"/>
       <c r="G16" s="56" t="s">
-        <v>380</v>
-      </c>
-      <c r="H16" s="67"/>
+        <v>351</v>
+      </c>
+      <c r="H16" s="66"/>
       <c r="I16" s="60"/>
       <c r="J16" s="9"/>
       <c r="K16" s="8"/>
@@ -3214,19 +3304,19 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
-      <c r="B17" s="87" t="s">
-        <v>500</v>
+      <c r="A17" s="136"/>
+      <c r="B17" s="86" t="s">
+        <v>459</v>
       </c>
       <c r="C17" s="62"/>
-      <c r="E17" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="108"/>
-      <c r="G17" s="127" t="s">
-        <v>438</v>
-      </c>
-      <c r="H17" s="128"/>
+      <c r="E17" s="96" t="s">
+        <v>506</v>
+      </c>
+      <c r="F17" s="122"/>
+      <c r="G17" s="140" t="s">
+        <v>406</v>
+      </c>
+      <c r="H17" s="141"/>
       <c r="I17" s="56"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -3247,18 +3337,18 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="101"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="142" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="114"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="114"/>
       <c r="I18" s="63"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -3279,20 +3369,20 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="132" t="s">
-        <v>379</v>
-      </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="100" t="s">
-        <v>459</v>
-      </c>
-      <c r="H19" s="101"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="145" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="146"/>
+      <c r="D19" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="114"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="115" t="s">
+        <v>427</v>
+      </c>
+      <c r="H19" s="114"/>
       <c r="I19" s="63"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -3313,18 +3403,18 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="105" t="s">
-        <v>371</v>
-      </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="101"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="118" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="114"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="114"/>
       <c r="I20" s="63"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -3345,17 +3435,17 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="63"/>
       <c r="C21" s="57"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="108"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="57"/>
-      <c r="H21" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="101"/>
+      <c r="H21" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="114"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -3375,17 +3465,17 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
-      <c r="F22" s="108"/>
+      <c r="F22" s="122"/>
       <c r="G22" s="63"/>
-      <c r="H22" s="100" t="s">
-        <v>384</v>
-      </c>
-      <c r="I22" s="101"/>
+      <c r="H22" s="115" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22" s="114"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -3405,17 +3495,17 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
+      <c r="A23" s="135"/>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
-      <c r="F23" s="108"/>
+      <c r="F23" s="122"/>
       <c r="G23" s="63"/>
-      <c r="H23" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="101"/>
+      <c r="H23" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="114"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -3435,17 +3525,17 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
+      <c r="A24" s="135"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
-      <c r="F24" s="108"/>
+      <c r="F24" s="122"/>
       <c r="G24" s="63"/>
-      <c r="H24" s="100" t="s">
-        <v>372</v>
-      </c>
-      <c r="I24" s="101"/>
+      <c r="H24" s="115" t="s">
+        <v>343</v>
+      </c>
+      <c r="I24" s="114"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -3465,15 +3555,15 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
+      <c r="A25" s="135"/>
       <c r="B25" s="63"/>
       <c r="C25" s="63"/>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
-      <c r="F25" s="108"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="63"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="101"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="114"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -3493,12 +3583,12 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="63"/>
       <c r="C26" s="63"/>
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
-      <c r="F26" s="109"/>
+      <c r="F26" s="123"/>
       <c r="G26" s="56"/>
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
@@ -3521,15 +3611,15 @@
       <c r="Z26" s="8"/>
     </row>
     <row r="27" spans="1:26" s="41" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="121"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="123"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="131"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
@@ -3549,30 +3639,30 @@
       <c r="Z27" s="40"/>
     </row>
     <row r="28" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>82</v>
+      <c r="A28" s="134" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="96" t="s">
+        <v>73</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D28" s="56" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E28" s="57"/>
-      <c r="F28" s="94" t="s">
+      <c r="F28" s="121" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="56" t="s">
-        <v>223</v>
+      <c r="H28" s="96" t="s">
+        <v>197</v>
       </c>
       <c r="I28" s="56" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -3593,20 +3683,20 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="56" t="s">
-        <v>87</v>
+      <c r="A29" s="135"/>
+      <c r="B29" s="96" t="s">
+        <v>509</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>79</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="95"/>
+        <v>80</v>
+      </c>
+      <c r="F29" s="157"/>
       <c r="G29" s="56" t="s">
         <v>18</v>
       </c>
@@ -3614,7 +3704,7 @@
         <v>20</v>
       </c>
       <c r="I29" s="56" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -3635,28 +3725,28 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
-      <c r="B30" s="56" t="s">
-        <v>401</v>
+      <c r="A30" s="135"/>
+      <c r="B30" s="96" t="s">
+        <v>510</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>490</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="95"/>
+        <v>82</v>
+      </c>
+      <c r="F30" s="157"/>
       <c r="G30" s="56" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="H30" s="56" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="56" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -3677,28 +3767,28 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
-      <c r="B31" s="56" t="s">
-        <v>95</v>
+      <c r="A31" s="135"/>
+      <c r="B31" s="105" t="s">
+        <v>520</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="D31" s="92" t="s">
+        <v>85</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="95"/>
+        <v>86</v>
+      </c>
+      <c r="F31" s="157"/>
       <c r="G31" s="56" t="s">
         <v>28</v>
       </c>
       <c r="H31" s="56" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -3719,28 +3809,28 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="56" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>466</v>
+        <v>89</v>
+      </c>
+      <c r="D32" s="103" t="s">
+        <v>433</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="F32" s="95"/>
+        <v>373</v>
+      </c>
+      <c r="F32" s="157"/>
       <c r="G32" s="56" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H32" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" s="56" t="s">
-        <v>404</v>
+        <v>91</v>
+      </c>
+      <c r="I32" s="96" t="s">
+        <v>511</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -3761,28 +3851,28 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="98"/>
+      <c r="A33" s="135"/>
       <c r="B33" s="56" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D33" s="56" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="95"/>
+        <v>95</v>
+      </c>
+      <c r="F33" s="157"/>
       <c r="G33" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33" s="56" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+      <c r="H33" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="96" t="s">
+        <v>512</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -3803,23 +3893,25 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="98"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="56"/>
       <c r="C34" s="56" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="95"/>
+        <v>99</v>
+      </c>
+      <c r="F34" s="157"/>
       <c r="G34" s="56" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H34" s="57"/>
-      <c r="I34" s="68"/>
+      <c r="I34" s="112" t="s">
+        <v>523</v>
+      </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -3839,27 +3931,27 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="98"/>
+      <c r="A35" s="135"/>
       <c r="B35" s="61" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="E35" s="56" t="s">
-        <v>470</v>
-      </c>
-      <c r="F35" s="95"/>
+        <v>446</v>
+      </c>
+      <c r="E35" s="92" t="s">
+        <v>434</v>
+      </c>
+      <c r="F35" s="157"/>
       <c r="G35" s="56" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="H35" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="68"/>
+        <v>104</v>
+      </c>
+      <c r="I35" s="67"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -3879,25 +3971,25 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="98"/>
-      <c r="B36" s="61" t="s">
-        <v>118</v>
+      <c r="A36" s="135"/>
+      <c r="B36" s="93" t="s">
+        <v>489</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="D36" s="56" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>476</v>
-      </c>
-      <c r="F36" s="95"/>
+        <v>437</v>
+      </c>
+      <c r="F36" s="157"/>
       <c r="G36" s="56" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="H36" s="56" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="I36" s="63"/>
       <c r="J36" s="7"/>
@@ -3919,28 +4011,28 @@
       <c r="Z36" s="8"/>
     </row>
     <row r="37" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="98"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="56" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="D37" s="56" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="95"/>
-      <c r="G37" s="61" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="F37" s="157"/>
+      <c r="G37" s="93" t="s">
+        <v>493</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="I37" s="56" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -3961,23 +4053,23 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="98"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="57"/>
       <c r="C38" s="56" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="D38" s="57"/>
-      <c r="E38" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="95"/>
+      <c r="E38" s="92" t="s">
+        <v>491</v>
+      </c>
+      <c r="F38" s="157"/>
       <c r="G38" s="61" t="s">
-        <v>455</v>
-      </c>
-      <c r="H38" s="100" t="s">
-        <v>386</v>
-      </c>
-      <c r="I38" s="101"/>
+        <v>423</v>
+      </c>
+      <c r="H38" s="115" t="s">
+        <v>357</v>
+      </c>
+      <c r="I38" s="114"/>
       <c r="J38" s="7"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -3997,27 +4089,27 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="98"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="61" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="D39" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="E39" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="95"/>
+        <v>233</v>
+      </c>
+      <c r="E39" s="92" t="s">
+        <v>492</v>
+      </c>
+      <c r="F39" s="157"/>
       <c r="G39" s="56" t="s">
-        <v>456</v>
-      </c>
-      <c r="H39" s="100" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="101"/>
+        <v>424</v>
+      </c>
+      <c r="H39" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="114"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -4037,25 +4129,25 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="98"/>
-      <c r="B40" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>130</v>
+      <c r="A40" s="135"/>
+      <c r="B40" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="103" t="s">
+        <v>113</v>
       </c>
       <c r="D40" s="63"/>
       <c r="E40" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="95"/>
-      <c r="G40" s="87" t="s">
-        <v>501</v>
-      </c>
-      <c r="H40" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="I40" s="101"/>
+        <v>114</v>
+      </c>
+      <c r="F40" s="157"/>
+      <c r="G40" s="86" t="s">
+        <v>460</v>
+      </c>
+      <c r="H40" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="114"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -4075,21 +4167,21 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="98"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="61" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="63"/>
-      <c r="E41" s="69" t="s">
-        <v>437</v>
-      </c>
-      <c r="F41" s="95"/>
+      <c r="E41" s="68" t="s">
+        <v>405</v>
+      </c>
+      <c r="F41" s="157"/>
       <c r="G41" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
+        <v>117</v>
+      </c>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -4109,21 +4201,21 @@
       <c r="Z41" s="8"/>
     </row>
     <row r="42" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="98"/>
+      <c r="A42" s="135"/>
       <c r="B42" s="61" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C42" s="63"/>
       <c r="D42" s="56"/>
       <c r="E42" s="63"/>
-      <c r="F42" s="95"/>
+      <c r="F42" s="157"/>
       <c r="G42" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="100" t="s">
-        <v>451</v>
-      </c>
-      <c r="I42" s="101"/>
+        <v>119</v>
+      </c>
+      <c r="H42" s="115" t="s">
+        <v>419</v>
+      </c>
+      <c r="I42" s="114"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -4143,23 +4235,23 @@
       <c r="Z42" s="8"/>
     </row>
     <row r="43" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="98"/>
-      <c r="B43" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="101"/>
-      <c r="D43" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="95"/>
+      <c r="A43" s="135"/>
+      <c r="B43" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="114"/>
+      <c r="F43" s="157"/>
       <c r="G43" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="I43" s="101"/>
+        <v>122</v>
+      </c>
+      <c r="H43" s="115" t="s">
+        <v>348</v>
+      </c>
+      <c r="I43" s="114"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -4179,18 +4271,18 @@
       <c r="Z43" s="8"/>
     </row>
     <row r="44" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="98"/>
-      <c r="B44" s="100" t="s">
-        <v>373</v>
-      </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="100" t="s">
-        <v>385</v>
-      </c>
-      <c r="E44" s="101"/>
-      <c r="F44" s="95"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="101"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="115" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" s="114"/>
+      <c r="D44" s="115" t="s">
+        <v>356</v>
+      </c>
+      <c r="E44" s="114"/>
+      <c r="F44" s="157"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="114"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -4210,14 +4302,14 @@
       <c r="Z44" s="8"/>
     </row>
     <row r="45" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="98"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="102" t="s">
-        <v>520</v>
-      </c>
-      <c r="E45" s="103"/>
-      <c r="F45" s="95"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="116" t="s">
+        <v>478</v>
+      </c>
+      <c r="E45" s="117"/>
+      <c r="F45" s="157"/>
       <c r="G45" s="57"/>
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
@@ -4240,17 +4332,17 @@
       <c r="Z45" s="8"/>
     </row>
     <row r="46" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="98"/>
-      <c r="B46" s="102" t="s">
-        <v>523</v>
-      </c>
-      <c r="C46" s="103"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="68"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="116" t="s">
+        <v>481</v>
+      </c>
+      <c r="C46" s="117"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -4270,23 +4362,23 @@
       <c r="Z46" s="8"/>
     </row>
     <row r="47" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
+      <c r="A47" s="137"/>
       <c r="B47" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="102" t="s">
-        <v>524</v>
-      </c>
-      <c r="D47" s="103"/>
+        <v>123</v>
+      </c>
+      <c r="C47" s="116" t="s">
+        <v>482</v>
+      </c>
+      <c r="D47" s="117"/>
       <c r="E47" s="61" t="s">
-        <v>450</v>
-      </c>
-      <c r="F47" s="95"/>
-      <c r="G47" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="H47" s="101"/>
-      <c r="I47" s="71"/>
+        <v>418</v>
+      </c>
+      <c r="F47" s="157"/>
+      <c r="G47" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" s="114"/>
+      <c r="I47" s="70"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -4307,18 +4399,18 @@
     </row>
     <row r="48" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="110" t="s">
-        <v>449</v>
-      </c>
-      <c r="C48" s="101"/>
+      <c r="B48" s="113" t="s">
+        <v>417</v>
+      </c>
+      <c r="C48" s="114"/>
       <c r="D48" s="63"/>
       <c r="E48" s="63"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="116" t="s">
-        <v>439</v>
-      </c>
-      <c r="H48" s="117"/>
-      <c r="I48" s="71"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="154" t="s">
+        <v>407</v>
+      </c>
+      <c r="H48" s="155"/>
+      <c r="I48" s="70"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -4339,16 +4431,16 @@
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="104" t="s">
-        <v>368</v>
-      </c>
-      <c r="H49" s="101"/>
-      <c r="I49" s="68"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="149" t="s">
+        <v>339</v>
+      </c>
+      <c r="H49" s="114"/>
+      <c r="I49" s="67"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -4373,10 +4465,10 @@
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
       <c r="E50" s="56"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -4396,15 +4488,15 @@
       <c r="Z50" s="8"/>
     </row>
     <row r="51" spans="1:26" s="45" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="114"/>
+      <c r="A51" s="151"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="153"/>
       <c r="J51" s="43"/>
       <c r="K51" s="43"/>
       <c r="L51" s="43"/>
@@ -4424,21 +4516,18 @@
       <c r="Z51" s="44"/>
     </row>
     <row r="52" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
+      <c r="A52" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
       <c r="E52" s="63"/>
-      <c r="F52" s="107" t="s">
+      <c r="F52" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="56" t="s">
-        <v>471</v>
-      </c>
       <c r="H52" s="63"/>
-      <c r="I52" s="69"/>
+      <c r="I52" s="68"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -4458,28 +4547,28 @@
       <c r="Z52" s="8"/>
     </row>
     <row r="53" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="98"/>
-      <c r="B53" s="61" t="s">
-        <v>514</v>
-      </c>
-      <c r="C53" s="86" t="s">
-        <v>505</v>
+      <c r="A53" s="135"/>
+      <c r="B53" s="99" t="s">
+        <v>513</v>
+      </c>
+      <c r="C53" s="85" t="s">
+        <v>464</v>
       </c>
       <c r="D53" s="56" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="56" t="s">
-        <v>448</v>
-      </c>
-      <c r="F53" s="108"/>
+        <v>416</v>
+      </c>
+      <c r="F53" s="122"/>
       <c r="G53" s="56" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H53" s="56" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -4500,26 +4589,26 @@
       <c r="Z53" s="8"/>
     </row>
     <row r="54" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="98"/>
+      <c r="A54" s="135"/>
       <c r="B54" s="56" t="s">
-        <v>463</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>144</v>
+        <v>431</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>494</v>
       </c>
       <c r="D54" s="56" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="57"/>
-      <c r="F54" s="108"/>
+      <c r="F54" s="122"/>
       <c r="G54" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="H54" s="56" t="s">
-        <v>145</v>
+        <v>78</v>
+      </c>
+      <c r="H54" s="96" t="s">
+        <v>516</v>
       </c>
       <c r="I54" s="56" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -4540,28 +4629,28 @@
       <c r="Z54" s="8"/>
     </row>
     <row r="55" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="98"/>
+      <c r="A55" s="135"/>
       <c r="B55" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>148</v>
+        <v>128</v>
+      </c>
+      <c r="C55" s="92" t="s">
+        <v>495</v>
       </c>
       <c r="D55" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55" s="108"/>
+      <c r="E55" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" s="122"/>
       <c r="G55" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="87" t="s">
-        <v>510</v>
+        <v>81</v>
+      </c>
+      <c r="H55" s="86" t="s">
+        <v>469</v>
       </c>
       <c r="I55" s="56" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -4582,28 +4671,28 @@
       <c r="Z55" s="8"/>
     </row>
     <row r="56" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="98"/>
+      <c r="A56" s="135"/>
       <c r="B56" s="56" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="D56" s="56" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="56" t="s">
-        <v>382</v>
-      </c>
-      <c r="F56" s="108"/>
+        <v>353</v>
+      </c>
+      <c r="F56" s="122"/>
       <c r="G56" s="56" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H56" s="56" t="s">
-        <v>527</v>
+        <v>485</v>
       </c>
       <c r="I56" s="56" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -4624,28 +4713,28 @@
       <c r="Z56" s="8"/>
     </row>
     <row r="57" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="98"/>
+      <c r="A57" s="135"/>
       <c r="B57" s="56" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D57" s="56" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="F57" s="108"/>
+        <v>134</v>
+      </c>
+      <c r="F57" s="122"/>
       <c r="G57" s="56" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="H57" s="56" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="I57" s="56" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -4666,28 +4755,28 @@
       <c r="Z57" s="8"/>
     </row>
     <row r="58" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="98"/>
-      <c r="B58" s="56" t="s">
-        <v>156</v>
+      <c r="A58" s="135"/>
+      <c r="B58" s="92" t="s">
+        <v>136</v>
       </c>
       <c r="C58" s="56" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="D58" s="56" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="F58" s="108"/>
+        <v>137</v>
+      </c>
+      <c r="F58" s="122"/>
       <c r="G58" s="56" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="H58" s="56" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="I58" s="56" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -4708,28 +4797,28 @@
       <c r="Z58" s="8"/>
     </row>
     <row r="59" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="98"/>
+      <c r="A59" s="135"/>
       <c r="B59" s="56" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="E59" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="F59" s="108"/>
+        <v>141</v>
+      </c>
+      <c r="E59" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="122"/>
       <c r="G59" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="H59" s="73" t="s">
-        <v>394</v>
+        <v>143</v>
+      </c>
+      <c r="H59" s="72" t="s">
+        <v>365</v>
       </c>
       <c r="I59" s="56" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -4750,27 +4839,27 @@
       <c r="Z59" s="8"/>
     </row>
     <row r="60" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="98"/>
-      <c r="B60" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="56" t="s">
-        <v>165</v>
+      <c r="A60" s="135"/>
+      <c r="B60" s="109" t="s">
+        <v>522</v>
+      </c>
+      <c r="C60" s="96" t="s">
+        <v>144</v>
       </c>
       <c r="D60" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="F60" s="108"/>
+        <v>145</v>
+      </c>
+      <c r="E60" s="96" t="s">
+        <v>514</v>
+      </c>
+      <c r="F60" s="122"/>
       <c r="G60" s="56" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="H60" s="56" t="s">
-        <v>462</v>
-      </c>
-      <c r="I60" s="74"/>
+        <v>430</v>
+      </c>
+      <c r="I60" s="73"/>
       <c r="J60" s="7"/>
       <c r="K60" s="12"/>
       <c r="L60" s="7"/>
@@ -4790,27 +4879,27 @@
       <c r="Z60" s="8"/>
     </row>
     <row r="61" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="98"/>
-      <c r="B61" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61" s="56" t="s">
-        <v>407</v>
-      </c>
-      <c r="F61" s="108"/>
-      <c r="G61" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H61" s="110" t="s">
-        <v>490</v>
-      </c>
-      <c r="I61" s="115"/>
+      <c r="A61" s="135"/>
+      <c r="B61" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="96" t="s">
+        <v>527</v>
+      </c>
+      <c r="D61" s="92" t="s">
+        <v>496</v>
+      </c>
+      <c r="E61" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="F61" s="122"/>
+      <c r="G61" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61" s="113" t="s">
+        <v>449</v>
+      </c>
+      <c r="I61" s="127"/>
       <c r="J61" s="12"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -4830,20 +4919,20 @@
       <c r="Z61" s="8"/>
     </row>
     <row r="62" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="98"/>
-      <c r="B62" s="61" t="s">
-        <v>499</v>
+      <c r="A62" s="135"/>
+      <c r="B62" s="110" t="s">
+        <v>458</v>
       </c>
       <c r="C62" s="56" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D62" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="F62" s="108"/>
+        <v>148</v>
+      </c>
+      <c r="F62" s="122"/>
       <c r="G62" s="56"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="101"/>
+      <c r="H62" s="115"/>
+      <c r="I62" s="114"/>
       <c r="J62" s="12"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -4863,23 +4952,23 @@
       <c r="Z62" s="8"/>
     </row>
     <row r="63" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="98"/>
+      <c r="A63" s="135"/>
       <c r="B63" s="63"/>
-      <c r="C63" s="75" t="s">
-        <v>174</v>
+      <c r="C63" s="74" t="s">
+        <v>149</v>
       </c>
       <c r="D63" s="56" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="E63" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="F63" s="108"/>
-      <c r="G63" s="100" t="s">
-        <v>378</v>
-      </c>
-      <c r="H63" s="101"/>
-      <c r="I63" s="69"/>
+        <v>395</v>
+      </c>
+      <c r="F63" s="122"/>
+      <c r="G63" s="115" t="s">
+        <v>349</v>
+      </c>
+      <c r="H63" s="114"/>
+      <c r="I63" s="68"/>
       <c r="J63" s="12"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -4899,23 +4988,23 @@
       <c r="Z63" s="8"/>
     </row>
     <row r="64" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="98"/>
-      <c r="B64" s="110" t="s">
-        <v>488</v>
-      </c>
-      <c r="C64" s="115"/>
+      <c r="A64" s="135"/>
+      <c r="B64" s="113" t="s">
+        <v>447</v>
+      </c>
+      <c r="C64" s="127"/>
       <c r="D64" s="56" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="E64" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" s="108"/>
-      <c r="G64" s="102" t="s">
-        <v>521</v>
-      </c>
-      <c r="H64" s="103"/>
-      <c r="I64" s="69"/>
+        <v>152</v>
+      </c>
+      <c r="F64" s="122"/>
+      <c r="G64" s="116" t="s">
+        <v>479</v>
+      </c>
+      <c r="H64" s="117"/>
+      <c r="I64" s="68"/>
       <c r="J64" s="12"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -4935,21 +5024,21 @@
       <c r="Z64" s="8"/>
     </row>
     <row r="65" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="98"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="101"/>
+      <c r="A65" s="135"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="56" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E65" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="F65" s="108"/>
-      <c r="G65" s="100" t="s">
-        <v>497</v>
-      </c>
-      <c r="H65" s="101"/>
-      <c r="I65" s="69"/>
+        <v>411</v>
+      </c>
+      <c r="F65" s="122"/>
+      <c r="G65" s="115" t="s">
+        <v>456</v>
+      </c>
+      <c r="H65" s="114"/>
+      <c r="I65" s="68"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -4969,21 +5058,21 @@
       <c r="Z65" s="8"/>
     </row>
     <row r="66" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="98"/>
-      <c r="B66" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="C66" s="101"/>
-      <c r="D66" s="56" t="s">
-        <v>179</v>
+      <c r="A66" s="135"/>
+      <c r="B66" s="115" t="s">
+        <v>341</v>
+      </c>
+      <c r="C66" s="114"/>
+      <c r="D66" s="92" t="s">
+        <v>154</v>
       </c>
       <c r="E66" s="57"/>
-      <c r="F66" s="108"/>
+      <c r="F66" s="122"/>
       <c r="G66" s="57"/>
-      <c r="H66" s="56" t="s">
-        <v>464</v>
-      </c>
-      <c r="I66" s="69"/>
+      <c r="H66" s="109" t="s">
+        <v>524</v>
+      </c>
+      <c r="I66" s="68"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -5003,19 +5092,19 @@
       <c r="Z66" s="8"/>
     </row>
     <row r="67" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="98"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="101"/>
+      <c r="A67" s="135"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="114"/>
       <c r="D67" s="56" t="s">
-        <v>483</v>
-      </c>
-      <c r="E67" s="76" t="s">
-        <v>396</v>
-      </c>
-      <c r="F67" s="108"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="69"/>
+        <v>442</v>
+      </c>
+      <c r="E67" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="F67" s="122"/>
+      <c r="G67" s="115"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="68"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -5035,18 +5124,18 @@
       <c r="Z67" s="8"/>
     </row>
     <row r="68" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="98"/>
-      <c r="B68" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="C68" s="101"/>
-      <c r="D68" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="E68" s="101"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="101"/>
+      <c r="A68" s="135"/>
+      <c r="B68" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="114"/>
+      <c r="D68" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" s="114"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="114"/>
       <c r="I68" s="63"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -5067,18 +5156,18 @@
       <c r="Z68" s="8"/>
     </row>
     <row r="69" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="98"/>
-      <c r="B69" s="100" t="s">
-        <v>387</v>
-      </c>
-      <c r="C69" s="101"/>
-      <c r="D69" s="100" t="s">
-        <v>388</v>
-      </c>
-      <c r="E69" s="101"/>
-      <c r="F69" s="108"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="101"/>
+      <c r="A69" s="135"/>
+      <c r="B69" s="115" t="s">
+        <v>358</v>
+      </c>
+      <c r="C69" s="114"/>
+      <c r="D69" s="115" t="s">
+        <v>359</v>
+      </c>
+      <c r="E69" s="114"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="114"/>
       <c r="I69" s="63"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -5099,14 +5188,14 @@
       <c r="Z69" s="8"/>
     </row>
     <row r="70" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="98"/>
+      <c r="A70" s="135"/>
       <c r="B70" s="63"/>
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
-      <c r="F70" s="108"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="101"/>
+      <c r="F70" s="122"/>
+      <c r="G70" s="156"/>
+      <c r="H70" s="114"/>
       <c r="I70" s="63"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -5127,17 +5216,17 @@
       <c r="Z70" s="8"/>
     </row>
     <row r="71" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="98"/>
+      <c r="A71" s="135"/>
       <c r="B71" s="63"/>
       <c r="C71" s="63"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="108"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="100" t="s">
-        <v>182</v>
-      </c>
-      <c r="I71" s="101"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="122"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="115" t="s">
+        <v>157</v>
+      </c>
+      <c r="I71" s="114"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="7"/>
@@ -5157,17 +5246,17 @@
       <c r="Z71" s="8"/>
     </row>
     <row r="72" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="98"/>
-      <c r="B72" s="105"/>
-      <c r="C72" s="101"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="I72" s="101"/>
+      <c r="A72" s="135"/>
+      <c r="B72" s="118"/>
+      <c r="C72" s="114"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="122"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="I72" s="114"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="7"/>
@@ -5187,17 +5276,17 @@
       <c r="Z72" s="8"/>
     </row>
     <row r="73" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="98"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="108"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="100" t="s">
-        <v>390</v>
-      </c>
-      <c r="I73" s="101"/>
+      <c r="A73" s="135"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="115" t="s">
+        <v>361</v>
+      </c>
+      <c r="I73" s="114"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
@@ -5217,15 +5306,15 @@
       <c r="Z73" s="8"/>
     </row>
     <row r="74" spans="1:26" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="98"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="108"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
+      <c r="A74" s="135"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="122"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
@@ -5245,17 +5334,17 @@
       <c r="Z74" s="8"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="99"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="109"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="I75" s="101"/>
+      <c r="A75" s="137"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="123"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="115" t="s">
+        <v>159</v>
+      </c>
+      <c r="I75" s="114"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -5303,32 +5392,32 @@
       <c r="Z76" s="51"/>
     </row>
     <row r="77" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="106" t="s">
-        <v>185</v>
+      <c r="A77" s="147" t="s">
+        <v>160</v>
       </c>
       <c r="B77" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="C77" s="56" t="s">
-        <v>186</v>
+        <v>385</v>
+      </c>
+      <c r="C77" s="92" t="s">
+        <v>497</v>
       </c>
       <c r="D77" s="56" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E77" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="121" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H77" s="56" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="H77" s="96" t="s">
+        <v>73</v>
       </c>
       <c r="I77" s="56" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -5349,28 +5438,28 @@
       <c r="Z77" s="8"/>
     </row>
     <row r="78" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="98"/>
-      <c r="B78" s="87" t="s">
-        <v>502</v>
-      </c>
-      <c r="C78" s="56" t="s">
-        <v>89</v>
+      <c r="A78" s="135"/>
+      <c r="B78" s="86" t="s">
+        <v>461</v>
+      </c>
+      <c r="C78" s="92" t="s">
+        <v>79</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E78" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="108"/>
+        <v>78</v>
+      </c>
+      <c r="F78" s="122"/>
       <c r="G78" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="I78" s="78" t="s">
-        <v>398</v>
+        <v>80</v>
+      </c>
+      <c r="H78" s="96" t="s">
+        <v>509</v>
+      </c>
+      <c r="I78" s="77" t="s">
+        <v>369</v>
       </c>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -5391,28 +5480,28 @@
       <c r="Z78" s="8"/>
     </row>
     <row r="79" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="98"/>
+      <c r="A79" s="135"/>
       <c r="B79" s="56" t="s">
-        <v>517</v>
-      </c>
-      <c r="C79" s="56" t="s">
-        <v>187</v>
+        <v>475</v>
+      </c>
+      <c r="C79" s="92" t="s">
+        <v>161</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E79" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="108"/>
+        <v>81</v>
+      </c>
+      <c r="F79" s="122"/>
       <c r="G79" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="H79" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="I79" s="85" t="s">
-        <v>484</v>
+        <v>82</v>
+      </c>
+      <c r="H79" s="96" t="s">
+        <v>510</v>
+      </c>
+      <c r="I79" s="84" t="s">
+        <v>443</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -5433,28 +5522,28 @@
       <c r="Z79" s="8"/>
     </row>
     <row r="80" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="98"/>
+      <c r="A80" s="135"/>
       <c r="B80" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C80" s="56" t="s">
-        <v>189</v>
+        <v>162</v>
+      </c>
+      <c r="C80" s="103" t="s">
+        <v>163</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E80" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="F80" s="108"/>
+        <v>130</v>
+      </c>
+      <c r="F80" s="122"/>
       <c r="G80" s="56" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H80" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="I80" s="56" t="s">
-        <v>173</v>
+        <v>164</v>
+      </c>
+      <c r="I80" s="105" t="s">
+        <v>521</v>
       </c>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -5475,22 +5564,22 @@
       <c r="Z80" s="8"/>
     </row>
     <row r="81" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="98"/>
+      <c r="A81" s="135"/>
       <c r="B81" s="56" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="E81" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="F81" s="108"/>
+        <v>135</v>
+      </c>
+      <c r="F81" s="122"/>
       <c r="G81" s="56" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="I81" s="56"/>
       <c r="J81" s="7"/>
@@ -5512,22 +5601,22 @@
       <c r="Z81" s="8"/>
     </row>
     <row r="82" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="98"/>
+      <c r="A82" s="135"/>
       <c r="B82" s="56" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="E82" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="F82" s="108"/>
+        <v>138</v>
+      </c>
+      <c r="F82" s="122"/>
       <c r="H82" s="61" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="I82" s="56"/>
       <c r="J82" s="7"/>
@@ -5549,25 +5638,25 @@
       <c r="Z82" s="8"/>
     </row>
     <row r="83" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="98"/>
+      <c r="A83" s="135"/>
       <c r="B83" s="56" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C83" s="56" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="E83" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="F83" s="108"/>
+        <v>173</v>
+      </c>
+      <c r="F83" s="122"/>
       <c r="G83" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="H83" s="79"/>
-      <c r="I83" s="69"/>
+        <v>174</v>
+      </c>
+      <c r="H83" s="78"/>
+      <c r="I83" s="68"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -5587,24 +5676,24 @@
       <c r="Z83" s="8"/>
     </row>
     <row r="84" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="98"/>
+      <c r="A84" s="135"/>
       <c r="B84" s="56" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="E84" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="F84" s="108"/>
+        <v>175</v>
+      </c>
+      <c r="F84" s="122"/>
       <c r="G84" s="61" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="H84" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="I84" s="69"/>
+        <v>177</v>
+      </c>
+      <c r="I84" s="68"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -5624,25 +5713,27 @@
       <c r="Z84" s="8"/>
     </row>
     <row r="85" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="98"/>
-      <c r="B85" s="63"/>
+      <c r="A85" s="135"/>
+      <c r="B85" s="96" t="s">
+        <v>517</v>
+      </c>
       <c r="C85" s="56" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D85" s="56" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="E85" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="F85" s="108"/>
+        <v>179</v>
+      </c>
+      <c r="F85" s="122"/>
       <c r="G85" s="61" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="H85" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="I85" s="80"/>
+        <v>380</v>
+      </c>
+      <c r="I85" s="79"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
@@ -5662,25 +5753,25 @@
       <c r="Z85" s="8"/>
     </row>
     <row r="86" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="98"/>
+      <c r="A86" s="135"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="E86" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="F86" s="108"/>
+        <v>181</v>
+      </c>
+      <c r="F86" s="122"/>
       <c r="G86" s="61" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="H86" s="61" t="s">
-        <v>413</v>
-      </c>
-      <c r="I86" s="69"/>
+        <v>381</v>
+      </c>
+      <c r="I86" s="68"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -5700,23 +5791,23 @@
       <c r="Z86" s="8"/>
     </row>
     <row r="87" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="98"/>
-      <c r="B87" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="C87" s="101"/>
+      <c r="A87" s="135"/>
+      <c r="B87" s="149" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="114"/>
       <c r="D87" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="E87" s="69" t="s">
-        <v>436</v>
-      </c>
-      <c r="F87" s="108"/>
+        <v>183</v>
+      </c>
+      <c r="E87" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="F87" s="122"/>
       <c r="G87" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="H87" s="69"/>
-      <c r="I87" s="69"/>
+        <v>184</v>
+      </c>
+      <c r="H87" s="68"/>
+      <c r="I87" s="68"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
@@ -5736,25 +5827,25 @@
       <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="98"/>
-      <c r="B88" s="104" t="s">
-        <v>440</v>
-      </c>
-      <c r="C88" s="101"/>
+      <c r="A88" s="135"/>
+      <c r="B88" s="149" t="s">
+        <v>408</v>
+      </c>
+      <c r="C88" s="114"/>
       <c r="D88" s="56" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="E88" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="F88" s="108"/>
+        <v>185</v>
+      </c>
+      <c r="F88" s="122"/>
       <c r="G88" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="H88" s="110" t="s">
-        <v>515</v>
-      </c>
-      <c r="I88" s="101"/>
+        <v>186</v>
+      </c>
+      <c r="H88" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="I88" s="114"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -5774,18 +5865,18 @@
       <c r="Z88" s="8"/>
     </row>
     <row r="89" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="98"/>
-      <c r="B89" s="104" t="s">
-        <v>369</v>
-      </c>
-      <c r="C89" s="101"/>
+      <c r="A89" s="135"/>
+      <c r="B89" s="149" t="s">
+        <v>340</v>
+      </c>
+      <c r="C89" s="114"/>
       <c r="E89" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="F89" s="108"/>
+        <v>188</v>
+      </c>
+      <c r="F89" s="122"/>
       <c r="G89" s="57"/>
-      <c r="H89" s="100"/>
-      <c r="I89" s="101"/>
+      <c r="H89" s="115"/>
+      <c r="I89" s="114"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -5805,21 +5896,21 @@
       <c r="Z89" s="8"/>
     </row>
     <row r="90" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="98"/>
-      <c r="B90" s="105"/>
-      <c r="C90" s="101"/>
-      <c r="D90" s="81" t="s">
-        <v>465</v>
+      <c r="A90" s="135"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="80" t="s">
+        <v>432</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F90" s="108"/>
-      <c r="G90" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="H90" s="101"/>
-      <c r="I90" s="69"/>
+        <v>455</v>
+      </c>
+      <c r="F90" s="122"/>
+      <c r="G90" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="H90" s="114"/>
+      <c r="I90" s="68"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
@@ -5839,19 +5930,19 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="98"/>
-      <c r="B91" s="100" t="s">
-        <v>216</v>
-      </c>
-      <c r="C91" s="101"/>
+      <c r="A91" s="135"/>
+      <c r="B91" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="114"/>
       <c r="D91" s="56"/>
       <c r="E91" s="63"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="100" t="s">
-        <v>217</v>
-      </c>
-      <c r="H91" s="101"/>
-      <c r="I91" s="69"/>
+      <c r="F91" s="122"/>
+      <c r="G91" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="H91" s="114"/>
+      <c r="I91" s="68"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
@@ -5871,19 +5962,19 @@
       <c r="Z91" s="8"/>
     </row>
     <row r="92" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="98"/>
-      <c r="B92" s="100" t="s">
-        <v>218</v>
-      </c>
-      <c r="C92" s="101"/>
-      <c r="D92" s="79"/>
+      <c r="A92" s="135"/>
+      <c r="B92" s="115" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="114"/>
+      <c r="D92" s="78"/>
       <c r="E92" s="63"/>
-      <c r="F92" s="108"/>
-      <c r="G92" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="H92" s="101"/>
-      <c r="I92" s="69"/>
+      <c r="F92" s="122"/>
+      <c r="G92" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="H92" s="114"/>
+      <c r="I92" s="68"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
@@ -5903,21 +5994,21 @@
       <c r="Z92" s="8"/>
     </row>
     <row r="93" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="98"/>
-      <c r="B93" s="102" t="s">
-        <v>525</v>
-      </c>
-      <c r="C93" s="103"/>
-      <c r="D93" s="110" t="s">
-        <v>408</v>
-      </c>
-      <c r="E93" s="101"/>
-      <c r="F93" s="108"/>
-      <c r="G93" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="H93" s="101"/>
-      <c r="I93" s="69"/>
+      <c r="A93" s="135"/>
+      <c r="B93" s="116" t="s">
+        <v>483</v>
+      </c>
+      <c r="C93" s="117"/>
+      <c r="D93" s="113" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" s="114"/>
+      <c r="F93" s="122"/>
+      <c r="G93" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="H93" s="114"/>
+      <c r="I93" s="68"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
@@ -5937,17 +6028,17 @@
       <c r="Z93" s="8"/>
     </row>
     <row r="94" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="98"/>
-      <c r="B94" s="100"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="100"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="108"/>
+      <c r="A94" s="135"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="114"/>
+      <c r="D94" s="115"/>
+      <c r="E94" s="114"/>
+      <c r="F94" s="122"/>
       <c r="G94" s="63"/>
-      <c r="H94" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="I94" s="101"/>
+      <c r="H94" s="115" t="s">
+        <v>345</v>
+      </c>
+      <c r="I94" s="114"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -5967,17 +6058,17 @@
       <c r="Z94" s="8"/>
     </row>
     <row r="95" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="98"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="56" t="s">
-        <v>473</v>
-      </c>
-      <c r="D95" s="69"/>
+      <c r="A95" s="135"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="92" t="s">
+        <v>498</v>
+      </c>
+      <c r="D95" s="68"/>
       <c r="E95" s="63"/>
-      <c r="F95" s="108"/>
+      <c r="F95" s="122"/>
       <c r="G95" s="63"/>
-      <c r="H95" s="100"/>
-      <c r="I95" s="101"/>
+      <c r="H95" s="115"/>
+      <c r="I95" s="114"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -5997,17 +6088,17 @@
       <c r="Z95" s="8"/>
     </row>
     <row r="96" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="98"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="108"/>
+      <c r="A96" s="135"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="122"/>
       <c r="G96" s="63"/>
-      <c r="H96" s="100" t="s">
-        <v>458</v>
-      </c>
-      <c r="I96" s="101"/>
+      <c r="H96" s="115" t="s">
+        <v>426</v>
+      </c>
+      <c r="I96" s="114"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -6027,15 +6118,15 @@
       <c r="Z96" s="8"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="98"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="108"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="100"/>
-      <c r="I97" s="101"/>
+      <c r="A97" s="135"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="68"/>
+      <c r="F97" s="122"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="115"/>
+      <c r="I97" s="114"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -6055,13 +6146,13 @@
       <c r="Z97" s="8"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="99"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="109"/>
-      <c r="G98" s="82"/>
+      <c r="A98" s="137"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="123"/>
+      <c r="G98" s="81"/>
       <c r="H98" s="63"/>
       <c r="I98" s="63"/>
       <c r="J98" s="7"/>
@@ -6111,32 +6202,32 @@
       <c r="Z99" s="44"/>
     </row>
     <row r="100" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="B100" s="56" t="s">
-        <v>186</v>
+      <c r="A100" s="134" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="92" t="s">
+        <v>497</v>
       </c>
       <c r="C100" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="D100" s="56" t="s">
-        <v>223</v>
+        <v>196</v>
+      </c>
+      <c r="D100" s="96" t="s">
+        <v>197</v>
       </c>
       <c r="E100" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="F100" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="F100" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="134" t="s">
-        <v>224</v>
+      <c r="G100" s="124" t="s">
+        <v>198</v>
       </c>
       <c r="H100" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="I100" s="61" t="s">
-        <v>422</v>
+        <v>199</v>
+      </c>
+      <c r="I100" s="93" t="s">
+        <v>390</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -6157,26 +6248,26 @@
       <c r="Z100" s="8"/>
     </row>
     <row r="101" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="98"/>
-      <c r="B101" s="56" t="s">
-        <v>89</v>
+      <c r="A101" s="135"/>
+      <c r="B101" s="92" t="s">
+        <v>79</v>
       </c>
       <c r="C101" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="D101" s="56" t="s">
-        <v>227</v>
+        <v>200</v>
+      </c>
+      <c r="D101" s="96" t="s">
+        <v>519</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="F101" s="108"/>
-      <c r="G101" s="108"/>
-      <c r="H101" s="69" t="s">
-        <v>228</v>
+        <v>80</v>
+      </c>
+      <c r="F101" s="122"/>
+      <c r="G101" s="122"/>
+      <c r="H101" s="68" t="s">
+        <v>201</v>
       </c>
       <c r="I101" s="56" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -6197,21 +6288,21 @@
       <c r="Z101" s="8"/>
     </row>
     <row r="102" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="98"/>
-      <c r="B102" s="89" t="s">
-        <v>187</v>
-      </c>
-      <c r="C102" s="89" t="s">
-        <v>479</v>
-      </c>
-      <c r="D102" s="56" t="s">
-        <v>230</v>
+      <c r="A102" s="135"/>
+      <c r="B102" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" s="88" t="s">
+        <v>440</v>
+      </c>
+      <c r="D102" s="96" t="s">
+        <v>203</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F102" s="108"/>
-      <c r="G102" s="108"/>
+        <v>82</v>
+      </c>
+      <c r="F102" s="122"/>
+      <c r="G102" s="122"/>
       <c r="I102" s="57"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -6232,23 +6323,23 @@
       <c r="Z102" s="8"/>
     </row>
     <row r="103" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="98"/>
-      <c r="B103" s="89" t="s">
-        <v>511</v>
-      </c>
-      <c r="C103" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="D103" s="56" t="s">
-        <v>480</v>
+      <c r="A103" s="135"/>
+      <c r="B103" s="103" t="s">
+        <v>470</v>
+      </c>
+      <c r="C103" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="109" t="s">
+        <v>525</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="F103" s="108"/>
-      <c r="G103" s="108"/>
+        <v>86</v>
+      </c>
+      <c r="F103" s="122"/>
+      <c r="G103" s="122"/>
       <c r="H103" s="56" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="I103" s="63"/>
       <c r="J103" s="7"/>
@@ -6270,22 +6361,22 @@
       <c r="Z103" s="8"/>
     </row>
     <row r="104" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="98"/>
-      <c r="B104" s="90" t="s">
-        <v>503</v>
-      </c>
-      <c r="C104" s="89" t="s">
-        <v>233</v>
+      <c r="A104" s="135"/>
+      <c r="B104" s="89" t="s">
+        <v>462</v>
+      </c>
+      <c r="C104" s="92" t="s">
+        <v>206</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="F104" s="108"/>
-      <c r="G104" s="108"/>
+        <v>373</v>
+      </c>
+      <c r="F104" s="122"/>
+      <c r="G104" s="122"/>
       <c r="H104" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="I104" s="69"/>
+        <v>207</v>
+      </c>
+      <c r="I104" s="68"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -6305,25 +6396,25 @@
       <c r="Z104" s="8"/>
     </row>
     <row r="105" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="98"/>
-      <c r="B105" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C105" s="89" t="s">
-        <v>512</v>
-      </c>
-      <c r="D105" s="56" t="s">
-        <v>237</v>
+      <c r="A105" s="135"/>
+      <c r="B105" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" s="88" t="s">
+        <v>471</v>
+      </c>
+      <c r="D105" s="105" t="s">
+        <v>209</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>420</v>
-      </c>
-      <c r="F105" s="108"/>
-      <c r="G105" s="108"/>
+        <v>388</v>
+      </c>
+      <c r="F105" s="122"/>
+      <c r="G105" s="122"/>
       <c r="H105" s="61" t="s">
-        <v>506</v>
-      </c>
-      <c r="I105" s="69"/>
+        <v>465</v>
+      </c>
+      <c r="I105" s="68"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
@@ -6343,21 +6434,21 @@
       <c r="Z105" s="8"/>
     </row>
     <row r="106" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="98"/>
-      <c r="B106" s="89" t="s">
-        <v>391</v>
-      </c>
-      <c r="C106" s="89" t="s">
-        <v>392</v>
+      <c r="A106" s="135"/>
+      <c r="B106" s="88" t="s">
+        <v>362</v>
+      </c>
+      <c r="C106" s="88" t="s">
+        <v>363</v>
       </c>
       <c r="D106" s="56" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="E106" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="F106" s="108"/>
-      <c r="G106" s="108"/>
+        <v>414</v>
+      </c>
+      <c r="F106" s="122"/>
+      <c r="G106" s="122"/>
       <c r="H106" s="57"/>
       <c r="I106" s="63"/>
       <c r="J106" s="7"/>
@@ -6379,23 +6470,23 @@
       <c r="Z106" s="8"/>
     </row>
     <row r="107" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="98"/>
-      <c r="B107" s="89" t="s">
-        <v>239</v>
-      </c>
-      <c r="C107" s="89" t="s">
-        <v>234</v>
+      <c r="A107" s="135"/>
+      <c r="B107" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="96" t="s">
+        <v>518</v>
       </c>
       <c r="D107" s="56" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="F107" s="108"/>
-      <c r="G107" s="108"/>
+        <v>212</v>
+      </c>
+      <c r="F107" s="122"/>
+      <c r="G107" s="122"/>
       <c r="H107" s="61" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="I107" s="63"/>
       <c r="J107" s="7"/>
@@ -6417,23 +6508,20 @@
       <c r="Z107" s="8"/>
     </row>
     <row r="108" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="98"/>
-      <c r="B108" s="91" t="s">
-        <v>461</v>
-      </c>
-      <c r="C108" s="92" t="s">
-        <v>472</v>
+      <c r="A108" s="135"/>
+      <c r="B108" s="90" t="s">
+        <v>429</v>
+      </c>
+      <c r="C108" s="94" t="s">
+        <v>499</v>
       </c>
       <c r="D108" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="E108" s="56" t="s">
-        <v>481</v>
-      </c>
-      <c r="F108" s="108"/>
-      <c r="G108" s="108"/>
+        <v>213</v>
+      </c>
+      <c r="F108" s="122"/>
+      <c r="G108" s="122"/>
       <c r="H108" s="61" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="I108" s="63"/>
       <c r="J108" s="7"/>
@@ -6455,21 +6543,21 @@
       <c r="Z108" s="8"/>
     </row>
     <row r="109" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="118"/>
-      <c r="B109" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="C109" s="93"/>
+      <c r="A109" s="136"/>
+      <c r="B109" s="88" t="s">
+        <v>441</v>
+      </c>
+      <c r="C109" s="91"/>
       <c r="D109" s="60" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="F109" s="108"/>
-      <c r="G109" s="108"/>
+        <v>216</v>
+      </c>
+      <c r="F109" s="122"/>
+      <c r="G109" s="122"/>
       <c r="H109" s="61" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="I109" s="63"/>
       <c r="J109" s="7"/>
@@ -6491,23 +6579,23 @@
       <c r="Z109" s="8"/>
     </row>
     <row r="110" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="98"/>
-      <c r="B110" s="135" t="s">
-        <v>409</v>
-      </c>
-      <c r="C110" s="136"/>
+      <c r="A110" s="135"/>
+      <c r="B110" s="125" t="s">
+        <v>377</v>
+      </c>
+      <c r="C110" s="126"/>
       <c r="D110" s="56" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="E110" s="56" t="s">
-        <v>434</v>
-      </c>
-      <c r="F110" s="108"/>
-      <c r="G110" s="108"/>
-      <c r="H110" s="110" t="s">
-        <v>457</v>
-      </c>
-      <c r="I110" s="101"/>
+        <v>402</v>
+      </c>
+      <c r="F110" s="122"/>
+      <c r="G110" s="122"/>
+      <c r="H110" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="I110" s="114"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -6527,23 +6615,23 @@
       <c r="Z110" s="8"/>
     </row>
     <row r="111" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="98"/>
-      <c r="B111" s="102" t="s">
-        <v>526</v>
-      </c>
-      <c r="C111" s="103"/>
-      <c r="D111" s="87" t="s">
-        <v>504</v>
+      <c r="A111" s="135"/>
+      <c r="B111" s="116" t="s">
+        <v>484</v>
+      </c>
+      <c r="C111" s="117"/>
+      <c r="D111" s="86" t="s">
+        <v>463</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>426</v>
-      </c>
-      <c r="F111" s="108"/>
-      <c r="G111" s="108"/>
-      <c r="H111" s="110" t="s">
-        <v>493</v>
-      </c>
-      <c r="I111" s="101"/>
+        <v>394</v>
+      </c>
+      <c r="F111" s="122"/>
+      <c r="G111" s="122"/>
+      <c r="H111" s="113" t="s">
+        <v>452</v>
+      </c>
+      <c r="I111" s="114"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
@@ -6563,21 +6651,21 @@
       <c r="Z111" s="8"/>
     </row>
     <row r="112" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="98"/>
-      <c r="B112" s="138"/>
-      <c r="C112" s="139"/>
+      <c r="A112" s="135"/>
+      <c r="B112" s="119"/>
+      <c r="C112" s="120"/>
       <c r="D112" s="56" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="E112" s="56" t="s">
-        <v>441</v>
-      </c>
-      <c r="F112" s="108"/>
-      <c r="G112" s="108"/>
-      <c r="H112" s="110" t="s">
-        <v>516</v>
-      </c>
-      <c r="I112" s="101"/>
+        <v>409</v>
+      </c>
+      <c r="F112" s="122"/>
+      <c r="G112" s="122"/>
+      <c r="H112" s="113" t="s">
+        <v>474</v>
+      </c>
+      <c r="I112" s="114"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
@@ -6597,21 +6685,21 @@
       <c r="Z112" s="8"/>
     </row>
     <row r="113" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="98"/>
-      <c r="B113" s="100" t="s">
-        <v>375</v>
-      </c>
-      <c r="C113" s="101"/>
+      <c r="A113" s="135"/>
+      <c r="B113" s="115" t="s">
+        <v>346</v>
+      </c>
+      <c r="C113" s="114"/>
       <c r="D113" s="56" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F113" s="108"/>
-      <c r="G113" s="108"/>
-      <c r="H113" s="100"/>
-      <c r="I113" s="101"/>
+        <v>454</v>
+      </c>
+      <c r="F113" s="122"/>
+      <c r="G113" s="122"/>
+      <c r="H113" s="115"/>
+      <c r="I113" s="114"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
@@ -6631,21 +6719,21 @@
       <c r="Z113" s="8"/>
     </row>
     <row r="114" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="98"/>
-      <c r="B114" s="100"/>
-      <c r="C114" s="101"/>
+      <c r="A114" s="135"/>
+      <c r="B114" s="115"/>
+      <c r="C114" s="114"/>
       <c r="D114" s="56" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="E114" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="F114" s="108"/>
-      <c r="G114" s="108"/>
-      <c r="H114" s="102" t="s">
-        <v>522</v>
-      </c>
-      <c r="I114" s="103"/>
+        <v>221</v>
+      </c>
+      <c r="F114" s="122"/>
+      <c r="G114" s="122"/>
+      <c r="H114" s="116" t="s">
+        <v>480</v>
+      </c>
+      <c r="I114" s="117"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
@@ -6665,19 +6753,19 @@
       <c r="Z114" s="8"/>
     </row>
     <row r="115" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="98"/>
-      <c r="B115" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" s="101"/>
-      <c r="D115" s="83"/>
+      <c r="A115" s="135"/>
+      <c r="B115" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" s="114"/>
+      <c r="D115" s="82"/>
       <c r="E115" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="F115" s="108"/>
-      <c r="G115" s="108"/>
-      <c r="H115" s="100"/>
-      <c r="I115" s="101"/>
+        <v>223</v>
+      </c>
+      <c r="F115" s="122"/>
+      <c r="G115" s="122"/>
+      <c r="H115" s="115"/>
+      <c r="I115" s="114"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="7"/>
@@ -6697,19 +6785,19 @@
       <c r="Z115" s="8"/>
     </row>
     <row r="116" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="98"/>
-      <c r="B116" s="100" t="s">
-        <v>252</v>
-      </c>
-      <c r="C116" s="101"/>
-      <c r="D116" s="79"/>
+      <c r="A116" s="135"/>
+      <c r="B116" s="115" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" s="114"/>
+      <c r="D116" s="78"/>
       <c r="E116" s="63"/>
-      <c r="F116" s="108"/>
-      <c r="G116" s="108"/>
-      <c r="H116" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="I116" s="101"/>
+      <c r="F116" s="122"/>
+      <c r="G116" s="122"/>
+      <c r="H116" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="I116" s="114"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="7"/>
@@ -6729,17 +6817,17 @@
       <c r="Z116" s="8"/>
     </row>
     <row r="117" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="98"/>
-      <c r="B117" s="100" t="s">
-        <v>253</v>
-      </c>
-      <c r="C117" s="101"/>
+      <c r="A117" s="135"/>
+      <c r="B117" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="114"/>
       <c r="D117" s="63"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="108"/>
-      <c r="G117" s="108"/>
-      <c r="H117" s="100"/>
-      <c r="I117" s="101"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="122"/>
+      <c r="G117" s="122"/>
+      <c r="H117" s="115"/>
+      <c r="I117" s="114"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="7"/>
@@ -6759,17 +6847,17 @@
       <c r="Z117" s="8"/>
     </row>
     <row r="118" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="98"/>
-      <c r="B118" s="105"/>
-      <c r="C118" s="101"/>
+      <c r="A118" s="135"/>
+      <c r="B118" s="118"/>
+      <c r="C118" s="114"/>
       <c r="D118" s="63"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="108"/>
-      <c r="G118" s="108"/>
-      <c r="H118" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="I118" s="101"/>
+      <c r="E118" s="68"/>
+      <c r="F118" s="122"/>
+      <c r="G118" s="122"/>
+      <c r="H118" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="I118" s="114"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="7"/>
@@ -6789,18 +6877,18 @@
       <c r="Z118" s="8"/>
     </row>
     <row r="119" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="98"/>
-      <c r="C119" s="110" t="s">
-        <v>492</v>
-      </c>
-      <c r="D119" s="101"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="108"/>
-      <c r="G119" s="109"/>
-      <c r="H119" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="I119" s="101"/>
+      <c r="A119" s="135"/>
+      <c r="C119" s="113" t="s">
+        <v>451</v>
+      </c>
+      <c r="D119" s="114"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="122"/>
+      <c r="G119" s="123"/>
+      <c r="H119" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="I119" s="114"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
@@ -6820,17 +6908,17 @@
       <c r="Z119" s="8"/>
     </row>
     <row r="120" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="99"/>
-      <c r="B120" s="69"/>
-      <c r="C120" s="100"/>
-      <c r="D120" s="101"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="109"/>
-      <c r="G120" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="H120" s="137"/>
-      <c r="I120" s="71"/>
+      <c r="A120" s="137"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="115"/>
+      <c r="D120" s="114"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="123"/>
+      <c r="G120" s="115" t="s">
+        <v>228</v>
+      </c>
+      <c r="H120" s="128"/>
+      <c r="I120" s="70"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
@@ -6854,10 +6942,10 @@
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
-      <c r="E121" s="104" t="s">
-        <v>518</v>
-      </c>
-      <c r="F121" s="120"/>
+      <c r="E121" s="149" t="s">
+        <v>476</v>
+      </c>
+      <c r="F121" s="150"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
       <c r="I121" s="11"/>
@@ -6908,19 +6996,22 @@
       <c r="Z122" s="44"/>
     </row>
     <row r="123" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="97" t="s">
-        <v>257</v>
+      <c r="A123" s="134" t="s">
+        <v>229</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F123" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" s="56" t="s">
+        <v>528</v>
+      </c>
+      <c r="D123" s="92" t="s">
+        <v>500</v>
+      </c>
+      <c r="E123" s="92" t="s">
+        <v>501</v>
+      </c>
+      <c r="F123" s="147" t="s">
         <v>13</v>
       </c>
       <c r="G123" s="11"/>
@@ -6945,17 +7036,17 @@
       <c r="Z123" s="8"/>
     </row>
     <row r="124" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="98"/>
+      <c r="A124" s="135"/>
       <c r="B124" s="56" t="s">
+        <v>477</v>
+      </c>
+      <c r="C124" s="100" t="s">
         <v>519</v>
       </c>
-      <c r="C124" s="42" t="s">
-        <v>227</v>
-      </c>
       <c r="E124" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="F124" s="98"/>
+        <v>231</v>
+      </c>
+      <c r="F124" s="135"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
       <c r="I124" s="16"/>
@@ -6978,14 +7069,14 @@
       <c r="Z124" s="8"/>
     </row>
     <row r="125" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="98"/>
-      <c r="B125" s="69"/>
+      <c r="A125" s="135"/>
+      <c r="B125" s="68"/>
       <c r="C125" s="57"/>
       <c r="D125" s="56" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="E125" s="57"/>
-      <c r="F125" s="98"/>
+      <c r="F125" s="135"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
       <c r="I125" s="16"/>
@@ -7008,16 +7099,16 @@
       <c r="Z125" s="8"/>
     </row>
     <row r="126" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="98"/>
-      <c r="B126" s="69" t="s">
-        <v>435</v>
-      </c>
-      <c r="C126" s="56" t="s">
-        <v>234</v>
+      <c r="A126" s="135"/>
+      <c r="B126" s="68" t="s">
+        <v>403</v>
+      </c>
+      <c r="C126" s="96" t="s">
+        <v>518</v>
       </c>
       <c r="D126" s="57"/>
       <c r="E126" s="63"/>
-      <c r="F126" s="98"/>
+      <c r="F126" s="135"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
       <c r="I126" s="15"/>
@@ -7040,16 +7131,16 @@
       <c r="Z126" s="8"/>
     </row>
     <row r="127" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="98"/>
-      <c r="B127" s="69"/>
-      <c r="C127" s="56" t="s">
-        <v>237</v>
+      <c r="A127" s="135"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="105" t="s">
+        <v>209</v>
       </c>
       <c r="D127" s="58" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E127" s="63"/>
-      <c r="F127" s="98"/>
+      <c r="F127" s="135"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
       <c r="I127" s="15"/>
@@ -7072,12 +7163,12 @@
       <c r="Z127" s="8"/>
     </row>
     <row r="128" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="98"/>
-      <c r="B128" s="69"/>
+      <c r="A128" s="135"/>
+      <c r="B128" s="68"/>
       <c r="C128" s="57"/>
       <c r="D128" s="62"/>
-      <c r="E128" s="66"/>
-      <c r="F128" s="98"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="135"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11"/>
@@ -7100,14 +7191,14 @@
       <c r="Z128" s="8"/>
     </row>
     <row r="129" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="98"/>
+      <c r="A129" s="135"/>
       <c r="B129" s="56"/>
-      <c r="C129" s="81" t="s">
-        <v>263</v>
+      <c r="C129" s="80" t="s">
+        <v>234</v>
       </c>
       <c r="D129" s="62"/>
-      <c r="E129" s="84"/>
-      <c r="F129" s="98"/>
+      <c r="E129" s="83"/>
+      <c r="F129" s="135"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
       <c r="I129" s="11"/>
@@ -7130,16 +7221,16 @@
       <c r="Z129" s="8"/>
     </row>
     <row r="130" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="98"/>
-      <c r="B130" s="100" t="s">
-        <v>410</v>
-      </c>
-      <c r="C130" s="101"/>
-      <c r="D130" s="119" t="s">
-        <v>494</v>
-      </c>
-      <c r="E130" s="101"/>
-      <c r="F130" s="98"/>
+      <c r="A130" s="135"/>
+      <c r="B130" s="115" t="s">
+        <v>378</v>
+      </c>
+      <c r="C130" s="114"/>
+      <c r="D130" s="148" t="s">
+        <v>453</v>
+      </c>
+      <c r="E130" s="114"/>
+      <c r="F130" s="135"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="11"/>
@@ -7162,12 +7253,12 @@
       <c r="Z130" s="8"/>
     </row>
     <row r="131" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="98"/>
-      <c r="B131" s="100"/>
-      <c r="C131" s="101"/>
-      <c r="D131" s="100"/>
-      <c r="E131" s="101"/>
-      <c r="F131" s="98"/>
+      <c r="A131" s="135"/>
+      <c r="B131" s="115"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="115"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="135"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
       <c r="I131" s="11"/>
@@ -7190,16 +7281,16 @@
       <c r="Z131" s="8"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="98"/>
-      <c r="B132" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="C132" s="101"/>
-      <c r="D132" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="E132" s="101"/>
-      <c r="F132" s="98"/>
+      <c r="A132" s="135"/>
+      <c r="B132" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C132" s="114"/>
+      <c r="D132" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="E132" s="114"/>
+      <c r="F132" s="135"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
@@ -7222,16 +7313,16 @@
       <c r="Z132" s="8"/>
     </row>
     <row r="133" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="98"/>
-      <c r="B133" s="100" t="s">
-        <v>267</v>
-      </c>
-      <c r="C133" s="101"/>
-      <c r="D133" s="100" t="s">
-        <v>393</v>
-      </c>
-      <c r="E133" s="101"/>
-      <c r="F133" s="98"/>
+      <c r="A133" s="135"/>
+      <c r="B133" s="115" t="s">
+        <v>238</v>
+      </c>
+      <c r="C133" s="114"/>
+      <c r="D133" s="115" t="s">
+        <v>364</v>
+      </c>
+      <c r="E133" s="114"/>
+      <c r="F133" s="135"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7254,16 +7345,16 @@
       <c r="Z133" s="8"/>
     </row>
     <row r="134" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="98"/>
-      <c r="B134" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="C134" s="101"/>
-      <c r="D134" s="100" t="s">
-        <v>269</v>
-      </c>
-      <c r="E134" s="101"/>
-      <c r="F134" s="99"/>
+      <c r="A134" s="135"/>
+      <c r="B134" s="115" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" s="114"/>
+      <c r="D134" s="115" t="s">
+        <v>240</v>
+      </c>
+      <c r="E134" s="114"/>
+      <c r="F134" s="137"/>
       <c r="G134" s="15"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
@@ -7286,13 +7377,13 @@
       <c r="Z134" s="8"/>
     </row>
     <row r="135" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="98"/>
-      <c r="B135" s="100" t="s">
-        <v>498</v>
-      </c>
-      <c r="C135" s="101"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="70"/>
+      <c r="A135" s="135"/>
+      <c r="B135" s="115" t="s">
+        <v>457</v>
+      </c>
+      <c r="C135" s="114"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="69"/>
       <c r="F135" s="10"/>
       <c r="G135" s="15"/>
       <c r="H135" s="11"/>
@@ -7316,9 +7407,9 @@
       <c r="Z135" s="8"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="99"/>
-      <c r="B136" s="110"/>
-      <c r="C136" s="115"/>
+      <c r="A136" s="137"/>
+      <c r="B136" s="113"/>
+      <c r="C136" s="127"/>
       <c r="D136" s="11"/>
       <c r="E136" s="15"/>
       <c r="F136" s="13"/>
@@ -7344,15 +7435,15 @@
       <c r="Z136" s="8"/>
     </row>
     <row r="137" spans="1:26" s="45" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="112"/>
-      <c r="B137" s="113"/>
-      <c r="C137" s="113"/>
-      <c r="D137" s="113"/>
-      <c r="E137" s="113"/>
-      <c r="F137" s="113"/>
-      <c r="G137" s="113"/>
-      <c r="H137" s="113"/>
-      <c r="I137" s="114"/>
+      <c r="A137" s="151"/>
+      <c r="B137" s="152"/>
+      <c r="C137" s="152"/>
+      <c r="D137" s="152"/>
+      <c r="E137" s="152"/>
+      <c r="F137" s="152"/>
+      <c r="G137" s="152"/>
+      <c r="H137" s="152"/>
+      <c r="I137" s="153"/>
       <c r="J137" s="44"/>
       <c r="K137" s="43"/>
       <c r="L137" s="43"/>
@@ -7374,24 +7465,24 @@
     <row r="138" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
       <c r="B138" s="18" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="E138" s="18"/>
       <c r="F138" s="19"/>
       <c r="G138" s="18" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="I138" s="18" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -7442,24 +7533,24 @@
     <row r="140" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="24"/>
       <c r="B140" s="25" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="E140" s="26"/>
       <c r="F140" s="27"/>
       <c r="G140" s="25" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="H140" s="25" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="I140" s="22" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="J140" s="28"/>
       <c r="K140" s="28"/>
@@ -7482,24 +7573,24 @@
     <row r="141" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="24"/>
       <c r="B141" s="25" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="E141" s="25"/>
       <c r="F141" s="27"/>
       <c r="G141" s="25" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="H141" s="25" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="I141" s="22" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="J141" s="28"/>
       <c r="K141" s="28"/>
@@ -7522,24 +7613,24 @@
     <row r="142" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="24"/>
       <c r="B142" s="25" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E142" s="25"/>
       <c r="F142" s="27"/>
       <c r="G142" s="25" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="H142" s="25" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="I142" s="22" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="J142" s="28"/>
       <c r="K142" s="28"/>
@@ -7562,24 +7653,24 @@
     <row r="143" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="24"/>
       <c r="B143" s="25" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="E143" s="25"/>
       <c r="F143" s="27"/>
       <c r="G143" s="25" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="H143" s="25" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="I143" s="22" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="J143" s="28"/>
       <c r="K143" s="28"/>
@@ -7602,24 +7693,24 @@
     <row r="144" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="24"/>
       <c r="B144" s="25" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="E144" s="25"/>
       <c r="F144" s="27"/>
       <c r="G144" s="25" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="H144" s="25" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="I144" s="22" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="J144" s="28"/>
       <c r="K144" s="28"/>
@@ -7642,24 +7733,24 @@
     <row r="145" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24"/>
       <c r="B145" s="25" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="E145" s="25"/>
       <c r="F145" s="27"/>
       <c r="G145" s="25" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="H145" s="25" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="I145" s="22" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="J145" s="28"/>
       <c r="K145" s="28"/>
@@ -7682,24 +7773,24 @@
     <row r="146" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="24"/>
       <c r="B146" s="25" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="E146" s="25"/>
       <c r="F146" s="27"/>
       <c r="G146" s="25" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="H146" s="25" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="I146" s="22" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="J146" s="28"/>
       <c r="K146" s="28"/>
@@ -7722,24 +7813,24 @@
     <row r="147" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="24"/>
       <c r="B147" s="25" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="E147" s="25"/>
       <c r="F147" s="27"/>
       <c r="G147" s="25" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="H147" s="25" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="I147" s="22" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="J147" s="28"/>
       <c r="K147" s="28"/>
@@ -7762,24 +7853,24 @@
     <row r="148" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="24"/>
       <c r="B148" s="25" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="E148" s="25"/>
       <c r="F148" s="27"/>
-      <c r="G148" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>323</v>
+      <c r="G148" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="H148" s="101" t="s">
+        <v>294</v>
       </c>
       <c r="I148" s="22" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="J148" s="28"/>
       <c r="K148" s="28"/>
@@ -7802,24 +7893,24 @@
     <row r="149" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20"/>
       <c r="B149" s="25" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="E149" s="25"/>
       <c r="F149" s="23"/>
-      <c r="G149" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="H149" s="25" t="s">
-        <v>329</v>
+      <c r="G149" s="104" t="s">
+        <v>299</v>
+      </c>
+      <c r="H149" s="104" t="s">
+        <v>300</v>
       </c>
       <c r="I149" s="22" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
@@ -7842,24 +7933,24 @@
     <row r="150" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20"/>
       <c r="B150" s="25" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="E150" s="25"/>
       <c r="F150" s="23"/>
-      <c r="G150" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>335</v>
+      <c r="G150" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="H150" s="108" t="s">
+        <v>306</v>
       </c>
       <c r="I150" s="22" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
@@ -7882,24 +7973,24 @@
     <row r="151" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20"/>
       <c r="B151" s="25" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="E151" s="25"/>
       <c r="F151" s="23"/>
-      <c r="G151" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="H151" s="25" t="s">
-        <v>341</v>
+      <c r="G151" s="95" t="s">
+        <v>311</v>
+      </c>
+      <c r="H151" s="95" t="s">
+        <v>312</v>
       </c>
       <c r="I151" s="22" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
@@ -7922,24 +8013,24 @@
     <row r="152" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="20"/>
       <c r="B152" s="25" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="E152" s="25"/>
       <c r="F152" s="23"/>
-      <c r="G152" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="H152" s="25" t="s">
-        <v>347</v>
+      <c r="G152" s="111" t="s">
+        <v>317</v>
+      </c>
+      <c r="H152" s="111" t="s">
+        <v>318</v>
       </c>
       <c r="I152" s="22" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
@@ -7962,13 +8053,13 @@
     <row r="153" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="20"/>
       <c r="B153" s="25" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="E153" s="25"/>
       <c r="F153" s="23"/>
@@ -7996,13 +8087,13 @@
     <row r="154" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20"/>
       <c r="B154" s="25" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="E154" s="25"/>
       <c r="F154" s="23"/>
@@ -8030,13 +8121,13 @@
     <row r="155" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20"/>
       <c r="B155" s="25" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="E155" s="25"/>
       <c r="F155" s="23"/>
@@ -8064,13 +8155,13 @@
     <row r="156" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20"/>
       <c r="B156" s="25" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="E156" s="25"/>
       <c r="F156" s="23"/>
@@ -8098,13 +8189,13 @@
     <row r="157" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="20"/>
       <c r="B157" s="38" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="C157" s="38" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="23"/>
@@ -31735,23 +31826,96 @@
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="F28:F50"/>
+    <mergeCell ref="A28:A47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:A75"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A77:A98"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="F52:F75"/>
+    <mergeCell ref="F77:F98"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="A100:A120"/>
+    <mergeCell ref="A123:A136"/>
+    <mergeCell ref="F123:F134"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="F3:F26"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="F100:F120"/>
@@ -31776,96 +31940,23 @@
     <mergeCell ref="G120:H120"/>
     <mergeCell ref="H110:I110"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="F3:F26"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A100:A120"/>
-    <mergeCell ref="A123:A136"/>
-    <mergeCell ref="F123:F134"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="F52:F75"/>
-    <mergeCell ref="F77:F98"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A77:A98"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="F28:F50"/>
-    <mergeCell ref="A28:A47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A52:A75"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.35433070866141736" top="0.74803149606299213" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
